--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A43973F-1000-4858-8F07-D69EBA552754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AAB650-0121-48C5-8FD9-EA134A472391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,6 +61,10 @@
   </si>
   <si>
     <t>MaxPlayerLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeSecToGetOneSpin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -488,6 +492,14 @@
         <v>{"MaxPlayerLevel":15}</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>576</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AAB650-0121-48C5-8FD9-EA134A472391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA6432C-0908-447E-9129-C4A30B89484C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,6 +66,16 @@
   <si>
     <t>TimeSecToGetOneSpin</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubLevelFightValueLine1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubLevelFightValueLine2</t>
+  </si>
+  <si>
+    <t>SubLevelFightValueLine3</t>
   </si>
 </sst>
 </file>
@@ -440,7 +450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -500,6 +510,30 @@
         <v>576</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA6432C-0908-447E-9129-C4A30B89484C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA58460-8C5C-40EE-B58B-5CB87CC438A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,10 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>서버 타이틀 데이터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MaxPlayerLevel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -76,6 +72,38 @@
   </si>
   <si>
     <t>SubLevelFightValueLine3</t>
+  </si>
+  <si>
+    <t>Bet3Diamonds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bet3Spins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bet3Tickets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bet1Event</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bet2Events</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bet3Events</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 레벨 맥스. 서버 타이틀 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxStage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -450,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -483,55 +511,138 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D2">
         <v>15</v>
       </c>
       <c r="F2" t="str">
         <f>"{"""&amp;
-A2&amp;""":"&amp;VLOOKUP($A$2,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;IF(1,"",",""")&amp;
-IF(1,"",A49&amp;""":"&amp;VLOOKUP($A$49,$A:$D,MATCH($D$1,$A$1:$D$1,0),0))
+A2&amp;""":"&amp;VLOOKUP(A2,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A3&amp;""":"&amp;VLOOKUP(A3,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A8&amp;""":"&amp;VLOOKUP(A8,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A9&amp;""":"&amp;VLOOKUP(A9,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A10&amp;""":"&amp;VLOOKUP(A10,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A11&amp;""":"&amp;VLOOKUP(A11,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A12&amp;""":"&amp;VLOOKUP(A12,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A13&amp;""":"&amp;VLOOKUP(A13,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
-        <v>{"MaxPlayerLevel":15}</v>
+        <v>{"MaxPlayerLevel":15,"MaxStage":25,"Bet3Diamonds":10,"Bet3Spins":10,"Bet3Tickets":1,"Bet1Event":1,"Bet2Events":2,"Bet3Events":10}</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>576</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>576</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6">
-        <v>16</v>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA58460-8C5C-40EE-B58B-5CB87CC438A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACD8C5D-E361-46F4-959C-4E85ADC30EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,18 @@
   </si>
   <si>
     <t>MaxStage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldBoxTurnMin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldBoxTurnMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FirstGoldBox</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -531,9 +543,10 @@
 A10&amp;""":"&amp;VLOOKUP(A10,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A11&amp;""":"&amp;VLOOKUP(A11,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A12&amp;""":"&amp;VLOOKUP(A12,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A13&amp;""":"&amp;VLOOKUP(A13,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
+A13&amp;""":"&amp;VLOOKUP(A13,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A16&amp;""":"&amp;VLOOKUP(A16,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
-        <v>{"MaxPlayerLevel":15,"MaxStage":25,"Bet3Diamonds":10,"Bet3Spins":10,"Bet3Tickets":1,"Bet1Event":1,"Bet2Events":2,"Bet3Events":10}</v>
+        <v>{"MaxPlayerLevel":15,"MaxStage":25,"Bet3Diamonds":10,"Bet3Spins":10,"Bet3Tickets":1,"Bet1Event":1,"Bet2Events":2,"Bet3Events":10,"FirstGoldBox":2000}</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -643,6 +656,30 @@
       </c>
       <c r="D13">
         <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACD8C5D-E361-46F4-959C-4E85ADC30EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04DCD2F-F73D-4762-AF7D-B100831A9626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +115,10 @@
   </si>
   <si>
     <t>FirstGoldBox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FirstGoldBoxTurn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -544,9 +548,10 @@
 A11&amp;""":"&amp;VLOOKUP(A11,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A12&amp;""":"&amp;VLOOKUP(A12,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A13&amp;""":"&amp;VLOOKUP(A13,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A16&amp;""":"&amp;VLOOKUP(A16,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
+A16&amp;""":"&amp;VLOOKUP(A16,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A17&amp;""":"&amp;VLOOKUP(A17,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
-        <v>{"MaxPlayerLevel":15,"MaxStage":25,"Bet3Diamonds":10,"Bet3Spins":10,"Bet3Tickets":1,"Bet1Event":1,"Bet2Events":2,"Bet3Events":10,"FirstGoldBox":2000}</v>
+        <v>{"MaxPlayerLevel":15,"MaxStage":25,"Bet3Diamonds":10,"Bet3Spins":10,"Bet3Tickets":1,"Bet1Event":1,"Bet2Events":2,"Bet3Events":10,"FirstGoldBox":2000,"FirstGoldBoxTurn":100}</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -680,6 +685,14 @@
       </c>
       <c r="D16">
         <v>2000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04DCD2F-F73D-4762-AF7D-B100831A9626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF6DE53-0C48-4346-B95A-F9FB3AA4C889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,10 +115,6 @@
   </si>
   <si>
     <t>FirstGoldBox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FirstGoldBoxTurn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -548,10 +544,9 @@
 A11&amp;""":"&amp;VLOOKUP(A11,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A12&amp;""":"&amp;VLOOKUP(A12,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A13&amp;""":"&amp;VLOOKUP(A13,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A16&amp;""":"&amp;VLOOKUP(A16,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A17&amp;""":"&amp;VLOOKUP(A17,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
+A16&amp;""":"&amp;VLOOKUP(A16,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
-        <v>{"MaxPlayerLevel":15,"MaxStage":25,"Bet3Diamonds":10,"Bet3Spins":10,"Bet3Tickets":1,"Bet1Event":1,"Bet2Events":2,"Bet3Events":10,"FirstGoldBox":2000,"FirstGoldBoxTurn":100}</v>
+        <v>{"MaxPlayerLevel":15,"MaxStage":25,"Bet3Diamonds":10,"Bet3Spins":10,"Bet3Tickets":1,"Bet1Event":1,"Bet2Events":2,"Bet3Events":10,"FirstGoldBox":2000}</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -685,14 +680,6 @@
       </c>
       <c r="D16">
         <v>2000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17">
-        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF6DE53-0C48-4346-B95A-F9FB3AA4C889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9F4780-6CBF-4BD4-97B9-04913EAA0D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +115,10 @@
   </si>
   <si>
     <t>FirstGoldBox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>staMx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,9 +496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -532,12 +534,11 @@
         <v>16</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="F2" t="str">
         <f>"{"""&amp;
 A2&amp;""":"&amp;VLOOKUP(A2,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A3&amp;""":"&amp;VLOOKUP(A3,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A8&amp;""":"&amp;VLOOKUP(A8,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A9&amp;""":"&amp;VLOOKUP(A9,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A10&amp;""":"&amp;VLOOKUP(A10,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
@@ -546,7 +547,7 @@
 A13&amp;""":"&amp;VLOOKUP(A13,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A16&amp;""":"&amp;VLOOKUP(A16,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
-        <v>{"MaxPlayerLevel":15,"MaxStage":25,"Bet3Diamonds":10,"Bet3Spins":10,"Bet3Tickets":1,"Bet1Event":1,"Bet2Events":2,"Bet3Events":10,"FirstGoldBox":2000}</v>
+        <v>{"MaxPlayerLevel":1000,"Bet3Diamonds":10,"Bet3Spins":10,"Bet3Tickets":1,"Bet1Event":1,"Bet2Events":2,"Bet3Events":10,"FirstGoldBox":2000}</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -554,10 +555,10 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -573,7 +574,7 @@
         <v>7</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -581,7 +582,7 @@
         <v>8</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -589,7 +590,7 @@
         <v>9</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9F4780-6CBF-4BD4-97B9-04913EAA0D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E060D61-BD9C-44A0-8741-017F26F08F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +119,14 @@
   </si>
   <si>
     <t>staMx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxAnalysisLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anlMax</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -126,7 +134,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +155,14 @@
       <color rgb="FF0070C0"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -173,11 +189,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -494,9 +513,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -683,8 +704,20 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E060D61-BD9C-44A0-8741-017F26F08F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963F7CCA-7EE6-4895-A91D-6A495C68CBA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,6 +127,10 @@
   </si>
   <si>
     <t>anlMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxGuideQuestId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -715,6 +719,14 @@
         <v>110</v>
       </c>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963F7CCA-7EE6-4895-A91D-6A495C68CBA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE072BC-7BF9-4093-B339-21137139221B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -60,10 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TimeSecToGetOneSpin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SubLevelFightValueLine1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,6 +127,10 @@
   </si>
   <si>
     <t>MaxGuideQuestId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeSecToGetOneEnergy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,7 +520,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -556,7 +556,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>1000</v>
@@ -577,10 +577,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>400</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>576</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -631,7 +631,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -642,7 +642,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -664,7 +664,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -694,7 +694,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15">
         <v>50</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16">
         <v>2000</v>
@@ -710,10 +710,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
         <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
       </c>
       <c r="D17">
         <v>110</v>
@@ -721,7 +721,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18">
         <v>20</v>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE072BC-7BF9-4093-B339-21137139221B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DE509F-E454-40E9-8424-A9DC54A2DFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -70,30 +70,6 @@
     <t>SubLevelFightValueLine3</t>
   </si>
   <si>
-    <t>Bet3Diamonds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bet3Spins</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bet3Tickets</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bet1Event</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bet2Events</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bet3Events</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>플레이어 레벨 맥스. 서버 타이틀 데이터</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,6 +107,30 @@
   </si>
   <si>
     <t>TimeSecToGetOneEnergy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GachaEnergy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gacha1Event</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gacha2Events</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gacha3Events</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gacha1BrokenEnergy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gacha2BrokenEnergys</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,7 +520,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -556,7 +556,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>1000</v>
@@ -572,15 +572,15 @@
 A13&amp;""":"&amp;VLOOKUP(A13,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A16&amp;""":"&amp;VLOOKUP(A16,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
-        <v>{"MaxPlayerLevel":1000,"Bet3Diamonds":10,"Bet3Spins":10,"Bet3Tickets":1,"Bet1Event":1,"Bet2Events":2,"Bet3Events":10,"FirstGoldBox":2000}</v>
+        <v>{"MaxPlayerLevel":1000,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":10,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"FirstGoldBox":2000}</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>400</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>576</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -631,62 +631,62 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -694,7 +694,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D15">
         <v>50</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D16">
         <v>2000</v>
@@ -710,10 +710,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D17">
         <v>110</v>
@@ -721,7 +721,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D18">
         <v>20</v>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DE509F-E454-40E9-8424-A9DC54A2DFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCF85A1-88A5-4949-8748-393E10267351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="-25680" yWindow="1935" windowWidth="13515" windowHeight="14265" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -520,7 +520,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -559,7 +559,7 @@
         <v>9</v>
       </c>
       <c r="D2">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="F2" t="str">
         <f>"{"""&amp;
@@ -572,7 +572,7 @@
 A13&amp;""":"&amp;VLOOKUP(A13,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A16&amp;""":"&amp;VLOOKUP(A16,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
-        <v>{"MaxPlayerLevel":1000,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":10,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"FirstGoldBox":2000}</v>
+        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":10,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"FirstGoldBox":1000}</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -705,7 +705,7 @@
         <v>13</v>
       </c>
       <c r="D16">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCF85A1-88A5-4949-8748-393E10267351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833E5164-9770-4074-879F-95BDF81A51A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25680" yWindow="1935" windowWidth="13515" windowHeight="14265" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +131,10 @@
   </si>
   <si>
     <t>Gacha2BrokenEnergys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxBrokenEnergy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -517,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -727,6 +731,14 @@
         <v>20</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833E5164-9770-4074-879F-95BDF81A51A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3422D9C-DAA2-436D-95F8-59B9D808D63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="-14985" yWindow="825" windowWidth="13515" windowHeight="14265" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,6 +135,13 @@
   </si>
   <si>
     <t>MaxBrokenEnergy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Gacha3BrokenEnergys</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -574,9 +581,10 @@
 A11&amp;""":"&amp;VLOOKUP(A11,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A12&amp;""":"&amp;VLOOKUP(A12,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A13&amp;""":"&amp;VLOOKUP(A13,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A16&amp;""":"&amp;VLOOKUP(A16,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
+A14&amp;""":"&amp;VLOOKUP(A14,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A17&amp;""":"&amp;VLOOKUP(A17,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
-        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":10,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"FirstGoldBox":1000}</v>
+        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":9,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":1000}</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -663,7 +671,7 @@
         <v>4</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -689,53 +697,64 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>11</v>
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>16</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18">
-        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>2000</v>
       </c>
     </row>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3422D9C-DAA2-436D-95F8-59B9D808D63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BAAFDC-48E5-48F9-842E-6266F0152B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14985" yWindow="825" windowWidth="13515" windowHeight="14265" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>anlMax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MaxGuideQuestId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -142,6 +138,22 @@
   </si>
   <si>
     <t>Gacha3BrokenEnergys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxTotalSkillLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brkMx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anlMx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tSkMx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -600,7 +612,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <v>576</v>
@@ -632,7 +644,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -643,7 +655,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -654,7 +666,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -665,7 +677,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -676,7 +688,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -687,7 +699,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -698,10 +710,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -736,7 +748,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D18">
         <v>110</v>
@@ -744,18 +756,32 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>25</v>
+      <c r="A20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
       </c>
       <c r="D20">
         <v>2000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BAAFDC-48E5-48F9-842E-6266F0152B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7317A99-47A4-4BB7-A1AF-3B2F377FE84B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="7755" yWindow="435" windowWidth="18915" windowHeight="14805" activeTab="1" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
+    <sheet name="GlobalConstantStringTable" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,8 +34,184 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Hoohoo</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{9991A78E-6672-434D-A8A3-55B58EC5F7EF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>서버</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사이드용</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>일치하는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>변수가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>있어서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>반드시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>같이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수정해야</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>한다</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,10 +318,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MaxTotalSkillLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>brkMx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -153,7 +326,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tSkMx</t>
+    <t>MaxTotalSpellLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tSpMx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>￦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KoreaWon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotalSpellGachaStep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 3, 5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -161,7 +358,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +389,19 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -542,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -748,7 +958,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18">
         <v>110</v>
@@ -767,7 +977,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20">
         <v>2000</v>
@@ -775,13 +985,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
       </c>
       <c r="D21">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -789,4 +999,58 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0BF13DF-524D-4963-BA4B-8BE518E5FDEB}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="24.75" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7317A99-47A4-4BB7-A1AF-3B2F377FE84B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22ED4E3-8BEE-46CE-934F-34B1F48CC4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7755" yWindow="435" windowWidth="18915" windowHeight="14805" activeTab="1" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -752,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1005,7 +1005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0BF13DF-524D-4963-BA4B-8BE518E5FDEB}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22ED4E3-8BEE-46CE-934F-34B1F48CC4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F3DAFC-CA46-4CBD-B0E0-7E3FBB483134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -327,10 +327,6 @@
   </si>
   <si>
     <t>MaxTotalSpellLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tSpMx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -358,7 +354,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,6 +399,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -426,7 +429,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -434,6 +437,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -752,11 +758,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="24.75" customWidth="1"/>
     <col min="2" max="2" width="14.125" customWidth="1" outlineLevel="1"/>
@@ -764,7 +770,7 @@
     <col min="6" max="6" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="27" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -781,7 +787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -809,7 +815,7 @@
         <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":9,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":1000}</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -820,7 +826,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -828,7 +834,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -836,7 +842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -844,7 +850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -852,7 +858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -863,7 +869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -874,7 +880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -885,7 +891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -896,7 +902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -907,7 +913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -918,7 +924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -929,7 +935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -937,7 +943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -945,7 +951,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -953,7 +959,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -964,7 +970,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -972,7 +978,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -983,12 +989,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:4">
+      <c r="A21" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="B21" t="s">
-        <v>30</v>
       </c>
       <c r="D21">
         <v>10</v>
@@ -1009,7 +1012,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
     <col min="2" max="2" width="14.125" customWidth="1" outlineLevel="1"/>
@@ -1017,7 +1020,7 @@
     <col min="4" max="4" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="27" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1028,23 +1031,23 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
         <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F3DAFC-CA46-4CBD-B0E0-7E3FBB483134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2624E9-A546-4F9E-BCFD-A6D3DC710C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -759,7 +759,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -967,7 +967,7 @@
         <v>28</v>
       </c>
       <c r="D18">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19" spans="1:4">

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2624E9-A546-4F9E-BCFD-A6D3DC710C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9ED25F-0036-4F98-BC8E-07DEF02B47CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -347,6 +347,18 @@
   </si>
   <si>
     <t>1, 3, 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GachaActorCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GachaActorPowerPointMin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GachaActorPowerPointMax</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -756,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -995,6 +1007,30 @@
       </c>
       <c r="D21">
         <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9ED25F-0036-4F98-BC8E-07DEF02B47CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265356BB-809B-40B4-B08B-2A6F9F3ECD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -359,6 +359,10 @@
   </si>
   <si>
     <t>GachaActorPowerPointMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GachaActorMaxTrp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -768,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1014,7 +1018,7 @@
         <v>35</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1031,6 +1035,14 @@
       </c>
       <c r="D24">
         <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265356BB-809B-40B4-B08B-2A6F9F3ECD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716E8782-5E45-4E9E-B0AF-89B8927DA72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -774,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -828,7 +828,7 @@
 A14&amp;""":"&amp;VLOOKUP(A14,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A17&amp;""":"&amp;VLOOKUP(A17,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
-        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":9,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":1000}</v>
+        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":1000}</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -915,7 +915,7 @@
         <v>4</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6">

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716E8782-5E45-4E9E-B0AF-89B8927DA72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD8C47B-01E2-44A9-98D1-F7D2BDD77383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -775,7 +775,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -828,7 +828,7 @@
 A14&amp;""":"&amp;VLOOKUP(A14,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A17&amp;""":"&amp;VLOOKUP(A17,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
-        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":1000}</v>
+        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2000}</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -972,7 +972,7 @@
         <v>13</v>
       </c>
       <c r="D17">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="18" spans="1:4">

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD8C47B-01E2-44A9-98D1-F7D2BDD77383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE16E74-AA57-44E6-8605-B108948C1CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -363,6 +363,10 @@
   </si>
   <si>
     <t>GachaActorMaxTrp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxActorLevel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -370,7 +374,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,6 +426,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -445,7 +456,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -456,6 +467,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -772,18 +786,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="24.75" customWidth="1"/>
-    <col min="2" max="2" width="14.125" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="24.75" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="14.125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="24.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="9" collapsed="1"/>
+    <col min="6" max="6" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="9" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1">
@@ -819,14 +835,14 @@
       <c r="F2" t="str">
         <f>"{"""&amp;
 A2&amp;""":"&amp;VLOOKUP(A2,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A8&amp;""":"&amp;VLOOKUP(A8,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A9&amp;""":"&amp;VLOOKUP(A9,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A10&amp;""":"&amp;VLOOKUP(A10,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A11&amp;""":"&amp;VLOOKUP(A11,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A12&amp;""":"&amp;VLOOKUP(A12,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A13&amp;""":"&amp;VLOOKUP(A13,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A14&amp;""":"&amp;VLOOKUP(A14,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A17&amp;""":"&amp;VLOOKUP(A17,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
+A15&amp;""":"&amp;VLOOKUP(A15,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A18&amp;""":"&amp;VLOOKUP(A18,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
         <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2000}</v>
       </c>
@@ -843,205 +859,213 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>17</v>
+      <c r="A4" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>576</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>576</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>25</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>2000</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>28</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
         <v>16</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>27</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>2000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21">
-        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23">
-        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D24">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
         <v>38</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <v>5</v>
       </c>
     </row>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE16E74-AA57-44E6-8605-B108948C1CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DC496B-DC8C-4306-9F40-EC0D041BCC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -346,10 +346,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1, 3, 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GachaActorCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -368,6 +364,9 @@
   <si>
     <t>MaxActorLevel</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 5, 10, 20, 40, 70, 110, 160, 210, 270, 340, 420, 510, 600</t>
   </si>
 </sst>
 </file>
@@ -789,7 +788,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -860,7 +859,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4">
         <v>20</v>
@@ -1034,12 +1033,12 @@
         <v>29</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -1047,7 +1046,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -1055,7 +1054,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D25">
         <v>5</v>
@@ -1063,7 +1062,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26">
         <v>5</v>
@@ -1081,7 +1080,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1119,7 +1118,7 @@
         <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DC496B-DC8C-4306-9F40-EC0D041BCC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE8E0A5-614E-4FF1-828C-6CB1683328F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -787,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1041,7 +1041,7 @@
         <v>34</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1057,7 +1057,7 @@
         <v>36</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:4">

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE8E0A5-614E-4FF1-828C-6CB1683328F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0DF9D2-1386-4E96-980F-319E5D93AFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -785,20 +785,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="24.75" customWidth="1"/>
-    <col min="2" max="2" width="14.125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="24.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="9" collapsed="1"/>
-    <col min="6" max="6" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="9" collapsed="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="24.75" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1">
@@ -870,7 +868,8 @@
         <v>17</v>
       </c>
       <c r="D5">
-        <v>576</v>
+        <f>576/2</f>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:6">

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0DF9D2-1386-4E96-980F-319E5D93AFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5D84D9-F5B1-4ACB-A6F5-7F54B7922FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -367,6 +367,22 @@
   </si>
   <si>
     <t>1, 5, 10, 20, 40, 70, 110, 160, 210, 270, 340, 420, 510, 600</t>
+  </si>
+  <si>
+    <t>FastClearJumpStep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FastBossClearStartBase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FastBossClearEndBase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10으로 나눠서 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -785,18 +801,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="24.75" customWidth="1"/>
-    <col min="2" max="2" width="14.125" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="24.75" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="14.125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="24.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="9" collapsed="1"/>
+    <col min="6" max="6" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="9" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1">
@@ -839,9 +857,12 @@
 A13&amp;""":"&amp;VLOOKUP(A13,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A14&amp;""":"&amp;VLOOKUP(A14,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A15&amp;""":"&amp;VLOOKUP(A15,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A18&amp;""":"&amp;VLOOKUP(A18,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
+A18&amp;""":"&amp;VLOOKUP(A18,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A27&amp;""":"&amp;VLOOKUP(A27,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A28&amp;""":"&amp;VLOOKUP(A28,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A29&amp;""":"&amp;VLOOKUP(A29,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
-        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2000}</v>
+        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2000,"FastClearJumpStep":10,"FastBossClearStartBase":20,"FastBossClearEndBase":50}</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -993,6 +1014,9 @@
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
       <c r="D18">
         <v>2000</v>
       </c>
@@ -1065,6 +1089,45 @@
       </c>
       <c r="D26">
         <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5D84D9-F5B1-4ACB-A6F5-7F54B7922FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2515D9C6-4120-4FCE-9C0D-14E70189C76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -382,6 +382,10 @@
   </si>
   <si>
     <t>10으로 나눠서 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PetDailySearchCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -801,10 +805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -862,7 +866,7 @@
 A28&amp;""":"&amp;VLOOKUP(A28,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A29&amp;""":"&amp;VLOOKUP(A29,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
-        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2000,"FastClearJumpStep":10,"FastBossClearStartBase":20,"FastBossClearEndBase":50}</v>
+        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2000,"FastClearJumpStep":10,"FastBossClearStartBase":10,"FastBossClearEndBase":50}</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1113,7 +1117,7 @@
         <v>43</v>
       </c>
       <c r="D28">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1128,6 +1132,14 @@
       </c>
       <c r="D29">
         <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2515D9C6-4120-4FCE-9C0D-14E70189C76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E4D57F-717B-426B-966F-1D8DBFF7AC30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -805,20 +805,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="24.75" customWidth="1"/>
-    <col min="2" max="2" width="14.125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="24.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="9" collapsed="1"/>
-    <col min="6" max="6" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="9" collapsed="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="24.75" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1">
@@ -866,7 +864,7 @@
 A28&amp;""":"&amp;VLOOKUP(A28,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A29&amp;""":"&amp;VLOOKUP(A29,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
-        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2000,"FastClearJumpStep":10,"FastBossClearStartBase":10,"FastBossClearEndBase":50}</v>
+        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2000,"FastClearJumpStep":10,"FastBossClearStartBase":20,"FastBossClearEndBase":30}</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1117,7 +1115,7 @@
         <v>43</v>
       </c>
       <c r="D28">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1131,7 +1129,7 @@
         <v>43</v>
       </c>
       <c r="D29">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:4">

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E4D57F-717B-426B-966F-1D8DBFF7AC30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE6B327-DBA6-421A-866A-3E8B5A90D0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -386,6 +386,14 @@
   </si>
   <si>
     <t>PetDailySearchCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PetExtraChance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PetPassExtraChance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -805,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1138,6 +1146,22 @@
       </c>
       <c r="D30">
         <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE6B327-DBA6-421A-866A-3E8B5A90D0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70D946C-B327-484D-97E7-59EF6BA9F8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -394,6 +394,14 @@
   </si>
   <si>
     <t>PetPassExtraChance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PetExtraGainMin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PetExtraGainMax</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -813,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1162,6 +1170,22 @@
       </c>
       <c r="D32">
         <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70D946C-B327-484D-97E7-59EF6BA9F8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78A628D-FCF3-4004-8537-B530702B6FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -402,6 +402,38 @@
   </si>
   <si>
     <t>PetExtraGainMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PetHeartCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PetPassHeartCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하루 몇 번 미션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1마리 이상 획득 시 추가 공짜 획득 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패스 내면 추가 공짜 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가로 얻는 최소 마리수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펫에게 하루에 주는 하트 횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패스 시 횟수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -821,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1152,6 +1184,9 @@
       <c r="A30" t="s">
         <v>44</v>
       </c>
+      <c r="C30" t="s">
+        <v>51</v>
+      </c>
       <c r="D30">
         <v>2</v>
       </c>
@@ -1160,6 +1195,9 @@
       <c r="A31" s="4" t="s">
         <v>45</v>
       </c>
+      <c r="C31" t="s">
+        <v>52</v>
+      </c>
       <c r="D31">
         <v>5</v>
       </c>
@@ -1168,6 +1206,9 @@
       <c r="A32" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="C32" t="s">
+        <v>53</v>
+      </c>
       <c r="D32">
         <v>50</v>
       </c>
@@ -1176,6 +1217,9 @@
       <c r="A33" t="s">
         <v>47</v>
       </c>
+      <c r="C33" t="s">
+        <v>54</v>
+      </c>
       <c r="D33">
         <v>1</v>
       </c>
@@ -1185,6 +1229,28 @@
         <v>48</v>
       </c>
       <c r="D34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36">
         <v>3</v>
       </c>
     </row>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78A628D-FCF3-4004-8537-B530702B6FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96ADDCA-2416-4F08-9976-32E15CD0AF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="8640" yWindow="1650" windowWidth="28800" windowHeight="12885" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -434,6 +434,34 @@
   </si>
   <si>
     <t>패스 시 횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PetSaleGivenTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PetSaleCoolTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하드코딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펫 세일 열리는 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펫 세일 쿨타임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매 가능 최대마리수 스텝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxPetCountStep</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -853,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -910,9 +938,10 @@
 A18&amp;""":"&amp;VLOOKUP(A18,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A27&amp;""":"&amp;VLOOKUP(A27,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A28&amp;""":"&amp;VLOOKUP(A28,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A29&amp;""":"&amp;VLOOKUP(A29,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
+A29&amp;""":"&amp;VLOOKUP(A29,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A30&amp;""":"&amp;VLOOKUP(A30,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
-        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2000,"FastClearJumpStep":10,"FastBossClearStartBase":20,"FastBossClearEndBase":30}</v>
+        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2000,"FastClearJumpStep":10,"FastBossClearStartBase":20,"FastBossClearEndBase":30,"MaxPetCountStep":9}</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1181,77 +1210,119 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C30" t="s">
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" t="s">
         <v>51</v>
       </c>
-      <c r="D30">
+      <c r="D31">
         <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31">
-        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>53</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C34" t="s">
+        <v>54</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C35" t="s">
+      <c r="B36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" t="s">
         <v>55</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
         <v>50</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>56</v>
       </c>
-      <c r="D36">
+      <c r="D37">
         <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38">
+        <v>86400</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39">
+        <v>172800</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96ADDCA-2416-4F08-9976-32E15CD0AF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636A2622-4B61-4F7B-8C90-C23ACF3E2A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8640" yWindow="1650" windowWidth="28800" windowHeight="12885" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -883,9 +883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
@@ -1245,7 +1243,7 @@
         <v>52</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1256,7 +1254,7 @@
         <v>53</v>
       </c>
       <c r="D33">
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:4">

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636A2622-4B61-4F7B-8C90-C23ACF3E2A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0693A90B-DDF3-4549-AFC2-7F7046982D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -883,7 +883,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
@@ -939,7 +941,7 @@
 A29&amp;""":"&amp;VLOOKUP(A29,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A30&amp;""":"&amp;VLOOKUP(A30,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
-        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2000,"FastClearJumpStep":10,"FastBossClearStartBase":20,"FastBossClearEndBase":30,"MaxPetCountStep":9}</v>
+        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2000,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"MaxPetCountStep":9}</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1190,7 +1192,7 @@
         <v>43</v>
       </c>
       <c r="D28">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:4">

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0693A90B-DDF3-4549-AFC2-7F7046982D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC071BBE-0E9D-4961-815F-B220B87FBFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="65">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -462,6 +462,10 @@
   </si>
   <si>
     <t>MaxPetCountStep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DownloadEnergyReward</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -881,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -939,9 +943,10 @@
 A27&amp;""":"&amp;VLOOKUP(A27,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A28&amp;""":"&amp;VLOOKUP(A28,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A29&amp;""":"&amp;VLOOKUP(A29,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A30&amp;""":"&amp;VLOOKUP(A30,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
+A30&amp;""":"&amp;VLOOKUP(A30,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A40&amp;""":"&amp;VLOOKUP(A40,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
-        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2000,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"MaxPetCountStep":9}</v>
+        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2000,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"MaxPetCountStep":9,"DownloadEnergyReward":200}</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1323,6 +1328,17 @@
       </c>
       <c r="D39">
         <v>172800</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC071BBE-0E9D-4961-815F-B220B87FBFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6050036-20D2-47B4-B62A-30887562349A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="69">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -466,6 +466,22 @@
   </si>
   <si>
     <t>DownloadEnergyReward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FortuneWheelDailyCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FortuneWheelGolden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MissionEnergyPet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MissionEnergyRoulette</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -885,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -944,9 +960,13 @@
 A28&amp;""":"&amp;VLOOKUP(A28,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A29&amp;""":"&amp;VLOOKUP(A29,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A30&amp;""":"&amp;VLOOKUP(A30,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A40&amp;""":"&amp;VLOOKUP(A40,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
+A40&amp;""":"&amp;VLOOKUP(A40,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A41&amp;""":"&amp;VLOOKUP(A41,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A42&amp;""":"&amp;VLOOKUP(A42,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A43&amp;""":"&amp;VLOOKUP(A43,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A44&amp;""":"&amp;VLOOKUP(A44,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
-        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2000,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"MaxPetCountStep":9,"DownloadEnergyReward":200}</v>
+        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2000,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"MaxPetCountStep":9,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":30,"MissionEnergyRoulette":40}</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1339,6 +1359,50 @@
       </c>
       <c r="D40">
         <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6050036-20D2-47B4-B62A-30887562349A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743354D9-E861-492F-9270-C66BF53A05FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -904,7 +904,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -993,8 +993,8 @@
         <v>17</v>
       </c>
       <c r="D5">
-        <f>576/2</f>
-        <v>288</v>
+        <f>576/3</f>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:6">

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743354D9-E861-492F-9270-C66BF53A05FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621555B0-46F9-4B9D-A975-E652691A6FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -482,6 +482,10 @@
   </si>
   <si>
     <t>MissionEnergyRoulette</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DailyGemAmount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -901,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1403,6 +1407,17 @@
       </c>
       <c r="D44">
         <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621555B0-46F9-4B9D-A975-E652691A6FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A71EBB-6270-4E11-9685-7F58C3E024F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="71">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -486,6 +486,10 @@
   </si>
   <si>
     <t>DailyGemAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnalysisBoostRate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -905,10 +909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -968,9 +972,10 @@
 A41&amp;""":"&amp;VLOOKUP(A41,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A42&amp;""":"&amp;VLOOKUP(A42,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A43&amp;""":"&amp;VLOOKUP(A43,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A44&amp;""":"&amp;VLOOKUP(A44,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
+A44&amp;""":"&amp;VLOOKUP(A44,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A46&amp;""":"&amp;VLOOKUP(A46,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
-        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2000,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"MaxPetCountStep":9,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":30,"MissionEnergyRoulette":40}</v>
+        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2000,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"MaxPetCountStep":9,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":30,"MissionEnergyRoulette":40,"AnalysisBoostRate":3}</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1418,6 +1423,17 @@
       </c>
       <c r="D45">
         <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A71EBB-6270-4E11-9685-7F58C3E024F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8881B30A-DF59-4E79-91EB-5EEE4DDDBDAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -911,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -975,7 +975,7 @@
 A44&amp;""":"&amp;VLOOKUP(A44,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A46&amp;""":"&amp;VLOOKUP(A46,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
-        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2000,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"MaxPetCountStep":9,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":30,"MissionEnergyRoulette":40,"AnalysisBoostRate":3}</v>
+        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2000,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"MaxPetCountStep":9,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":30,"MissionEnergyRoulette":40,"AnalysisBoostRate":7}</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1433,7 +1433,7 @@
         <v>4</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8881B30A-DF59-4E79-91EB-5EEE4DDDBDAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE460FC8-D524-4859-8525-12D15701CC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="5715" yWindow="1380" windowWidth="24000" windowHeight="11700" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="81">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -490,6 +490,42 @@
   </si>
   <si>
     <t>AnalysisBoostRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ev13CountLimit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ev14CountLimit</t>
+  </si>
+  <si>
+    <t>Ev15CountLimit</t>
+  </si>
+  <si>
+    <t>Ev16CountLimit</t>
+  </si>
+  <si>
+    <t>Ev17CountLimit</t>
+  </si>
+  <si>
+    <t>보유 스펠 종류 제한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미보유 스펠 종류 제한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보유 동료 종류 제한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보유 동료 피피 종류 제한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미보유 동료 종류 제한</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -909,10 +945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1434,6 +1470,61 @@
       </c>
       <c r="D46">
         <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" t="s">
+        <v>76</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" t="s">
+        <v>80</v>
+      </c>
+      <c r="D51">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE460FC8-D524-4859-8525-12D15701CC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55D8BA2-4A87-44AB-93C8-872B8925488B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5715" yWindow="1380" windowWidth="24000" windowHeight="11700" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -948,7 +948,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1477,10 +1477,10 @@
         <v>71</v>
       </c>
       <c r="C47" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D47">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1488,10 +1488,10 @@
         <v>72</v>
       </c>
       <c r="C48" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D48">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1499,10 +1499,10 @@
         <v>73</v>
       </c>
       <c r="C49" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D49">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1510,10 +1510,10 @@
         <v>74</v>
       </c>
       <c r="C50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D50">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1521,10 +1521,10 @@
         <v>75</v>
       </c>
       <c r="C51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D51">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55D8BA2-4A87-44AB-93C8-872B8925488B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD248CA-8525-4F8B-B6F1-71DCD5D08622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="82">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -526,6 +526,10 @@
   </si>
   <si>
     <t>미보유 동료 종류 제한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoostEnergyDivide</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -945,10 +949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1525,6 +1529,14 @@
       </c>
       <c r="D51">
         <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD248CA-8525-4F8B-B6F1-71DCD5D08622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58339A4B-ADDE-43F4-856B-B526BEF8FC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="81">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -307,10 +307,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MaxBrokenEnergy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -318,10 +314,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>brkMx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>anlMx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -530,6 +522,10 @@
   </si>
   <si>
     <t>BoostEnergyDivide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxBrokenGivenTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -619,7 +615,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -633,6 +629,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -951,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1031,7 +1030,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4">
         <v>20</v>
@@ -1138,10 +1137,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -1179,7 +1178,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D19">
         <v>1000</v>
@@ -1194,19 +1193,17 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>27</v>
+      <c r="A21" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="D21">
-        <v>2000</v>
+        <f>3*24*60*60</f>
+        <v>259200</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D22">
         <v>1000</v>
@@ -1214,7 +1211,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -1222,7 +1219,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -1230,7 +1227,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D25">
         <v>4</v>
@@ -1238,7 +1235,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D26">
         <v>5</v>
@@ -1246,7 +1243,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
@@ -1257,13 +1254,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
         <v>41</v>
-      </c>
-      <c r="B28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" t="s">
-        <v>43</v>
       </c>
       <c r="D28">
         <v>17</v>
@@ -1271,13 +1268,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D29">
         <v>30</v>
@@ -1285,13 +1282,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D30">
         <v>9</v>
@@ -1299,13 +1296,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -1313,10 +1310,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D32">
         <v>20</v>
@@ -1324,10 +1321,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D33">
         <v>66</v>
@@ -1335,10 +1332,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1346,7 +1343,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -1354,13 +1351,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -1368,10 +1365,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D37">
         <v>3</v>
@@ -1379,10 +1376,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D38">
         <v>86400</v>
@@ -1390,10 +1387,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D39">
         <v>172800</v>
@@ -1401,7 +1398,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B40" t="s">
         <v>4</v>
@@ -1412,7 +1409,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B41" t="s">
         <v>4</v>
@@ -1423,7 +1420,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B42" t="s">
         <v>4</v>
@@ -1434,7 +1431,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B43" t="s">
         <v>4</v>
@@ -1445,7 +1442,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B44" t="s">
         <v>4</v>
@@ -1456,10 +1453,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D45">
         <v>30</v>
@@ -1467,7 +1464,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B46" t="s">
         <v>4</v>
@@ -1478,10 +1475,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D47">
         <v>8</v>
@@ -1489,10 +1486,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C48" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D48">
         <v>4</v>
@@ -1500,10 +1497,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C49" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D49">
         <v>17</v>
@@ -1511,10 +1508,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C50" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D50">
         <v>9</v>
@@ -1522,10 +1519,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C51" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D51">
         <v>12</v>
@@ -1533,7 +1530,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D52">
         <v>3</v>
@@ -1573,23 +1570,23 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58339A4B-ADDE-43F4-856B-B526BEF8FC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F379DFC-A06C-4BDB-9EE5-C96AC46D6E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="82">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -526,6 +526,10 @@
   </si>
   <si>
     <t>MaxBrokenGivenTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxBrokenStep</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -948,10 +952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1003,16 +1007,16 @@
 A14&amp;""":"&amp;VLOOKUP(A14,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A15&amp;""":"&amp;VLOOKUP(A15,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A18&amp;""":"&amp;VLOOKUP(A18,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A27&amp;""":"&amp;VLOOKUP(A27,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A28&amp;""":"&amp;VLOOKUP(A28,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A29&amp;""":"&amp;VLOOKUP(A29,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A30&amp;""":"&amp;VLOOKUP(A30,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A40&amp;""":"&amp;VLOOKUP(A40,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A31&amp;""":"&amp;VLOOKUP(A31,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A41&amp;""":"&amp;VLOOKUP(A41,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A42&amp;""":"&amp;VLOOKUP(A42,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A43&amp;""":"&amp;VLOOKUP(A43,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A44&amp;""":"&amp;VLOOKUP(A44,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A46&amp;""":"&amp;VLOOKUP(A46,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
+A45&amp;""":"&amp;VLOOKUP(A45,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A47&amp;""":"&amp;VLOOKUP(A47,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
         <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2000,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"MaxPetCountStep":9,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":30,"MissionEnergyRoulette":40,"AnalysisBoostRate":7}</v>
       </c>
@@ -1202,24 +1206,24 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="3" t="s">
-        <v>27</v>
+      <c r="A22" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="D22">
-        <v>1000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>33</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -1227,48 +1231,42 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
         <v>35</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27">
-        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
       </c>
-      <c r="C28" t="s">
-        <v>41</v>
-      </c>
       <c r="D28">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
         <v>4</v>
@@ -1277,262 +1275,276 @@
         <v>41</v>
       </c>
       <c r="D29">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D30">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>57</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>49</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32">
-        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>51</v>
       </c>
-      <c r="D33">
+      <c r="D34">
         <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
         <v>46</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>57</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>53</v>
       </c>
-      <c r="D36">
+      <c r="D37">
         <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" t="s">
-        <v>54</v>
-      </c>
-      <c r="D37">
-        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D38">
-        <v>86400</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39">
+        <v>86400</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
         <v>56</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>59</v>
       </c>
-      <c r="D39">
+      <c r="D40">
         <v>172800</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B40" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40">
-        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B41" t="s">
         <v>4</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B42" t="s">
         <v>4</v>
       </c>
       <c r="D42">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B43" t="s">
         <v>4</v>
       </c>
       <c r="D43">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B44" t="s">
         <v>4</v>
       </c>
       <c r="D44">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="D45">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B46" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46">
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="4" t="s">
+    <row r="48" spans="1:4">
+      <c r="A48" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
         <v>75</v>
       </c>
-      <c r="D47">
+      <c r="D48">
         <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48" t="s">
-        <v>74</v>
-      </c>
-      <c r="D48">
-        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C49" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D49">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C50" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D50">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C51" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D51">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D52">
+      <c r="D53">
         <v>3</v>
       </c>
     </row>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F379DFC-A06C-4BDB-9EE5-C96AC46D6E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB83E043-2B4A-4D3A-BEF2-C10DFE0296B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="83">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -530,6 +530,10 @@
   </si>
   <si>
     <t>MaxBrokenStep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttendanceEarlyEnergy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -952,10 +956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1016,9 +1020,10 @@
 A43&amp;""":"&amp;VLOOKUP(A43,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A44&amp;""":"&amp;VLOOKUP(A44,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A45&amp;""":"&amp;VLOOKUP(A45,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A47&amp;""":"&amp;VLOOKUP(A47,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
+A47&amp;""":"&amp;VLOOKUP(A47,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A54&amp;""":"&amp;VLOOKUP(A54,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
-        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2000,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"MaxPetCountStep":9,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":30,"MissionEnergyRoulette":40,"AnalysisBoostRate":7}</v>
+        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2000,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"MaxPetCountStep":9,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":30,"MissionEnergyRoulette":40,"AnalysisBoostRate":7,"AttendanceEarlyEnergy":30}</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1546,6 +1551,17 @@
       </c>
       <c r="D53">
         <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB83E043-2B4A-4D3A-BEF2-C10DFE0296B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6CB937-528D-49C4-B7E2-EE42A69D2E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="85">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -534,6 +534,14 @@
   </si>
   <si>
     <t>AttendanceEarlyEnergy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MinimumStrikeDamageRate10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaximumStrikeDamageRate10000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -956,15 +964,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="24.75" customWidth="1"/>
+    <col min="1" max="1" width="32.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.125" customWidth="1" outlineLevel="1"/>
     <col min="3" max="3" width="24.75" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="9" customWidth="1" outlineLevel="1"/>
@@ -1562,6 +1570,28 @@
       </c>
       <c r="D54">
         <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56">
+        <v>3330</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6CB937-528D-49C4-B7E2-EE42A69D2E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46E0CEF-C573-4823-8E0F-44B4D0FB9D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -966,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1029,9 +1029,11 @@
 A44&amp;""":"&amp;VLOOKUP(A44,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A45&amp;""":"&amp;VLOOKUP(A45,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A47&amp;""":"&amp;VLOOKUP(A47,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A54&amp;""":"&amp;VLOOKUP(A54,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
+A54&amp;""":"&amp;VLOOKUP(A54,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A55&amp;""":"&amp;VLOOKUP(A55,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A56&amp;""":"&amp;VLOOKUP(A56,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
-        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2000,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"MaxPetCountStep":9,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":30,"MissionEnergyRoulette":40,"AnalysisBoostRate":7,"AttendanceEarlyEnergy":30}</v>
+        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2000,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"MaxPetCountStep":9,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":30,"MissionEnergyRoulette":40,"AnalysisBoostRate":7,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330}</v>
       </c>
     </row>
     <row r="3" spans="1:6">

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46E0CEF-C573-4823-8E0F-44B4D0FB9D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843011AF-7E00-4342-BC53-D4522E902316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="91">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -409,14 +409,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1마리 이상 획득 시 추가 공짜 획득 확률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>패스 내면 추가 공짜 확률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>추가로 얻는 최소 마리수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -542,6 +534,38 @@
   </si>
   <si>
     <t>MaximumStrikeDamageRate10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두번 때리는 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PetPassExtraGain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포획 성공 후 추가 획득 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PetExtraGain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패스 구매 후 위를 실패 시 한번 더 굴리는 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패스 구매 후 포획 성공 후 추가 획득 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PetPassGivenTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패스 14일로 함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -964,17 +988,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="32.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.125" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="24.75" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="29.75" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
@@ -1023,15 +1047,15 @@
 A29&amp;""":"&amp;VLOOKUP(A29,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A30&amp;""":"&amp;VLOOKUP(A30,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A31&amp;""":"&amp;VLOOKUP(A31,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A41&amp;""":"&amp;VLOOKUP(A41,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A42&amp;""":"&amp;VLOOKUP(A42,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A43&amp;""":"&amp;VLOOKUP(A43,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A44&amp;""":"&amp;VLOOKUP(A44,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A45&amp;""":"&amp;VLOOKUP(A45,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A46&amp;""":"&amp;VLOOKUP(A46,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A47&amp;""":"&amp;VLOOKUP(A47,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A54&amp;""":"&amp;VLOOKUP(A54,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A55&amp;""":"&amp;VLOOKUP(A55,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A56&amp;""":"&amp;VLOOKUP(A56,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
+A48&amp;""":"&amp;VLOOKUP(A48,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A50&amp;""":"&amp;VLOOKUP(A50,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A57&amp;""":"&amp;VLOOKUP(A57,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A58&amp;""":"&amp;VLOOKUP(A58,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A59&amp;""":"&amp;VLOOKUP(A59,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
         <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2000,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"MaxPetCountStep":9,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":30,"MissionEnergyRoulette":40,"AnalysisBoostRate":7,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330}</v>
       </c>
@@ -1213,7 +1237,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D21">
         <f>3*24*60*60</f>
@@ -1222,7 +1246,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D22">
         <v>5</v>
@@ -1309,13 +1333,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D31">
         <v>9</v>
@@ -1326,7 +1350,7 @@
         <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
         <v>49</v>
@@ -1337,262 +1361,296 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="4" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D33">
-        <v>20</v>
+        <f>14*24*60*60</f>
+        <v>1209600</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C34" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34">
+      <c r="C35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-    </row>
     <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>46</v>
+      <c r="A36" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" t="s">
+        <v>85</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" t="s">
-        <v>57</v>
+      <c r="A37" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="C37" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" t="s">
         <v>55</v>
       </c>
-      <c r="C39" t="s">
-        <v>58</v>
-      </c>
-      <c r="D39">
+      <c r="C40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42">
         <v>86400</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" t="s">
-        <v>59</v>
-      </c>
-      <c r="D40">
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43">
         <v>172800</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43">
-        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s">
         <v>4</v>
       </c>
       <c r="D44">
-        <v>30</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B45" t="s">
         <v>4</v>
       </c>
       <c r="D45">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="D46">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B47" t="s">
         <v>4</v>
       </c>
       <c r="D47">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50">
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" t="s">
-        <v>75</v>
-      </c>
-      <c r="D48">
+    <row r="51" spans="1:4">
+      <c r="A51" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51">
         <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C49" t="s">
-        <v>74</v>
-      </c>
-      <c r="D49">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" t="s">
-        <v>78</v>
-      </c>
-      <c r="D50">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" t="s">
-        <v>76</v>
-      </c>
-      <c r="D51">
-        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C52" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D52">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
+      </c>
+      <c r="C53" t="s">
+        <v>76</v>
       </c>
       <c r="D53">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" t="s">
+        <v>74</v>
+      </c>
+      <c r="D54">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" t="s">
+        <v>75</v>
+      </c>
+      <c r="D55">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="1" t="s">
+    <row r="57" spans="1:4">
+      <c r="A57" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B54" t="s">
-        <v>4</v>
-      </c>
-      <c r="D54">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B55" t="s">
-        <v>4</v>
-      </c>
-      <c r="D55">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B56" t="s">
-        <v>4</v>
-      </c>
-      <c r="D56">
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59">
         <v>3330</v>
       </c>
     </row>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843011AF-7E00-4342-BC53-D4522E902316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68A8C6F-AF9B-4B44-8A19-505DD7431207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -990,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1057,7 +1057,7 @@
 A58&amp;""":"&amp;VLOOKUP(A58,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A59&amp;""":"&amp;VLOOKUP(A59,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
-        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2000,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"MaxPetCountStep":9,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":30,"MissionEnergyRoulette":40,"AnalysisBoostRate":7,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330}</v>
+        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2000,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"MaxPetCountStep":9,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":30,"MissionEnergyRoulette":20,"AnalysisBoostRate":7,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330}</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1533,7 +1533,7 @@
         <v>4</v>
       </c>
       <c r="D48">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:4">

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68A8C6F-AF9B-4B44-8A19-505DD7431207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33249A73-1054-4FEB-AA89-BF5FAE3F98A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -1530,7 +1530,7 @@
         <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="D48">
         <v>20</v>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33249A73-1054-4FEB-AA89-BF5FAE3F98A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16024C3-82B7-460A-9302-3F1EB5342976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="93">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -373,10 +373,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10으로 나눠서 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PetDailySearchCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -566,6 +562,18 @@
   </si>
   <si>
     <t>패스 14일로 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FastBossClearRateLimit10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초단위. 10으로 나눠서 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비율. 10000으로 나눠서 사용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -988,10 +996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1047,17 +1055,18 @@
 A29&amp;""":"&amp;VLOOKUP(A29,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A30&amp;""":"&amp;VLOOKUP(A30,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A31&amp;""":"&amp;VLOOKUP(A31,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A44&amp;""":"&amp;VLOOKUP(A44,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A32&amp;""":"&amp;VLOOKUP(A32,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A45&amp;""":"&amp;VLOOKUP(A45,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A46&amp;""":"&amp;VLOOKUP(A46,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A47&amp;""":"&amp;VLOOKUP(A47,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A48&amp;""":"&amp;VLOOKUP(A48,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A50&amp;""":"&amp;VLOOKUP(A50,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A57&amp;""":"&amp;VLOOKUP(A57,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A49&amp;""":"&amp;VLOOKUP(A49,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A51&amp;""":"&amp;VLOOKUP(A51,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A58&amp;""":"&amp;VLOOKUP(A58,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A59&amp;""":"&amp;VLOOKUP(A59,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
+A59&amp;""":"&amp;VLOOKUP(A59,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A60&amp;""":"&amp;VLOOKUP(A60,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
-        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2000,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"MaxPetCountStep":9,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":30,"MissionEnergyRoulette":20,"AnalysisBoostRate":7,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330}</v>
+        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2000,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"MaxPetCountStep":9,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":30,"MissionEnergyRoulette":20,"AnalysisBoostRate":7,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330}</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1237,7 +1246,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D21">
         <f>3*24*60*60</f>
@@ -1246,7 +1255,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D22">
         <v>5</v>
@@ -1311,7 +1320,7 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="D29">
         <v>17</v>
@@ -1325,7 +1334,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="D30">
         <v>30</v>
@@ -1333,324 +1342,338 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="D31">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="4" t="s">
+    <row r="34" spans="1:4">
+      <c r="A34" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" t="s">
         <v>89</v>
       </c>
-      <c r="C33" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33">
+      <c r="D34">
         <f>14*24*60*60</f>
         <v>1209600</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" t="s">
-        <v>83</v>
-      </c>
-      <c r="D34">
-        <v>20</v>
-      </c>
-    </row>
     <row r="35" spans="1:4">
       <c r="A35" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D35">
-        <v>66</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" t="s">
         <v>86</v>
       </c>
-      <c r="C36" t="s">
-        <v>85</v>
-      </c>
       <c r="D36">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" t="s">
         <v>84</v>
       </c>
-      <c r="C37" t="s">
-        <v>88</v>
-      </c>
       <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38">
         <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" t="s">
-        <v>50</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40">
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41">
         <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" t="s">
-        <v>52</v>
-      </c>
-      <c r="D41">
-        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D42">
-        <v>86400</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D43">
+        <v>86400</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44">
         <v>172800</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44">
-        <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B45" t="s">
         <v>4</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s">
         <v>4</v>
       </c>
       <c r="D46">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B47" t="s">
         <v>4</v>
       </c>
       <c r="D47">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="D48">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D49">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="B50" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C51" t="s">
-        <v>73</v>
-      </c>
-      <c r="D51">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="C52" t="s">
         <v>72</v>
       </c>
       <c r="D52">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C53" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D53">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C54" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D54">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C55" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D55">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
+      </c>
+      <c r="C56" t="s">
+        <v>74</v>
       </c>
       <c r="D56">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D57">
         <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B57" t="s">
-        <v>4</v>
-      </c>
-      <c r="D57">
-        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B58" t="s">
         <v>4</v>
       </c>
       <c r="D58">
-        <v>1200</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B59" t="s">
         <v>4</v>
       </c>
       <c r="D59">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60">
         <v>3330</v>
       </c>
     </row>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16024C3-82B7-460A-9302-3F1EB5342976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50F3029-B702-4394-AC01-EE86F8F49445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="95">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -561,10 +561,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>패스 14일로 함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FastBossClearRateLimit10000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -574,6 +570,18 @@
   </si>
   <si>
     <t>비율. 10000으로 나눠서 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TeamPassGivenTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 패스 14일로 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펫 패스 28일로 함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -996,10 +1004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1056,15 +1064,15 @@
 A30&amp;""":"&amp;VLOOKUP(A30,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A31&amp;""":"&amp;VLOOKUP(A31,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A32&amp;""":"&amp;VLOOKUP(A32,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A45&amp;""":"&amp;VLOOKUP(A45,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A46&amp;""":"&amp;VLOOKUP(A46,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A47&amp;""":"&amp;VLOOKUP(A47,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A48&amp;""":"&amp;VLOOKUP(A48,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A49&amp;""":"&amp;VLOOKUP(A49,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A51&amp;""":"&amp;VLOOKUP(A51,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A58&amp;""":"&amp;VLOOKUP(A58,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A50&amp;""":"&amp;VLOOKUP(A50,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A52&amp;""":"&amp;VLOOKUP(A52,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A59&amp;""":"&amp;VLOOKUP(A59,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A60&amp;""":"&amp;VLOOKUP(A60,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
+A60&amp;""":"&amp;VLOOKUP(A60,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A61&amp;""":"&amp;VLOOKUP(A61,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
         <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2000,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"MaxPetCountStep":9,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":30,"MissionEnergyRoulette":20,"AnalysisBoostRate":7,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330}</v>
       </c>
@@ -1320,7 +1328,7 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29">
         <v>17</v>
@@ -1334,7 +1342,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30">
         <v>30</v>
@@ -1342,13 +1350,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31">
         <v>300</v>
@@ -1369,311 +1377,324 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34">
+      <c r="A33" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="3">
         <f>14*24*60*60</f>
         <v>1209600</v>
       </c>
     </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+    </row>
     <row r="35" spans="1:4">
       <c r="A35" s="4" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D35">
-        <v>20</v>
+        <f>28*24*60*60</f>
+        <v>2419200</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D36">
-        <v>66</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="4" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>87</v>
       </c>
-      <c r="D38">
+      <c r="D39">
         <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
         <v>45</v>
       </c>
-      <c r="D40">
+      <c r="D41">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="1" t="s">
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>54</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>50</v>
       </c>
-      <c r="D41">
+      <c r="D42">
         <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" t="s">
-        <v>51</v>
-      </c>
-      <c r="D42">
-        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D43">
-        <v>86400</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44">
+        <v>86400</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
         <v>53</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>56</v>
       </c>
-      <c r="D44">
+      <c r="D45">
         <v>172800</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B45" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45">
-        <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
         <v>4</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B47" t="s">
         <v>4</v>
       </c>
       <c r="D47">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B48" t="s">
         <v>4</v>
       </c>
       <c r="D48">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="D49">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B50" t="s">
         <v>54</v>
       </c>
       <c r="D50">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B51" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51">
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52">
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="4" t="s">
+    <row r="53" spans="1:4">
+      <c r="A53" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>72</v>
       </c>
-      <c r="D52">
+      <c r="D53">
         <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C53" t="s">
-        <v>71</v>
-      </c>
-      <c r="D53">
-        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C54" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D54">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C55" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D55">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D56">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" t="s">
+        <v>74</v>
+      </c>
+      <c r="D57">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D57">
+      <c r="D58">
         <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B58" t="s">
-        <v>4</v>
-      </c>
-      <c r="D58">
-        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B59" t="s">
         <v>4</v>
       </c>
       <c r="D59">
-        <v>1200</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B60" t="s">
-        <v>4</v>
-      </c>
-      <c r="D60">
+      <c r="B61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61">
         <v>3330</v>
       </c>
     </row>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50F3029-B702-4394-AC01-EE86F8F49445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D6CCD4-F41B-462F-A25A-906E159E0D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="98">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -583,6 +583,17 @@
   <si>
     <t>펫 패스 28일로 함</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MissionEnergyRushDefense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MissionEnergyBossDefense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하드코딩</t>
   </si>
 </sst>
 </file>
@@ -1004,18 +1015,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="32.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="29.75" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="14.125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="29.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="9" collapsed="1"/>
+    <col min="6" max="6" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="9" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1">
@@ -1069,10 +1082,10 @@
 A48&amp;""":"&amp;VLOOKUP(A48,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A49&amp;""":"&amp;VLOOKUP(A49,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A50&amp;""":"&amp;VLOOKUP(A50,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A52&amp;""":"&amp;VLOOKUP(A52,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A59&amp;""":"&amp;VLOOKUP(A59,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A60&amp;""":"&amp;VLOOKUP(A60,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A61&amp;""":"&amp;VLOOKUP(A61,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
+A54&amp;""":"&amp;VLOOKUP(A54,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A61&amp;""":"&amp;VLOOKUP(A61,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A62&amp;""":"&amp;VLOOKUP(A62,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A63&amp;""":"&amp;VLOOKUP(A63,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
         <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2000,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"MaxPetCountStep":9,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":30,"MissionEnergyRoulette":20,"AnalysisBoostRate":7,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330}</v>
       </c>
@@ -1582,10 +1595,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="D51">
         <v>30</v>
@@ -1593,108 +1606,130 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B52" t="s">
-        <v>4</v>
-      </c>
-      <c r="D52">
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54">
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="4" t="s">
+    <row r="55" spans="1:4">
+      <c r="A55" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C55" t="s">
         <v>72</v>
       </c>
-      <c r="D53">
+      <c r="D55">
         <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C54" t="s">
-        <v>71</v>
-      </c>
-      <c r="D54">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C55" t="s">
-        <v>75</v>
-      </c>
-      <c r="D55">
-        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C56" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D56">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C57" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D57">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" t="s">
+        <v>74</v>
+      </c>
+      <c r="D59">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D58">
+      <c r="D60">
         <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B59" t="s">
-        <v>4</v>
-      </c>
-      <c r="D59">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B60" t="s">
-        <v>4</v>
-      </c>
-      <c r="D60">
-        <v>1200</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B61" t="s">
-        <v>4</v>
-      </c>
-      <c r="D61">
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63">
         <v>3330</v>
       </c>
     </row>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D6CCD4-F41B-462F-A25A-906E159E0D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E318CF8-8957-456C-904B-78D3EA36601C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="104">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -594,6 +594,30 @@
   </si>
   <si>
     <t>하드코딩</t>
+  </si>
+  <si>
+    <t>아이디중복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RushDefenseDailyCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BossDefenseDailyCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MissionEnergyBossBattle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxRushDefense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxBossDefense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1015,23 +1039,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="32.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="29.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="9" collapsed="1"/>
-    <col min="6" max="6" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="9" collapsed="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="29.75" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27" customHeight="1">
+    <row r="1" spans="1:7" ht="27" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1044,11 +1068,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1061,7 +1088,11 @@
       <c r="D2">
         <v>600</v>
       </c>
-      <c r="F2" t="str">
+      <c r="E2">
+        <f>COUNTIF(A:A,A2)</f>
+        <v>1</v>
+      </c>
+      <c r="G2" t="str">
         <f>"{"""&amp;
 A2&amp;""":"&amp;VLOOKUP(A2,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A9&amp;""":"&amp;VLOOKUP(A9,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
@@ -1077,20 +1108,16 @@
 A30&amp;""":"&amp;VLOOKUP(A30,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A31&amp;""":"&amp;VLOOKUP(A31,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A32&amp;""":"&amp;VLOOKUP(A32,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A46&amp;""":"&amp;VLOOKUP(A46,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A47&amp;""":"&amp;VLOOKUP(A47,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A48&amp;""":"&amp;VLOOKUP(A48,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A49&amp;""":"&amp;VLOOKUP(A49,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A50&amp;""":"&amp;VLOOKUP(A50,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A54&amp;""":"&amp;VLOOKUP(A54,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A61&amp;""":"&amp;VLOOKUP(A61,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A62&amp;""":"&amp;VLOOKUP(A62,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A63&amp;""":"&amp;VLOOKUP(A63,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
+A59&amp;""":"&amp;VLOOKUP(A59,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A66&amp;""":"&amp;VLOOKUP(A66,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A67&amp;""":"&amp;VLOOKUP(A67,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A68&amp;""":"&amp;VLOOKUP(A68,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
-        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2000,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"MaxPetCountStep":9,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":30,"MissionEnergyRoulette":20,"AnalysisBoostRate":7,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2000,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"MaxPetCountStep":9,"FortuneWheelGolden":10,"AnalysisBoostRate":7,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1100,16 +1127,24 @@
       <c r="D3">
         <v>400</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="E3">
+        <f>COUNTIF(A:A,A3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D4">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="E4">
+        <f>COUNTIF(A:A,A4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1117,32 +1152,48 @@
         <f>576/3</f>
         <v>192</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="E5">
+        <f>COUNTIF(A:A,A5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="E6">
+        <f>COUNTIF(A:A,A6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="E7">
+        <f>COUNTIF(A:A,A7)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="E8">
+        <f>COUNTIF(A:A,A8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1152,8 +1203,12 @@
       <c r="D9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="E9">
+        <f>COUNTIF(A:A,A9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -1163,8 +1218,12 @@
       <c r="D10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="E10">
+        <f>COUNTIF(A:A,A10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1174,8 +1233,12 @@
       <c r="D11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="E11">
+        <f>COUNTIF(A:A,A11)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -1185,8 +1248,12 @@
       <c r="D12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="E12">
+        <f>COUNTIF(A:A,A12)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1196,8 +1263,12 @@
       <c r="D13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="E13">
+        <f>COUNTIF(A:A,A13)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -1207,8 +1278,12 @@
       <c r="D14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="E14">
+        <f>COUNTIF(A:A,A14)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -1218,24 +1293,36 @@
       <c r="D15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="E15">
+        <f>COUNTIF(A:A,A15)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>11</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <f>COUNTIF(A:A,A16)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>12</v>
       </c>
       <c r="D17">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <f>COUNTIF(A:A,A17)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1245,8 +1332,12 @@
       <c r="D18">
         <v>2000</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <f>COUNTIF(A:A,A18)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
@@ -1256,16 +1347,24 @@
       <c r="D19">
         <v>1000</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <f>COUNTIF(A:A,A19)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>16</v>
       </c>
       <c r="D20">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20">
+        <f>COUNTIF(A:A,A20)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="5" t="s">
         <v>77</v>
       </c>
@@ -1273,56 +1372,84 @@
         <f>3*24*60*60</f>
         <v>259200</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21">
+        <f>COUNTIF(A:A,A21)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="5" t="s">
         <v>78</v>
       </c>
       <c r="D22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <f>COUNTIF(A:A,A22)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D23">
         <v>1000</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23">
+        <f>COUNTIF(A:A,A23)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24">
+        <f>COUNTIF(A:A,A24)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>33</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25">
+        <f>COUNTIF(A:A,A25)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>34</v>
       </c>
       <c r="D26">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26">
+        <f>COUNTIF(A:A,A26)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>35</v>
       </c>
       <c r="D27">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <f>COUNTIF(A:A,A27)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
@@ -1332,8 +1459,12 @@
       <c r="D28">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28">
+        <f>COUNTIF(A:A,A28)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
@@ -1346,8 +1477,12 @@
       <c r="D29">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29">
+        <f>COUNTIF(A:A,A29)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
@@ -1360,8 +1495,12 @@
       <c r="D30">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30">
+        <f>COUNTIF(A:A,A30)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>89</v>
       </c>
@@ -1374,8 +1513,12 @@
       <c r="D31">
         <v>300</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31">
+        <f>COUNTIF(A:A,A31)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>58</v>
       </c>
@@ -1388,8 +1531,12 @@
       <c r="D32">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32">
+        <f>COUNTIF(A:A,A32)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="4" t="s">
         <v>92</v>
       </c>
@@ -1401,8 +1548,12 @@
         <f>14*24*60*60</f>
         <v>1209600</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33">
+        <f>COUNTIF(A:A,A33)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>41</v>
       </c>
@@ -1415,8 +1566,12 @@
       <c r="D34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34">
+        <f>COUNTIF(A:A,A34)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="4" t="s">
         <v>88</v>
       </c>
@@ -1427,8 +1582,12 @@
         <f>28*24*60*60</f>
         <v>2419200</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <f>COUNTIF(A:A,A35)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="4" t="s">
         <v>42</v>
       </c>
@@ -1438,8 +1597,12 @@
       <c r="D36">
         <v>20</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36">
+        <f>COUNTIF(A:A,A36)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="4" t="s">
         <v>43</v>
       </c>
@@ -1449,8 +1612,12 @@
       <c r="D37">
         <v>66</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <f>COUNTIF(A:A,A37)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="4" t="s">
         <v>85</v>
       </c>
@@ -1460,8 +1627,12 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <f>COUNTIF(A:A,A38)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="4" t="s">
         <v>83</v>
       </c>
@@ -1471,8 +1642,12 @@
       <c r="D39">
         <v>60</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39">
+        <f>COUNTIF(A:A,A39)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -1482,16 +1657,24 @@
       <c r="D40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40">
+        <f>COUNTIF(A:A,A40)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>45</v>
       </c>
       <c r="D41">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41">
+        <f>COUNTIF(A:A,A41)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
@@ -1504,8 +1687,12 @@
       <c r="D42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <f>COUNTIF(A:A,A42)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -1515,8 +1702,12 @@
       <c r="D43">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43">
+        <f>COUNTIF(A:A,A43)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -1526,8 +1717,12 @@
       <c r="D44">
         <v>86400</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44">
+        <f>COUNTIF(A:A,A44)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -1537,30 +1732,42 @@
       <c r="D45">
         <v>172800</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <f>COUNTIF(A:A,A45)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="D46">
         <v>200</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46">
+        <f>COUNTIF(A:A,A46)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47">
+        <f>COUNTIF(A:A,A47)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
         <v>61</v>
       </c>
@@ -1570,19 +1777,27 @@
       <c r="D48">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48">
+        <f>COUNTIF(A:A,A48)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="D49">
         <v>30</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <f>COUNTIF(A:A,A49)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>63</v>
       </c>
@@ -1592,8 +1807,12 @@
       <c r="D50">
         <v>20</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50">
+        <f>COUNTIF(A:A,A50)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>95</v>
       </c>
@@ -1603,8 +1822,12 @@
       <c r="D51">
         <v>30</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <f>COUNTIF(A:A,A51)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>96</v>
       </c>
@@ -1614,123 +1837,240 @@
       <c r="D52">
         <v>30</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <f>COUNTIF(A:A,A52)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="D53">
         <v>30</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53">
+        <f>COUNTIF(A:A,A53)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <f>COUNTIF(A:A,A54)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <f>COUNTIF(A:A,A55)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D56">
+        <v>16</v>
+      </c>
+      <c r="E56">
+        <f>COUNTIF(A:A,A56)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D57">
+        <v>16</v>
+      </c>
+      <c r="E57">
+        <f>COUNTIF(A:A,A57)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" t="s">
+        <v>54</v>
+      </c>
+      <c r="D58">
+        <v>30</v>
+      </c>
+      <c r="E58">
+        <f>COUNTIF(A:A,A58)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B59" t="s">
         <v>4</v>
       </c>
-      <c r="D54">
+      <c r="D59">
         <v>7</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="4" t="s">
+      <c r="E59">
+        <f>COUNTIF(A:A,A59)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C60" t="s">
         <v>72</v>
       </c>
-      <c r="D55">
+      <c r="D60">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="3" t="s">
+      <c r="E60">
+        <f>COUNTIF(A:A,A60)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C61" t="s">
         <v>71</v>
       </c>
-      <c r="D56">
+      <c r="D61">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="3" t="s">
+      <c r="E61">
+        <f>COUNTIF(A:A,A61)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C62" t="s">
         <v>75</v>
       </c>
-      <c r="D57">
+      <c r="D62">
         <v>17</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="3" t="s">
+      <c r="E62">
+        <f>COUNTIF(A:A,A62)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C63" t="s">
         <v>73</v>
       </c>
-      <c r="D58">
+      <c r="D63">
         <v>9</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="3" t="s">
+      <c r="E63">
+        <f>COUNTIF(A:A,A63)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C64" t="s">
         <v>74</v>
       </c>
-      <c r="D59">
+      <c r="D64">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="3" t="s">
+      <c r="E64">
+        <f>COUNTIF(A:A,A64)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D60">
+      <c r="D65">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="1" t="s">
+      <c r="E65">
+        <f>COUNTIF(A:A,A65)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B66" t="s">
         <v>4</v>
       </c>
-      <c r="D61">
+      <c r="D66">
         <v>30</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="1" t="s">
+      <c r="E66">
+        <f>COUNTIF(A:A,A66)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B67" t="s">
         <v>4</v>
       </c>
-      <c r="D62">
+      <c r="D67">
         <v>1200</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="1" t="s">
+      <c r="E67">
+        <f>COUNTIF(A:A,A67)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B68" t="s">
         <v>4</v>
       </c>
-      <c r="D63">
+      <c r="D68">
         <v>3330</v>
+      </c>
+      <c r="E68">
+        <f>COUNTIF(A:A,A68)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E318CF8-8957-456C-904B-78D3EA36601C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817965FC-2B78-435C-A3D1-9A0A5F6E8272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -1043,7 +1043,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A56" sqref="A56"/>
+      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1089,7 +1089,7 @@
         <v>600</v>
       </c>
       <c r="E2">
-        <f>COUNTIF(A:A,A2)</f>
+        <f t="shared" ref="E2:E33" si="0">COUNTIF(A:A,A2)</f>
         <v>1</v>
       </c>
       <c r="G2" t="str">
@@ -1128,7 +1128,7 @@
         <v>400</v>
       </c>
       <c r="E3">
-        <f>COUNTIF(A:A,A3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <f>COUNTIF(A:A,A4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
         <v>192</v>
       </c>
       <c r="E5">
-        <f>COUNTIF(A:A,A5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1165,7 +1165,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <f>COUNTIF(A:A,A6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <f>COUNTIF(A:A,A7)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <f>COUNTIF(A:A,A8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1204,7 +1204,7 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <f>COUNTIF(A:A,A9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1219,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <f>COUNTIF(A:A,A10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <f>COUNTIF(A:A,A11)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
         <v>5</v>
       </c>
       <c r="E12">
-        <f>COUNTIF(A:A,A12)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1264,7 +1264,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <f>COUNTIF(A:A,A13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <f>COUNTIF(A:A,A14)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
         <v>3</v>
       </c>
       <c r="E15">
-        <f>COUNTIF(A:A,A15)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <f>COUNTIF(A:A,A16)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1318,7 +1318,7 @@
         <v>50</v>
       </c>
       <c r="E17">
-        <f>COUNTIF(A:A,A17)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
         <v>2000</v>
       </c>
       <c r="E18">
-        <f>COUNTIF(A:A,A18)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1348,7 +1348,7 @@
         <v>1000</v>
       </c>
       <c r="E19">
-        <f>COUNTIF(A:A,A19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1360,7 +1360,7 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <f>COUNTIF(A:A,A20)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1373,7 +1373,7 @@
         <v>259200</v>
       </c>
       <c r="E21">
-        <f>COUNTIF(A:A,A21)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1385,7 +1385,7 @@
         <v>5</v>
       </c>
       <c r="E22">
-        <f>COUNTIF(A:A,A22)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
         <v>1000</v>
       </c>
       <c r="E23">
-        <f>COUNTIF(A:A,A23)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
         <v>2</v>
       </c>
       <c r="E24">
-        <f>COUNTIF(A:A,A24)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1421,7 +1421,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <f>COUNTIF(A:A,A25)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1433,7 +1433,7 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <f>COUNTIF(A:A,A26)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1445,7 +1445,7 @@
         <v>5</v>
       </c>
       <c r="E27">
-        <f>COUNTIF(A:A,A27)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E28">
-        <f>COUNTIF(A:A,A28)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1478,7 +1478,7 @@
         <v>17</v>
       </c>
       <c r="E29">
-        <f>COUNTIF(A:A,A29)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
         <v>30</v>
       </c>
       <c r="E30">
-        <f>COUNTIF(A:A,A30)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1514,7 +1514,7 @@
         <v>300</v>
       </c>
       <c r="E31">
-        <f>COUNTIF(A:A,A31)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1532,7 +1532,7 @@
         <v>9</v>
       </c>
       <c r="E32">
-        <f>COUNTIF(A:A,A32)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1549,7 +1549,7 @@
         <v>1209600</v>
       </c>
       <c r="E33">
-        <f>COUNTIF(A:A,A33)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1567,7 +1567,7 @@
         <v>2</v>
       </c>
       <c r="E34">
-        <f>COUNTIF(A:A,A34)</f>
+        <f t="shared" ref="E34:E68" si="1">COUNTIF(A:A,A34)</f>
         <v>1</v>
       </c>
     </row>
@@ -1583,7 +1583,7 @@
         <v>2419200</v>
       </c>
       <c r="E35">
-        <f>COUNTIF(A:A,A35)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1598,7 +1598,7 @@
         <v>20</v>
       </c>
       <c r="E36">
-        <f>COUNTIF(A:A,A36)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
         <v>66</v>
       </c>
       <c r="E37">
-        <f>COUNTIF(A:A,A37)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <f>COUNTIF(A:A,A38)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1643,7 +1643,7 @@
         <v>60</v>
       </c>
       <c r="E39">
-        <f>COUNTIF(A:A,A39)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1658,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <f>COUNTIF(A:A,A40)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <f>COUNTIF(A:A,A41)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <f>COUNTIF(A:A,A42)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1703,7 +1703,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <f>COUNTIF(A:A,A43)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1718,7 +1718,7 @@
         <v>86400</v>
       </c>
       <c r="E44">
-        <f>COUNTIF(A:A,A44)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1733,7 +1733,7 @@
         <v>172800</v>
       </c>
       <c r="E45">
-        <f>COUNTIF(A:A,A45)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1748,7 +1748,7 @@
         <v>200</v>
       </c>
       <c r="E46">
-        <f>COUNTIF(A:A,A46)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1763,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="E47">
-        <f>COUNTIF(A:A,A47)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E48">
-        <f>COUNTIF(A:A,A48)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1790,10 +1790,10 @@
         <v>54</v>
       </c>
       <c r="D49">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E49">
-        <f>COUNTIF(A:A,A49)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1805,10 +1805,10 @@
         <v>54</v>
       </c>
       <c r="D50">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E50">
-        <f>COUNTIF(A:A,A50)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1820,10 +1820,10 @@
         <v>97</v>
       </c>
       <c r="D51">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E51">
-        <f>COUNTIF(A:A,A51)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1835,10 +1835,10 @@
         <v>97</v>
       </c>
       <c r="D52">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E52">
-        <f>COUNTIF(A:A,A52)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1850,10 +1850,10 @@
         <v>97</v>
       </c>
       <c r="D53">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E53">
-        <f>COUNTIF(A:A,A53)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1868,7 +1868,7 @@
         <v>2</v>
       </c>
       <c r="E54">
-        <f>COUNTIF(A:A,A54)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1883,7 +1883,7 @@
         <v>2</v>
       </c>
       <c r="E55">
-        <f>COUNTIF(A:A,A55)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1895,7 +1895,7 @@
         <v>16</v>
       </c>
       <c r="E56">
-        <f>COUNTIF(A:A,A56)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
         <v>16</v>
       </c>
       <c r="E57">
-        <f>COUNTIF(A:A,A57)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1922,7 +1922,7 @@
         <v>30</v>
       </c>
       <c r="E58">
-        <f>COUNTIF(A:A,A58)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1937,7 +1937,7 @@
         <v>7</v>
       </c>
       <c r="E59">
-        <f>COUNTIF(A:A,A59)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1952,7 +1952,7 @@
         <v>8</v>
       </c>
       <c r="E60">
-        <f>COUNTIF(A:A,A60)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1967,7 +1967,7 @@
         <v>4</v>
       </c>
       <c r="E61">
-        <f>COUNTIF(A:A,A61)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1982,7 +1982,7 @@
         <v>17</v>
       </c>
       <c r="E62">
-        <f>COUNTIF(A:A,A62)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1997,7 +1997,7 @@
         <v>9</v>
       </c>
       <c r="E63">
-        <f>COUNTIF(A:A,A63)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2012,7 +2012,7 @@
         <v>12</v>
       </c>
       <c r="E64">
-        <f>COUNTIF(A:A,A64)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2024,7 +2024,7 @@
         <v>3</v>
       </c>
       <c r="E65">
-        <f>COUNTIF(A:A,A65)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2039,7 +2039,7 @@
         <v>30</v>
       </c>
       <c r="E66">
-        <f>COUNTIF(A:A,A66)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2054,7 +2054,7 @@
         <v>1200</v>
       </c>
       <c r="E67">
-        <f>COUNTIF(A:A,A67)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2069,7 +2069,7 @@
         <v>3330</v>
       </c>
       <c r="E68">
-        <f>COUNTIF(A:A,A68)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817965FC-2B78-435C-A3D1-9A0A5F6E8272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06D16EB-6A2C-4C86-BF75-A3342694DD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="105">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -617,6 +617,10 @@
   </si>
   <si>
     <t>MaxBossDefense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeSecToGetOneTicket</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1039,11 +1043,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1089,30 +1093,30 @@
         <v>600</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E33" si="0">COUNTIF(A:A,A2)</f>
+        <f>COUNTIF(A:A,A2)</f>
         <v>1</v>
       </c>
       <c r="G2" t="str">
         <f>"{"""&amp;
 A2&amp;""":"&amp;VLOOKUP(A2,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A9&amp;""":"&amp;VLOOKUP(A9,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A10&amp;""":"&amp;VLOOKUP(A10,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A11&amp;""":"&amp;VLOOKUP(A11,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A12&amp;""":"&amp;VLOOKUP(A12,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A13&amp;""":"&amp;VLOOKUP(A13,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A14&amp;""":"&amp;VLOOKUP(A14,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A15&amp;""":"&amp;VLOOKUP(A15,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A18&amp;""":"&amp;VLOOKUP(A18,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A28&amp;""":"&amp;VLOOKUP(A28,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A16&amp;""":"&amp;VLOOKUP(A16,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A19&amp;""":"&amp;VLOOKUP(A19,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A29&amp;""":"&amp;VLOOKUP(A29,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A30&amp;""":"&amp;VLOOKUP(A30,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A31&amp;""":"&amp;VLOOKUP(A31,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A32&amp;""":"&amp;VLOOKUP(A32,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A48&amp;""":"&amp;VLOOKUP(A48,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A59&amp;""":"&amp;VLOOKUP(A59,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A66&amp;""":"&amp;VLOOKUP(A66,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A33&amp;""":"&amp;VLOOKUP(A33,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A49&amp;""":"&amp;VLOOKUP(A49,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A60&amp;""":"&amp;VLOOKUP(A60,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A67&amp;""":"&amp;VLOOKUP(A67,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A68&amp;""":"&amp;VLOOKUP(A68,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
+A68&amp;""":"&amp;VLOOKUP(A68,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A69&amp;""":"&amp;VLOOKUP(A69,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
         <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2000,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"MaxPetCountStep":9,"FortuneWheelGolden":10,"AnalysisBoostRate":7,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330}</v>
       </c>
@@ -1128,7 +1132,7 @@
         <v>400</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A3)</f>
         <v>1</v>
       </c>
     </row>
@@ -1140,7 +1144,7 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A4)</f>
         <v>1</v>
       </c>
     </row>
@@ -1153,338 +1157,332 @@
         <v>192</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A5)</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>960</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A6)</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A7)</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <f>COUNTIF(A:A,A8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>3</v>
       </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>10</v>
-      </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A9)</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A10)</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A11)</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A12)</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A13)</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A14)</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <f>COUNTIF(A:A,A15)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>24</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>3</v>
       </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A16)</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <f>COUNTIF(A:A,A17)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>50</v>
       </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
+      <c r="E18">
+        <f>COUNTIF(A:A,A18)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>4</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>2000</v>
       </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2" t="s">
+      <c r="E19">
+        <f>COUNTIF(A:A,A19)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>26</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>1000</v>
       </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
+      <c r="E20">
+        <f>COUNTIF(A:A,A20)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
         <v>16</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>20</v>
       </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="5" t="s">
+      <c r="E21">
+        <f>COUNTIF(A:A,A21)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <f>3*24*60*60</f>
         <v>259200</v>
       </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="5" t="s">
+      <c r="E22">
+        <f>COUNTIF(A:A,A22)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>5</v>
       </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23">
-        <v>1000</v>
-      </c>
       <c r="E23">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A23)</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24">
+        <v>1000</v>
+      </c>
+      <c r="E24">
+        <f>COUNTIF(A:A,A24)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>33</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A25)</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A26)</f>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <f>COUNTIF(A:A,A27)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
         <v>35</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>5</v>
       </c>
-      <c r="E27">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28">
-        <v>10</v>
-      </c>
       <c r="E28">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A28)</f>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
         <v>4</v>
       </c>
-      <c r="C29" t="s">
-        <v>90</v>
-      </c>
       <c r="D29">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A29)</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
@@ -1493,343 +1491,346 @@
         <v>90</v>
       </c>
       <c r="D30">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A30)</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A31)</f>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
       </c>
       <c r="C32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32">
+        <v>300</v>
+      </c>
+      <c r="E32">
+        <f>COUNTIF(A:A,A32)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
         <v>57</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <v>9</v>
       </c>
-      <c r="E32">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="4" t="s">
+      <c r="E33">
+        <f>COUNTIF(A:A,A33)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3" t="s">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D34" s="3">
         <f>14*24*60*60</f>
         <v>1209600</v>
       </c>
-      <c r="E33">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1" t="s">
+      <c r="E34">
+        <f>COUNTIF(A:A,A34)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>54</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>48</v>
       </c>
-      <c r="D34">
+      <c r="D35">
         <v>2</v>
       </c>
-      <c r="E34">
-        <f t="shared" ref="E34:E68" si="1">COUNTIF(A:A,A34)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="4" t="s">
+      <c r="E35">
+        <f>COUNTIF(A:A,A35)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>94</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <f>28*24*60*60</f>
         <v>2419200</v>
       </c>
-      <c r="E35">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36">
-        <v>20</v>
-      </c>
       <c r="E36">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A36)</f>
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D37">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="E37">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A37)</f>
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="4" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="E38">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A38)</f>
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <f>COUNTIF(A:A,A39)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>87</v>
       </c>
-      <c r="D39">
+      <c r="D40">
         <v>60</v>
       </c>
-      <c r="E39">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
       <c r="E40">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A40)</f>
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <f>COUNTIF(A:A,A41)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
         <v>45</v>
       </c>
-      <c r="D41">
+      <c r="D42">
         <v>3</v>
       </c>
-      <c r="E41">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="1" t="s">
+      <c r="E42">
+        <f>COUNTIF(A:A,A42)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>54</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>50</v>
       </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" t="s">
-        <v>51</v>
-      </c>
       <c r="D43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E43">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A43)</f>
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D44">
-        <v>86400</v>
+        <v>3</v>
       </c>
       <c r="E44">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A44)</f>
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45">
+        <v>86400</v>
+      </c>
+      <c r="E45">
+        <f>COUNTIF(A:A,A45)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
         <v>53</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>56</v>
       </c>
-      <c r="D45">
+      <c r="D46">
         <v>172800</v>
       </c>
-      <c r="E45">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B46" t="s">
-        <v>54</v>
-      </c>
-      <c r="D46">
-        <v>200</v>
-      </c>
       <c r="E46">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A46)</f>
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B47" t="s">
         <v>54</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E47">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A47)</f>
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="D48">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E48">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A48)</f>
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="D49">
         <v>10</v>
       </c>
       <c r="E49">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A49)</f>
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B50" t="s">
         <v>54</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E50">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A50)</f>
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="D51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E51">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A51)</f>
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B52" t="s">
         <v>97</v>
@@ -1838,43 +1839,43 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A52)</f>
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B53" t="s">
         <v>97</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E53">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A53)</f>
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="D54">
         <v>2</v>
       </c>
       <c r="E54">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A54)</f>
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B55" t="s">
         <v>54</v>
@@ -1883,193 +1884,208 @@
         <v>2</v>
       </c>
       <c r="E55">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A55)</f>
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B56" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <f>COUNTIF(A:A,A56)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="D56">
-        <v>16</v>
-      </c>
-      <c r="E56">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="D57">
         <v>16</v>
       </c>
       <c r="E57">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A57)</f>
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B58" t="s">
-        <v>54</v>
+      <c r="A58" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="D58">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E58">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A58)</f>
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" t="s">
+        <v>54</v>
+      </c>
+      <c r="D59">
+        <v>30</v>
+      </c>
+      <c r="E59">
+        <f>COUNTIF(A:A,A59)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>4</v>
       </c>
-      <c r="D59">
+      <c r="D60">
         <v>7</v>
       </c>
-      <c r="E59">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="4" t="s">
+      <c r="E60">
+        <f>COUNTIF(A:A,A60)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" t="s">
         <v>72</v>
       </c>
-      <c r="D60">
+      <c r="D61">
         <v>8</v>
       </c>
-      <c r="E60">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C61" t="s">
-        <v>71</v>
-      </c>
-      <c r="D61">
-        <v>4</v>
-      </c>
       <c r="E61">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A61)</f>
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C62" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D62">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E62">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A62)</f>
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C63" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D63">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E63">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A63)</f>
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C64" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D64">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E64">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A64)</f>
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" t="s">
+        <v>74</v>
+      </c>
+      <c r="D65">
+        <v>12</v>
+      </c>
+      <c r="E65">
+        <f>COUNTIF(A:A,A65)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D65">
+      <c r="D66">
         <v>3</v>
       </c>
-      <c r="E65">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B66" t="s">
-        <v>4</v>
-      </c>
-      <c r="D66">
-        <v>30</v>
-      </c>
       <c r="E66">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A66)</f>
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B67" t="s">
         <v>4</v>
       </c>
       <c r="D67">
-        <v>1200</v>
+        <v>30</v>
       </c>
       <c r="E67">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A67)</f>
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B68" t="s">
         <v>4</v>
       </c>
       <c r="D68">
+        <v>1200</v>
+      </c>
+      <c r="E68">
+        <f>COUNTIF(A:A,A68)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B69" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69">
         <v>3330</v>
       </c>
-      <c r="E68">
-        <f t="shared" si="1"/>
+      <c r="E69">
+        <f>COUNTIF(A:A,A69)</f>
         <v>1</v>
       </c>
     </row>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06D16EB-6A2C-4C86-BF75-A3342694DD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614E39C2-9CA3-48C8-9B53-2A9D6D269D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="107">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -621,6 +621,14 @@
   </si>
   <si>
     <t>TimeSecToGetOneTicket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rushDefMx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossDefMx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1046,8 +1054,8 @@
   <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1904,8 +1912,11 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="2" t="s">
         <v>102</v>
+      </c>
+      <c r="B57" t="s">
+        <v>105</v>
       </c>
       <c r="D57">
         <v>16</v>
@@ -1916,8 +1927,11 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="2" t="s">
         <v>103</v>
+      </c>
+      <c r="B58" t="s">
+        <v>106</v>
       </c>
       <c r="D58">
         <v>16</v>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614E39C2-9CA3-48C8-9B53-2A9D6D269D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB24C1BD-5F7F-4D2D-80B7-0FEF6970F15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -1055,7 +1055,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A57" sqref="A57"/>
+      <selection pane="bottomLeft" activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1101,7 +1101,7 @@
         <v>600</v>
       </c>
       <c r="E2">
-        <f>COUNTIF(A:A,A2)</f>
+        <f t="shared" ref="E2:E33" si="0">COUNTIF(A:A,A2)</f>
         <v>1</v>
       </c>
       <c r="G2" t="str">
@@ -1140,7 +1140,7 @@
         <v>400</v>
       </c>
       <c r="E3">
-        <f>COUNTIF(A:A,A3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <f>COUNTIF(A:A,A4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1165,7 +1165,7 @@
         <v>192</v>
       </c>
       <c r="E5">
-        <f>COUNTIF(A:A,A5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
         <v>960</v>
       </c>
       <c r="E6">
-        <f>COUNTIF(A:A,A6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <f>COUNTIF(A:A,A7)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <f>COUNTIF(A:A,A8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <f>COUNTIF(A:A,A9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
         <v>10</v>
       </c>
       <c r="E10">
-        <f>COUNTIF(A:A,A10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <f>COUNTIF(A:A,A11)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1258,7 +1258,7 @@
         <v>2</v>
       </c>
       <c r="E12">
-        <f>COUNTIF(A:A,A12)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <f>COUNTIF(A:A,A13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1288,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <f>COUNTIF(A:A,A14)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <f>COUNTIF(A:A,A15)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1318,7 +1318,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <f>COUNTIF(A:A,A16)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <f>COUNTIF(A:A,A17)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1342,7 +1342,7 @@
         <v>50</v>
       </c>
       <c r="E18">
-        <f>COUNTIF(A:A,A18)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
         <v>2000</v>
       </c>
       <c r="E19">
-        <f>COUNTIF(A:A,A19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1372,7 +1372,7 @@
         <v>1000</v>
       </c>
       <c r="E20">
-        <f>COUNTIF(A:A,A20)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1384,7 +1384,7 @@
         <v>20</v>
       </c>
       <c r="E21">
-        <f>COUNTIF(A:A,A21)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
         <v>259200</v>
       </c>
       <c r="E22">
-        <f>COUNTIF(A:A,A22)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
         <v>5</v>
       </c>
       <c r="E23">
-        <f>COUNTIF(A:A,A23)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1421,7 +1421,7 @@
         <v>1000</v>
       </c>
       <c r="E24">
-        <f>COUNTIF(A:A,A24)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1433,7 +1433,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <f>COUNTIF(A:A,A25)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1445,7 +1445,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <f>COUNTIF(A:A,A26)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1457,7 +1457,7 @@
         <v>4</v>
       </c>
       <c r="E27">
-        <f>COUNTIF(A:A,A27)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1469,7 +1469,7 @@
         <v>5</v>
       </c>
       <c r="E28">
-        <f>COUNTIF(A:A,A28)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1484,7 +1484,7 @@
         <v>10</v>
       </c>
       <c r="E29">
-        <f>COUNTIF(A:A,A29)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1502,7 +1502,7 @@
         <v>17</v>
       </c>
       <c r="E30">
-        <f>COUNTIF(A:A,A30)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1520,7 +1520,7 @@
         <v>30</v>
       </c>
       <c r="E31">
-        <f>COUNTIF(A:A,A31)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1538,7 +1538,7 @@
         <v>300</v>
       </c>
       <c r="E32">
-        <f>COUNTIF(A:A,A32)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
         <v>9</v>
       </c>
       <c r="E33">
-        <f>COUNTIF(A:A,A33)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1573,7 +1573,7 @@
         <v>1209600</v>
       </c>
       <c r="E34">
-        <f>COUNTIF(A:A,A34)</f>
+        <f t="shared" ref="E34:E69" si="1">COUNTIF(A:A,A34)</f>
         <v>1</v>
       </c>
     </row>
@@ -1591,7 +1591,7 @@
         <v>2</v>
       </c>
       <c r="E35">
-        <f>COUNTIF(A:A,A35)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1607,7 +1607,7 @@
         <v>2419200</v>
       </c>
       <c r="E36">
-        <f>COUNTIF(A:A,A36)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1622,7 +1622,7 @@
         <v>20</v>
       </c>
       <c r="E37">
-        <f>COUNTIF(A:A,A37)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
         <v>66</v>
       </c>
       <c r="E38">
-        <f>COUNTIF(A:A,A38)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <f>COUNTIF(A:A,A39)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
         <v>60</v>
       </c>
       <c r="E40">
-        <f>COUNTIF(A:A,A40)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1682,7 +1682,7 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <f>COUNTIF(A:A,A41)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1694,7 +1694,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <f>COUNTIF(A:A,A42)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1712,7 +1712,7 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <f>COUNTIF(A:A,A43)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <f>COUNTIF(A:A,A44)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1742,7 +1742,7 @@
         <v>86400</v>
       </c>
       <c r="E45">
-        <f>COUNTIF(A:A,A45)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1757,7 +1757,7 @@
         <v>172800</v>
       </c>
       <c r="E46">
-        <f>COUNTIF(A:A,A46)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
         <v>200</v>
       </c>
       <c r="E47">
-        <f>COUNTIF(A:A,A47)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1787,7 +1787,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <f>COUNTIF(A:A,A48)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1802,7 +1802,7 @@
         <v>10</v>
       </c>
       <c r="E49">
-        <f>COUNTIF(A:A,A49)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1817,7 +1817,7 @@
         <v>10</v>
       </c>
       <c r="E50">
-        <f>COUNTIF(A:A,A50)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1832,7 +1832,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <f>COUNTIF(A:A,A51)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1847,7 +1847,7 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <f>COUNTIF(A:A,A52)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1862,7 +1862,7 @@
         <v>5</v>
       </c>
       <c r="E53">
-        <f>COUNTIF(A:A,A53)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
         <v>2</v>
       </c>
       <c r="E54">
-        <f>COUNTIF(A:A,A54)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1892,7 +1892,7 @@
         <v>2</v>
       </c>
       <c r="E55">
-        <f>COUNTIF(A:A,A55)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
         <v>2</v>
       </c>
       <c r="E56">
-        <f>COUNTIF(A:A,A56)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1922,7 +1922,7 @@
         <v>16</v>
       </c>
       <c r="E57">
-        <f>COUNTIF(A:A,A57)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1937,7 +1937,7 @@
         <v>16</v>
       </c>
       <c r="E58">
-        <f>COUNTIF(A:A,A58)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1952,7 +1952,7 @@
         <v>30</v>
       </c>
       <c r="E59">
-        <f>COUNTIF(A:A,A59)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1967,7 +1967,7 @@
         <v>7</v>
       </c>
       <c r="E60">
-        <f>COUNTIF(A:A,A60)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1982,7 +1982,7 @@
         <v>8</v>
       </c>
       <c r="E61">
-        <f>COUNTIF(A:A,A61)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1997,7 +1997,7 @@
         <v>4</v>
       </c>
       <c r="E62">
-        <f>COUNTIF(A:A,A62)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2012,7 +2012,7 @@
         <v>17</v>
       </c>
       <c r="E63">
-        <f>COUNTIF(A:A,A63)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
         <v>9</v>
       </c>
       <c r="E64">
-        <f>COUNTIF(A:A,A64)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2042,7 +2042,7 @@
         <v>12</v>
       </c>
       <c r="E65">
-        <f>COUNTIF(A:A,A65)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2051,10 +2051,10 @@
         <v>76</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E66">
-        <f>COUNTIF(A:A,A66)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2069,7 +2069,7 @@
         <v>30</v>
       </c>
       <c r="E67">
-        <f>COUNTIF(A:A,A67)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2084,7 +2084,7 @@
         <v>1200</v>
       </c>
       <c r="E68">
-        <f>COUNTIF(A:A,A68)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2099,7 +2099,7 @@
         <v>3330</v>
       </c>
       <c r="E69">
-        <f>COUNTIF(A:A,A69)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2115,7 +2115,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB24C1BD-5F7F-4D2D-80B7-0FEF6970F15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FF2F32-1E48-4BB1-ACE5-F850A093E349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="109">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -629,6 +629,14 @@
   </si>
   <si>
     <t>bossDefMx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxBossBattle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossBattleMx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1051,11 +1059,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A66" sqref="A66"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1101,7 +1109,7 @@
         <v>600</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E33" si="0">COUNTIF(A:A,A2)</f>
+        <f>COUNTIF(A:A,A2)</f>
         <v>1</v>
       </c>
       <c r="G2" t="str">
@@ -1121,10 +1129,10 @@
 A32&amp;""":"&amp;VLOOKUP(A32,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A33&amp;""":"&amp;VLOOKUP(A33,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A49&amp;""":"&amp;VLOOKUP(A49,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A60&amp;""":"&amp;VLOOKUP(A60,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A67&amp;""":"&amp;VLOOKUP(A67,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A61&amp;""":"&amp;VLOOKUP(A61,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A68&amp;""":"&amp;VLOOKUP(A68,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A69&amp;""":"&amp;VLOOKUP(A69,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
+A69&amp;""":"&amp;VLOOKUP(A69,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A70&amp;""":"&amp;VLOOKUP(A70,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
         <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2000,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"MaxPetCountStep":9,"FortuneWheelGolden":10,"AnalysisBoostRate":7,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330}</v>
       </c>
@@ -1140,7 +1148,7 @@
         <v>400</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A3)</f>
         <v>1</v>
       </c>
     </row>
@@ -1152,7 +1160,7 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A4)</f>
         <v>1</v>
       </c>
     </row>
@@ -1165,7 +1173,7 @@
         <v>192</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A5)</f>
         <v>1</v>
       </c>
     </row>
@@ -1177,7 +1185,7 @@
         <v>960</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A6)</f>
         <v>1</v>
       </c>
     </row>
@@ -1189,7 +1197,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A7)</f>
         <v>1</v>
       </c>
     </row>
@@ -1201,7 +1209,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A8)</f>
         <v>1</v>
       </c>
     </row>
@@ -1213,7 +1221,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A9)</f>
         <v>1</v>
       </c>
     </row>
@@ -1228,7 +1236,7 @@
         <v>10</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A10)</f>
         <v>1</v>
       </c>
     </row>
@@ -1243,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A11)</f>
         <v>1</v>
       </c>
     </row>
@@ -1258,7 +1266,7 @@
         <v>2</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A12)</f>
         <v>1</v>
       </c>
     </row>
@@ -1273,7 +1281,7 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A13)</f>
         <v>1</v>
       </c>
     </row>
@@ -1288,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A14)</f>
         <v>1</v>
       </c>
     </row>
@@ -1303,7 +1311,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A15)</f>
         <v>1</v>
       </c>
     </row>
@@ -1318,7 +1326,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A16)</f>
         <v>1</v>
       </c>
     </row>
@@ -1330,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A17)</f>
         <v>1</v>
       </c>
     </row>
@@ -1342,7 +1350,7 @@
         <v>50</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A18)</f>
         <v>1</v>
       </c>
     </row>
@@ -1357,7 +1365,7 @@
         <v>2000</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A19)</f>
         <v>1</v>
       </c>
     </row>
@@ -1372,7 +1380,7 @@
         <v>1000</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A20)</f>
         <v>1</v>
       </c>
     </row>
@@ -1384,7 +1392,7 @@
         <v>20</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A21)</f>
         <v>1</v>
       </c>
     </row>
@@ -1397,7 +1405,7 @@
         <v>259200</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A22)</f>
         <v>1</v>
       </c>
     </row>
@@ -1409,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A23)</f>
         <v>1</v>
       </c>
     </row>
@@ -1421,7 +1429,7 @@
         <v>1000</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A24)</f>
         <v>1</v>
       </c>
     </row>
@@ -1433,7 +1441,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A25)</f>
         <v>1</v>
       </c>
     </row>
@@ -1445,7 +1453,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A26)</f>
         <v>1</v>
       </c>
     </row>
@@ -1457,7 +1465,7 @@
         <v>4</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A27)</f>
         <v>1</v>
       </c>
     </row>
@@ -1469,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A28)</f>
         <v>1</v>
       </c>
     </row>
@@ -1484,7 +1492,7 @@
         <v>10</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A29)</f>
         <v>1</v>
       </c>
     </row>
@@ -1502,7 +1510,7 @@
         <v>17</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A30)</f>
         <v>1</v>
       </c>
     </row>
@@ -1520,7 +1528,7 @@
         <v>30</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A31)</f>
         <v>1</v>
       </c>
     </row>
@@ -1538,7 +1546,7 @@
         <v>300</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A32)</f>
         <v>1</v>
       </c>
     </row>
@@ -1556,7 +1564,7 @@
         <v>9</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A33)</f>
         <v>1</v>
       </c>
     </row>
@@ -1573,7 +1581,7 @@
         <v>1209600</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34:E69" si="1">COUNTIF(A:A,A34)</f>
+        <f>COUNTIF(A:A,A34)</f>
         <v>1</v>
       </c>
     </row>
@@ -1591,7 +1599,7 @@
         <v>2</v>
       </c>
       <c r="E35">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A35)</f>
         <v>1</v>
       </c>
     </row>
@@ -1607,7 +1615,7 @@
         <v>2419200</v>
       </c>
       <c r="E36">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A36)</f>
         <v>1</v>
       </c>
     </row>
@@ -1622,7 +1630,7 @@
         <v>20</v>
       </c>
       <c r="E37">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A37)</f>
         <v>1</v>
       </c>
     </row>
@@ -1637,7 +1645,7 @@
         <v>66</v>
       </c>
       <c r="E38">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A38)</f>
         <v>1</v>
       </c>
     </row>
@@ -1652,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A39)</f>
         <v>1</v>
       </c>
     </row>
@@ -1667,7 +1675,7 @@
         <v>60</v>
       </c>
       <c r="E40">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A40)</f>
         <v>1</v>
       </c>
     </row>
@@ -1682,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A41)</f>
         <v>1</v>
       </c>
     </row>
@@ -1694,7 +1702,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A42)</f>
         <v>1</v>
       </c>
     </row>
@@ -1712,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A43)</f>
         <v>1</v>
       </c>
     </row>
@@ -1727,7 +1735,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A44)</f>
         <v>1</v>
       </c>
     </row>
@@ -1742,7 +1750,7 @@
         <v>86400</v>
       </c>
       <c r="E45">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A45)</f>
         <v>1</v>
       </c>
     </row>
@@ -1757,7 +1765,7 @@
         <v>172800</v>
       </c>
       <c r="E46">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A46)</f>
         <v>1</v>
       </c>
     </row>
@@ -1772,7 +1780,7 @@
         <v>200</v>
       </c>
       <c r="E47">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A47)</f>
         <v>1</v>
       </c>
     </row>
@@ -1787,7 +1795,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A48)</f>
         <v>1</v>
       </c>
     </row>
@@ -1802,7 +1810,7 @@
         <v>10</v>
       </c>
       <c r="E49">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A49)</f>
         <v>1</v>
       </c>
     </row>
@@ -1817,7 +1825,7 @@
         <v>10</v>
       </c>
       <c r="E50">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A50)</f>
         <v>1</v>
       </c>
     </row>
@@ -1832,7 +1840,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A51)</f>
         <v>1</v>
       </c>
     </row>
@@ -1847,7 +1855,7 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A52)</f>
         <v>1</v>
       </c>
     </row>
@@ -1862,7 +1870,7 @@
         <v>5</v>
       </c>
       <c r="E53">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A53)</f>
         <v>1</v>
       </c>
     </row>
@@ -1877,7 +1885,7 @@
         <v>2</v>
       </c>
       <c r="E54">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A54)</f>
         <v>1</v>
       </c>
     </row>
@@ -1892,7 +1900,7 @@
         <v>2</v>
       </c>
       <c r="E55">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A55)</f>
         <v>1</v>
       </c>
     </row>
@@ -1907,7 +1915,7 @@
         <v>2</v>
       </c>
       <c r="E56">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A56)</f>
         <v>1</v>
       </c>
     </row>
@@ -1922,7 +1930,7 @@
         <v>16</v>
       </c>
       <c r="E57">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A57)</f>
         <v>1</v>
       </c>
     </row>
@@ -1937,169 +1945,184 @@
         <v>16</v>
       </c>
       <c r="E58">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A58)</f>
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="1" t="s">
-        <v>64</v>
+      <c r="A59" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="D59">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E59">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A59)</f>
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60">
+        <v>30</v>
+      </c>
+      <c r="E60">
+        <f>COUNTIF(A:A,A60)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>4</v>
       </c>
-      <c r="D60">
+      <c r="D61">
         <v>7</v>
       </c>
-      <c r="E60">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="4" t="s">
+      <c r="E61">
+        <f>COUNTIF(A:A,A61)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" t="s">
         <v>72</v>
       </c>
-      <c r="D61">
+      <c r="D62">
         <v>8</v>
       </c>
-      <c r="E61">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C62" t="s">
-        <v>71</v>
-      </c>
-      <c r="D62">
-        <v>4</v>
-      </c>
       <c r="E62">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A62)</f>
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C63" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D63">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E63">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A63)</f>
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C64" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D64">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E64">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A64)</f>
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D65">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E65">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A65)</f>
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" t="s">
+        <v>74</v>
+      </c>
+      <c r="D66">
+        <v>12</v>
+      </c>
+      <c r="E66">
+        <f>COUNTIF(A:A,A66)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D66">
+      <c r="D67">
         <v>6</v>
       </c>
-      <c r="E66">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B67" t="s">
-        <v>4</v>
-      </c>
-      <c r="D67">
-        <v>30</v>
-      </c>
       <c r="E67">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A67)</f>
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B68" t="s">
         <v>4</v>
       </c>
       <c r="D68">
-        <v>1200</v>
+        <v>30</v>
       </c>
       <c r="E68">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A68)</f>
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B69" t="s">
         <v>4</v>
       </c>
       <c r="D69">
+        <v>1200</v>
+      </c>
+      <c r="E69">
+        <f>COUNTIF(A:A,A69)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70">
         <v>3330</v>
       </c>
-      <c r="E69">
-        <f t="shared" si="1"/>
+      <c r="E70">
+        <f>COUNTIF(A:A,A70)</f>
         <v>1</v>
       </c>
     </row>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FF2F32-1E48-4BB1-ACE5-F850A093E349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FADB87-1803-4849-B995-F0E077861D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="111">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -637,6 +637,14 @@
   </si>
   <si>
     <t>bossBattleMx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxBossBattleXpLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boxxBattleXpLev</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1059,20 +1067,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="32.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="29.75" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="14.125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="29.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="9" collapsed="1"/>
+    <col min="5" max="5" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="9" collapsed="1"/>
+    <col min="7" max="7" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="9" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27" customHeight="1">
@@ -1129,10 +1140,10 @@
 A32&amp;""":"&amp;VLOOKUP(A32,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A33&amp;""":"&amp;VLOOKUP(A33,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A49&amp;""":"&amp;VLOOKUP(A49,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A61&amp;""":"&amp;VLOOKUP(A61,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A68&amp;""":"&amp;VLOOKUP(A68,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A62&amp;""":"&amp;VLOOKUP(A62,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A69&amp;""":"&amp;VLOOKUP(A69,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A70&amp;""":"&amp;VLOOKUP(A70,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
+A70&amp;""":"&amp;VLOOKUP(A70,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A71&amp;""":"&amp;VLOOKUP(A71,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
         <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2000,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"MaxPetCountStep":9,"FortuneWheelGolden":10,"AnalysisBoostRate":7,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330}</v>
       </c>
@@ -1951,10 +1962,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B59" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D59">
         <v>4</v>
@@ -1965,14 +1976,14 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="1" t="s">
-        <v>64</v>
+      <c r="A60" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="B60" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="D60">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E60">
         <f>COUNTIF(A:A,A60)</f>
@@ -1981,13 +1992,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="D61">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E61">
         <f>COUNTIF(A:A,A61)</f>
@@ -1995,14 +2006,14 @@
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C62" t="s">
-        <v>72</v>
+      <c r="A62" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4</v>
       </c>
       <c r="D62">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E62">
         <f>COUNTIF(A:A,A62)</f>
@@ -2010,14 +2021,14 @@
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="3" t="s">
-        <v>67</v>
+      <c r="A63" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D63">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E63">
         <f>COUNTIF(A:A,A63)</f>
@@ -2026,13 +2037,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D64">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E64">
         <f>COUNTIF(A:A,A64)</f>
@@ -2041,13 +2052,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D65">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E65">
         <f>COUNTIF(A:A,A65)</f>
@@ -2056,13 +2067,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D66">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E66">
         <f>COUNTIF(A:A,A66)</f>
@@ -2071,10 +2082,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="C67" t="s">
+        <v>74</v>
       </c>
       <c r="D67">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E67">
         <f>COUNTIF(A:A,A67)</f>
@@ -2082,14 +2096,11 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B68" t="s">
-        <v>4</v>
+      <c r="A68" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="D68">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E68">
         <f>COUNTIF(A:A,A68)</f>
@@ -2098,13 +2109,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B69" t="s">
         <v>4</v>
       </c>
       <c r="D69">
-        <v>1200</v>
+        <v>30</v>
       </c>
       <c r="E69">
         <f>COUNTIF(A:A,A69)</f>
@@ -2113,16 +2124,31 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B70" t="s">
         <v>4</v>
       </c>
       <c r="D70">
-        <v>3330</v>
+        <v>1200</v>
       </c>
       <c r="E70">
         <f>COUNTIF(A:A,A70)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71">
+        <v>3330</v>
+      </c>
+      <c r="E71">
+        <f>COUNTIF(A:A,A71)</f>
         <v>1</v>
       </c>
     </row>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FADB87-1803-4849-B995-F0E077861D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C583C88F-51F6-479C-A94B-A4980D61F098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="117">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -646,6 +646,26 @@
   <si>
     <t>boxxBattleXpLev</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BossBattleDailyCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BossBattleDailyBonusTimes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BossBattleRegenDelay100</t>
+  </si>
+  <si>
+    <t>BossBattleRegenTickDelay100</t>
+  </si>
+  <si>
+    <t>BossBattleRegenHpRatio100</t>
+  </si>
+  <si>
+    <t>MaxBossBattleDifficulty</t>
   </si>
 </sst>
 </file>
@@ -1067,23 +1087,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A59" sqref="A59"/>
+      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="32.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="29.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="9" collapsed="1"/>
-    <col min="5" max="5" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="9" collapsed="1"/>
-    <col min="7" max="7" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="9" collapsed="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="29.75" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27" customHeight="1">
@@ -1141,11 +1158,16 @@
 A33&amp;""":"&amp;VLOOKUP(A33,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A49&amp;""":"&amp;VLOOKUP(A49,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A62&amp;""":"&amp;VLOOKUP(A62,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A69&amp;""":"&amp;VLOOKUP(A69,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A70&amp;""":"&amp;VLOOKUP(A70,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A71&amp;""":"&amp;VLOOKUP(A71,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
+A63&amp;""":"&amp;VLOOKUP(A63,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A64&amp;""":"&amp;VLOOKUP(A64,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A65&amp;""":"&amp;VLOOKUP(A65,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A66&amp;""":"&amp;VLOOKUP(A66,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A68&amp;""":"&amp;VLOOKUP(A68,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A75&amp;""":"&amp;VLOOKUP(A75,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A76&amp;""":"&amp;VLOOKUP(A76,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A77&amp;""":"&amp;VLOOKUP(A77,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
-        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2000,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"MaxPetCountStep":9,"FortuneWheelGolden":10,"AnalysisBoostRate":7,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330}</v>
+        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2000,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"MaxPetCountStep":9,"FortuneWheelGolden":10,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":300,"BossBattleRegenTickDelay100":90,"BossBattleRegenHpRatio100":10,"MaxBossBattleDifficulty":28,"AnalysisBoostRate":7,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330}</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1991,14 +2013,14 @@
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="1" t="s">
-        <v>64</v>
+      <c r="A61" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="B61" t="s">
         <v>54</v>
       </c>
       <c r="D61">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E61">
         <f>COUNTIF(A:A,A61)</f>
@@ -2006,14 +2028,14 @@
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="1" t="s">
-        <v>65</v>
+      <c r="A62" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="B62" t="s">
         <v>4</v>
       </c>
       <c r="D62">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E62">
         <f>COUNTIF(A:A,A62)</f>
@@ -2021,14 +2043,14 @@
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C63" t="s">
-        <v>72</v>
+      <c r="A63" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
       </c>
       <c r="D63">
-        <v>8</v>
+        <v>300</v>
       </c>
       <c r="E63">
         <f>COUNTIF(A:A,A63)</f>
@@ -2036,14 +2058,14 @@
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C64" t="s">
-        <v>71</v>
+      <c r="A64" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4</v>
       </c>
       <c r="D64">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="E64">
         <f>COUNTIF(A:A,A64)</f>
@@ -2051,14 +2073,14 @@
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C65" t="s">
-        <v>75</v>
+      <c r="A65" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4</v>
       </c>
       <c r="D65">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E65">
         <f>COUNTIF(A:A,A65)</f>
@@ -2066,14 +2088,14 @@
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C66" t="s">
-        <v>73</v>
+      <c r="A66" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
       </c>
       <c r="D66">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E66">
         <f>COUNTIF(A:A,A66)</f>
@@ -2081,14 +2103,14 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C67" t="s">
-        <v>74</v>
+      <c r="A67" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B67" t="s">
+        <v>54</v>
       </c>
       <c r="D67">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E67">
         <f>COUNTIF(A:A,A67)</f>
@@ -2096,11 +2118,14 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="3" t="s">
-        <v>76</v>
+      <c r="A68" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B68" t="s">
+        <v>4</v>
       </c>
       <c r="D68">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E68">
         <f>COUNTIF(A:A,A68)</f>
@@ -2108,14 +2133,14 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B69" t="s">
-        <v>4</v>
+      <c r="A69" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69" t="s">
+        <v>72</v>
       </c>
       <c r="D69">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E69">
         <f>COUNTIF(A:A,A69)</f>
@@ -2123,14 +2148,14 @@
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B70" t="s">
-        <v>4</v>
+      <c r="A70" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C70" t="s">
+        <v>71</v>
       </c>
       <c r="D70">
-        <v>1200</v>
+        <v>4</v>
       </c>
       <c r="E70">
         <f>COUNTIF(A:A,A70)</f>
@@ -2138,17 +2163,104 @@
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B71" t="s">
-        <v>4</v>
+      <c r="A71" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C71" t="s">
+        <v>75</v>
       </c>
       <c r="D71">
-        <v>3330</v>
+        <v>17</v>
       </c>
       <c r="E71">
         <f>COUNTIF(A:A,A71)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72" t="s">
+        <v>73</v>
+      </c>
+      <c r="D72">
+        <v>9</v>
+      </c>
+      <c r="E72">
+        <f>COUNTIF(A:A,A72)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C73" t="s">
+        <v>74</v>
+      </c>
+      <c r="D73">
+        <v>12</v>
+      </c>
+      <c r="E73">
+        <f>COUNTIF(A:A,A73)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D74">
+        <v>6</v>
+      </c>
+      <c r="E74">
+        <f>COUNTIF(A:A,A74)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75">
+        <v>30</v>
+      </c>
+      <c r="E75">
+        <f>COUNTIF(A:A,A75)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76">
+        <v>1200</v>
+      </c>
+      <c r="E76">
+        <f>COUNTIF(A:A,A76)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77">
+        <v>3330</v>
+      </c>
+      <c r="E77">
+        <f>COUNTIF(A:A,A77)</f>
         <v>1</v>
       </c>
     </row>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C583C88F-51F6-479C-A94B-A4980D61F098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F607DA-5D8F-4433-8BC5-C9B919394785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -1090,8 +1090,8 @@
   <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1629,7 +1629,7 @@
         <v>48</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E35">
         <f>COUNTIF(A:A,A35)</f>
@@ -1855,7 +1855,7 @@
         <v>54</v>
       </c>
       <c r="D50">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E50">
         <f>COUNTIF(A:A,A50)</f>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F607DA-5D8F-4433-8BC5-C9B919394785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE38384-1F63-4C0E-87C7-F142CCB09DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -1090,8 +1090,8 @@
   <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1167,7 +1167,7 @@
 A76&amp;""":"&amp;VLOOKUP(A76,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A77&amp;""":"&amp;VLOOKUP(A77,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
-        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2000,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"MaxPetCountStep":9,"FortuneWheelGolden":10,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":300,"BossBattleRegenTickDelay100":90,"BossBattleRegenHpRatio100":10,"MaxBossBattleDifficulty":28,"AnalysisBoostRate":7,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330}</v>
+        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2400,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"MaxPetCountStep":9,"FortuneWheelGolden":10,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":300,"BossBattleRegenTickDelay100":90,"BossBattleRegenHpRatio100":10,"MaxBossBattleDifficulty":28,"AnalysisBoostRate":7,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330}</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1395,7 +1395,7 @@
         <v>4</v>
       </c>
       <c r="D19">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="E19">
         <f>COUNTIF(A:A,A19)</f>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE38384-1F63-4C0E-87C7-F142CCB09DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53742897-BC1B-4F99-A26F-DFB556356DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="120">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -666,6 +666,18 @@
   </si>
   <si>
     <t>MaxBossBattleDifficulty</t>
+  </si>
+  <si>
+    <t>BossBattleXpLevelBonus100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스별 레벨당 추뎀(1레벨=&gt;0%추가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BossBattleRefreshPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1087,20 +1099,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="32.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="29.75" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="14.125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="29.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="9" collapsed="1"/>
+    <col min="5" max="5" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="9" collapsed="1"/>
+    <col min="7" max="7" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="9" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27" customHeight="1">
@@ -1162,12 +1177,13 @@
 A64&amp;""":"&amp;VLOOKUP(A64,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A65&amp;""":"&amp;VLOOKUP(A65,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A66&amp;""":"&amp;VLOOKUP(A66,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A68&amp;""":"&amp;VLOOKUP(A68,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A75&amp;""":"&amp;VLOOKUP(A75,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A67&amp;""":"&amp;VLOOKUP(A67,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A69&amp;""":"&amp;VLOOKUP(A69,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A76&amp;""":"&amp;VLOOKUP(A76,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A77&amp;""":"&amp;VLOOKUP(A77,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
+A77&amp;""":"&amp;VLOOKUP(A77,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A78&amp;""":"&amp;VLOOKUP(A78,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
-        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2400,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"MaxPetCountStep":9,"FortuneWheelGolden":10,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":300,"BossBattleRegenTickDelay100":90,"BossBattleRegenHpRatio100":10,"MaxBossBattleDifficulty":28,"AnalysisBoostRate":7,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330}</v>
+        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2400,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"MaxPetCountStep":9,"FortuneWheelGolden":10,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":300,"BossBattleRegenTickDelay100":90,"BossBattleRegenHpRatio100":10,"BossBattleXpLevelBonus100":3,"MaxBossBattleDifficulty":28,"AnalysisBoostRate":7,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330}</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2089,13 +2105,16 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B66" t="s">
         <v>4</v>
       </c>
+      <c r="C66" t="s">
+        <v>118</v>
+      </c>
       <c r="D66">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E66">
         <f>COUNTIF(A:A,A66)</f>
@@ -2103,14 +2122,14 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="1" t="s">
-        <v>64</v>
+      <c r="A67" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="B67" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="D67">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E67">
         <f>COUNTIF(A:A,A67)</f>
@@ -2119,13 +2138,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="D68">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E68">
         <f>COUNTIF(A:A,A68)</f>
@@ -2133,14 +2152,14 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C69" t="s">
-        <v>72</v>
+      <c r="A69" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B69" t="s">
+        <v>4</v>
       </c>
       <c r="D69">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E69">
         <f>COUNTIF(A:A,A69)</f>
@@ -2148,14 +2167,14 @@
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="3" t="s">
-        <v>67</v>
+      <c r="A70" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="C70" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D70">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E70">
         <f>COUNTIF(A:A,A70)</f>
@@ -2164,13 +2183,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C71" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D71">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E71">
         <f>COUNTIF(A:A,A71)</f>
@@ -2179,13 +2198,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C72" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D72">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E72">
         <f>COUNTIF(A:A,A72)</f>
@@ -2194,13 +2213,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D73">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E73">
         <f>COUNTIF(A:A,A73)</f>
@@ -2209,10 +2228,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="C74" t="s">
+        <v>74</v>
       </c>
       <c r="D74">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E74">
         <f>COUNTIF(A:A,A74)</f>
@@ -2220,14 +2242,11 @@
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B75" t="s">
-        <v>4</v>
+      <c r="A75" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="D75">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E75">
         <f>COUNTIF(A:A,A75)</f>
@@ -2236,13 +2255,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B76" t="s">
         <v>4</v>
       </c>
       <c r="D76">
-        <v>1200</v>
+        <v>30</v>
       </c>
       <c r="E76">
         <f>COUNTIF(A:A,A76)</f>
@@ -2251,16 +2270,46 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B77" t="s">
         <v>4</v>
       </c>
       <c r="D77">
-        <v>3330</v>
+        <v>1200</v>
       </c>
       <c r="E77">
         <f>COUNTIF(A:A,A77)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78">
+        <v>3330</v>
+      </c>
+      <c r="E78">
+        <f>COUNTIF(A:A,A78)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B79" t="s">
+        <v>54</v>
+      </c>
+      <c r="D79">
+        <v>10000</v>
+      </c>
+      <c r="E79">
+        <f>COUNTIF(A:A,A79)</f>
         <v>1</v>
       </c>
     </row>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53742897-BC1B-4F99-A26F-DFB556356DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84684097-7AD7-4E5C-A912-59D602FC0ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -1102,8 +1102,8 @@
   <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1152,7 +1152,7 @@
         <v>600</v>
       </c>
       <c r="E2">
-        <f>COUNTIF(A:A,A2)</f>
+        <f t="shared" ref="E2:E33" si="0">COUNTIF(A:A,A2)</f>
         <v>1</v>
       </c>
       <c r="G2" t="str">
@@ -1197,7 +1197,7 @@
         <v>400</v>
       </c>
       <c r="E3">
-        <f>COUNTIF(A:A,A3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <f>COUNTIF(A:A,A4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1222,7 +1222,7 @@
         <v>192</v>
       </c>
       <c r="E5">
-        <f>COUNTIF(A:A,A5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1234,7 +1234,7 @@
         <v>960</v>
       </c>
       <c r="E6">
-        <f>COUNTIF(A:A,A6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <f>COUNTIF(A:A,A7)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1258,7 +1258,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <f>COUNTIF(A:A,A8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1270,7 +1270,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <f>COUNTIF(A:A,A9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
         <v>10</v>
       </c>
       <c r="E10">
-        <f>COUNTIF(A:A,A10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1300,7 +1300,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <f>COUNTIF(A:A,A11)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1315,7 +1315,7 @@
         <v>2</v>
       </c>
       <c r="E12">
-        <f>COUNTIF(A:A,A12)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <f>COUNTIF(A:A,A13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1345,7 +1345,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <f>COUNTIF(A:A,A14)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1360,7 +1360,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <f>COUNTIF(A:A,A15)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <f>COUNTIF(A:A,A16)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <f>COUNTIF(A:A,A17)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1399,7 +1399,7 @@
         <v>50</v>
       </c>
       <c r="E18">
-        <f>COUNTIF(A:A,A18)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1414,7 +1414,7 @@
         <v>2400</v>
       </c>
       <c r="E19">
-        <f>COUNTIF(A:A,A19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1429,7 +1429,7 @@
         <v>1000</v>
       </c>
       <c r="E20">
-        <f>COUNTIF(A:A,A20)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
         <v>20</v>
       </c>
       <c r="E21">
-        <f>COUNTIF(A:A,A21)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
         <v>259200</v>
       </c>
       <c r="E22">
-        <f>COUNTIF(A:A,A22)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
         <v>5</v>
       </c>
       <c r="E23">
-        <f>COUNTIF(A:A,A23)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1478,7 +1478,7 @@
         <v>1000</v>
       </c>
       <c r="E24">
-        <f>COUNTIF(A:A,A24)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1490,7 +1490,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <f>COUNTIF(A:A,A25)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1502,7 +1502,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <f>COUNTIF(A:A,A26)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1514,7 +1514,7 @@
         <v>4</v>
       </c>
       <c r="E27">
-        <f>COUNTIF(A:A,A27)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1526,7 +1526,7 @@
         <v>5</v>
       </c>
       <c r="E28">
-        <f>COUNTIF(A:A,A28)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
         <v>10</v>
       </c>
       <c r="E29">
-        <f>COUNTIF(A:A,A29)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
         <v>17</v>
       </c>
       <c r="E30">
-        <f>COUNTIF(A:A,A30)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1577,7 +1577,7 @@
         <v>30</v>
       </c>
       <c r="E31">
-        <f>COUNTIF(A:A,A31)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1595,7 +1595,7 @@
         <v>300</v>
       </c>
       <c r="E32">
-        <f>COUNTIF(A:A,A32)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
         <v>9</v>
       </c>
       <c r="E33">
-        <f>COUNTIF(A:A,A33)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1630,7 +1630,7 @@
         <v>1209600</v>
       </c>
       <c r="E34">
-        <f>COUNTIF(A:A,A34)</f>
+        <f t="shared" ref="E34:E65" si="1">COUNTIF(A:A,A34)</f>
         <v>1</v>
       </c>
     </row>
@@ -1648,7 +1648,7 @@
         <v>3</v>
       </c>
       <c r="E35">
-        <f>COUNTIF(A:A,A35)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
         <v>2419200</v>
       </c>
       <c r="E36">
-        <f>COUNTIF(A:A,A36)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
         <v>20</v>
       </c>
       <c r="E37">
-        <f>COUNTIF(A:A,A37)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1694,7 +1694,7 @@
         <v>66</v>
       </c>
       <c r="E38">
-        <f>COUNTIF(A:A,A38)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <f>COUNTIF(A:A,A39)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1724,7 +1724,7 @@
         <v>60</v>
       </c>
       <c r="E40">
-        <f>COUNTIF(A:A,A40)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1739,7 +1739,7 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <f>COUNTIF(A:A,A41)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1751,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <f>COUNTIF(A:A,A42)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <f>COUNTIF(A:A,A43)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1784,7 +1784,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <f>COUNTIF(A:A,A44)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1799,7 +1799,7 @@
         <v>86400</v>
       </c>
       <c r="E45">
-        <f>COUNTIF(A:A,A45)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1814,7 +1814,7 @@
         <v>172800</v>
       </c>
       <c r="E46">
-        <f>COUNTIF(A:A,A46)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1829,7 +1829,7 @@
         <v>200</v>
       </c>
       <c r="E47">
-        <f>COUNTIF(A:A,A47)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1844,7 +1844,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <f>COUNTIF(A:A,A48)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
         <v>10</v>
       </c>
       <c r="E49">
-        <f>COUNTIF(A:A,A49)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
         <v>8</v>
       </c>
       <c r="E50">
-        <f>COUNTIF(A:A,A50)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1889,7 +1889,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <f>COUNTIF(A:A,A51)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1904,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <f>COUNTIF(A:A,A52)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
         <v>5</v>
       </c>
       <c r="E53">
-        <f>COUNTIF(A:A,A53)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
         <v>2</v>
       </c>
       <c r="E54">
-        <f>COUNTIF(A:A,A54)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1949,7 +1949,7 @@
         <v>2</v>
       </c>
       <c r="E55">
-        <f>COUNTIF(A:A,A55)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1964,7 +1964,7 @@
         <v>2</v>
       </c>
       <c r="E56">
-        <f>COUNTIF(A:A,A56)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1979,7 +1979,7 @@
         <v>16</v>
       </c>
       <c r="E57">
-        <f>COUNTIF(A:A,A57)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1994,7 +1994,7 @@
         <v>16</v>
       </c>
       <c r="E58">
-        <f>COUNTIF(A:A,A58)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2006,10 +2006,10 @@
         <v>110</v>
       </c>
       <c r="D59">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="E59">
-        <f>COUNTIF(A:A,A59)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2024,7 +2024,7 @@
         <v>6</v>
       </c>
       <c r="E60">
-        <f>COUNTIF(A:A,A60)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2039,7 +2039,7 @@
         <v>5</v>
       </c>
       <c r="E61">
-        <f>COUNTIF(A:A,A61)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2054,7 +2054,7 @@
         <v>5</v>
       </c>
       <c r="E62">
-        <f>COUNTIF(A:A,A62)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2069,7 +2069,7 @@
         <v>300</v>
       </c>
       <c r="E63">
-        <f>COUNTIF(A:A,A63)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2084,7 +2084,7 @@
         <v>90</v>
       </c>
       <c r="E64">
-        <f>COUNTIF(A:A,A64)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2099,7 +2099,7 @@
         <v>10</v>
       </c>
       <c r="E65">
-        <f>COUNTIF(A:A,A65)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2117,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="E66">
-        <f>COUNTIF(A:A,A66)</f>
+        <f t="shared" ref="E66:E79" si="2">COUNTIF(A:A,A66)</f>
         <v>1</v>
       </c>
     </row>
@@ -2132,7 +2132,7 @@
         <v>28</v>
       </c>
       <c r="E67">
-        <f>COUNTIF(A:A,A67)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2147,7 +2147,7 @@
         <v>30</v>
       </c>
       <c r="E68">
-        <f>COUNTIF(A:A,A68)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2162,7 +2162,7 @@
         <v>7</v>
       </c>
       <c r="E69">
-        <f>COUNTIF(A:A,A69)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2177,7 +2177,7 @@
         <v>8</v>
       </c>
       <c r="E70">
-        <f>COUNTIF(A:A,A70)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2192,7 +2192,7 @@
         <v>4</v>
       </c>
       <c r="E71">
-        <f>COUNTIF(A:A,A71)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
         <v>17</v>
       </c>
       <c r="E72">
-        <f>COUNTIF(A:A,A72)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2222,7 +2222,7 @@
         <v>9</v>
       </c>
       <c r="E73">
-        <f>COUNTIF(A:A,A73)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2237,7 +2237,7 @@
         <v>12</v>
       </c>
       <c r="E74">
-        <f>COUNTIF(A:A,A74)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2249,7 +2249,7 @@
         <v>6</v>
       </c>
       <c r="E75">
-        <f>COUNTIF(A:A,A75)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2264,7 +2264,7 @@
         <v>30</v>
       </c>
       <c r="E76">
-        <f>COUNTIF(A:A,A76)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2279,7 +2279,7 @@
         <v>1200</v>
       </c>
       <c r="E77">
-        <f>COUNTIF(A:A,A77)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2294,7 +2294,7 @@
         <v>3330</v>
       </c>
       <c r="E78">
-        <f>COUNTIF(A:A,A78)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2309,7 +2309,7 @@
         <v>10000</v>
       </c>
       <c r="E79">
-        <f>COUNTIF(A:A,A79)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84684097-7AD7-4E5C-A912-59D602FC0ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51BBBE9-5534-4C75-B84F-2780A1A92D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -644,10 +644,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>boxxBattleXpLev</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BossBattleDailyCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -677,6 +673,10 @@
   </si>
   <si>
     <t>BossBattleRefreshPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossBattleXpLev</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1099,23 +1099,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A59" sqref="A59"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="32.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="29.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="9" collapsed="1"/>
-    <col min="5" max="5" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="9" collapsed="1"/>
-    <col min="7" max="7" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="9" collapsed="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="29.75" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27" customHeight="1">
@@ -2003,7 +2000,7 @@
         <v>109</v>
       </c>
       <c r="B59" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D59">
         <v>50</v>
@@ -2030,7 +2027,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B61" t="s">
         <v>54</v>
@@ -2045,7 +2042,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B62" t="s">
         <v>4</v>
@@ -2060,7 +2057,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B63" t="s">
         <v>4</v>
@@ -2075,7 +2072,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B64" t="s">
         <v>4</v>
@@ -2090,7 +2087,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B65" t="s">
         <v>4</v>
@@ -2105,13 +2102,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
         <v>117</v>
-      </c>
-      <c r="B66" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66" t="s">
-        <v>118</v>
       </c>
       <c r="D66">
         <v>3</v>
@@ -2123,7 +2120,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B67" t="s">
         <v>4</v>
@@ -2300,7 +2297,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B79" t="s">
         <v>54</v>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51BBBE9-5534-4C75-B84F-2780A1A92D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A7646B-7636-49E0-971A-E826DBDF314B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="123">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -678,6 +678,15 @@
   <si>
     <t>bossBattleXpLev</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OfficialCafe</t>
+  </si>
+  <si>
+    <t>OfficialTelegram</t>
+  </si>
+  <si>
+    <t>https://cafe.naver.com/powersourcestudio</t>
   </si>
 </sst>
 </file>
@@ -1101,7 +1110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
     </sheetView>
@@ -2319,10 +2328,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0BF13DF-524D-4963-BA4B-8BE518E5FDEB}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -2363,6 +2372,22 @@
         <v>37</v>
       </c>
     </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" t="s">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A7646B-7636-49E0-971A-E826DBDF314B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95736901-FAE7-46D2-920C-219BBED0786F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="126">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -687,6 +687,18 @@
   </si>
   <si>
     <t>https://cafe.naver.com/powersourcestudio</t>
+  </si>
+  <si>
+    <t>InvincibleTime10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrapDamage10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxPointShopAttackLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1108,11 +1120,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -2123,7 +2135,7 @@
         <v>3</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E79" si="2">COUNTIF(A:A,A66)</f>
+        <f t="shared" ref="E66:E82" si="2">COUNTIF(A:A,A66)</f>
         <v>1</v>
       </c>
     </row>
@@ -2315,6 +2327,48 @@
         <v>10000</v>
       </c>
       <c r="E79">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B80" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80">
+        <v>6</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81">
+        <v>10</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D82">
+        <v>10</v>
+      </c>
+      <c r="E82">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -2330,7 +2384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0BF13DF-524D-4963-BA4B-8BE518E5FDEB}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95736901-FAE7-46D2-920C-219BBED0786F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A379C9-F43D-45D0-B3B9-C8365F88CC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -1123,8 +1123,8 @@
   <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A83" sqref="A83"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1199,9 +1199,11 @@
 A69&amp;""":"&amp;VLOOKUP(A69,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A76&amp;""":"&amp;VLOOKUP(A76,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A77&amp;""":"&amp;VLOOKUP(A77,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A78&amp;""":"&amp;VLOOKUP(A78,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
+A78&amp;""":"&amp;VLOOKUP(A78,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A80&amp;""":"&amp;VLOOKUP(A80,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A81&amp;""":"&amp;VLOOKUP(A81,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
-        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2400,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"MaxPetCountStep":9,"FortuneWheelGolden":10,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":300,"BossBattleRegenTickDelay100":90,"BossBattleRegenHpRatio100":10,"BossBattleXpLevelBonus100":3,"MaxBossBattleDifficulty":28,"AnalysisBoostRate":7,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330}</v>
+        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2400,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"MaxPetCountStep":9,"FortuneWheelGolden":10,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":300,"BossBattleRegenTickDelay100":90,"BossBattleRegenHpRatio100":10,"BossBattleXpLevelBonus100":3,"MaxBossBattleDifficulty":28,"AnalysisBoostRate":7,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"InvincibleTime10":6,"TrapDamage10":10}</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A379C9-F43D-45D0-B3B9-C8365F88CC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3035E424-4288-449A-B9B1-6C38FB3F2FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="127">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -698,6 +698,10 @@
   </si>
   <si>
     <t>MaxPointShopAttackLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SummonWeightThreshold100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1120,11 +1124,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1170,7 +1174,7 @@
         <v>600</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E33" si="0">COUNTIF(A:A,A2)</f>
+        <f>COUNTIF(A:A,A2)</f>
         <v>1</v>
       </c>
       <c r="G2" t="str">
@@ -1183,25 +1187,25 @@
 A14&amp;""":"&amp;VLOOKUP(A14,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A15&amp;""":"&amp;VLOOKUP(A15,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A16&amp;""":"&amp;VLOOKUP(A16,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A19&amp;""":"&amp;VLOOKUP(A19,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A29&amp;""":"&amp;VLOOKUP(A29,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A20&amp;""":"&amp;VLOOKUP(A20,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A30&amp;""":"&amp;VLOOKUP(A30,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A31&amp;""":"&amp;VLOOKUP(A31,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A32&amp;""":"&amp;VLOOKUP(A32,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A33&amp;""":"&amp;VLOOKUP(A33,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A49&amp;""":"&amp;VLOOKUP(A49,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A62&amp;""":"&amp;VLOOKUP(A62,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A34&amp;""":"&amp;VLOOKUP(A34,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A50&amp;""":"&amp;VLOOKUP(A50,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A63&amp;""":"&amp;VLOOKUP(A63,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A64&amp;""":"&amp;VLOOKUP(A64,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A65&amp;""":"&amp;VLOOKUP(A65,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A66&amp;""":"&amp;VLOOKUP(A66,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A67&amp;""":"&amp;VLOOKUP(A67,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A69&amp;""":"&amp;VLOOKUP(A69,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A76&amp;""":"&amp;VLOOKUP(A76,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A68&amp;""":"&amp;VLOOKUP(A68,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A70&amp;""":"&amp;VLOOKUP(A70,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A77&amp;""":"&amp;VLOOKUP(A77,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A78&amp;""":"&amp;VLOOKUP(A78,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A80&amp;""":"&amp;VLOOKUP(A80,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A81&amp;""":"&amp;VLOOKUP(A81,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
+A79&amp;""":"&amp;VLOOKUP(A79,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A81&amp;""":"&amp;VLOOKUP(A81,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A82&amp;""":"&amp;VLOOKUP(A82,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
         <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2400,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"MaxPetCountStep":9,"FortuneWheelGolden":10,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":300,"BossBattleRegenTickDelay100":90,"BossBattleRegenHpRatio100":10,"BossBattleXpLevelBonus100":3,"MaxBossBattleDifficulty":28,"AnalysisBoostRate":7,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"InvincibleTime10":6,"TrapDamage10":10}</v>
       </c>
@@ -1217,7 +1221,7 @@
         <v>400</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A3)</f>
         <v>1</v>
       </c>
     </row>
@@ -1229,7 +1233,7 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A4)</f>
         <v>1</v>
       </c>
     </row>
@@ -1242,7 +1246,7 @@
         <v>192</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A5)</f>
         <v>1</v>
       </c>
     </row>
@@ -1254,7 +1258,7 @@
         <v>960</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A6)</f>
         <v>1</v>
       </c>
     </row>
@@ -1266,7 +1270,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A7)</f>
         <v>1</v>
       </c>
     </row>
@@ -1278,7 +1282,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A8)</f>
         <v>1</v>
       </c>
     </row>
@@ -1290,7 +1294,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A9)</f>
         <v>1</v>
       </c>
     </row>
@@ -1305,7 +1309,7 @@
         <v>10</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A10)</f>
         <v>1</v>
       </c>
     </row>
@@ -1320,7 +1324,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A11)</f>
         <v>1</v>
       </c>
     </row>
@@ -1335,7 +1339,7 @@
         <v>2</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A12)</f>
         <v>1</v>
       </c>
     </row>
@@ -1350,7 +1354,7 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A13)</f>
         <v>1</v>
       </c>
     </row>
@@ -1365,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A14)</f>
         <v>1</v>
       </c>
     </row>
@@ -1380,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A15)</f>
         <v>1</v>
       </c>
     </row>
@@ -1395,197 +1399,191 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A16)</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>11</v>
+      <c r="A17" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A17)</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <f>COUNTIF(A:A,A18)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
         <v>12</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>50</v>
       </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1" t="s">
+      <c r="E19">
+        <f>COUNTIF(A:A,A19)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19">
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20">
         <v>2400</v>
       </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="2" t="s">
+      <c r="E20">
+        <f>COUNTIF(A:A,A20)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>26</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>1000</v>
       </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
+      <c r="E21">
+        <f>COUNTIF(A:A,A21)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
         <v>16</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>20</v>
       </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="5" t="s">
+      <c r="E22">
+        <f>COUNTIF(A:A,A22)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <f>3*24*60*60</f>
         <v>259200</v>
       </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="5" t="s">
+      <c r="E23">
+        <f>COUNTIF(A:A,A23)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>5</v>
       </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24">
-        <v>1000</v>
-      </c>
       <c r="E24">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A24)</f>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25">
+        <v>1000</v>
+      </c>
+      <c r="E25">
+        <f>COUNTIF(A:A,A25)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>33</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A26)</f>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A27)</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <f>COUNTIF(A:A,A28)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
         <v>35</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <v>5</v>
       </c>
-      <c r="E28">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29">
-        <v>10</v>
-      </c>
       <c r="E29">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A29)</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
       </c>
-      <c r="C30" t="s">
-        <v>90</v>
-      </c>
       <c r="D30">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A30)</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
@@ -1594,343 +1592,346 @@
         <v>90</v>
       </c>
       <c r="D31">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A31)</f>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D32">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A32)</f>
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33">
+        <v>300</v>
+      </c>
+      <c r="E33">
+        <f>COUNTIF(A:A,A33)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B33" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
         <v>57</v>
       </c>
-      <c r="D33">
+      <c r="D34">
         <v>9</v>
       </c>
-      <c r="E33">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="4" t="s">
+      <c r="E34">
+        <f>COUNTIF(A:A,A34)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3" t="s">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D35" s="3">
         <f>14*24*60*60</f>
         <v>1209600</v>
       </c>
-      <c r="E34">
-        <f t="shared" ref="E34:E65" si="1">COUNTIF(A:A,A34)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="1" t="s">
+      <c r="E35">
+        <f>COUNTIF(A:A,A35)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>54</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>48</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <v>3</v>
       </c>
-      <c r="E35">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="4" t="s">
+      <c r="E36">
+        <f>COUNTIF(A:A,A36)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>94</v>
       </c>
-      <c r="D36">
+      <c r="D37">
         <f>28*24*60*60</f>
         <v>2419200</v>
       </c>
-      <c r="E36">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" t="s">
-        <v>82</v>
-      </c>
-      <c r="D37">
-        <v>20</v>
-      </c>
       <c r="E37">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A37)</f>
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D38">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="E38">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A38)</f>
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="4" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="E39">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A39)</f>
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <f>COUNTIF(A:A,A40)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>87</v>
       </c>
-      <c r="D40">
+      <c r="D41">
         <v>60</v>
       </c>
-      <c r="E40">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
       <c r="E41">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A41)</f>
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <f>COUNTIF(A:A,A42)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
         <v>45</v>
       </c>
-      <c r="D42">
+      <c r="D43">
         <v>3</v>
       </c>
-      <c r="E42">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="1" t="s">
+      <c r="E43">
+        <f>COUNTIF(A:A,A43)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>54</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>50</v>
       </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" t="s">
-        <v>51</v>
-      </c>
       <c r="D44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A44)</f>
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D45">
-        <v>86400</v>
+        <v>3</v>
       </c>
       <c r="E45">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A45)</f>
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46">
+        <v>86400</v>
+      </c>
+      <c r="E46">
+        <f>COUNTIF(A:A,A46)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
         <v>53</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>56</v>
       </c>
-      <c r="D46">
+      <c r="D47">
         <v>172800</v>
       </c>
-      <c r="E46">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" t="s">
-        <v>54</v>
-      </c>
-      <c r="D47">
-        <v>200</v>
-      </c>
       <c r="E47">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A47)</f>
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B48" t="s">
         <v>54</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E48">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A48)</f>
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="D49">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E49">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A49)</f>
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="D50">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E50">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A50)</f>
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B51" t="s">
         <v>54</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E51">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A51)</f>
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="D52">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E52">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A52)</f>
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B53" t="s">
         <v>97</v>
@@ -1939,43 +1940,43 @@
         <v>5</v>
       </c>
       <c r="E53">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A53)</f>
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B54" t="s">
         <v>97</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E54">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A54)</f>
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="D55">
         <v>2</v>
       </c>
       <c r="E55">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A55)</f>
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B56" t="s">
         <v>54</v>
@@ -1984,394 +1985,409 @@
         <v>2</v>
       </c>
       <c r="E56">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A56)</f>
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="2" t="s">
-        <v>102</v>
+      <c r="A57" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="B57" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="D57">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E57">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A57)</f>
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D58">
         <v>16</v>
       </c>
       <c r="E58">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A58)</f>
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B59" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D59">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E59">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A59)</f>
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B60" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="D60">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="E60">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A60)</f>
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B61" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="D61">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E61">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A61)</f>
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B62" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="D62">
         <v>5</v>
       </c>
       <c r="E62">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A62)</f>
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B63" t="s">
         <v>4</v>
       </c>
       <c r="D63">
-        <v>300</v>
+        <v>5</v>
       </c>
       <c r="E63">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A63)</f>
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B64" t="s">
         <v>4</v>
       </c>
       <c r="D64">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="E64">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A64)</f>
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B65" t="s">
         <v>4</v>
       </c>
       <c r="D65">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="E65">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A65)</f>
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B66" t="s">
         <v>4</v>
       </c>
-      <c r="C66" t="s">
-        <v>117</v>
-      </c>
       <c r="D66">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E82" si="2">COUNTIF(A:A,A66)</f>
+        <f>COUNTIF(A:A,A66)</f>
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" t="s">
+        <v>117</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67">
+        <f>COUNTIF(A:A,A67)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B67" t="s">
-        <v>4</v>
-      </c>
-      <c r="D67">
+      <c r="B68" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68">
         <v>28</v>
       </c>
-      <c r="E67">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B68" t="s">
-        <v>54</v>
-      </c>
-      <c r="D68">
-        <v>30</v>
-      </c>
       <c r="E68">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A68)</f>
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B69" t="s">
+        <v>54</v>
+      </c>
+      <c r="D69">
+        <v>30</v>
+      </c>
+      <c r="E69">
+        <f>COUNTIF(A:A,A69)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B69" t="s">
-        <v>4</v>
-      </c>
-      <c r="D69">
+      <c r="B70" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70">
         <v>7</v>
       </c>
-      <c r="E69">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="4" t="s">
+      <c r="E70">
+        <f>COUNTIF(A:A,A70)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C71" t="s">
         <v>72</v>
       </c>
-      <c r="D70">
+      <c r="D71">
         <v>8</v>
       </c>
-      <c r="E70">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C71" t="s">
-        <v>71</v>
-      </c>
-      <c r="D71">
-        <v>4</v>
-      </c>
       <c r="E71">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A71)</f>
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C72" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D72">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E72">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A72)</f>
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C73" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D73">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E73">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A73)</f>
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D74">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E74">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A74)</f>
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C75" t="s">
+        <v>74</v>
+      </c>
+      <c r="D75">
+        <v>12</v>
+      </c>
+      <c r="E75">
+        <f>COUNTIF(A:A,A75)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D75">
+      <c r="D76">
         <v>6</v>
       </c>
-      <c r="E75">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B76" t="s">
-        <v>4</v>
-      </c>
-      <c r="D76">
-        <v>30</v>
-      </c>
       <c r="E76">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A76)</f>
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" t="s">
         <v>4</v>
       </c>
       <c r="D77">
-        <v>1200</v>
+        <v>30</v>
       </c>
       <c r="E77">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A77)</f>
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" t="s">
         <v>4</v>
       </c>
       <c r="D78">
-        <v>3330</v>
+        <v>1200</v>
       </c>
       <c r="E78">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A78)</f>
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="1" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="D79">
-        <v>10000</v>
+        <v>3330</v>
       </c>
       <c r="E79">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A79)</f>
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B80" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="D80">
-        <v>6</v>
+        <v>10000</v>
       </c>
       <c r="E80">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A80)</f>
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81">
+        <v>6</v>
+      </c>
+      <c r="E81">
+        <f>COUNTIF(A:A,A81)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B81" t="s">
-        <v>4</v>
-      </c>
-      <c r="D81">
-        <v>10</v>
-      </c>
-      <c r="E81">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="4" t="s">
-        <v>125</v>
+      <c r="B82" t="s">
+        <v>4</v>
       </c>
       <c r="D82">
         <v>10</v>
       </c>
       <c r="E82">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A82)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D83">
+        <v>10</v>
+      </c>
+      <c r="E83">
+        <f>COUNTIF(A:A,A83)</f>
         <v>1</v>
       </c>
     </row>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3035E424-4288-449A-B9B1-6C38FB3F2FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F526B6C6-0B59-42A5-B1F5-332733830E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="7290" yWindow="240" windowWidth="24000" windowHeight="12285" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="131">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -702,6 +702,21 @@
   </si>
   <si>
     <t>SummonWeightThreshold100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MissionEnergyGoldDefense</t>
+  </si>
+  <si>
+    <t>GoldDefenseDailyCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxGoldDefense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goldDefMx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1124,11 +1139,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1194,18 +1209,18 @@
 A33&amp;""":"&amp;VLOOKUP(A33,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A34&amp;""":"&amp;VLOOKUP(A34,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A50&amp;""":"&amp;VLOOKUP(A50,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A63&amp;""":"&amp;VLOOKUP(A63,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A64&amp;""":"&amp;VLOOKUP(A64,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A65&amp;""":"&amp;VLOOKUP(A65,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A66&amp;""":"&amp;VLOOKUP(A66,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A67&amp;""":"&amp;VLOOKUP(A67,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A68&amp;""":"&amp;VLOOKUP(A68,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A69&amp;""":"&amp;VLOOKUP(A69,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A70&amp;""":"&amp;VLOOKUP(A70,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A77&amp;""":"&amp;VLOOKUP(A77,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A78&amp;""":"&amp;VLOOKUP(A78,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A79&amp;""":"&amp;VLOOKUP(A79,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A71&amp;""":"&amp;VLOOKUP(A71,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A73&amp;""":"&amp;VLOOKUP(A73,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A80&amp;""":"&amp;VLOOKUP(A80,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A81&amp;""":"&amp;VLOOKUP(A81,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A82&amp;""":"&amp;VLOOKUP(A82,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
+A82&amp;""":"&amp;VLOOKUP(A82,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A84&amp;""":"&amp;VLOOKUP(A84,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A85&amp;""":"&amp;VLOOKUP(A85,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
         <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2400,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"MaxPetCountStep":9,"FortuneWheelGolden":10,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":300,"BossBattleRegenTickDelay100":90,"BossBattleRegenHpRatio100":10,"BossBattleXpLevelBonus100":3,"MaxBossBattleDifficulty":28,"AnalysisBoostRate":7,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"InvincibleTime10":6,"TrapDamage10":10}</v>
       </c>
@@ -1961,13 +1976,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="B55" t="s">
         <v>97</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E55">
         <f>COUNTIF(A:A,A55)</f>
@@ -1976,10 +1991,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -1991,7 +2006,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B57" t="s">
         <v>54</v>
@@ -2005,14 +2020,14 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="2" t="s">
-        <v>102</v>
+      <c r="A58" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="B58" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="D58">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E58">
         <f>COUNTIF(A:A,A58)</f>
@@ -2020,14 +2035,14 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="2" t="s">
-        <v>103</v>
+      <c r="A59" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="B59" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D59">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E59">
         <f>COUNTIF(A:A,A59)</f>
@@ -2036,13 +2051,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B60" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D60">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E60">
         <f>COUNTIF(A:A,A60)</f>
@@ -2051,13 +2066,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B61" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D61">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E61">
         <f>COUNTIF(A:A,A61)</f>
@@ -2066,13 +2081,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B62" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="D62">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E62">
         <f>COUNTIF(A:A,A62)</f>
@@ -2081,13 +2096,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B63" t="s">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="D63">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E63">
         <f>COUNTIF(A:A,A63)</f>
@@ -2096,13 +2111,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B64" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="D64">
-        <v>300</v>
+        <v>6</v>
       </c>
       <c r="E64">
         <f>COUNTIF(A:A,A64)</f>
@@ -2111,13 +2126,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B65" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="D65">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="E65">
         <f>COUNTIF(A:A,A65)</f>
@@ -2126,13 +2141,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B66" t="s">
         <v>4</v>
       </c>
       <c r="D66">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E66">
         <f>COUNTIF(A:A,A66)</f>
@@ -2141,16 +2156,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B67" t="s">
         <v>4</v>
       </c>
-      <c r="C67" t="s">
-        <v>117</v>
-      </c>
       <c r="D67">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="E67">
         <f>COUNTIF(A:A,A67)</f>
@@ -2159,13 +2171,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B68" t="s">
         <v>4</v>
       </c>
       <c r="D68">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="E68">
         <f>COUNTIF(A:A,A68)</f>
@@ -2173,14 +2185,14 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="1" t="s">
-        <v>64</v>
+      <c r="A69" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="B69" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="D69">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E69">
         <f>COUNTIF(A:A,A69)</f>
@@ -2188,14 +2200,17 @@
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="1" t="s">
-        <v>65</v>
+      <c r="A70" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="B70" t="s">
         <v>4</v>
       </c>
+      <c r="C70" t="s">
+        <v>117</v>
+      </c>
       <c r="D70">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E70">
         <f>COUNTIF(A:A,A70)</f>
@@ -2203,14 +2218,14 @@
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C71" t="s">
-        <v>72</v>
+      <c r="A71" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4</v>
       </c>
       <c r="D71">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E71">
         <f>COUNTIF(A:A,A71)</f>
@@ -2218,14 +2233,14 @@
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C72" t="s">
-        <v>71</v>
+      <c r="A72" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B72" t="s">
+        <v>54</v>
       </c>
       <c r="D72">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E72">
         <f>COUNTIF(A:A,A72)</f>
@@ -2233,14 +2248,14 @@
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C73" t="s">
-        <v>75</v>
+      <c r="A73" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B73" t="s">
+        <v>4</v>
       </c>
       <c r="D73">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E73">
         <f>COUNTIF(A:A,A73)</f>
@@ -2248,14 +2263,14 @@
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="3" t="s">
-        <v>69</v>
+      <c r="A74" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="C74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D74">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E74">
         <f>COUNTIF(A:A,A74)</f>
@@ -2264,13 +2279,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C75" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D75">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E75">
         <f>COUNTIF(A:A,A75)</f>
@@ -2279,10 +2294,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
+      </c>
+      <c r="C76" t="s">
+        <v>75</v>
       </c>
       <c r="D76">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E76">
         <f>COUNTIF(A:A,A76)</f>
@@ -2290,14 +2308,14 @@
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B77" t="s">
-        <v>4</v>
+      <c r="A77" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C77" t="s">
+        <v>73</v>
       </c>
       <c r="D77">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E77">
         <f>COUNTIF(A:A,A77)</f>
@@ -2305,14 +2323,14 @@
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B78" t="s">
-        <v>4</v>
+      <c r="A78" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C78" t="s">
+        <v>74</v>
       </c>
       <c r="D78">
-        <v>1200</v>
+        <v>12</v>
       </c>
       <c r="E78">
         <f>COUNTIF(A:A,A78)</f>
@@ -2320,14 +2338,11 @@
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B79" t="s">
-        <v>4</v>
+      <c r="A79" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="D79">
-        <v>3330</v>
+        <v>6</v>
       </c>
       <c r="E79">
         <f>COUNTIF(A:A,A79)</f>
@@ -2336,13 +2351,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="1" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="D80">
-        <v>10000</v>
+        <v>30</v>
       </c>
       <c r="E80">
         <f>COUNTIF(A:A,A80)</f>
@@ -2351,13 +2366,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>4</v>
       </c>
       <c r="D81">
-        <v>6</v>
+        <v>1200</v>
       </c>
       <c r="E81">
         <f>COUNTIF(A:A,A81)</f>
@@ -2366,13 +2381,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>4</v>
       </c>
       <c r="D82">
-        <v>10</v>
+        <v>3330</v>
       </c>
       <c r="E82">
         <f>COUNTIF(A:A,A82)</f>
@@ -2380,14 +2395,59 @@
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="4" t="s">
-        <v>125</v>
+      <c r="A83" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B83" t="s">
+        <v>54</v>
       </c>
       <c r="D83">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="E83">
         <f>COUNTIF(A:A,A83)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B84" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84">
+        <v>6</v>
+      </c>
+      <c r="E84">
+        <f>COUNTIF(A:A,A84)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B85" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85">
+        <v>10</v>
+      </c>
+      <c r="E85">
+        <f>COUNTIF(A:A,A85)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D86">
+        <v>10</v>
+      </c>
+      <c r="E86">
+        <f>COUNTIF(A:A,A86)</f>
         <v>1</v>
       </c>
     </row>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F526B6C6-0B59-42A5-B1F5-332733830E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5CE2BE-6420-4C84-AA50-A7655F9F442E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7290" yWindow="240" windowWidth="24000" windowHeight="12285" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -1142,8 +1142,8 @@
   <dimension ref="A1:G86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1189,7 +1189,7 @@
         <v>600</v>
       </c>
       <c r="E2">
-        <f>COUNTIF(A:A,A2)</f>
+        <f t="shared" ref="E2:E33" si="0">COUNTIF(A:A,A2)</f>
         <v>1</v>
       </c>
       <c r="G2" t="str">
@@ -1236,7 +1236,7 @@
         <v>400</v>
       </c>
       <c r="E3">
-        <f>COUNTIF(A:A,A3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <f>COUNTIF(A:A,A4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
         <v>192</v>
       </c>
       <c r="E5">
-        <f>COUNTIF(A:A,A5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
         <v>960</v>
       </c>
       <c r="E6">
-        <f>COUNTIF(A:A,A6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <f>COUNTIF(A:A,A7)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <f>COUNTIF(A:A,A8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <f>COUNTIF(A:A,A9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1324,7 +1324,7 @@
         <v>10</v>
       </c>
       <c r="E10">
-        <f>COUNTIF(A:A,A10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <f>COUNTIF(A:A,A11)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
         <v>2</v>
       </c>
       <c r="E12">
-        <f>COUNTIF(A:A,A12)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1369,7 +1369,7 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <f>COUNTIF(A:A,A13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1384,7 +1384,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <f>COUNTIF(A:A,A14)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1399,7 +1399,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <f>COUNTIF(A:A,A15)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1414,7 +1414,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <f>COUNTIF(A:A,A16)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1426,7 +1426,7 @@
         <v>90</v>
       </c>
       <c r="E17">
-        <f>COUNTIF(A:A,A17)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1438,7 +1438,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <f>COUNTIF(A:A,A18)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1450,7 +1450,7 @@
         <v>50</v>
       </c>
       <c r="E19">
-        <f>COUNTIF(A:A,A19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1465,7 +1465,7 @@
         <v>2400</v>
       </c>
       <c r="E20">
-        <f>COUNTIF(A:A,A20)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1480,7 +1480,7 @@
         <v>1000</v>
       </c>
       <c r="E21">
-        <f>COUNTIF(A:A,A21)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1492,7 +1492,7 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <f>COUNTIF(A:A,A22)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1505,7 +1505,7 @@
         <v>259200</v>
       </c>
       <c r="E23">
-        <f>COUNTIF(A:A,A23)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="E24">
-        <f>COUNTIF(A:A,A24)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1529,7 +1529,7 @@
         <v>1000</v>
       </c>
       <c r="E25">
-        <f>COUNTIF(A:A,A25)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <f>COUNTIF(A:A,A26)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1553,7 +1553,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <f>COUNTIF(A:A,A27)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1565,7 +1565,7 @@
         <v>4</v>
       </c>
       <c r="E28">
-        <f>COUNTIF(A:A,A28)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1577,7 +1577,7 @@
         <v>5</v>
       </c>
       <c r="E29">
-        <f>COUNTIF(A:A,A29)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1592,7 +1592,7 @@
         <v>10</v>
       </c>
       <c r="E30">
-        <f>COUNTIF(A:A,A30)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1610,7 +1610,7 @@
         <v>17</v>
       </c>
       <c r="E31">
-        <f>COUNTIF(A:A,A31)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1628,7 +1628,7 @@
         <v>30</v>
       </c>
       <c r="E32">
-        <f>COUNTIF(A:A,A32)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1646,7 +1646,7 @@
         <v>300</v>
       </c>
       <c r="E33">
-        <f>COUNTIF(A:A,A33)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
         <v>9</v>
       </c>
       <c r="E34">
-        <f>COUNTIF(A:A,A34)</f>
+        <f t="shared" ref="E34:E65" si="1">COUNTIF(A:A,A34)</f>
         <v>1</v>
       </c>
     </row>
@@ -1681,7 +1681,7 @@
         <v>1209600</v>
       </c>
       <c r="E35">
-        <f>COUNTIF(A:A,A35)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1699,7 +1699,7 @@
         <v>3</v>
       </c>
       <c r="E36">
-        <f>COUNTIF(A:A,A36)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1715,7 +1715,7 @@
         <v>2419200</v>
       </c>
       <c r="E37">
-        <f>COUNTIF(A:A,A37)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1730,7 +1730,7 @@
         <v>20</v>
       </c>
       <c r="E38">
-        <f>COUNTIF(A:A,A38)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1745,7 +1745,7 @@
         <v>66</v>
       </c>
       <c r="E39">
-        <f>COUNTIF(A:A,A39)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1760,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <f>COUNTIF(A:A,A40)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
         <v>60</v>
       </c>
       <c r="E41">
-        <f>COUNTIF(A:A,A41)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1790,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <f>COUNTIF(A:A,A42)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1802,7 +1802,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <f>COUNTIF(A:A,A43)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1820,7 +1820,7 @@
         <v>1</v>
       </c>
       <c r="E44">
-        <f>COUNTIF(A:A,A44)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1835,7 +1835,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <f>COUNTIF(A:A,A45)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1850,7 +1850,7 @@
         <v>86400</v>
       </c>
       <c r="E46">
-        <f>COUNTIF(A:A,A46)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
         <v>172800</v>
       </c>
       <c r="E47">
-        <f>COUNTIF(A:A,A47)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1880,7 +1880,7 @@
         <v>200</v>
       </c>
       <c r="E48">
-        <f>COUNTIF(A:A,A48)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1895,7 +1895,7 @@
         <v>1</v>
       </c>
       <c r="E49">
-        <f>COUNTIF(A:A,A49)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
         <v>10</v>
       </c>
       <c r="E50">
-        <f>COUNTIF(A:A,A50)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
         <v>8</v>
       </c>
       <c r="E51">
-        <f>COUNTIF(A:A,A51)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1940,7 +1940,7 @@
         <v>3</v>
       </c>
       <c r="E52">
-        <f>COUNTIF(A:A,A52)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1952,10 +1952,10 @@
         <v>97</v>
       </c>
       <c r="D53">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E53">
-        <f>COUNTIF(A:A,A53)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1967,10 +1967,10 @@
         <v>97</v>
       </c>
       <c r="D54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E54">
-        <f>COUNTIF(A:A,A54)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1982,10 +1982,10 @@
         <v>97</v>
       </c>
       <c r="D55">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E55">
-        <f>COUNTIF(A:A,A55)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2000,7 +2000,7 @@
         <v>2</v>
       </c>
       <c r="E56">
-        <f>COUNTIF(A:A,A56)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2015,7 +2015,7 @@
         <v>2</v>
       </c>
       <c r="E57">
-        <f>COUNTIF(A:A,A57)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2030,7 +2030,7 @@
         <v>2</v>
       </c>
       <c r="E58">
-        <f>COUNTIF(A:A,A58)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
         <v>2</v>
       </c>
       <c r="E59">
-        <f>COUNTIF(A:A,A59)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2060,7 +2060,7 @@
         <v>16</v>
       </c>
       <c r="E60">
-        <f>COUNTIF(A:A,A60)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2075,7 +2075,7 @@
         <v>16</v>
       </c>
       <c r="E61">
-        <f>COUNTIF(A:A,A61)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2090,7 +2090,7 @@
         <v>16</v>
       </c>
       <c r="E62">
-        <f>COUNTIF(A:A,A62)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2105,7 +2105,7 @@
         <v>50</v>
       </c>
       <c r="E63">
-        <f>COUNTIF(A:A,A63)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2120,7 +2120,7 @@
         <v>6</v>
       </c>
       <c r="E64">
-        <f>COUNTIF(A:A,A64)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2135,7 +2135,7 @@
         <v>5</v>
       </c>
       <c r="E65">
-        <f>COUNTIF(A:A,A65)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2150,7 +2150,7 @@
         <v>5</v>
       </c>
       <c r="E66">
-        <f>COUNTIF(A:A,A66)</f>
+        <f t="shared" ref="E66:E86" si="2">COUNTIF(A:A,A66)</f>
         <v>1</v>
       </c>
     </row>
@@ -2165,7 +2165,7 @@
         <v>300</v>
       </c>
       <c r="E67">
-        <f>COUNTIF(A:A,A67)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2180,7 +2180,7 @@
         <v>90</v>
       </c>
       <c r="E68">
-        <f>COUNTIF(A:A,A68)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2195,7 +2195,7 @@
         <v>10</v>
       </c>
       <c r="E69">
-        <f>COUNTIF(A:A,A69)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2213,7 +2213,7 @@
         <v>3</v>
       </c>
       <c r="E70">
-        <f>COUNTIF(A:A,A70)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2228,7 +2228,7 @@
         <v>28</v>
       </c>
       <c r="E71">
-        <f>COUNTIF(A:A,A71)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2243,7 +2243,7 @@
         <v>30</v>
       </c>
       <c r="E72">
-        <f>COUNTIF(A:A,A72)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2258,7 +2258,7 @@
         <v>7</v>
       </c>
       <c r="E73">
-        <f>COUNTIF(A:A,A73)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2273,7 +2273,7 @@
         <v>8</v>
       </c>
       <c r="E74">
-        <f>COUNTIF(A:A,A74)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2288,7 +2288,7 @@
         <v>4</v>
       </c>
       <c r="E75">
-        <f>COUNTIF(A:A,A75)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2303,7 +2303,7 @@
         <v>17</v>
       </c>
       <c r="E76">
-        <f>COUNTIF(A:A,A76)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2318,7 +2318,7 @@
         <v>9</v>
       </c>
       <c r="E77">
-        <f>COUNTIF(A:A,A77)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2333,7 +2333,7 @@
         <v>12</v>
       </c>
       <c r="E78">
-        <f>COUNTIF(A:A,A78)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2345,7 +2345,7 @@
         <v>6</v>
       </c>
       <c r="E79">
-        <f>COUNTIF(A:A,A79)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2360,7 +2360,7 @@
         <v>30</v>
       </c>
       <c r="E80">
-        <f>COUNTIF(A:A,A80)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2375,7 +2375,7 @@
         <v>1200</v>
       </c>
       <c r="E81">
-        <f>COUNTIF(A:A,A81)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2390,7 +2390,7 @@
         <v>3330</v>
       </c>
       <c r="E82">
-        <f>COUNTIF(A:A,A82)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2405,7 +2405,7 @@
         <v>10000</v>
       </c>
       <c r="E83">
-        <f>COUNTIF(A:A,A83)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2420,7 +2420,7 @@
         <v>6</v>
       </c>
       <c r="E84">
-        <f>COUNTIF(A:A,A84)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2435,7 +2435,7 @@
         <v>10</v>
       </c>
       <c r="E85">
-        <f>COUNTIF(A:A,A85)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2447,7 +2447,7 @@
         <v>10</v>
       </c>
       <c r="E86">
-        <f>COUNTIF(A:A,A86)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5CE2BE-6420-4C84-AA50-A7655F9F442E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D4F2CA-2152-4D2E-B086-22D29FD33F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -1142,8 +1142,8 @@
   <dimension ref="A1:G86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A53" sqref="A53"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -2057,7 +2057,7 @@
         <v>105</v>
       </c>
       <c r="D60">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E60">
         <f t="shared" si="1"/>
@@ -2072,7 +2072,7 @@
         <v>106</v>
       </c>
       <c r="D61">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E61">
         <f t="shared" si="1"/>
@@ -2087,7 +2087,7 @@
         <v>130</v>
       </c>
       <c r="D62">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E62">
         <f t="shared" si="1"/>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D4F2CA-2152-4D2E-B086-22D29FD33F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DD0D28-90CC-4898-BEA9-D84C6D34D374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="132">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -717,6 +717,10 @@
   </si>
   <si>
     <t>goldDefMx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubQuestGoldDoubleDiamond</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1139,11 +1143,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:G86"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1220,9 +1224,10 @@
 A81&amp;""":"&amp;VLOOKUP(A81,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A82&amp;""":"&amp;VLOOKUP(A82,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A84&amp;""":"&amp;VLOOKUP(A84,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A85&amp;""":"&amp;VLOOKUP(A85,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
+A85&amp;""":"&amp;VLOOKUP(A85,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A87&amp;""":"&amp;VLOOKUP(A87,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
-        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2400,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"MaxPetCountStep":9,"FortuneWheelGolden":10,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":300,"BossBattleRegenTickDelay100":90,"BossBattleRegenHpRatio100":10,"BossBattleXpLevelBonus100":3,"MaxBossBattleDifficulty":28,"AnalysisBoostRate":7,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"InvincibleTime10":6,"TrapDamage10":10}</v>
+        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2400,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"MaxPetCountStep":9,"FortuneWheelGolden":10,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":300,"BossBattleRegenTickDelay100":90,"BossBattleRegenHpRatio100":10,"BossBattleXpLevelBonus100":3,"MaxBossBattleDifficulty":28,"AnalysisBoostRate":7,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"InvincibleTime10":6,"TrapDamage10":10,"SubQuestGoldDoubleDiamond":5}</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2150,7 +2155,7 @@
         <v>5</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E86" si="2">COUNTIF(A:A,A66)</f>
+        <f t="shared" ref="E66:E87" si="2">COUNTIF(A:A,A66)</f>
         <v>1</v>
       </c>
     </row>
@@ -2447,6 +2452,21 @@
         <v>10</v>
       </c>
       <c r="E86">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B87" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87">
+        <v>5</v>
+      </c>
+      <c r="E87">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DD0D28-90CC-4898-BEA9-D84C6D34D374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD06F42-00C2-494E-8016-BCAC549AA89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -1146,8 +1146,8 @@
   <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1482,7 +1482,7 @@
         <v>26</v>
       </c>
       <c r="D21">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD06F42-00C2-494E-8016-BCAC549AA89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EB23AE-1A42-4879-921E-99859AC83F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="134">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -721,6 +721,14 @@
   </si>
   <si>
     <t>SubQuestGoldDoubleDiamond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PetHeartAtk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펫 하트 당 공격력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1143,20 +1151,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="32.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="29.75" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="14.125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="29.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="9" collapsed="1"/>
+    <col min="5" max="5" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="9" collapsed="1"/>
+    <col min="7" max="7" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="9" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27" customHeight="1">
@@ -1193,7 +1204,7 @@
         <v>600</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E33" si="0">COUNTIF(A:A,A2)</f>
+        <f>COUNTIF(A:A,A2)</f>
         <v>1</v>
       </c>
       <c r="G2" t="str">
@@ -1212,20 +1223,20 @@
 A32&amp;""":"&amp;VLOOKUP(A32,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A33&amp;""":"&amp;VLOOKUP(A33,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A34&amp;""":"&amp;VLOOKUP(A34,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A50&amp;""":"&amp;VLOOKUP(A50,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A66&amp;""":"&amp;VLOOKUP(A66,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A51&amp;""":"&amp;VLOOKUP(A51,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A67&amp;""":"&amp;VLOOKUP(A67,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A68&amp;""":"&amp;VLOOKUP(A68,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A69&amp;""":"&amp;VLOOKUP(A69,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A70&amp;""":"&amp;VLOOKUP(A70,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A71&amp;""":"&amp;VLOOKUP(A71,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A73&amp;""":"&amp;VLOOKUP(A73,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A80&amp;""":"&amp;VLOOKUP(A80,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A72&amp;""":"&amp;VLOOKUP(A72,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A74&amp;""":"&amp;VLOOKUP(A74,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A81&amp;""":"&amp;VLOOKUP(A81,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A82&amp;""":"&amp;VLOOKUP(A82,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A84&amp;""":"&amp;VLOOKUP(A84,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A83&amp;""":"&amp;VLOOKUP(A83,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A85&amp;""":"&amp;VLOOKUP(A85,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A87&amp;""":"&amp;VLOOKUP(A87,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
+A86&amp;""":"&amp;VLOOKUP(A86,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A88&amp;""":"&amp;VLOOKUP(A88,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
         <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2400,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"MaxPetCountStep":9,"FortuneWheelGolden":10,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":300,"BossBattleRegenTickDelay100":90,"BossBattleRegenHpRatio100":10,"BossBattleXpLevelBonus100":3,"MaxBossBattleDifficulty":28,"AnalysisBoostRate":7,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"InvincibleTime10":6,"TrapDamage10":10,"SubQuestGoldDoubleDiamond":5}</v>
       </c>
@@ -1241,7 +1252,7 @@
         <v>400</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A3)</f>
         <v>1</v>
       </c>
     </row>
@@ -1253,7 +1264,7 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A4)</f>
         <v>1</v>
       </c>
     </row>
@@ -1266,7 +1277,7 @@
         <v>192</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A5)</f>
         <v>1</v>
       </c>
     </row>
@@ -1278,7 +1289,7 @@
         <v>960</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A6)</f>
         <v>1</v>
       </c>
     </row>
@@ -1290,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A7)</f>
         <v>1</v>
       </c>
     </row>
@@ -1302,7 +1313,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A8)</f>
         <v>1</v>
       </c>
     </row>
@@ -1314,7 +1325,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A9)</f>
         <v>1</v>
       </c>
     </row>
@@ -1329,7 +1340,7 @@
         <v>10</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A10)</f>
         <v>1</v>
       </c>
     </row>
@@ -1344,7 +1355,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A11)</f>
         <v>1</v>
       </c>
     </row>
@@ -1359,7 +1370,7 @@
         <v>2</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A12)</f>
         <v>1</v>
       </c>
     </row>
@@ -1374,7 +1385,7 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A13)</f>
         <v>1</v>
       </c>
     </row>
@@ -1389,7 +1400,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A14)</f>
         <v>1</v>
       </c>
     </row>
@@ -1404,7 +1415,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A15)</f>
         <v>1</v>
       </c>
     </row>
@@ -1419,7 +1430,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A16)</f>
         <v>1</v>
       </c>
     </row>
@@ -1431,7 +1442,7 @@
         <v>90</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A17)</f>
         <v>1</v>
       </c>
     </row>
@@ -1443,7 +1454,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A18)</f>
         <v>1</v>
       </c>
     </row>
@@ -1455,7 +1466,7 @@
         <v>50</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A19)</f>
         <v>1</v>
       </c>
     </row>
@@ -1470,7 +1481,7 @@
         <v>2400</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A20)</f>
         <v>1</v>
       </c>
     </row>
@@ -1485,7 +1496,7 @@
         <v>2000</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A21)</f>
         <v>1</v>
       </c>
     </row>
@@ -1497,7 +1508,7 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A22)</f>
         <v>1</v>
       </c>
     </row>
@@ -1510,7 +1521,7 @@
         <v>259200</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A23)</f>
         <v>1</v>
       </c>
     </row>
@@ -1522,7 +1533,7 @@
         <v>5</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A24)</f>
         <v>1</v>
       </c>
     </row>
@@ -1534,7 +1545,7 @@
         <v>1000</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A25)</f>
         <v>1</v>
       </c>
     </row>
@@ -1546,7 +1557,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A26)</f>
         <v>1</v>
       </c>
     </row>
@@ -1558,7 +1569,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A27)</f>
         <v>1</v>
       </c>
     </row>
@@ -1570,7 +1581,7 @@
         <v>4</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A28)</f>
         <v>1</v>
       </c>
     </row>
@@ -1582,7 +1593,7 @@
         <v>5</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A29)</f>
         <v>1</v>
       </c>
     </row>
@@ -1597,7 +1608,7 @@
         <v>10</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A30)</f>
         <v>1</v>
       </c>
     </row>
@@ -1615,7 +1626,7 @@
         <v>17</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A31)</f>
         <v>1</v>
       </c>
     </row>
@@ -1633,7 +1644,7 @@
         <v>30</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A32)</f>
         <v>1</v>
       </c>
     </row>
@@ -1651,7 +1662,7 @@
         <v>300</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A33)</f>
         <v>1</v>
       </c>
     </row>
@@ -1669,7 +1680,7 @@
         <v>9</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34:E65" si="1">COUNTIF(A:A,A34)</f>
+        <f>COUNTIF(A:A,A34)</f>
         <v>1</v>
       </c>
     </row>
@@ -1686,7 +1697,7 @@
         <v>1209600</v>
       </c>
       <c r="E35">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A35)</f>
         <v>1</v>
       </c>
     </row>
@@ -1704,7 +1715,7 @@
         <v>3</v>
       </c>
       <c r="E36">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A36)</f>
         <v>1</v>
       </c>
     </row>
@@ -1720,7 +1731,7 @@
         <v>2419200</v>
       </c>
       <c r="E37">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A37)</f>
         <v>1</v>
       </c>
     </row>
@@ -1735,7 +1746,7 @@
         <v>20</v>
       </c>
       <c r="E38">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A38)</f>
         <v>1</v>
       </c>
     </row>
@@ -1750,7 +1761,7 @@
         <v>66</v>
       </c>
       <c r="E39">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A39)</f>
         <v>1</v>
       </c>
     </row>
@@ -1765,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A40)</f>
         <v>1</v>
       </c>
     </row>
@@ -1780,7 +1791,7 @@
         <v>60</v>
       </c>
       <c r="E41">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A41)</f>
         <v>1</v>
       </c>
     </row>
@@ -1795,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A42)</f>
         <v>1</v>
       </c>
     </row>
@@ -1807,7 +1818,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A43)</f>
         <v>1</v>
       </c>
     </row>
@@ -1825,7 +1836,7 @@
         <v>1</v>
       </c>
       <c r="E44">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A44)</f>
         <v>1</v>
       </c>
     </row>
@@ -1840,7 +1851,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A45)</f>
         <v>1</v>
       </c>
     </row>
@@ -1855,7 +1866,7 @@
         <v>86400</v>
       </c>
       <c r="E46">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A46)</f>
         <v>1</v>
       </c>
     </row>
@@ -1870,103 +1881,103 @@
         <v>172800</v>
       </c>
       <c r="E47">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A47)</f>
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B48" t="s">
-        <v>54</v>
+      <c r="A48" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" t="s">
+        <v>133</v>
       </c>
       <c r="D48">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="E48">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A48)</f>
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B49" t="s">
         <v>54</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E49">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A49)</f>
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B50" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="D50">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E50">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A50)</f>
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="D51">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E51">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A51)</f>
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B52" t="s">
         <v>54</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E52">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A52)</f>
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="B53" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="D53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E53">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A53)</f>
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B54" t="s">
         <v>97</v>
@@ -1975,13 +1986,13 @@
         <v>4</v>
       </c>
       <c r="E54">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A54)</f>
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="B55" t="s">
         <v>97</v>
@@ -1990,43 +2001,43 @@
         <v>4</v>
       </c>
       <c r="E55">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A55)</f>
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="B56" t="s">
         <v>97</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E56">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A56)</f>
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B57" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="D57">
         <v>2</v>
       </c>
       <c r="E57">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A57)</f>
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B58" t="s">
         <v>54</v>
@@ -2035,439 +2046,454 @@
         <v>2</v>
       </c>
       <c r="E58">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A58)</f>
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="B59" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="D59">
         <v>2</v>
       </c>
       <c r="E59">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A59)</f>
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="2" t="s">
-        <v>102</v>
+      <c r="A60" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="B60" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D60">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E60">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A60)</f>
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B61" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D61">
         <v>9</v>
       </c>
       <c r="E61">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A61)</f>
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="B62" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D62">
         <v>9</v>
       </c>
       <c r="E62">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A62)</f>
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="B63" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D63">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="E63">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A63)</f>
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B64" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="D64">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="E64">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A64)</f>
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B65" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="D65">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E65">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A65)</f>
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B66" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="D66">
         <v>5</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E87" si="2">COUNTIF(A:A,A66)</f>
+        <f>COUNTIF(A:A,A66)</f>
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B67" t="s">
         <v>4</v>
       </c>
       <c r="D67">
-        <v>300</v>
+        <v>5</v>
       </c>
       <c r="E67">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A67)</f>
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B68" t="s">
         <v>4</v>
       </c>
       <c r="D68">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="E68">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A68)</f>
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B69" t="s">
         <v>4</v>
       </c>
       <c r="D69">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="E69">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A69)</f>
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B70" t="s">
         <v>4</v>
       </c>
-      <c r="C70" t="s">
-        <v>117</v>
-      </c>
       <c r="D70">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E70">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A70)</f>
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" t="s">
+        <v>117</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+      <c r="E71">
+        <f>COUNTIF(A:A,A71)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B71" t="s">
-        <v>4</v>
-      </c>
-      <c r="D71">
+      <c r="B72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72">
         <v>28</v>
       </c>
-      <c r="E71">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B72" t="s">
-        <v>54</v>
-      </c>
-      <c r="D72">
-        <v>30</v>
-      </c>
       <c r="E72">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A72)</f>
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B73" t="s">
+        <v>54</v>
+      </c>
+      <c r="D73">
+        <v>30</v>
+      </c>
+      <c r="E73">
+        <f>COUNTIF(A:A,A73)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B73" t="s">
-        <v>4</v>
-      </c>
-      <c r="D73">
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74">
         <v>7</v>
       </c>
-      <c r="E73">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="4" t="s">
+      <c r="E74">
+        <f>COUNTIF(A:A,A74)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C75" t="s">
         <v>72</v>
       </c>
-      <c r="D74">
+      <c r="D75">
         <v>8</v>
       </c>
-      <c r="E74">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C75" t="s">
-        <v>71</v>
-      </c>
-      <c r="D75">
-        <v>4</v>
-      </c>
       <c r="E75">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A75)</f>
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C76" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D76">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E76">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A76)</f>
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C77" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D77">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E77">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A77)</f>
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D78">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E78">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A78)</f>
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C79" t="s">
+        <v>74</v>
+      </c>
+      <c r="D79">
+        <v>12</v>
+      </c>
+      <c r="E79">
+        <f>COUNTIF(A:A,A79)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D79">
+      <c r="D80">
         <v>6</v>
       </c>
-      <c r="E79">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B80" t="s">
-        <v>4</v>
-      </c>
-      <c r="D80">
-        <v>30</v>
-      </c>
       <c r="E80">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A80)</f>
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s">
         <v>4</v>
       </c>
       <c r="D81">
-        <v>1200</v>
+        <v>30</v>
       </c>
       <c r="E81">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A81)</f>
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s">
         <v>4</v>
       </c>
       <c r="D82">
-        <v>3330</v>
+        <v>1200</v>
       </c>
       <c r="E82">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A82)</f>
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="1" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="D83">
-        <v>10000</v>
+        <v>3330</v>
       </c>
       <c r="E83">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A83)</f>
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B84" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="D84">
-        <v>6</v>
+        <v>10000</v>
       </c>
       <c r="E84">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A84)</f>
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B85" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85">
+        <v>6</v>
+      </c>
+      <c r="E85">
+        <f>COUNTIF(A:A,A85)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B85" t="s">
-        <v>4</v>
-      </c>
-      <c r="D85">
-        <v>10</v>
-      </c>
-      <c r="E85">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="4" t="s">
-        <v>125</v>
+      <c r="B86" t="s">
+        <v>4</v>
       </c>
       <c r="D86">
         <v>10</v>
       </c>
       <c r="E86">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A86)</f>
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D87">
+        <v>10</v>
+      </c>
+      <c r="E87">
+        <f>COUNTIF(A:A,A87)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B87" t="s">
-        <v>4</v>
-      </c>
-      <c r="D87">
+      <c r="B88" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88">
         <v>5</v>
       </c>
-      <c r="E87">
-        <f t="shared" si="2"/>
+      <c r="E88">
+        <f>COUNTIF(A:A,A88)</f>
         <v>1</v>
       </c>
     </row>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EB23AE-1A42-4879-921E-99859AC83F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0016F863-DCB5-4666-B188-EE37869A85E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -1151,23 +1151,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="32.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="29.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="9" collapsed="1"/>
-    <col min="5" max="5" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="9" collapsed="1"/>
-    <col min="7" max="7" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="9" collapsed="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="29.75" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27" customHeight="1">
@@ -1238,7 +1235,7 @@
 A86&amp;""":"&amp;VLOOKUP(A86,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A88&amp;""":"&amp;VLOOKUP(A88,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
-        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2400,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"MaxPetCountStep":9,"FortuneWheelGolden":10,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":300,"BossBattleRegenTickDelay100":90,"BossBattleRegenHpRatio100":10,"BossBattleXpLevelBonus100":3,"MaxBossBattleDifficulty":28,"AnalysisBoostRate":7,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"InvincibleTime10":6,"TrapDamage10":10,"SubQuestGoldDoubleDiamond":5}</v>
+        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2400,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"MaxPetCountStep":9,"FortuneWheelGolden":10,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":300,"BossBattleRegenTickDelay100":90,"BossBattleRegenHpRatio100":10,"BossBattleXpLevelBonus100":3,"MaxBossBattleDifficulty":28,"AnalysisBoostRate":3,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"InvincibleTime10":6,"TrapDamage10":10,"SubQuestGoldDoubleDiamond":5}</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2286,7 +2283,7 @@
         <v>4</v>
       </c>
       <c r="D74">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E74">
         <f>COUNTIF(A:A,A74)</f>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0016F863-DCB5-4666-B188-EE37869A85E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5FA88E-FD01-464E-8EF1-B292B0D11788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -1154,8 +1154,8 @@
   <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A74" sqref="A74"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1201,7 +1201,7 @@
         <v>600</v>
       </c>
       <c r="E2">
-        <f>COUNTIF(A:A,A2)</f>
+        <f t="shared" ref="E2:E33" si="0">COUNTIF(A:A,A2)</f>
         <v>1</v>
       </c>
       <c r="G2" t="str">
@@ -1249,7 +1249,7 @@
         <v>400</v>
       </c>
       <c r="E3">
-        <f>COUNTIF(A:A,A3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <f>COUNTIF(A:A,A4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1274,7 +1274,7 @@
         <v>192</v>
       </c>
       <c r="E5">
-        <f>COUNTIF(A:A,A5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1286,7 +1286,7 @@
         <v>960</v>
       </c>
       <c r="E6">
-        <f>COUNTIF(A:A,A6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1298,7 +1298,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <f>COUNTIF(A:A,A7)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1310,7 +1310,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <f>COUNTIF(A:A,A8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1322,7 +1322,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <f>COUNTIF(A:A,A9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
         <v>10</v>
       </c>
       <c r="E10">
-        <f>COUNTIF(A:A,A10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1352,7 +1352,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <f>COUNTIF(A:A,A11)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1367,7 +1367,7 @@
         <v>2</v>
       </c>
       <c r="E12">
-        <f>COUNTIF(A:A,A12)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1382,7 +1382,7 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <f>COUNTIF(A:A,A13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <f>COUNTIF(A:A,A14)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1412,7 +1412,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <f>COUNTIF(A:A,A15)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1427,7 +1427,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <f>COUNTIF(A:A,A16)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
         <v>90</v>
       </c>
       <c r="E17">
-        <f>COUNTIF(A:A,A17)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <f>COUNTIF(A:A,A18)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
         <v>50</v>
       </c>
       <c r="E19">
-        <f>COUNTIF(A:A,A19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1478,7 +1478,7 @@
         <v>2400</v>
       </c>
       <c r="E20">
-        <f>COUNTIF(A:A,A20)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
         <v>2000</v>
       </c>
       <c r="E21">
-        <f>COUNTIF(A:A,A21)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1505,7 +1505,7 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <f>COUNTIF(A:A,A22)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1518,7 +1518,7 @@
         <v>259200</v>
       </c>
       <c r="E23">
-        <f>COUNTIF(A:A,A23)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1530,7 +1530,7 @@
         <v>5</v>
       </c>
       <c r="E24">
-        <f>COUNTIF(A:A,A24)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1542,7 +1542,7 @@
         <v>1000</v>
       </c>
       <c r="E25">
-        <f>COUNTIF(A:A,A25)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1554,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <f>COUNTIF(A:A,A26)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <f>COUNTIF(A:A,A27)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1578,7 +1578,7 @@
         <v>4</v>
       </c>
       <c r="E28">
-        <f>COUNTIF(A:A,A28)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
         <v>5</v>
       </c>
       <c r="E29">
-        <f>COUNTIF(A:A,A29)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1605,7 +1605,7 @@
         <v>10</v>
       </c>
       <c r="E30">
-        <f>COUNTIF(A:A,A30)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1623,7 +1623,7 @@
         <v>17</v>
       </c>
       <c r="E31">
-        <f>COUNTIF(A:A,A31)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
         <v>30</v>
       </c>
       <c r="E32">
-        <f>COUNTIF(A:A,A32)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1659,7 +1659,7 @@
         <v>300</v>
       </c>
       <c r="E33">
-        <f>COUNTIF(A:A,A33)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
         <v>9</v>
       </c>
       <c r="E34">
-        <f>COUNTIF(A:A,A34)</f>
+        <f t="shared" ref="E34:E65" si="1">COUNTIF(A:A,A34)</f>
         <v>1</v>
       </c>
     </row>
@@ -1694,7 +1694,7 @@
         <v>1209600</v>
       </c>
       <c r="E35">
-        <f>COUNTIF(A:A,A35)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1712,7 +1712,7 @@
         <v>3</v>
       </c>
       <c r="E36">
-        <f>COUNTIF(A:A,A36)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
         <v>2419200</v>
       </c>
       <c r="E37">
-        <f>COUNTIF(A:A,A37)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1743,7 +1743,7 @@
         <v>20</v>
       </c>
       <c r="E38">
-        <f>COUNTIF(A:A,A38)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1758,7 +1758,7 @@
         <v>66</v>
       </c>
       <c r="E39">
-        <f>COUNTIF(A:A,A39)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <f>COUNTIF(A:A,A40)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1788,7 +1788,7 @@
         <v>60</v>
       </c>
       <c r="E41">
-        <f>COUNTIF(A:A,A41)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1803,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <f>COUNTIF(A:A,A42)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1815,7 +1815,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <f>COUNTIF(A:A,A43)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1830,10 +1830,10 @@
         <v>50</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E44">
-        <f>COUNTIF(A:A,A44)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1845,10 +1845,10 @@
         <v>51</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E45">
-        <f>COUNTIF(A:A,A45)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1863,7 +1863,7 @@
         <v>86400</v>
       </c>
       <c r="E46">
-        <f>COUNTIF(A:A,A46)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1878,7 +1878,7 @@
         <v>172800</v>
       </c>
       <c r="E47">
-        <f>COUNTIF(A:A,A47)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1893,7 +1893,7 @@
         <v>8</v>
       </c>
       <c r="E48">
-        <f>COUNTIF(A:A,A48)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1908,7 +1908,7 @@
         <v>200</v>
       </c>
       <c r="E49">
-        <f>COUNTIF(A:A,A49)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <f>COUNTIF(A:A,A50)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
         <v>10</v>
       </c>
       <c r="E51">
-        <f>COUNTIF(A:A,A51)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
         <v>8</v>
       </c>
       <c r="E52">
-        <f>COUNTIF(A:A,A52)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1968,7 +1968,7 @@
         <v>3</v>
       </c>
       <c r="E53">
-        <f>COUNTIF(A:A,A53)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1983,7 +1983,7 @@
         <v>4</v>
       </c>
       <c r="E54">
-        <f>COUNTIF(A:A,A54)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1998,7 +1998,7 @@
         <v>4</v>
       </c>
       <c r="E55">
-        <f>COUNTIF(A:A,A55)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
         <v>4</v>
       </c>
       <c r="E56">
-        <f>COUNTIF(A:A,A56)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2028,7 +2028,7 @@
         <v>2</v>
       </c>
       <c r="E57">
-        <f>COUNTIF(A:A,A57)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2043,7 +2043,7 @@
         <v>2</v>
       </c>
       <c r="E58">
-        <f>COUNTIF(A:A,A58)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2058,7 +2058,7 @@
         <v>2</v>
       </c>
       <c r="E59">
-        <f>COUNTIF(A:A,A59)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2073,7 +2073,7 @@
         <v>2</v>
       </c>
       <c r="E60">
-        <f>COUNTIF(A:A,A60)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2088,7 +2088,7 @@
         <v>9</v>
       </c>
       <c r="E61">
-        <f>COUNTIF(A:A,A61)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2103,7 +2103,7 @@
         <v>9</v>
       </c>
       <c r="E62">
-        <f>COUNTIF(A:A,A62)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2118,7 +2118,7 @@
         <v>9</v>
       </c>
       <c r="E63">
-        <f>COUNTIF(A:A,A63)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2133,7 +2133,7 @@
         <v>50</v>
       </c>
       <c r="E64">
-        <f>COUNTIF(A:A,A64)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2148,7 +2148,7 @@
         <v>6</v>
       </c>
       <c r="E65">
-        <f>COUNTIF(A:A,A65)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2163,7 +2163,7 @@
         <v>5</v>
       </c>
       <c r="E66">
-        <f>COUNTIF(A:A,A66)</f>
+        <f t="shared" ref="E66:E88" si="2">COUNTIF(A:A,A66)</f>
         <v>1</v>
       </c>
     </row>
@@ -2178,7 +2178,7 @@
         <v>5</v>
       </c>
       <c r="E67">
-        <f>COUNTIF(A:A,A67)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2193,7 +2193,7 @@
         <v>300</v>
       </c>
       <c r="E68">
-        <f>COUNTIF(A:A,A68)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2208,7 +2208,7 @@
         <v>90</v>
       </c>
       <c r="E69">
-        <f>COUNTIF(A:A,A69)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2223,7 +2223,7 @@
         <v>10</v>
       </c>
       <c r="E70">
-        <f>COUNTIF(A:A,A70)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
         <v>3</v>
       </c>
       <c r="E71">
-        <f>COUNTIF(A:A,A71)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
         <v>28</v>
       </c>
       <c r="E72">
-        <f>COUNTIF(A:A,A72)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
         <v>30</v>
       </c>
       <c r="E73">
-        <f>COUNTIF(A:A,A73)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
         <v>3</v>
       </c>
       <c r="E74">
-        <f>COUNTIF(A:A,A74)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
         <v>8</v>
       </c>
       <c r="E75">
-        <f>COUNTIF(A:A,A75)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
         <v>4</v>
       </c>
       <c r="E76">
-        <f>COUNTIF(A:A,A76)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
         <v>17</v>
       </c>
       <c r="E77">
-        <f>COUNTIF(A:A,A77)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
         <v>9</v>
       </c>
       <c r="E78">
-        <f>COUNTIF(A:A,A78)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
         <v>12</v>
       </c>
       <c r="E79">
-        <f>COUNTIF(A:A,A79)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2373,7 +2373,7 @@
         <v>6</v>
       </c>
       <c r="E80">
-        <f>COUNTIF(A:A,A80)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2388,7 +2388,7 @@
         <v>30</v>
       </c>
       <c r="E81">
-        <f>COUNTIF(A:A,A81)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2403,7 +2403,7 @@
         <v>1200</v>
       </c>
       <c r="E82">
-        <f>COUNTIF(A:A,A82)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
         <v>3330</v>
       </c>
       <c r="E83">
-        <f>COUNTIF(A:A,A83)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
         <v>10000</v>
       </c>
       <c r="E84">
-        <f>COUNTIF(A:A,A84)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2448,7 +2448,7 @@
         <v>6</v>
       </c>
       <c r="E85">
-        <f>COUNTIF(A:A,A85)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2463,7 +2463,7 @@
         <v>10</v>
       </c>
       <c r="E86">
-        <f>COUNTIF(A:A,A86)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2475,7 +2475,7 @@
         <v>10</v>
       </c>
       <c r="E87">
-        <f>COUNTIF(A:A,A87)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2490,7 +2490,7 @@
         <v>5</v>
       </c>
       <c r="E88">
-        <f>COUNTIF(A:A,A88)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5FA88E-FD01-464E-8EF1-B292B0D11788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AED1B47-A2AF-4986-864C-D30A80C096FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="29655" yWindow="3165" windowWidth="21600" windowHeight="11385" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="132">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -721,14 +721,6 @@
   </si>
   <si>
     <t>SubQuestGoldDoubleDiamond</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PetHeartAtk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>펫 하트 당 공격력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1151,11 +1143,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
+      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1201,7 +1193,7 @@
         <v>600</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E33" si="0">COUNTIF(A:A,A2)</f>
+        <f>COUNTIF(A:A,A2)</f>
         <v>1</v>
       </c>
       <c r="G2" t="str">
@@ -1220,20 +1212,20 @@
 A32&amp;""":"&amp;VLOOKUP(A32,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A33&amp;""":"&amp;VLOOKUP(A33,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A34&amp;""":"&amp;VLOOKUP(A34,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A51&amp;""":"&amp;VLOOKUP(A51,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A50&amp;""":"&amp;VLOOKUP(A50,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A66&amp;""":"&amp;VLOOKUP(A66,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A67&amp;""":"&amp;VLOOKUP(A67,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A68&amp;""":"&amp;VLOOKUP(A68,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A69&amp;""":"&amp;VLOOKUP(A69,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A70&amp;""":"&amp;VLOOKUP(A70,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A71&amp;""":"&amp;VLOOKUP(A71,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A72&amp;""":"&amp;VLOOKUP(A72,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A74&amp;""":"&amp;VLOOKUP(A74,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A73&amp;""":"&amp;VLOOKUP(A73,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A80&amp;""":"&amp;VLOOKUP(A80,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A81&amp;""":"&amp;VLOOKUP(A81,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A82&amp;""":"&amp;VLOOKUP(A82,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A83&amp;""":"&amp;VLOOKUP(A83,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A84&amp;""":"&amp;VLOOKUP(A84,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A85&amp;""":"&amp;VLOOKUP(A85,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A86&amp;""":"&amp;VLOOKUP(A86,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A88&amp;""":"&amp;VLOOKUP(A88,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
+A87&amp;""":"&amp;VLOOKUP(A87,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
         <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2400,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"MaxPetCountStep":9,"FortuneWheelGolden":10,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":300,"BossBattleRegenTickDelay100":90,"BossBattleRegenHpRatio100":10,"BossBattleXpLevelBonus100":3,"MaxBossBattleDifficulty":28,"AnalysisBoostRate":3,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"InvincibleTime10":6,"TrapDamage10":10,"SubQuestGoldDoubleDiamond":5}</v>
       </c>
@@ -1249,7 +1241,7 @@
         <v>400</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A3)</f>
         <v>1</v>
       </c>
     </row>
@@ -1261,7 +1253,7 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A4)</f>
         <v>1</v>
       </c>
     </row>
@@ -1274,7 +1266,7 @@
         <v>192</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A5)</f>
         <v>1</v>
       </c>
     </row>
@@ -1286,7 +1278,7 @@
         <v>960</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A6)</f>
         <v>1</v>
       </c>
     </row>
@@ -1298,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A7)</f>
         <v>1</v>
       </c>
     </row>
@@ -1310,7 +1302,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A8)</f>
         <v>1</v>
       </c>
     </row>
@@ -1322,7 +1314,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A9)</f>
         <v>1</v>
       </c>
     </row>
@@ -1337,7 +1329,7 @@
         <v>10</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A10)</f>
         <v>1</v>
       </c>
     </row>
@@ -1352,7 +1344,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A11)</f>
         <v>1</v>
       </c>
     </row>
@@ -1367,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A12)</f>
         <v>1</v>
       </c>
     </row>
@@ -1382,7 +1374,7 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A13)</f>
         <v>1</v>
       </c>
     </row>
@@ -1397,7 +1389,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A14)</f>
         <v>1</v>
       </c>
     </row>
@@ -1412,7 +1404,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A15)</f>
         <v>1</v>
       </c>
     </row>
@@ -1427,7 +1419,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A16)</f>
         <v>1</v>
       </c>
     </row>
@@ -1439,7 +1431,7 @@
         <v>90</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A17)</f>
         <v>1</v>
       </c>
     </row>
@@ -1451,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A18)</f>
         <v>1</v>
       </c>
     </row>
@@ -1463,7 +1455,7 @@
         <v>50</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A19)</f>
         <v>1</v>
       </c>
     </row>
@@ -1478,7 +1470,7 @@
         <v>2400</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A20)</f>
         <v>1</v>
       </c>
     </row>
@@ -1493,7 +1485,7 @@
         <v>2000</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A21)</f>
         <v>1</v>
       </c>
     </row>
@@ -1505,7 +1497,7 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A22)</f>
         <v>1</v>
       </c>
     </row>
@@ -1518,7 +1510,7 @@
         <v>259200</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A23)</f>
         <v>1</v>
       </c>
     </row>
@@ -1530,7 +1522,7 @@
         <v>5</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A24)</f>
         <v>1</v>
       </c>
     </row>
@@ -1542,7 +1534,7 @@
         <v>1000</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A25)</f>
         <v>1</v>
       </c>
     </row>
@@ -1554,7 +1546,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A26)</f>
         <v>1</v>
       </c>
     </row>
@@ -1566,7 +1558,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A27)</f>
         <v>1</v>
       </c>
     </row>
@@ -1578,7 +1570,7 @@
         <v>4</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A28)</f>
         <v>1</v>
       </c>
     </row>
@@ -1590,7 +1582,7 @@
         <v>5</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A29)</f>
         <v>1</v>
       </c>
     </row>
@@ -1605,7 +1597,7 @@
         <v>10</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A30)</f>
         <v>1</v>
       </c>
     </row>
@@ -1623,7 +1615,7 @@
         <v>17</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A31)</f>
         <v>1</v>
       </c>
     </row>
@@ -1641,7 +1633,7 @@
         <v>30</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A32)</f>
         <v>1</v>
       </c>
     </row>
@@ -1659,7 +1651,7 @@
         <v>300</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A33)</f>
         <v>1</v>
       </c>
     </row>
@@ -1677,7 +1669,7 @@
         <v>9</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34:E65" si="1">COUNTIF(A:A,A34)</f>
+        <f>COUNTIF(A:A,A34)</f>
         <v>1</v>
       </c>
     </row>
@@ -1694,7 +1686,7 @@
         <v>1209600</v>
       </c>
       <c r="E35">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A35)</f>
         <v>1</v>
       </c>
     </row>
@@ -1712,7 +1704,7 @@
         <v>3</v>
       </c>
       <c r="E36">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A36)</f>
         <v>1</v>
       </c>
     </row>
@@ -1728,7 +1720,7 @@
         <v>2419200</v>
       </c>
       <c r="E37">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A37)</f>
         <v>1</v>
       </c>
     </row>
@@ -1743,7 +1735,7 @@
         <v>20</v>
       </c>
       <c r="E38">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A38)</f>
         <v>1</v>
       </c>
     </row>
@@ -1758,7 +1750,7 @@
         <v>66</v>
       </c>
       <c r="E39">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A39)</f>
         <v>1</v>
       </c>
     </row>
@@ -1773,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A40)</f>
         <v>1</v>
       </c>
     </row>
@@ -1788,7 +1780,7 @@
         <v>60</v>
       </c>
       <c r="E41">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A41)</f>
         <v>1</v>
       </c>
     </row>
@@ -1803,7 +1795,7 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A42)</f>
         <v>1</v>
       </c>
     </row>
@@ -1815,7 +1807,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A43)</f>
         <v>1</v>
       </c>
     </row>
@@ -1833,13 +1825,16 @@
         <v>8</v>
       </c>
       <c r="E44">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A44)</f>
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" t="s">
+      <c r="A45" s="1" t="s">
         <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>54</v>
       </c>
       <c r="C45" t="s">
         <v>51</v>
@@ -1848,7 +1843,7 @@
         <v>24</v>
       </c>
       <c r="E45">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A45)</f>
         <v>1</v>
       </c>
     </row>
@@ -1863,7 +1858,7 @@
         <v>86400</v>
       </c>
       <c r="E46">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A46)</f>
         <v>1</v>
       </c>
     </row>
@@ -1878,103 +1873,103 @@
         <v>172800</v>
       </c>
       <c r="E47">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A47)</f>
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" t="s">
-        <v>132</v>
-      </c>
-      <c r="C48" t="s">
-        <v>133</v>
+      <c r="A48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" t="s">
+        <v>54</v>
       </c>
       <c r="D48">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="E48">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A48)</f>
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B49" t="s">
         <v>54</v>
       </c>
       <c r="D49">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="E49">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A49)</f>
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E50">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A50)</f>
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="D51">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E51">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A51)</f>
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B52" t="s">
         <v>54</v>
       </c>
       <c r="D52">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E52">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A52)</f>
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="D53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E53">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A53)</f>
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B54" t="s">
         <v>97</v>
@@ -1983,13 +1978,13 @@
         <v>4</v>
       </c>
       <c r="E54">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A54)</f>
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="B55" t="s">
         <v>97</v>
@@ -1998,43 +1993,43 @@
         <v>4</v>
       </c>
       <c r="E55">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A55)</f>
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="B56" t="s">
         <v>97</v>
       </c>
       <c r="D56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E56">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A56)</f>
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B57" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="D57">
         <v>2</v>
       </c>
       <c r="E57">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A57)</f>
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B58" t="s">
         <v>54</v>
@@ -2043,454 +2038,439 @@
         <v>2</v>
       </c>
       <c r="E58">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A58)</f>
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="D59">
         <v>2</v>
       </c>
       <c r="E59">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A59)</f>
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="1" t="s">
-        <v>128</v>
+      <c r="A60" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="B60" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E60">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A60)</f>
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B61" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D61">
         <v>9</v>
       </c>
       <c r="E61">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A61)</f>
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="B62" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="D62">
         <v>9</v>
       </c>
       <c r="E62">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A62)</f>
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="B63" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D63">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="E63">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A63)</f>
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B64" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D64">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E64">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A64)</f>
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B65" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="D65">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E65">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A65)</f>
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B66" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="D66">
         <v>5</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E88" si="2">COUNTIF(A:A,A66)</f>
+        <f>COUNTIF(A:A,A66)</f>
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B67" t="s">
         <v>4</v>
       </c>
       <c r="D67">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="E67">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A67)</f>
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B68" t="s">
         <v>4</v>
       </c>
       <c r="D68">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="E68">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A68)</f>
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B69" t="s">
         <v>4</v>
       </c>
       <c r="D69">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E69">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A69)</f>
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B70" t="s">
         <v>4</v>
       </c>
+      <c r="C70" t="s">
+        <v>117</v>
+      </c>
       <c r="D70">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E70">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A70)</f>
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B71" t="s">
         <v>4</v>
       </c>
-      <c r="C71" t="s">
-        <v>117</v>
-      </c>
       <c r="D71">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E71">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A71)</f>
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="2" t="s">
-        <v>115</v>
+      <c r="A72" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B72" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="D72">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E72">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A72)</f>
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B73" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="D73">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E73">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A73)</f>
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B74" t="s">
-        <v>4</v>
+      <c r="A74" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C74" t="s">
+        <v>72</v>
       </c>
       <c r="D74">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E74">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A74)</f>
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="4" t="s">
-        <v>66</v>
+      <c r="A75" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="C75" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D75">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E75">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A75)</f>
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C76" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D76">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E76">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A76)</f>
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C77" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D77">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E77">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A77)</f>
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C78" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D78">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E78">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A78)</f>
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C79" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D79">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E79">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A79)</f>
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="3" t="s">
-        <v>76</v>
+      <c r="A80" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>4</v>
       </c>
       <c r="D80">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E80">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A80)</f>
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>4</v>
       </c>
       <c r="D81">
-        <v>30</v>
+        <v>1200</v>
       </c>
       <c r="E81">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A81)</f>
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>4</v>
       </c>
       <c r="D82">
-        <v>1200</v>
+        <v>3330</v>
       </c>
       <c r="E82">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A82)</f>
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="1" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B83" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="D83">
-        <v>3330</v>
+        <v>10000</v>
       </c>
       <c r="E83">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A83)</f>
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B84" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="D84">
-        <v>10000</v>
+        <v>6</v>
       </c>
       <c r="E84">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A84)</f>
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B85" t="s">
         <v>4</v>
       </c>
       <c r="D85">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E85">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A85)</f>
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B86" t="s">
-        <v>4</v>
+      <c r="A86" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="D86">
         <v>10</v>
       </c>
       <c r="E86">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A86)</f>
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="4" t="s">
-        <v>125</v>
+      <c r="A87" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B87" t="s">
+        <v>4</v>
       </c>
       <c r="D87">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E87">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B88" t="s">
-        <v>4</v>
-      </c>
-      <c r="D88">
-        <v>5</v>
-      </c>
-      <c r="E88">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A87)</f>
         <v>1</v>
       </c>
     </row>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AED1B47-A2AF-4986-864C-D30A80C096FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4733B01-9BD0-46FE-B333-F0CD8DEBF8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29655" yWindow="3165" windowWidth="21600" windowHeight="11385" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -1146,8 +1146,8 @@
   <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1193,7 +1193,7 @@
         <v>600</v>
       </c>
       <c r="E2">
-        <f>COUNTIF(A:A,A2)</f>
+        <f t="shared" ref="E2:E33" si="0">COUNTIF(A:A,A2)</f>
         <v>1</v>
       </c>
       <c r="G2" t="str">
@@ -1241,7 +1241,7 @@
         <v>400</v>
       </c>
       <c r="E3">
-        <f>COUNTIF(A:A,A3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1253,7 +1253,7 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <f>COUNTIF(A:A,A4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
         <v>192</v>
       </c>
       <c r="E5">
-        <f>COUNTIF(A:A,A5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1278,7 +1278,7 @@
         <v>960</v>
       </c>
       <c r="E6">
-        <f>COUNTIF(A:A,A6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <f>COUNTIF(A:A,A7)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1302,7 +1302,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <f>COUNTIF(A:A,A8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <f>COUNTIF(A:A,A9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
         <v>10</v>
       </c>
       <c r="E10">
-        <f>COUNTIF(A:A,A10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <f>COUNTIF(A:A,A11)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1359,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="E12">
-        <f>COUNTIF(A:A,A12)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <f>COUNTIF(A:A,A13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <f>COUNTIF(A:A,A14)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1404,7 +1404,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <f>COUNTIF(A:A,A15)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <f>COUNTIF(A:A,A16)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
         <v>90</v>
       </c>
       <c r="E17">
-        <f>COUNTIF(A:A,A17)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <f>COUNTIF(A:A,A18)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
         <v>50</v>
       </c>
       <c r="E19">
-        <f>COUNTIF(A:A,A19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1470,7 +1470,7 @@
         <v>2400</v>
       </c>
       <c r="E20">
-        <f>COUNTIF(A:A,A20)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1482,10 +1482,10 @@
         <v>26</v>
       </c>
       <c r="D21">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E21">
-        <f>COUNTIF(A:A,A21)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <f>COUNTIF(A:A,A22)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1510,7 +1510,7 @@
         <v>259200</v>
       </c>
       <c r="E23">
-        <f>COUNTIF(A:A,A23)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1522,7 +1522,7 @@
         <v>5</v>
       </c>
       <c r="E24">
-        <f>COUNTIF(A:A,A24)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
         <v>1000</v>
       </c>
       <c r="E25">
-        <f>COUNTIF(A:A,A25)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <f>COUNTIF(A:A,A26)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1558,7 +1558,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <f>COUNTIF(A:A,A27)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1570,7 +1570,7 @@
         <v>4</v>
       </c>
       <c r="E28">
-        <f>COUNTIF(A:A,A28)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
         <v>5</v>
       </c>
       <c r="E29">
-        <f>COUNTIF(A:A,A29)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1597,7 +1597,7 @@
         <v>10</v>
       </c>
       <c r="E30">
-        <f>COUNTIF(A:A,A30)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1615,7 +1615,7 @@
         <v>17</v>
       </c>
       <c r="E31">
-        <f>COUNTIF(A:A,A31)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1633,7 +1633,7 @@
         <v>30</v>
       </c>
       <c r="E32">
-        <f>COUNTIF(A:A,A32)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
         <v>300</v>
       </c>
       <c r="E33">
-        <f>COUNTIF(A:A,A33)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1669,7 +1669,7 @@
         <v>9</v>
       </c>
       <c r="E34">
-        <f>COUNTIF(A:A,A34)</f>
+        <f t="shared" ref="E34:E65" si="1">COUNTIF(A:A,A34)</f>
         <v>1</v>
       </c>
     </row>
@@ -1686,7 +1686,7 @@
         <v>1209600</v>
       </c>
       <c r="E35">
-        <f>COUNTIF(A:A,A35)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
         <v>3</v>
       </c>
       <c r="E36">
-        <f>COUNTIF(A:A,A36)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1720,7 +1720,7 @@
         <v>2419200</v>
       </c>
       <c r="E37">
-        <f>COUNTIF(A:A,A37)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1735,7 +1735,7 @@
         <v>20</v>
       </c>
       <c r="E38">
-        <f>COUNTIF(A:A,A38)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1750,7 +1750,7 @@
         <v>66</v>
       </c>
       <c r="E39">
-        <f>COUNTIF(A:A,A39)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <f>COUNTIF(A:A,A40)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1780,7 +1780,7 @@
         <v>60</v>
       </c>
       <c r="E41">
-        <f>COUNTIF(A:A,A41)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1795,7 +1795,7 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <f>COUNTIF(A:A,A42)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1807,7 +1807,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <f>COUNTIF(A:A,A43)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1825,7 +1825,7 @@
         <v>8</v>
       </c>
       <c r="E44">
-        <f>COUNTIF(A:A,A44)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1843,7 +1843,7 @@
         <v>24</v>
       </c>
       <c r="E45">
-        <f>COUNTIF(A:A,A45)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
         <v>86400</v>
       </c>
       <c r="E46">
-        <f>COUNTIF(A:A,A46)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1873,7 +1873,7 @@
         <v>172800</v>
       </c>
       <c r="E47">
-        <f>COUNTIF(A:A,A47)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1888,7 +1888,7 @@
         <v>200</v>
       </c>
       <c r="E48">
-        <f>COUNTIF(A:A,A48)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1903,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="E49">
-        <f>COUNTIF(A:A,A49)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1918,7 +1918,7 @@
         <v>10</v>
       </c>
       <c r="E50">
-        <f>COUNTIF(A:A,A50)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1933,7 +1933,7 @@
         <v>8</v>
       </c>
       <c r="E51">
-        <f>COUNTIF(A:A,A51)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1948,7 +1948,7 @@
         <v>3</v>
       </c>
       <c r="E52">
-        <f>COUNTIF(A:A,A52)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1963,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="E53">
-        <f>COUNTIF(A:A,A53)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1978,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="E54">
-        <f>COUNTIF(A:A,A54)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
         <v>4</v>
       </c>
       <c r="E55">
-        <f>COUNTIF(A:A,A55)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2008,7 +2008,7 @@
         <v>2</v>
       </c>
       <c r="E56">
-        <f>COUNTIF(A:A,A56)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2023,7 +2023,7 @@
         <v>2</v>
       </c>
       <c r="E57">
-        <f>COUNTIF(A:A,A57)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2038,7 +2038,7 @@
         <v>2</v>
       </c>
       <c r="E58">
-        <f>COUNTIF(A:A,A58)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2053,7 +2053,7 @@
         <v>2</v>
       </c>
       <c r="E59">
-        <f>COUNTIF(A:A,A59)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2068,7 +2068,7 @@
         <v>9</v>
       </c>
       <c r="E60">
-        <f>COUNTIF(A:A,A60)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2083,7 +2083,7 @@
         <v>9</v>
       </c>
       <c r="E61">
-        <f>COUNTIF(A:A,A61)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2098,7 +2098,7 @@
         <v>9</v>
       </c>
       <c r="E62">
-        <f>COUNTIF(A:A,A62)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2113,7 +2113,7 @@
         <v>50</v>
       </c>
       <c r="E63">
-        <f>COUNTIF(A:A,A63)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2128,7 +2128,7 @@
         <v>6</v>
       </c>
       <c r="E64">
-        <f>COUNTIF(A:A,A64)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2143,7 +2143,7 @@
         <v>5</v>
       </c>
       <c r="E65">
-        <f>COUNTIF(A:A,A65)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2158,7 +2158,7 @@
         <v>5</v>
       </c>
       <c r="E66">
-        <f>COUNTIF(A:A,A66)</f>
+        <f t="shared" ref="E66:E87" si="2">COUNTIF(A:A,A66)</f>
         <v>1</v>
       </c>
     </row>
@@ -2173,7 +2173,7 @@
         <v>300</v>
       </c>
       <c r="E67">
-        <f>COUNTIF(A:A,A67)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
         <v>90</v>
       </c>
       <c r="E68">
-        <f>COUNTIF(A:A,A68)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2203,7 +2203,7 @@
         <v>10</v>
       </c>
       <c r="E69">
-        <f>COUNTIF(A:A,A69)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
         <v>3</v>
       </c>
       <c r="E70">
-        <f>COUNTIF(A:A,A70)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2236,7 +2236,7 @@
         <v>28</v>
       </c>
       <c r="E71">
-        <f>COUNTIF(A:A,A71)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2251,7 +2251,7 @@
         <v>30</v>
       </c>
       <c r="E72">
-        <f>COUNTIF(A:A,A72)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2266,7 +2266,7 @@
         <v>3</v>
       </c>
       <c r="E73">
-        <f>COUNTIF(A:A,A73)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2281,7 +2281,7 @@
         <v>8</v>
       </c>
       <c r="E74">
-        <f>COUNTIF(A:A,A74)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2296,7 +2296,7 @@
         <v>4</v>
       </c>
       <c r="E75">
-        <f>COUNTIF(A:A,A75)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2311,7 +2311,7 @@
         <v>17</v>
       </c>
       <c r="E76">
-        <f>COUNTIF(A:A,A76)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2326,7 +2326,7 @@
         <v>9</v>
       </c>
       <c r="E77">
-        <f>COUNTIF(A:A,A77)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2341,7 +2341,7 @@
         <v>12</v>
       </c>
       <c r="E78">
-        <f>COUNTIF(A:A,A78)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2353,7 +2353,7 @@
         <v>6</v>
       </c>
       <c r="E79">
-        <f>COUNTIF(A:A,A79)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2368,7 +2368,7 @@
         <v>30</v>
       </c>
       <c r="E80">
-        <f>COUNTIF(A:A,A80)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2383,7 +2383,7 @@
         <v>1200</v>
       </c>
       <c r="E81">
-        <f>COUNTIF(A:A,A81)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2398,7 +2398,7 @@
         <v>3330</v>
       </c>
       <c r="E82">
-        <f>COUNTIF(A:A,A82)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
         <v>10000</v>
       </c>
       <c r="E83">
-        <f>COUNTIF(A:A,A83)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2428,7 +2428,7 @@
         <v>6</v>
       </c>
       <c r="E84">
-        <f>COUNTIF(A:A,A84)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2443,7 +2443,7 @@
         <v>10</v>
       </c>
       <c r="E85">
-        <f>COUNTIF(A:A,A85)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2455,7 +2455,7 @@
         <v>10</v>
       </c>
       <c r="E86">
-        <f>COUNTIF(A:A,A86)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2470,7 +2470,7 @@
         <v>5</v>
       </c>
       <c r="E87">
-        <f>COUNTIF(A:A,A87)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4733B01-9BD0-46FE-B333-F0CD8DEBF8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E422AB-6A78-4A9F-B062-713A6FE786D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="129">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -335,18 +335,6 @@
   </si>
   <si>
     <t>TotalSpellGachaStep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GachaActorCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GachaActorPowerPointMin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GachaActorPowerPointMax</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1143,11 +1131,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1173,7 +1161,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1193,7 +1181,7 @@
         <v>600</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E33" si="0">COUNTIF(A:A,A2)</f>
+        <f>COUNTIF(A:A,A2)</f>
         <v>1</v>
       </c>
       <c r="G2" t="str">
@@ -1207,25 +1195,25 @@
 A15&amp;""":"&amp;VLOOKUP(A15,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A16&amp;""":"&amp;VLOOKUP(A16,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A20&amp;""":"&amp;VLOOKUP(A20,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A27&amp;""":"&amp;VLOOKUP(A27,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A28&amp;""":"&amp;VLOOKUP(A28,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A29&amp;""":"&amp;VLOOKUP(A29,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A30&amp;""":"&amp;VLOOKUP(A30,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A31&amp;""":"&amp;VLOOKUP(A31,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A32&amp;""":"&amp;VLOOKUP(A32,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A33&amp;""":"&amp;VLOOKUP(A33,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A34&amp;""":"&amp;VLOOKUP(A34,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A50&amp;""":"&amp;VLOOKUP(A50,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A47&amp;""":"&amp;VLOOKUP(A47,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A63&amp;""":"&amp;VLOOKUP(A63,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A64&amp;""":"&amp;VLOOKUP(A64,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A65&amp;""":"&amp;VLOOKUP(A65,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A66&amp;""":"&amp;VLOOKUP(A66,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A67&amp;""":"&amp;VLOOKUP(A67,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A68&amp;""":"&amp;VLOOKUP(A68,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A69&amp;""":"&amp;VLOOKUP(A69,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A70&amp;""":"&amp;VLOOKUP(A70,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A71&amp;""":"&amp;VLOOKUP(A71,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A73&amp;""":"&amp;VLOOKUP(A73,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A80&amp;""":"&amp;VLOOKUP(A80,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A77&amp;""":"&amp;VLOOKUP(A77,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A78&amp;""":"&amp;VLOOKUP(A78,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A79&amp;""":"&amp;VLOOKUP(A79,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A81&amp;""":"&amp;VLOOKUP(A81,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A82&amp;""":"&amp;VLOOKUP(A82,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A84&amp;""":"&amp;VLOOKUP(A84,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A85&amp;""":"&amp;VLOOKUP(A85,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A87&amp;""":"&amp;VLOOKUP(A87,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
+A84&amp;""":"&amp;VLOOKUP(A84,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
         <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2400,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"MaxPetCountStep":9,"FortuneWheelGolden":10,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":300,"BossBattleRegenTickDelay100":90,"BossBattleRegenHpRatio100":10,"BossBattleXpLevelBonus100":3,"MaxBossBattleDifficulty":28,"AnalysisBoostRate":3,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"InvincibleTime10":6,"TrapDamage10":10,"SubQuestGoldDoubleDiamond":5}</v>
       </c>
@@ -1241,19 +1229,19 @@
         <v>400</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A3)</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D4">
         <v>20</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A4)</f>
         <v>1</v>
       </c>
     </row>
@@ -1266,19 +1254,19 @@
         <v>192</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A5)</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D6">
         <v>960</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A6)</f>
         <v>1</v>
       </c>
     </row>
@@ -1290,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A7)</f>
         <v>1</v>
       </c>
     </row>
@@ -1302,7 +1290,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A8)</f>
         <v>1</v>
       </c>
     </row>
@@ -1314,7 +1302,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A9)</f>
         <v>1</v>
       </c>
     </row>
@@ -1329,7 +1317,7 @@
         <v>10</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A10)</f>
         <v>1</v>
       </c>
     </row>
@@ -1344,7 +1332,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A11)</f>
         <v>1</v>
       </c>
     </row>
@@ -1359,7 +1347,7 @@
         <v>2</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A12)</f>
         <v>1</v>
       </c>
     </row>
@@ -1374,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A13)</f>
         <v>1</v>
       </c>
     </row>
@@ -1389,7 +1377,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A14)</f>
         <v>1</v>
       </c>
     </row>
@@ -1404,7 +1392,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A15)</f>
         <v>1</v>
       </c>
     </row>
@@ -1419,19 +1407,19 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A16)</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D17">
         <v>90</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A17)</f>
         <v>1</v>
       </c>
     </row>
@@ -1443,7 +1431,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A18)</f>
         <v>1</v>
       </c>
     </row>
@@ -1455,7 +1443,7 @@
         <v>50</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A19)</f>
         <v>1</v>
       </c>
     </row>
@@ -1470,7 +1458,7 @@
         <v>2400</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A20)</f>
         <v>1</v>
       </c>
     </row>
@@ -1485,7 +1473,7 @@
         <v>1000</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A21)</f>
         <v>1</v>
       </c>
     </row>
@@ -1497,32 +1485,32 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A22)</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D23">
         <f>3*24*60*60</f>
         <v>259200</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A23)</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D24">
         <v>5</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A24)</f>
         <v>1</v>
       </c>
     </row>
@@ -1534,346 +1522,355 @@
         <v>1000</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A25)</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="3" t="s">
+      <c r="A26" t="s">
         <v>32</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A26)</f>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>33</v>
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A27)</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>34</v>
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>87</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A28)</f>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>35</v>
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>87</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A29)</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
       </c>
+      <c r="C30" t="s">
+        <v>88</v>
+      </c>
       <c r="D30">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A30)</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
       </c>
       <c r="C31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31">
+        <v>9</v>
+      </c>
+      <c r="E31">
+        <f>COUNTIF(A:A,A31)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D31">
-        <v>17</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32">
-        <v>30</v>
+      <c r="D32" s="3">
+        <f>14*24*60*60</f>
+        <v>1209600</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A32)</f>
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <f>COUNTIF(A:A,A33)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" t="s">
         <v>91</v>
       </c>
-      <c r="D33">
-        <v>300</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" t="s">
-        <v>57</v>
-      </c>
       <c r="D34">
-        <v>9</v>
+        <f>28*24*60*60</f>
+        <v>2419200</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34:E65" si="1">COUNTIF(A:A,A34)</f>
+        <f>COUNTIF(A:A,A34)</f>
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" s="3">
-        <f>14*24*60*60</f>
-        <v>1209600</v>
+        <v>39</v>
+      </c>
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35">
+        <v>20</v>
       </c>
       <c r="E35">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A35)</f>
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" t="s">
-        <v>54</v>
+      <c r="A36" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="E36">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A36)</f>
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C37" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D37">
-        <f>28*24*60*60</f>
-        <v>2419200</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A37)</f>
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38">
+        <v>60</v>
+      </c>
+      <c r="E38">
+        <f>COUNTIF(A:A,A38)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <f>COUNTIF(A:A,A39)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
         <v>42</v>
       </c>
-      <c r="C38" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38">
-        <v>20</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="4" t="s">
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <f>COUNTIF(A:A,A40)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C39" t="s">
-        <v>86</v>
-      </c>
-      <c r="D39">
-        <v>66</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C40" t="s">
-        <v>84</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="4" t="s">
-        <v>83</v>
+      <c r="B41" t="s">
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="D41">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="E41">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A41)</f>
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="B42" t="s">
+        <v>51</v>
+      </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E42">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A42)</f>
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>49</v>
+      </c>
+      <c r="C43" t="s">
+        <v>52</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>86400</v>
       </c>
       <c r="E43">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A43)</f>
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" t="s">
-        <v>54</v>
+      <c r="A44" t="s">
+        <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D44">
-        <v>8</v>
+        <v>172800</v>
       </c>
       <c r="E44">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A44)</f>
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" t="s">
         <v>51</v>
       </c>
       <c r="D45">
-        <v>24</v>
+        <v>200</v>
       </c>
       <c r="E45">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A45)</f>
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" t="s">
-        <v>55</v>
+      <c r="A46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" t="s">
+        <v>51</v>
       </c>
       <c r="D46">
-        <v>86400</v>
+        <v>1</v>
       </c>
       <c r="E46">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A46)</f>
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" t="s">
-        <v>56</v>
+      <c r="A47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4</v>
       </c>
       <c r="D47">
-        <v>172800</v>
+        <v>10</v>
       </c>
       <c r="E47">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A47)</f>
         <v>1</v>
       </c>
     </row>
@@ -1882,13 +1879,13 @@
         <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D48">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="E48">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A48)</f>
         <v>1</v>
       </c>
     </row>
@@ -1897,73 +1894,73 @@
         <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E49">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A49)</f>
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="B50" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="D50">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E50">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A50)</f>
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="D51">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E51">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A51)</f>
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E52">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A52)</f>
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B53" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E53">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A53)</f>
         <v>1</v>
       </c>
     </row>
@@ -1972,163 +1969,163 @@
         <v>96</v>
       </c>
       <c r="B54" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="D54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E54">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A54)</f>
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="B55" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="D55">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E55">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A55)</f>
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="B56" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D56">
         <v>2</v>
       </c>
       <c r="E56">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A56)</f>
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B57" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E57">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A57)</f>
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E58">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A58)</f>
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="1" t="s">
-        <v>128</v>
+      <c r="A59" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="B59" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E59">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A59)</f>
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B60" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="D60">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="E60">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A60)</f>
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B61" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D61">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E61">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A61)</f>
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="B62" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="D62">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E62">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A62)</f>
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B63" t="s">
-        <v>119</v>
+        <v>4</v>
       </c>
       <c r="D63">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E63">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A63)</f>
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B64" t="s">
-        <v>108</v>
+        <v>4</v>
       </c>
       <c r="D64">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="E64">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A64)</f>
         <v>1</v>
       </c>
     </row>
@@ -2137,13 +2134,13 @@
         <v>110</v>
       </c>
       <c r="B65" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="D65">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="E65">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A65)</f>
         <v>1</v>
       </c>
     </row>
@@ -2155,133 +2152,133 @@
         <v>4</v>
       </c>
       <c r="D66">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E87" si="2">COUNTIF(A:A,A66)</f>
+        <f>COUNTIF(A:A,A66)</f>
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B67" t="s">
         <v>4</v>
       </c>
+      <c r="C67" t="s">
+        <v>114</v>
+      </c>
       <c r="D67">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="E67">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A67)</f>
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B68" t="s">
         <v>4</v>
       </c>
       <c r="D68">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="E68">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A68)</f>
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="2" t="s">
-        <v>114</v>
+      <c r="A69" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B69" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="D69">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E69">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A69)</f>
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="2" t="s">
-        <v>116</v>
+      <c r="A70" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B70" t="s">
         <v>4</v>
-      </c>
-      <c r="C70" t="s">
-        <v>117</v>
       </c>
       <c r="D70">
         <v>3</v>
       </c>
       <c r="E70">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A70)</f>
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B71" t="s">
-        <v>4</v>
+      <c r="A71" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C71" t="s">
+        <v>69</v>
       </c>
       <c r="D71">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E71">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A71)</f>
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B72" t="s">
-        <v>54</v>
+      <c r="C72" t="s">
+        <v>68</v>
       </c>
       <c r="D72">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E72">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A72)</f>
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B73" t="s">
-        <v>4</v>
+      <c r="C73" t="s">
+        <v>72</v>
       </c>
       <c r="D73">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E73">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A73)</f>
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D74">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E74">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A74)</f>
         <v>1</v>
       </c>
     </row>
@@ -2293,184 +2290,139 @@
         <v>71</v>
       </c>
       <c r="D75">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E75">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A75)</f>
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C76" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D76">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E76">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A76)</f>
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C77" t="s">
-        <v>73</v>
+      <c r="A77" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>4</v>
       </c>
       <c r="D77">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E77">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A77)</f>
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C78" t="s">
-        <v>74</v>
+      <c r="A78" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4</v>
       </c>
       <c r="D78">
-        <v>12</v>
+        <v>1200</v>
       </c>
       <c r="E78">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A78)</f>
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="3" t="s">
-        <v>76</v>
+      <c r="A79" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4</v>
       </c>
       <c r="D79">
-        <v>6</v>
+        <v>3330</v>
       </c>
       <c r="E79">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A79)</f>
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="B80" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="D80">
-        <v>30</v>
+        <v>10000</v>
       </c>
       <c r="E80">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A80)</f>
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="B81" t="s">
         <v>4</v>
       </c>
       <c r="D81">
-        <v>1200</v>
+        <v>6</v>
       </c>
       <c r="E81">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A81)</f>
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="B82" t="s">
         <v>4</v>
       </c>
       <c r="D82">
-        <v>3330</v>
+        <v>10</v>
       </c>
       <c r="E82">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A82)</f>
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B83" t="s">
-        <v>54</v>
+      <c r="A83" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="D83">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="E83">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A83)</f>
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B84" t="s">
         <v>4</v>
       </c>
       <c r="D84">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E84">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B85" t="s">
-        <v>4</v>
-      </c>
-      <c r="D85">
-        <v>10</v>
-      </c>
-      <c r="E85">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D86">
-        <v>10</v>
-      </c>
-      <c r="E86">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B87" t="s">
-        <v>4</v>
-      </c>
-      <c r="D87">
-        <v>5</v>
-      </c>
-      <c r="E87">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A84)</f>
         <v>1</v>
       </c>
     </row>
@@ -2524,23 +2476,23 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E422AB-6A78-4A9F-B062-713A6FE786D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B20C080-012A-467E-8986-E5A4272DF6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="131">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -709,6 +709,14 @@
   </si>
   <si>
     <t>SubQuestGoldDoubleDiamond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FastBossClearLowBase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 층 이하면 리미트 2배 적용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1131,11 +1139,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1199,21 +1207,21 @@
 A28&amp;""":"&amp;VLOOKUP(A28,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A29&amp;""":"&amp;VLOOKUP(A29,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A30&amp;""":"&amp;VLOOKUP(A30,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A31&amp;""":"&amp;VLOOKUP(A31,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A47&amp;""":"&amp;VLOOKUP(A47,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A63&amp;""":"&amp;VLOOKUP(A63,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A32&amp;""":"&amp;VLOOKUP(A32,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A48&amp;""":"&amp;VLOOKUP(A48,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A64&amp;""":"&amp;VLOOKUP(A64,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A65&amp;""":"&amp;VLOOKUP(A65,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A66&amp;""":"&amp;VLOOKUP(A66,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A67&amp;""":"&amp;VLOOKUP(A67,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A68&amp;""":"&amp;VLOOKUP(A68,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A70&amp;""":"&amp;VLOOKUP(A70,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A77&amp;""":"&amp;VLOOKUP(A77,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A69&amp;""":"&amp;VLOOKUP(A69,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A71&amp;""":"&amp;VLOOKUP(A71,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A78&amp;""":"&amp;VLOOKUP(A78,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A79&amp;""":"&amp;VLOOKUP(A79,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A81&amp;""":"&amp;VLOOKUP(A81,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A80&amp;""":"&amp;VLOOKUP(A80,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A82&amp;""":"&amp;VLOOKUP(A82,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A84&amp;""":"&amp;VLOOKUP(A84,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
+A83&amp;""":"&amp;VLOOKUP(A83,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A85&amp;""":"&amp;VLOOKUP(A85,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
         <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2400,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"MaxPetCountStep":9,"FortuneWheelGolden":10,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":300,"BossBattleRegenTickDelay100":90,"BossBattleRegenHpRatio100":10,"BossBattleXpLevelBonus100":3,"MaxBossBattleDifficulty":28,"AnalysisBoostRate":3,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"InvincibleTime10":6,"TrapDamage10":10,"SubQuestGoldDoubleDiamond":5}</v>
       </c>
@@ -1608,17 +1616,17 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="1" t="s">
-        <v>55</v>
+      <c r="A31" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="D31">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="E31">
         <f>COUNTIF(A:A,A31)</f>
@@ -1626,66 +1634,69 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32">
+        <v>9</v>
+      </c>
+      <c r="E32">
+        <f>COUNTIF(A:A,A32)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3" t="s">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D33" s="3">
         <f>14*24*60*60</f>
         <v>1209600</v>
       </c>
-      <c r="E32">
-        <f>COUNTIF(A:A,A32)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33">
-        <v>3</v>
-      </c>
       <c r="E33">
         <f>COUNTIF(A:A,A33)</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <f>COUNTIF(A:A,A34)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>91</v>
       </c>
-      <c r="D34">
+      <c r="D35">
         <f>28*24*60*60</f>
         <v>2419200</v>
       </c>
-      <c r="E34">
-        <f>COUNTIF(A:A,A34)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35">
-        <v>20</v>
-      </c>
       <c r="E35">
         <f>COUNTIF(A:A,A35)</f>
         <v>1</v>
@@ -1693,13 +1704,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D36">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="E36">
         <f>COUNTIF(A:A,A36)</f>
@@ -1708,13 +1719,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="4" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="E37">
         <f>COUNTIF(A:A,A37)</f>
@@ -1723,13 +1734,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D38">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <f>COUNTIF(A:A,A38)</f>
@@ -1737,14 +1748,14 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" t="s">
-        <v>41</v>
+      <c r="A39" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E39">
         <f>COUNTIF(A:A,A39)</f>
@@ -1753,10 +1764,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="C40" t="s">
+        <v>46</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E40">
         <f>COUNTIF(A:A,A40)</f>
@@ -1764,17 +1778,11 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" t="s">
-        <v>47</v>
+      <c r="A41" t="s">
+        <v>42</v>
       </c>
       <c r="D41">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E41">
         <f>COUNTIF(A:A,A41)</f>
@@ -1783,16 +1791,16 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
         <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D42">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E42">
         <f>COUNTIF(A:A,A42)</f>
@@ -1800,14 +1808,17 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" t="s">
-        <v>49</v>
+      <c r="A43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D43">
-        <v>86400</v>
+        <v>24</v>
       </c>
       <c r="E43">
         <f>COUNTIF(A:A,A43)</f>
@@ -1816,13 +1827,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D44">
-        <v>172800</v>
+        <v>86400</v>
       </c>
       <c r="E44">
         <f>COUNTIF(A:A,A44)</f>
@@ -1830,14 +1841,14 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45" t="s">
-        <v>51</v>
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" t="s">
+        <v>53</v>
       </c>
       <c r="D45">
-        <v>200</v>
+        <v>172800</v>
       </c>
       <c r="E45">
         <f>COUNTIF(A:A,A45)</f>
@@ -1846,13 +1857,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B46" t="s">
         <v>51</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E46">
         <f>COUNTIF(A:A,A46)</f>
@@ -1861,13 +1872,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="D47">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E47">
         <f>COUNTIF(A:A,A47)</f>
@@ -1876,13 +1887,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="D48">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E48">
         <f>COUNTIF(A:A,A48)</f>
@@ -1891,13 +1902,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B49" t="s">
         <v>51</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E49">
         <f>COUNTIF(A:A,A49)</f>
@@ -1906,13 +1917,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="B50" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="D50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E50">
         <f>COUNTIF(A:A,A50)</f>
@@ -1921,7 +1932,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B51" t="s">
         <v>94</v>
@@ -1936,7 +1947,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="B52" t="s">
         <v>94</v>
@@ -1951,13 +1962,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="B53" t="s">
         <v>94</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E53">
         <f>COUNTIF(A:A,A53)</f>
@@ -1966,10 +1977,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B54" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -1981,7 +1992,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B55" t="s">
         <v>51</v>
@@ -1996,10 +2007,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="B56" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -2010,14 +2021,14 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="2" t="s">
-        <v>99</v>
+      <c r="A57" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="B57" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D57">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E57">
         <f>COUNTIF(A:A,A57)</f>
@@ -2026,10 +2037,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B58" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D58">
         <v>9</v>
@@ -2041,10 +2052,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="B59" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="D59">
         <v>9</v>
@@ -2056,13 +2067,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B60" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="D60">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="E60">
         <f>COUNTIF(A:A,A60)</f>
@@ -2071,13 +2082,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B61" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="D61">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="E61">
         <f>COUNTIF(A:A,A61)</f>
@@ -2086,13 +2097,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B62" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="D62">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E62">
         <f>COUNTIF(A:A,A62)</f>
@@ -2101,10 +2112,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B63" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="D63">
         <v>5</v>
@@ -2116,13 +2127,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B64" t="s">
         <v>4</v>
       </c>
       <c r="D64">
-        <v>300</v>
+        <v>5</v>
       </c>
       <c r="E64">
         <f>COUNTIF(A:A,A64)</f>
@@ -2131,13 +2142,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B65" t="s">
         <v>4</v>
       </c>
       <c r="D65">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="E65">
         <f>COUNTIF(A:A,A65)</f>
@@ -2146,13 +2157,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B66" t="s">
         <v>4</v>
       </c>
       <c r="D66">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="E66">
         <f>COUNTIF(A:A,A66)</f>
@@ -2161,16 +2172,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B67" t="s">
         <v>4</v>
       </c>
-      <c r="C67" t="s">
-        <v>114</v>
-      </c>
       <c r="D67">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E67">
         <f>COUNTIF(A:A,A67)</f>
@@ -2179,13 +2187,16 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B68" t="s">
         <v>4</v>
       </c>
+      <c r="C68" t="s">
+        <v>114</v>
+      </c>
       <c r="D68">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E68">
         <f>COUNTIF(A:A,A68)</f>
@@ -2193,14 +2204,14 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="1" t="s">
-        <v>61</v>
+      <c r="A69" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="B69" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="D69">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E69">
         <f>COUNTIF(A:A,A69)</f>
@@ -2209,13 +2220,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B70" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="D70">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E70">
         <f>COUNTIF(A:A,A70)</f>
@@ -2223,14 +2234,14 @@
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C71" t="s">
-        <v>69</v>
+      <c r="A71" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4</v>
       </c>
       <c r="D71">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E71">
         <f>COUNTIF(A:A,A71)</f>
@@ -2238,14 +2249,14 @@
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="3" t="s">
-        <v>64</v>
+      <c r="A72" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="C72" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D72">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E72">
         <f>COUNTIF(A:A,A72)</f>
@@ -2254,13 +2265,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C73" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D73">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E73">
         <f>COUNTIF(A:A,A73)</f>
@@ -2269,13 +2280,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C74" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D74">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E74">
         <f>COUNTIF(A:A,A74)</f>
@@ -2284,13 +2295,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C75" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D75">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E75">
         <f>COUNTIF(A:A,A75)</f>
@@ -2299,10 +2310,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
+      </c>
+      <c r="C76" t="s">
+        <v>71</v>
       </c>
       <c r="D76">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E76">
         <f>COUNTIF(A:A,A76)</f>
@@ -2310,14 +2324,11 @@
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B77" t="s">
-        <v>4</v>
+      <c r="A77" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="D77">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E77">
         <f>COUNTIF(A:A,A77)</f>
@@ -2326,13 +2337,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
         <v>4</v>
       </c>
       <c r="D78">
-        <v>1200</v>
+        <v>30</v>
       </c>
       <c r="E78">
         <f>COUNTIF(A:A,A78)</f>
@@ -2341,13 +2352,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
         <v>4</v>
       </c>
       <c r="D79">
-        <v>3330</v>
+        <v>1200</v>
       </c>
       <c r="E79">
         <f>COUNTIF(A:A,A79)</f>
@@ -2356,13 +2367,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="1" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="D80">
-        <v>10000</v>
+        <v>3330</v>
       </c>
       <c r="E80">
         <f>COUNTIF(A:A,A80)</f>
@@ -2371,13 +2382,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B81" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="D81">
-        <v>6</v>
+        <v>10000</v>
       </c>
       <c r="E81">
         <f>COUNTIF(A:A,A81)</f>
@@ -2386,13 +2397,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B82" t="s">
         <v>4</v>
       </c>
       <c r="D82">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E82">
         <f>COUNTIF(A:A,A82)</f>
@@ -2400,8 +2411,11 @@
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="4" t="s">
-        <v>122</v>
+      <c r="A83" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B83" t="s">
+        <v>4</v>
       </c>
       <c r="D83">
         <v>10</v>
@@ -2412,17 +2426,29 @@
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B84" t="s">
-        <v>4</v>
+      <c r="A84" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="D84">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E84">
         <f>COUNTIF(A:A,A84)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B85" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85">
+        <v>5</v>
+      </c>
+      <c r="E85">
+        <f>COUNTIF(A:A,A85)</f>
         <v>1</v>
       </c>
     </row>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B20C080-012A-467E-8986-E5A4272DF6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DA7610-E5F4-40FD-844A-555EDE1BF81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -1143,7 +1143,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1189,7 +1189,7 @@
         <v>600</v>
       </c>
       <c r="E2">
-        <f>COUNTIF(A:A,A2)</f>
+        <f t="shared" ref="E2:E33" si="0">COUNTIF(A:A,A2)</f>
         <v>1</v>
       </c>
       <c r="G2" t="str">
@@ -1237,7 +1237,7 @@
         <v>400</v>
       </c>
       <c r="E3">
-        <f>COUNTIF(A:A,A3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <f>COUNTIF(A:A,A4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
         <v>192</v>
       </c>
       <c r="E5">
-        <f>COUNTIF(A:A,A5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1274,7 +1274,7 @@
         <v>960</v>
       </c>
       <c r="E6">
-        <f>COUNTIF(A:A,A6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1286,7 +1286,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <f>COUNTIF(A:A,A7)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1298,7 +1298,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <f>COUNTIF(A:A,A8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1310,7 +1310,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <f>COUNTIF(A:A,A9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1325,7 +1325,7 @@
         <v>10</v>
       </c>
       <c r="E10">
-        <f>COUNTIF(A:A,A10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1340,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <f>COUNTIF(A:A,A11)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1355,7 +1355,7 @@
         <v>2</v>
       </c>
       <c r="E12">
-        <f>COUNTIF(A:A,A12)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <f>COUNTIF(A:A,A13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1385,7 +1385,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <f>COUNTIF(A:A,A14)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1400,7 +1400,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <f>COUNTIF(A:A,A15)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <f>COUNTIF(A:A,A16)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1427,7 +1427,7 @@
         <v>90</v>
       </c>
       <c r="E17">
-        <f>COUNTIF(A:A,A17)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <f>COUNTIF(A:A,A18)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
         <v>50</v>
       </c>
       <c r="E19">
-        <f>COUNTIF(A:A,A19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
         <v>2400</v>
       </c>
       <c r="E20">
-        <f>COUNTIF(A:A,A20)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1481,7 +1481,7 @@
         <v>1000</v>
       </c>
       <c r="E21">
-        <f>COUNTIF(A:A,A21)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1490,10 +1490,10 @@
         <v>16</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E22">
-        <f>COUNTIF(A:A,A22)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
         <v>259200</v>
       </c>
       <c r="E23">
-        <f>COUNTIF(A:A,A23)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1518,7 +1518,7 @@
         <v>5</v>
       </c>
       <c r="E24">
-        <f>COUNTIF(A:A,A24)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1530,7 +1530,7 @@
         <v>1000</v>
       </c>
       <c r="E25">
-        <f>COUNTIF(A:A,A25)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1542,7 +1542,7 @@
         <v>5</v>
       </c>
       <c r="E26">
-        <f>COUNTIF(A:A,A26)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="E27">
-        <f>COUNTIF(A:A,A27)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1575,7 +1575,7 @@
         <v>17</v>
       </c>
       <c r="E28">
-        <f>COUNTIF(A:A,A28)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
         <v>30</v>
       </c>
       <c r="E29">
-        <f>COUNTIF(A:A,A29)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1611,7 +1611,7 @@
         <v>300</v>
       </c>
       <c r="E30">
-        <f>COUNTIF(A:A,A30)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
         <v>50</v>
       </c>
       <c r="E31">
-        <f>COUNTIF(A:A,A31)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1647,7 +1647,7 @@
         <v>9</v>
       </c>
       <c r="E32">
-        <f>COUNTIF(A:A,A32)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
         <v>1209600</v>
       </c>
       <c r="E33">
-        <f>COUNTIF(A:A,A33)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1682,7 +1682,7 @@
         <v>3</v>
       </c>
       <c r="E34">
-        <f>COUNTIF(A:A,A34)</f>
+        <f t="shared" ref="E34:E65" si="1">COUNTIF(A:A,A34)</f>
         <v>1</v>
       </c>
     </row>
@@ -1698,7 +1698,7 @@
         <v>2419200</v>
       </c>
       <c r="E35">
-        <f>COUNTIF(A:A,A35)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
         <v>20</v>
       </c>
       <c r="E36">
-        <f>COUNTIF(A:A,A36)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
         <v>66</v>
       </c>
       <c r="E37">
-        <f>COUNTIF(A:A,A37)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <f>COUNTIF(A:A,A38)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1758,7 +1758,7 @@
         <v>60</v>
       </c>
       <c r="E39">
-        <f>COUNTIF(A:A,A39)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1773,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <f>COUNTIF(A:A,A40)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1785,7 +1785,7 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <f>COUNTIF(A:A,A41)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1803,7 +1803,7 @@
         <v>8</v>
       </c>
       <c r="E42">
-        <f>COUNTIF(A:A,A42)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
         <v>24</v>
       </c>
       <c r="E43">
-        <f>COUNTIF(A:A,A43)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1836,7 +1836,7 @@
         <v>86400</v>
       </c>
       <c r="E44">
-        <f>COUNTIF(A:A,A44)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
         <v>172800</v>
       </c>
       <c r="E45">
-        <f>COUNTIF(A:A,A45)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
         <v>200</v>
       </c>
       <c r="E46">
-        <f>COUNTIF(A:A,A46)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
         <v>1</v>
       </c>
       <c r="E47">
-        <f>COUNTIF(A:A,A47)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
         <v>10</v>
       </c>
       <c r="E48">
-        <f>COUNTIF(A:A,A48)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
         <v>8</v>
       </c>
       <c r="E49">
-        <f>COUNTIF(A:A,A49)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
         <v>3</v>
       </c>
       <c r="E50">
-        <f>COUNTIF(A:A,A50)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
         <v>4</v>
       </c>
       <c r="E51">
-        <f>COUNTIF(A:A,A51)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
         <v>4</v>
       </c>
       <c r="E52">
-        <f>COUNTIF(A:A,A52)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
         <v>4</v>
       </c>
       <c r="E53">
-        <f>COUNTIF(A:A,A53)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1986,7 +1986,7 @@
         <v>2</v>
       </c>
       <c r="E54">
-        <f>COUNTIF(A:A,A54)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
         <v>2</v>
       </c>
       <c r="E55">
-        <f>COUNTIF(A:A,A55)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
         <v>2</v>
       </c>
       <c r="E56">
-        <f>COUNTIF(A:A,A56)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
         <v>2</v>
       </c>
       <c r="E57">
-        <f>COUNTIF(A:A,A57)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
         <v>9</v>
       </c>
       <c r="E58">
-        <f>COUNTIF(A:A,A58)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
         <v>9</v>
       </c>
       <c r="E59">
-        <f>COUNTIF(A:A,A59)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
         <v>9</v>
       </c>
       <c r="E60">
-        <f>COUNTIF(A:A,A60)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2091,7 +2091,7 @@
         <v>50</v>
       </c>
       <c r="E61">
-        <f>COUNTIF(A:A,A61)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2106,7 +2106,7 @@
         <v>6</v>
       </c>
       <c r="E62">
-        <f>COUNTIF(A:A,A62)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
         <v>5</v>
       </c>
       <c r="E63">
-        <f>COUNTIF(A:A,A63)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
         <v>5</v>
       </c>
       <c r="E64">
-        <f>COUNTIF(A:A,A64)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
         <v>300</v>
       </c>
       <c r="E65">
-        <f>COUNTIF(A:A,A65)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
         <v>90</v>
       </c>
       <c r="E66">
-        <f>COUNTIF(A:A,A66)</f>
+        <f t="shared" ref="E66:E85" si="2">COUNTIF(A:A,A66)</f>
         <v>1</v>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
         <v>10</v>
       </c>
       <c r="E67">
-        <f>COUNTIF(A:A,A67)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2199,7 +2199,7 @@
         <v>3</v>
       </c>
       <c r="E68">
-        <f>COUNTIF(A:A,A68)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
         <v>28</v>
       </c>
       <c r="E69">
-        <f>COUNTIF(A:A,A69)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
         <v>30</v>
       </c>
       <c r="E70">
-        <f>COUNTIF(A:A,A70)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2244,7 +2244,7 @@
         <v>3</v>
       </c>
       <c r="E71">
-        <f>COUNTIF(A:A,A71)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2259,7 +2259,7 @@
         <v>8</v>
       </c>
       <c r="E72">
-        <f>COUNTIF(A:A,A72)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
         <v>4</v>
       </c>
       <c r="E73">
-        <f>COUNTIF(A:A,A73)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
         <v>17</v>
       </c>
       <c r="E74">
-        <f>COUNTIF(A:A,A74)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2304,7 +2304,7 @@
         <v>9</v>
       </c>
       <c r="E75">
-        <f>COUNTIF(A:A,A75)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2319,7 +2319,7 @@
         <v>12</v>
       </c>
       <c r="E76">
-        <f>COUNTIF(A:A,A76)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
         <v>6</v>
       </c>
       <c r="E77">
-        <f>COUNTIF(A:A,A77)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
         <v>30</v>
       </c>
       <c r="E78">
-        <f>COUNTIF(A:A,A78)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
         <v>1200</v>
       </c>
       <c r="E79">
-        <f>COUNTIF(A:A,A79)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
         <v>3330</v>
       </c>
       <c r="E80">
-        <f>COUNTIF(A:A,A80)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
         <v>10000</v>
       </c>
       <c r="E81">
-        <f>COUNTIF(A:A,A81)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2406,7 +2406,7 @@
         <v>6</v>
       </c>
       <c r="E82">
-        <f>COUNTIF(A:A,A82)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
         <v>10</v>
       </c>
       <c r="E83">
-        <f>COUNTIF(A:A,A83)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="E84">
-        <f>COUNTIF(A:A,A84)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2448,7 +2448,7 @@
         <v>5</v>
       </c>
       <c r="E85">
-        <f>COUNTIF(A:A,A85)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DA7610-E5F4-40FD-844A-555EDE1BF81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4ADE34-4CB8-4A89-83DE-D6A16619C66D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -1142,8 +1142,8 @@
   <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -2118,7 +2118,7 @@
         <v>51</v>
       </c>
       <c r="D63">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E63">
         <f t="shared" si="1"/>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4ADE34-4CB8-4A89-83DE-D6A16619C66D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9DC6D5-66BD-43B8-BACB-4EB301FEBFC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="142">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -717,6 +717,50 @@
   </si>
   <si>
     <t>이 층 이하면 리미트 2배 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pet1StarAttackRate100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pet2StarAttackRate100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pet3StarAttackRate100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pet4StarAttackRate100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pet5StarAttackRate100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펫 공격자 성급에 따른 공격 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PetDamageRandomMin100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PetDamageRandomMax100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PetStarDiff100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양수음수에 따라 공식이 달라짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펫 뎀지 편차 랜덤 전투1회 동안 고정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1139,11 +1183,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1189,7 +1233,7 @@
         <v>600</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E33" si="0">COUNTIF(A:A,A2)</f>
+        <f>COUNTIF(A:A,A2)</f>
         <v>1</v>
       </c>
       <c r="G2" t="str">
@@ -1208,20 +1252,20 @@
 A29&amp;""":"&amp;VLOOKUP(A29,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A30&amp;""":"&amp;VLOOKUP(A30,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A32&amp;""":"&amp;VLOOKUP(A32,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A48&amp;""":"&amp;VLOOKUP(A48,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A64&amp;""":"&amp;VLOOKUP(A64,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A65&amp;""":"&amp;VLOOKUP(A65,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A66&amp;""":"&amp;VLOOKUP(A66,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A67&amp;""":"&amp;VLOOKUP(A67,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A68&amp;""":"&amp;VLOOKUP(A68,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A69&amp;""":"&amp;VLOOKUP(A69,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A71&amp;""":"&amp;VLOOKUP(A71,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A78&amp;""":"&amp;VLOOKUP(A78,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A56&amp;""":"&amp;VLOOKUP(A56,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A72&amp;""":"&amp;VLOOKUP(A72,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A73&amp;""":"&amp;VLOOKUP(A73,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A74&amp;""":"&amp;VLOOKUP(A74,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A75&amp;""":"&amp;VLOOKUP(A75,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A76&amp;""":"&amp;VLOOKUP(A76,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A77&amp;""":"&amp;VLOOKUP(A77,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A79&amp;""":"&amp;VLOOKUP(A79,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A80&amp;""":"&amp;VLOOKUP(A80,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A82&amp;""":"&amp;VLOOKUP(A82,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A83&amp;""":"&amp;VLOOKUP(A83,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A85&amp;""":"&amp;VLOOKUP(A85,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
+A86&amp;""":"&amp;VLOOKUP(A86,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A87&amp;""":"&amp;VLOOKUP(A87,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A88&amp;""":"&amp;VLOOKUP(A88,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A90&amp;""":"&amp;VLOOKUP(A90,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A91&amp;""":"&amp;VLOOKUP(A91,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A93&amp;""":"&amp;VLOOKUP(A93,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
         <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2400,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"MaxPetCountStep":9,"FortuneWheelGolden":10,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":300,"BossBattleRegenTickDelay100":90,"BossBattleRegenHpRatio100":10,"BossBattleXpLevelBonus100":3,"MaxBossBattleDifficulty":28,"AnalysisBoostRate":3,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"InvincibleTime10":6,"TrapDamage10":10,"SubQuestGoldDoubleDiamond":5}</v>
       </c>
@@ -1237,7 +1281,7 @@
         <v>400</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A3)</f>
         <v>1</v>
       </c>
     </row>
@@ -1249,7 +1293,7 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A4)</f>
         <v>1</v>
       </c>
     </row>
@@ -1262,7 +1306,7 @@
         <v>192</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A5)</f>
         <v>1</v>
       </c>
     </row>
@@ -1274,7 +1318,7 @@
         <v>960</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A6)</f>
         <v>1</v>
       </c>
     </row>
@@ -1286,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A7)</f>
         <v>1</v>
       </c>
     </row>
@@ -1298,7 +1342,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A8)</f>
         <v>1</v>
       </c>
     </row>
@@ -1310,7 +1354,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A9)</f>
         <v>1</v>
       </c>
     </row>
@@ -1325,7 +1369,7 @@
         <v>10</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A10)</f>
         <v>1</v>
       </c>
     </row>
@@ -1340,7 +1384,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A11)</f>
         <v>1</v>
       </c>
     </row>
@@ -1355,7 +1399,7 @@
         <v>2</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A12)</f>
         <v>1</v>
       </c>
     </row>
@@ -1370,7 +1414,7 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A13)</f>
         <v>1</v>
       </c>
     </row>
@@ -1385,7 +1429,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A14)</f>
         <v>1</v>
       </c>
     </row>
@@ -1400,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A15)</f>
         <v>1</v>
       </c>
     </row>
@@ -1415,7 +1459,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A16)</f>
         <v>1</v>
       </c>
     </row>
@@ -1427,7 +1471,7 @@
         <v>90</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A17)</f>
         <v>1</v>
       </c>
     </row>
@@ -1439,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A18)</f>
         <v>1</v>
       </c>
     </row>
@@ -1451,7 +1495,7 @@
         <v>50</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A19)</f>
         <v>1</v>
       </c>
     </row>
@@ -1466,7 +1510,7 @@
         <v>2400</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A20)</f>
         <v>1</v>
       </c>
     </row>
@@ -1481,7 +1525,7 @@
         <v>1000</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A21)</f>
         <v>1</v>
       </c>
     </row>
@@ -1493,7 +1537,7 @@
         <v>46</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A22)</f>
         <v>1</v>
       </c>
     </row>
@@ -1506,7 +1550,7 @@
         <v>259200</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A23)</f>
         <v>1</v>
       </c>
     </row>
@@ -1518,7 +1562,7 @@
         <v>5</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A24)</f>
         <v>1</v>
       </c>
     </row>
@@ -1530,7 +1574,7 @@
         <v>1000</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A25)</f>
         <v>1</v>
       </c>
     </row>
@@ -1542,7 +1586,7 @@
         <v>5</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A26)</f>
         <v>1</v>
       </c>
     </row>
@@ -1557,7 +1601,7 @@
         <v>10</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A27)</f>
         <v>1</v>
       </c>
     </row>
@@ -1575,7 +1619,7 @@
         <v>17</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A28)</f>
         <v>1</v>
       </c>
     </row>
@@ -1593,7 +1637,7 @@
         <v>30</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A29)</f>
         <v>1</v>
       </c>
     </row>
@@ -1611,7 +1655,7 @@
         <v>300</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A30)</f>
         <v>1</v>
       </c>
     </row>
@@ -1629,7 +1673,7 @@
         <v>50</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A31)</f>
         <v>1</v>
       </c>
     </row>
@@ -1647,7 +1691,7 @@
         <v>9</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A32)</f>
         <v>1</v>
       </c>
     </row>
@@ -1664,7 +1708,7 @@
         <v>1209600</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A33)</f>
         <v>1</v>
       </c>
     </row>
@@ -1682,7 +1726,7 @@
         <v>3</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34:E65" si="1">COUNTIF(A:A,A34)</f>
+        <f>COUNTIF(A:A,A34)</f>
         <v>1</v>
       </c>
     </row>
@@ -1698,7 +1742,7 @@
         <v>2419200</v>
       </c>
       <c r="E35">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A35)</f>
         <v>1</v>
       </c>
     </row>
@@ -1710,10 +1754,10 @@
         <v>79</v>
       </c>
       <c r="D36">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E36">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A36)</f>
         <v>1</v>
       </c>
     </row>
@@ -1725,10 +1769,10 @@
         <v>83</v>
       </c>
       <c r="D37">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="E37">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A37)</f>
         <v>1</v>
       </c>
     </row>
@@ -1743,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A38)</f>
         <v>1</v>
       </c>
     </row>
@@ -1758,7 +1802,7 @@
         <v>60</v>
       </c>
       <c r="E39">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A39)</f>
         <v>1</v>
       </c>
     </row>
@@ -1773,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A40)</f>
         <v>1</v>
       </c>
     </row>
@@ -1785,7 +1829,7 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A41)</f>
         <v>1</v>
       </c>
     </row>
@@ -1803,7 +1847,7 @@
         <v>8</v>
       </c>
       <c r="E42">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A42)</f>
         <v>1</v>
       </c>
     </row>
@@ -1821,7 +1865,7 @@
         <v>24</v>
       </c>
       <c r="E43">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A43)</f>
         <v>1</v>
       </c>
     </row>
@@ -1836,7 +1880,7 @@
         <v>86400</v>
       </c>
       <c r="E44">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A44)</f>
         <v>1</v>
       </c>
     </row>
@@ -1851,604 +1895,709 @@
         <v>172800</v>
       </c>
       <c r="E45">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A45)</f>
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B46" t="s">
-        <v>51</v>
+      <c r="A46" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" t="s">
+        <v>136</v>
       </c>
       <c r="D46">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="E46">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A46)</f>
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B47" t="s">
-        <v>51</v>
+      <c r="A47" t="s">
+        <v>132</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="E47">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A47)</f>
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B48" t="s">
-        <v>4</v>
+      <c r="A48" t="s">
+        <v>133</v>
       </c>
       <c r="D48">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="E48">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A48)</f>
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B49" t="s">
-        <v>51</v>
+      <c r="A49" t="s">
+        <v>134</v>
       </c>
       <c r="D49">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="E49">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A49)</f>
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B50" t="s">
-        <v>51</v>
+      <c r="A50" t="s">
+        <v>135</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="E50">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A50)</f>
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B51" t="s">
-        <v>94</v>
+      <c r="A51" t="s">
+        <v>137</v>
+      </c>
+      <c r="C51" t="s">
+        <v>141</v>
       </c>
       <c r="D51">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="E51">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A51)</f>
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B52" t="s">
-        <v>94</v>
+      <c r="A52" t="s">
+        <v>138</v>
       </c>
       <c r="D52">
-        <v>4</v>
+        <v>130</v>
       </c>
       <c r="E52">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A52)</f>
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B53" t="s">
-        <v>94</v>
+      <c r="A53" t="s">
+        <v>139</v>
+      </c>
+      <c r="C53" t="s">
+        <v>140</v>
       </c>
       <c r="D53">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="E53">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A53)</f>
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="E54">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A54)</f>
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="B55" t="s">
         <v>51</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E55">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A55)</f>
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E56">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A56)</f>
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="B57" t="s">
+        <v>51</v>
+      </c>
+      <c r="D57">
+        <v>8</v>
+      </c>
+      <c r="E57">
+        <f>COUNTIF(A:A,A57)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>51</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58">
+        <f>COUNTIF(A:A,A58)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B59" t="s">
         <v>94</v>
       </c>
-      <c r="D57">
+      <c r="D59">
+        <v>4</v>
+      </c>
+      <c r="E59">
+        <f>COUNTIF(A:A,A59)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B60" t="s">
+        <v>94</v>
+      </c>
+      <c r="D60">
+        <v>4</v>
+      </c>
+      <c r="E60">
+        <f>COUNTIF(A:A,A60)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B61" t="s">
+        <v>94</v>
+      </c>
+      <c r="D61">
+        <v>4</v>
+      </c>
+      <c r="E61">
+        <f>COUNTIF(A:A,A61)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B62" t="s">
+        <v>94</v>
+      </c>
+      <c r="D62">
         <v>2</v>
       </c>
-      <c r="E57">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B58" t="s">
-        <v>102</v>
-      </c>
-      <c r="D58">
-        <v>9</v>
-      </c>
-      <c r="E58">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B59" t="s">
-        <v>103</v>
-      </c>
-      <c r="D59">
-        <v>9</v>
-      </c>
-      <c r="E59">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B60" t="s">
-        <v>127</v>
-      </c>
-      <c r="D60">
-        <v>9</v>
-      </c>
-      <c r="E60">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B61" t="s">
-        <v>116</v>
-      </c>
-      <c r="D61">
-        <v>50</v>
-      </c>
-      <c r="E61">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B62" t="s">
-        <v>105</v>
-      </c>
-      <c r="D62">
-        <v>6</v>
-      </c>
       <c r="E62">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A62)</f>
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="2" t="s">
-        <v>107</v>
+      <c r="A63" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="B63" t="s">
         <v>51</v>
       </c>
       <c r="D63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E63">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A63)</f>
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="2" t="s">
-        <v>108</v>
+      <c r="A64" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="B64" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="D64">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E64">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A64)</f>
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="2" t="s">
-        <v>109</v>
+      <c r="A65" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="B65" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="D65">
-        <v>300</v>
+        <v>2</v>
       </c>
       <c r="E65">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A65)</f>
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B66" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="D66">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E85" si="2">COUNTIF(A:A,A66)</f>
+        <f>COUNTIF(A:A,A66)</f>
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B67" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="D67">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E67">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A67)</f>
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="B68" t="s">
-        <v>4</v>
-      </c>
-      <c r="C68" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="D68">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E68">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A68)</f>
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B69" t="s">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="D69">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="E69">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A69)</f>
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="1" t="s">
-        <v>61</v>
+      <c r="A70" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="B70" t="s">
+        <v>105</v>
+      </c>
+      <c r="D70">
+        <v>6</v>
+      </c>
+      <c r="E70">
+        <f>COUNTIF(A:A,A70)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B71" t="s">
         <v>51</v>
-      </c>
-      <c r="D70">
-        <v>30</v>
-      </c>
-      <c r="E70">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B71" t="s">
-        <v>4</v>
       </c>
       <c r="D71">
         <v>3</v>
       </c>
       <c r="E71">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A71)</f>
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C72" t="s">
-        <v>69</v>
+      <c r="A72" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4</v>
       </c>
       <c r="D72">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E72">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A72)</f>
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C73" t="s">
-        <v>68</v>
+      <c r="A73" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B73" t="s">
+        <v>4</v>
       </c>
       <c r="D73">
-        <v>4</v>
+        <v>300</v>
       </c>
       <c r="E73">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A73)</f>
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C74" t="s">
-        <v>72</v>
+      <c r="A74" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4</v>
       </c>
       <c r="D74">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="E74">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A74)</f>
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C75" t="s">
-        <v>70</v>
+      <c r="A75" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4</v>
       </c>
       <c r="D75">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A75)</f>
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="3" t="s">
-        <v>67</v>
+      <c r="A76" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="D76">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E76">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A76)</f>
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="3" t="s">
-        <v>73</v>
+      <c r="A77" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B77" t="s">
+        <v>4</v>
       </c>
       <c r="D77">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E77">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A77)</f>
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B78" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="D78">
         <v>30</v>
       </c>
       <c r="E78">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A78)</f>
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79">
+        <f>COUNTIF(A:A,A79)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C80" t="s">
+        <v>69</v>
+      </c>
+      <c r="D80">
+        <v>8</v>
+      </c>
+      <c r="E80">
+        <f>COUNTIF(A:A,A80)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81">
+        <v>4</v>
+      </c>
+      <c r="E81">
+        <f>COUNTIF(A:A,A81)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C82" t="s">
+        <v>72</v>
+      </c>
+      <c r="D82">
+        <v>17</v>
+      </c>
+      <c r="E82">
+        <f>COUNTIF(A:A,A82)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C83" t="s">
+        <v>70</v>
+      </c>
+      <c r="D83">
+        <v>9</v>
+      </c>
+      <c r="E83">
+        <f>COUNTIF(A:A,A83)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C84" t="s">
+        <v>71</v>
+      </c>
+      <c r="D84">
+        <v>12</v>
+      </c>
+      <c r="E84">
+        <f>COUNTIF(A:A,A84)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D85">
+        <v>6</v>
+      </c>
+      <c r="E85">
+        <f>COUNTIF(A:A,A85)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B86" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86">
+        <v>30</v>
+      </c>
+      <c r="E86">
+        <f>COUNTIF(A:A,A86)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D79">
+      <c r="B87" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87">
         <v>1200</v>
       </c>
-      <c r="E79">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="1" t="s">
+      <c r="E87">
+        <f>COUNTIF(A:A,A87)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B80" t="s">
-        <v>4</v>
-      </c>
-      <c r="D80">
+      <c r="B88" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88">
         <v>3330</v>
       </c>
-      <c r="E80">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="1" t="s">
+      <c r="E88">
+        <f>COUNTIF(A:A,A88)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B89" t="s">
         <v>51</v>
       </c>
-      <c r="D81">
+      <c r="D89">
         <v>10000</v>
       </c>
-      <c r="E81">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="1" t="s">
+      <c r="E89">
+        <f>COUNTIF(A:A,A89)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B82" t="s">
-        <v>4</v>
-      </c>
-      <c r="D82">
+      <c r="B90" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90">
         <v>6</v>
       </c>
-      <c r="E82">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="1" t="s">
+      <c r="E90">
+        <f>COUNTIF(A:A,A90)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B83" t="s">
-        <v>4</v>
-      </c>
-      <c r="D83">
+      <c r="B91" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91">
         <v>10</v>
       </c>
-      <c r="E83">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="4" t="s">
+      <c r="E91">
+        <f>COUNTIF(A:A,A91)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D84">
+      <c r="D92">
         <v>10</v>
       </c>
-      <c r="E84">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="1" t="s">
+      <c r="E92">
+        <f>COUNTIF(A:A,A92)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B85" t="s">
-        <v>4</v>
-      </c>
-      <c r="D85">
+      <c r="B93" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93">
         <v>5</v>
       </c>
-      <c r="E85">
-        <f t="shared" si="2"/>
+      <c r="E93">
+        <f>COUNTIF(A:A,A93)</f>
         <v>1</v>
       </c>
     </row>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9DC6D5-66BD-43B8-BACB-4EB301FEBFC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AC9F3A-2E66-48A3-B89E-5A8F9EE72A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -1183,20 +1183,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
+      <selection pane="bottomLeft" activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="32.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="29.75" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="14.125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="29.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="9" collapsed="1"/>
+    <col min="5" max="5" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="9" collapsed="1"/>
+    <col min="7" max="7" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="9" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27" customHeight="1">
@@ -1233,7 +1236,7 @@
         <v>600</v>
       </c>
       <c r="E2">
-        <f>COUNTIF(A:A,A2)</f>
+        <f t="shared" ref="E2:E33" si="0">COUNTIF(A:A,A2)</f>
         <v>1</v>
       </c>
       <c r="G2" t="str">
@@ -1281,7 +1284,7 @@
         <v>400</v>
       </c>
       <c r="E3">
-        <f>COUNTIF(A:A,A3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1293,7 +1296,7 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <f>COUNTIF(A:A,A4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1306,7 +1309,7 @@
         <v>192</v>
       </c>
       <c r="E5">
-        <f>COUNTIF(A:A,A5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1318,7 +1321,7 @@
         <v>960</v>
       </c>
       <c r="E6">
-        <f>COUNTIF(A:A,A6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1330,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <f>COUNTIF(A:A,A7)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1342,7 +1345,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <f>COUNTIF(A:A,A8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1354,7 +1357,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <f>COUNTIF(A:A,A9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1369,7 +1372,7 @@
         <v>10</v>
       </c>
       <c r="E10">
-        <f>COUNTIF(A:A,A10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1384,7 +1387,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <f>COUNTIF(A:A,A11)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1399,7 +1402,7 @@
         <v>2</v>
       </c>
       <c r="E12">
-        <f>COUNTIF(A:A,A12)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1414,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <f>COUNTIF(A:A,A13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1429,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <f>COUNTIF(A:A,A14)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1444,7 +1447,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <f>COUNTIF(A:A,A15)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1459,7 +1462,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <f>COUNTIF(A:A,A16)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1471,7 +1474,7 @@
         <v>90</v>
       </c>
       <c r="E17">
-        <f>COUNTIF(A:A,A17)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1483,7 +1486,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <f>COUNTIF(A:A,A18)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1495,7 +1498,7 @@
         <v>50</v>
       </c>
       <c r="E19">
-        <f>COUNTIF(A:A,A19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1510,7 +1513,7 @@
         <v>2400</v>
       </c>
       <c r="E20">
-        <f>COUNTIF(A:A,A20)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1525,7 +1528,7 @@
         <v>1000</v>
       </c>
       <c r="E21">
-        <f>COUNTIF(A:A,A21)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1537,7 +1540,7 @@
         <v>46</v>
       </c>
       <c r="E22">
-        <f>COUNTIF(A:A,A22)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1550,7 +1553,7 @@
         <v>259200</v>
       </c>
       <c r="E23">
-        <f>COUNTIF(A:A,A23)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1562,7 +1565,7 @@
         <v>5</v>
       </c>
       <c r="E24">
-        <f>COUNTIF(A:A,A24)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1574,7 +1577,7 @@
         <v>1000</v>
       </c>
       <c r="E25">
-        <f>COUNTIF(A:A,A25)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1586,7 +1589,7 @@
         <v>5</v>
       </c>
       <c r="E26">
-        <f>COUNTIF(A:A,A26)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1601,7 +1604,7 @@
         <v>10</v>
       </c>
       <c r="E27">
-        <f>COUNTIF(A:A,A27)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1619,7 +1622,7 @@
         <v>17</v>
       </c>
       <c r="E28">
-        <f>COUNTIF(A:A,A28)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1637,7 +1640,7 @@
         <v>30</v>
       </c>
       <c r="E29">
-        <f>COUNTIF(A:A,A29)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1655,7 +1658,7 @@
         <v>300</v>
       </c>
       <c r="E30">
-        <f>COUNTIF(A:A,A30)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1673,7 +1676,7 @@
         <v>50</v>
       </c>
       <c r="E31">
-        <f>COUNTIF(A:A,A31)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1691,7 +1694,7 @@
         <v>9</v>
       </c>
       <c r="E32">
-        <f>COUNTIF(A:A,A32)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1708,7 +1711,7 @@
         <v>1209600</v>
       </c>
       <c r="E33">
-        <f>COUNTIF(A:A,A33)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1726,7 +1729,7 @@
         <v>3</v>
       </c>
       <c r="E34">
-        <f>COUNTIF(A:A,A34)</f>
+        <f t="shared" ref="E34:E65" si="1">COUNTIF(A:A,A34)</f>
         <v>1</v>
       </c>
     </row>
@@ -1742,7 +1745,7 @@
         <v>2419200</v>
       </c>
       <c r="E35">
-        <f>COUNTIF(A:A,A35)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1757,7 +1760,7 @@
         <v>25</v>
       </c>
       <c r="E36">
-        <f>COUNTIF(A:A,A36)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1772,7 +1775,7 @@
         <v>95</v>
       </c>
       <c r="E37">
-        <f>COUNTIF(A:A,A37)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1787,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <f>COUNTIF(A:A,A38)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1802,7 +1805,7 @@
         <v>60</v>
       </c>
       <c r="E39">
-        <f>COUNTIF(A:A,A39)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1817,7 +1820,7 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <f>COUNTIF(A:A,A40)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1829,7 +1832,7 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <f>COUNTIF(A:A,A41)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1847,7 +1850,7 @@
         <v>8</v>
       </c>
       <c r="E42">
-        <f>COUNTIF(A:A,A42)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1865,7 +1868,7 @@
         <v>24</v>
       </c>
       <c r="E43">
-        <f>COUNTIF(A:A,A43)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1880,7 +1883,7 @@
         <v>86400</v>
       </c>
       <c r="E44">
-        <f>COUNTIF(A:A,A44)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1895,7 +1898,7 @@
         <v>172800</v>
       </c>
       <c r="E45">
-        <f>COUNTIF(A:A,A45)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1910,7 +1913,7 @@
         <v>240</v>
       </c>
       <c r="E46">
-        <f>COUNTIF(A:A,A46)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1922,7 +1925,7 @@
         <v>210</v>
       </c>
       <c r="E47">
-        <f>COUNTIF(A:A,A47)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1934,7 +1937,7 @@
         <v>180</v>
       </c>
       <c r="E48">
-        <f>COUNTIF(A:A,A48)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1946,7 +1949,7 @@
         <v>150</v>
       </c>
       <c r="E49">
-        <f>COUNTIF(A:A,A49)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1958,7 +1961,7 @@
         <v>120</v>
       </c>
       <c r="E50">
-        <f>COUNTIF(A:A,A50)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1973,7 +1976,7 @@
         <v>70</v>
       </c>
       <c r="E51">
-        <f>COUNTIF(A:A,A51)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1985,7 +1988,7 @@
         <v>130</v>
       </c>
       <c r="E52">
-        <f>COUNTIF(A:A,A52)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1997,10 +2000,10 @@
         <v>140</v>
       </c>
       <c r="D53">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E53">
-        <f>COUNTIF(A:A,A53)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2015,7 +2018,7 @@
         <v>200</v>
       </c>
       <c r="E54">
-        <f>COUNTIF(A:A,A54)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2030,7 +2033,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <f>COUNTIF(A:A,A55)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2045,7 +2048,7 @@
         <v>10</v>
       </c>
       <c r="E56">
-        <f>COUNTIF(A:A,A56)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2060,7 +2063,7 @@
         <v>8</v>
       </c>
       <c r="E57">
-        <f>COUNTIF(A:A,A57)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2075,7 +2078,7 @@
         <v>3</v>
       </c>
       <c r="E58">
-        <f>COUNTIF(A:A,A58)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2090,7 +2093,7 @@
         <v>4</v>
       </c>
       <c r="E59">
-        <f>COUNTIF(A:A,A59)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2105,7 +2108,7 @@
         <v>4</v>
       </c>
       <c r="E60">
-        <f>COUNTIF(A:A,A60)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2120,7 +2123,7 @@
         <v>4</v>
       </c>
       <c r="E61">
-        <f>COUNTIF(A:A,A61)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2135,7 +2138,7 @@
         <v>2</v>
       </c>
       <c r="E62">
-        <f>COUNTIF(A:A,A62)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2150,7 +2153,7 @@
         <v>2</v>
       </c>
       <c r="E63">
-        <f>COUNTIF(A:A,A63)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2165,7 +2168,7 @@
         <v>2</v>
       </c>
       <c r="E64">
-        <f>COUNTIF(A:A,A64)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2180,7 +2183,7 @@
         <v>2</v>
       </c>
       <c r="E65">
-        <f>COUNTIF(A:A,A65)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2195,7 +2198,7 @@
         <v>9</v>
       </c>
       <c r="E66">
-        <f>COUNTIF(A:A,A66)</f>
+        <f t="shared" ref="E66:E93" si="2">COUNTIF(A:A,A66)</f>
         <v>1</v>
       </c>
     </row>
@@ -2210,7 +2213,7 @@
         <v>9</v>
       </c>
       <c r="E67">
-        <f>COUNTIF(A:A,A67)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2225,7 +2228,7 @@
         <v>9</v>
       </c>
       <c r="E68">
-        <f>COUNTIF(A:A,A68)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2240,7 +2243,7 @@
         <v>50</v>
       </c>
       <c r="E69">
-        <f>COUNTIF(A:A,A69)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2255,7 +2258,7 @@
         <v>6</v>
       </c>
       <c r="E70">
-        <f>COUNTIF(A:A,A70)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2270,7 +2273,7 @@
         <v>3</v>
       </c>
       <c r="E71">
-        <f>COUNTIF(A:A,A71)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2285,7 +2288,7 @@
         <v>5</v>
       </c>
       <c r="E72">
-        <f>COUNTIF(A:A,A72)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2300,7 +2303,7 @@
         <v>300</v>
       </c>
       <c r="E73">
-        <f>COUNTIF(A:A,A73)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2315,7 +2318,7 @@
         <v>90</v>
       </c>
       <c r="E74">
-        <f>COUNTIF(A:A,A74)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2330,7 +2333,7 @@
         <v>10</v>
       </c>
       <c r="E75">
-        <f>COUNTIF(A:A,A75)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2348,7 +2351,7 @@
         <v>3</v>
       </c>
       <c r="E76">
-        <f>COUNTIF(A:A,A76)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2363,7 +2366,7 @@
         <v>28</v>
       </c>
       <c r="E77">
-        <f>COUNTIF(A:A,A77)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2378,7 +2381,7 @@
         <v>30</v>
       </c>
       <c r="E78">
-        <f>COUNTIF(A:A,A78)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2393,7 +2396,7 @@
         <v>3</v>
       </c>
       <c r="E79">
-        <f>COUNTIF(A:A,A79)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2408,7 +2411,7 @@
         <v>8</v>
       </c>
       <c r="E80">
-        <f>COUNTIF(A:A,A80)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2423,7 +2426,7 @@
         <v>4</v>
       </c>
       <c r="E81">
-        <f>COUNTIF(A:A,A81)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2438,7 +2441,7 @@
         <v>17</v>
       </c>
       <c r="E82">
-        <f>COUNTIF(A:A,A82)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2453,7 +2456,7 @@
         <v>9</v>
       </c>
       <c r="E83">
-        <f>COUNTIF(A:A,A83)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2468,7 +2471,7 @@
         <v>12</v>
       </c>
       <c r="E84">
-        <f>COUNTIF(A:A,A84)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2480,7 +2483,7 @@
         <v>6</v>
       </c>
       <c r="E85">
-        <f>COUNTIF(A:A,A85)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2495,7 +2498,7 @@
         <v>30</v>
       </c>
       <c r="E86">
-        <f>COUNTIF(A:A,A86)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2510,7 +2513,7 @@
         <v>1200</v>
       </c>
       <c r="E87">
-        <f>COUNTIF(A:A,A87)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2525,7 +2528,7 @@
         <v>3330</v>
       </c>
       <c r="E88">
-        <f>COUNTIF(A:A,A88)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2540,7 +2543,7 @@
         <v>10000</v>
       </c>
       <c r="E89">
-        <f>COUNTIF(A:A,A89)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2555,7 +2558,7 @@
         <v>6</v>
       </c>
       <c r="E90">
-        <f>COUNTIF(A:A,A90)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2570,7 +2573,7 @@
         <v>10</v>
       </c>
       <c r="E91">
-        <f>COUNTIF(A:A,A91)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2582,7 +2585,7 @@
         <v>10</v>
       </c>
       <c r="E92">
-        <f>COUNTIF(A:A,A92)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2597,7 +2600,7 @@
         <v>5</v>
       </c>
       <c r="E93">
-        <f>COUNTIF(A:A,A93)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AC9F3A-2E66-48A3-B89E-5A8F9EE72A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BB23A2-25A7-47CB-AAD0-F6BD2D8870D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -1186,8 +1186,8 @@
   <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A53" sqref="A53"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1537,7 +1537,7 @@
         <v>16</v>
       </c>
       <c r="D22">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BB23A2-25A7-47CB-AAD0-F6BD2D8870D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B9ADD1-4DB7-424D-A644-C292F534305F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="144">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -762,6 +762,13 @@
   <si>
     <t>펫 뎀지 편차 랜덤 전투1회 동안 고정</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpellGachaLevelAccumulatedCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0, 10, 45, 190, 780, 2415, 5950, 10950, 15950, 21950, 28950, 36950, 45950, 54950</t>
   </si>
 </sst>
 </file>
@@ -1185,7 +1192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
@@ -2613,18 +2620,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0BF13DF-524D-4963-BA4B-8BE518E5FDEB}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="14.125" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="24.75" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="14.125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="24.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1">
@@ -2659,17 +2666,25 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>118</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>119</v>
       </c>
     </row>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B9ADD1-4DB7-424D-A644-C292F534305F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01010CC-29DE-485F-9FB3-193E0D3A6D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="145">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -769,6 +769,10 @@
   </si>
   <si>
     <t>0, 10, 45, 190, 780, 2415, 5950, 10950, 15950, 21950, 28950, 36950, 45950, 54950</t>
+  </si>
+  <si>
+    <t>RepeatDamageMinValue10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1190,23 +1194,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="32.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="29.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="9" collapsed="1"/>
-    <col min="5" max="5" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="9" collapsed="1"/>
-    <col min="7" max="7" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="9" collapsed="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="29.75" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27" customHeight="1">
@@ -1275,9 +1276,10 @@
 A88&amp;""":"&amp;VLOOKUP(A88,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A90&amp;""":"&amp;VLOOKUP(A90,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A91&amp;""":"&amp;VLOOKUP(A91,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A93&amp;""":"&amp;VLOOKUP(A93,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
+A93&amp;""":"&amp;VLOOKUP(A93,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A94&amp;""":"&amp;VLOOKUP(A94,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
-        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2400,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"MaxPetCountStep":9,"FortuneWheelGolden":10,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":300,"BossBattleRegenTickDelay100":90,"BossBattleRegenHpRatio100":10,"BossBattleXpLevelBonus100":3,"MaxBossBattleDifficulty":28,"AnalysisBoostRate":3,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"InvincibleTime10":6,"TrapDamage10":10,"SubQuestGoldDoubleDiamond":5}</v>
+        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2400,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"MaxPetCountStep":9,"FortuneWheelGolden":10,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":300,"BossBattleRegenTickDelay100":90,"BossBattleRegenHpRatio100":10,"BossBattleXpLevelBonus100":3,"MaxBossBattleDifficulty":28,"AnalysisBoostRate":3,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"InvincibleTime10":6,"TrapDamage10":10,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":450}</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2205,7 +2207,7 @@
         <v>9</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E93" si="2">COUNTIF(A:A,A66)</f>
+        <f t="shared" ref="E66:E94" si="2">COUNTIF(A:A,A66)</f>
         <v>1</v>
       </c>
     </row>
@@ -2607,6 +2609,21 @@
         <v>5</v>
       </c>
       <c r="E93">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B94" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94">
+        <v>450</v>
+      </c>
+      <c r="E94">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -2622,7 +2639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0BF13DF-524D-4963-BA4B-8BE518E5FDEB}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01010CC-29DE-485F-9FB3-193E0D3A6D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB678F4-852E-43B9-84CA-6549EFD0469B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -1198,7 +1198,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A88" sqref="A88"/>
+      <selection pane="bottomLeft" activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1279,7 +1279,7 @@
 A93&amp;""":"&amp;VLOOKUP(A93,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A94&amp;""":"&amp;VLOOKUP(A94,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
-        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2400,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"MaxPetCountStep":9,"FortuneWheelGolden":10,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":300,"BossBattleRegenTickDelay100":90,"BossBattleRegenHpRatio100":10,"BossBattleXpLevelBonus100":3,"MaxBossBattleDifficulty":28,"AnalysisBoostRate":3,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"InvincibleTime10":6,"TrapDamage10":10,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":450}</v>
+        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2400,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"MaxPetCountStep":9,"FortuneWheelGolden":10,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":300,"BossBattleRegenTickDelay100":90,"BossBattleRegenHpRatio100":10,"BossBattleXpLevelBonus100":3,"MaxBossBattleDifficulty":28,"AnalysisBoostRate":3,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"InvincibleTime10":6,"TrapDamage10":10,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1300}</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2621,7 +2621,7 @@
         <v>4</v>
       </c>
       <c r="D94">
-        <v>450</v>
+        <v>1300</v>
       </c>
       <c r="E94">
         <f t="shared" si="2"/>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB678F4-852E-43B9-84CA-6549EFD0469B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581D6BA9-290D-47E1-AEAA-C75BA65A5CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -1197,8 +1197,8 @@
   <dimension ref="A1:G94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A94" sqref="A94"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1279,7 +1279,7 @@
 A93&amp;""":"&amp;VLOOKUP(A93,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A94&amp;""":"&amp;VLOOKUP(A94,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
-        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2400,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"MaxPetCountStep":9,"FortuneWheelGolden":10,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":300,"BossBattleRegenTickDelay100":90,"BossBattleRegenHpRatio100":10,"BossBattleXpLevelBonus100":3,"MaxBossBattleDifficulty":28,"AnalysisBoostRate":3,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"InvincibleTime10":6,"TrapDamage10":10,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1300}</v>
+        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2400,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"MaxPetCountStep":9,"FortuneWheelGolden":10,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":300,"BossBattleRegenTickDelay100":90,"BossBattleRegenHpRatio100":10,"BossBattleXpLevelBonus100":3,"MaxBossBattleDifficulty":28,"AnalysisBoostRate":3,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"InvincibleTime10":6,"TrapDamage10":10,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750}</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2621,7 +2621,7 @@
         <v>4</v>
       </c>
       <c r="D94">
-        <v>1300</v>
+        <v>1750</v>
       </c>
       <c r="E94">
         <f t="shared" si="2"/>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581D6BA9-290D-47E1-AEAA-C75BA65A5CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9009725-C577-4571-AF0D-4F8CAC81ECE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -1197,8 +1197,8 @@
   <dimension ref="A1:G94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A93" sqref="A93"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -2264,7 +2264,7 @@
         <v>105</v>
       </c>
       <c r="D70">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E70">
         <f t="shared" si="2"/>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9009725-C577-4571-AF0D-4F8CAC81ECE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0188AEB3-BD20-4E8E-9DE7-0421E913B76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -1197,8 +1197,8 @@
   <dimension ref="A1:G94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -2591,7 +2591,7 @@
         <v>122</v>
       </c>
       <c r="D92">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="E92">
         <f t="shared" si="2"/>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0188AEB3-BD20-4E8E-9DE7-0421E913B76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09136B7-DC5D-4FB6-870C-7509550F856B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -1197,8 +1197,8 @@
   <dimension ref="A1:G94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A92" sqref="A92"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1534,7 +1534,7 @@
         <v>26</v>
       </c>
       <c r="D21">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09136B7-DC5D-4FB6-870C-7509550F856B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C7DCA2-CAF2-4D55-80A2-D0CFFD5530FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -1197,8 +1197,8 @@
   <dimension ref="A1:G94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -2204,7 +2204,7 @@
         <v>102</v>
       </c>
       <c r="D66">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E94" si="2">COUNTIF(A:A,A66)</f>
@@ -2219,7 +2219,7 @@
         <v>103</v>
       </c>
       <c r="D67">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67">
         <f t="shared" si="2"/>
@@ -2234,7 +2234,7 @@
         <v>127</v>
       </c>
       <c r="D68">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68">
         <f t="shared" si="2"/>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C7DCA2-CAF2-4D55-80A2-D0CFFD5530FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EA7EFE-96B9-4B06-9954-88A0038413D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -1197,8 +1197,8 @@
   <dimension ref="A1:G94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A66" sqref="A66"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1279,7 +1279,7 @@
 A93&amp;""":"&amp;VLOOKUP(A93,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A94&amp;""":"&amp;VLOOKUP(A94,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
-        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2400,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"MaxPetCountStep":9,"FortuneWheelGolden":10,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":300,"BossBattleRegenTickDelay100":90,"BossBattleRegenHpRatio100":10,"BossBattleXpLevelBonus100":3,"MaxBossBattleDifficulty":28,"AnalysisBoostRate":3,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"InvincibleTime10":6,"TrapDamage10":10,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750}</v>
+        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2400,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"MaxPetCountStep":9,"FortuneWheelGolden":10,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":300,"BossBattleRegenTickDelay100":90,"BossBattleRegenHpRatio100":10,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"AnalysisBoostRate":3,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"InvincibleTime10":6,"TrapDamage10":10,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750}</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2357,7 +2357,7 @@
         <v>114</v>
       </c>
       <c r="D76">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E76">
         <f t="shared" si="2"/>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EA7EFE-96B9-4B06-9954-88A0038413D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF6E867-7861-4CF3-A25D-81EDABD361DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="151">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -772,6 +772,30 @@
   </si>
   <si>
     <t>RepeatDamageMinValue10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldRewardIconLargeBase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldRewardIconMediumBase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiaRewardIconLargeBase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiaRewardIconMediumBase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnergyRewardIconLargeBase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnergyRewardIconMediumBase</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1194,11 +1218,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:G94"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A73" sqref="A73"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1244,7 +1268,7 @@
         <v>600</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E33" si="0">COUNTIF(A:A,A2)</f>
+        <f>COUNTIF(A:A,A2)</f>
         <v>1</v>
       </c>
       <c r="G2" t="str">
@@ -1293,7 +1317,7 @@
         <v>400</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A3)</f>
         <v>1</v>
       </c>
     </row>
@@ -1305,7 +1329,7 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A4)</f>
         <v>1</v>
       </c>
     </row>
@@ -1318,7 +1342,7 @@
         <v>192</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A5)</f>
         <v>1</v>
       </c>
     </row>
@@ -1330,7 +1354,7 @@
         <v>960</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A6)</f>
         <v>1</v>
       </c>
     </row>
@@ -1342,7 +1366,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A7)</f>
         <v>1</v>
       </c>
     </row>
@@ -1354,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A8)</f>
         <v>1</v>
       </c>
     </row>
@@ -1366,7 +1390,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A9)</f>
         <v>1</v>
       </c>
     </row>
@@ -1381,7 +1405,7 @@
         <v>10</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A10)</f>
         <v>1</v>
       </c>
     </row>
@@ -1396,7 +1420,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A11)</f>
         <v>1</v>
       </c>
     </row>
@@ -1411,7 +1435,7 @@
         <v>2</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A12)</f>
         <v>1</v>
       </c>
     </row>
@@ -1426,7 +1450,7 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A13)</f>
         <v>1</v>
       </c>
     </row>
@@ -1441,7 +1465,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A14)</f>
         <v>1</v>
       </c>
     </row>
@@ -1456,7 +1480,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A15)</f>
         <v>1</v>
       </c>
     </row>
@@ -1471,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A16)</f>
         <v>1</v>
       </c>
     </row>
@@ -1483,7 +1507,7 @@
         <v>90</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A17)</f>
         <v>1</v>
       </c>
     </row>
@@ -1495,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A18)</f>
         <v>1</v>
       </c>
     </row>
@@ -1507,7 +1531,7 @@
         <v>50</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A19)</f>
         <v>1</v>
       </c>
     </row>
@@ -1522,7 +1546,7 @@
         <v>2400</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A20)</f>
         <v>1</v>
       </c>
     </row>
@@ -1537,7 +1561,7 @@
         <v>1500</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A21)</f>
         <v>1</v>
       </c>
     </row>
@@ -1549,7 +1573,7 @@
         <v>73</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A22)</f>
         <v>1</v>
       </c>
     </row>
@@ -1562,7 +1586,7 @@
         <v>259200</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A23)</f>
         <v>1</v>
       </c>
     </row>
@@ -1574,7 +1598,7 @@
         <v>5</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A24)</f>
         <v>1</v>
       </c>
     </row>
@@ -1586,7 +1610,7 @@
         <v>1000</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A25)</f>
         <v>1</v>
       </c>
     </row>
@@ -1598,7 +1622,7 @@
         <v>5</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A26)</f>
         <v>1</v>
       </c>
     </row>
@@ -1613,7 +1637,7 @@
         <v>10</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A27)</f>
         <v>1</v>
       </c>
     </row>
@@ -1631,7 +1655,7 @@
         <v>17</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A28)</f>
         <v>1</v>
       </c>
     </row>
@@ -1649,7 +1673,7 @@
         <v>30</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A29)</f>
         <v>1</v>
       </c>
     </row>
@@ -1667,7 +1691,7 @@
         <v>300</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A30)</f>
         <v>1</v>
       </c>
     </row>
@@ -1685,7 +1709,7 @@
         <v>50</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A31)</f>
         <v>1</v>
       </c>
     </row>
@@ -1703,7 +1727,7 @@
         <v>9</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A32)</f>
         <v>1</v>
       </c>
     </row>
@@ -1720,7 +1744,7 @@
         <v>1209600</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A33)</f>
         <v>1</v>
       </c>
     </row>
@@ -1738,7 +1762,7 @@
         <v>3</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34:E65" si="1">COUNTIF(A:A,A34)</f>
+        <f>COUNTIF(A:A,A34)</f>
         <v>1</v>
       </c>
     </row>
@@ -1754,7 +1778,7 @@
         <v>2419200</v>
       </c>
       <c r="E35">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A35)</f>
         <v>1</v>
       </c>
     </row>
@@ -1769,7 +1793,7 @@
         <v>25</v>
       </c>
       <c r="E36">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A36)</f>
         <v>1</v>
       </c>
     </row>
@@ -1784,7 +1808,7 @@
         <v>95</v>
       </c>
       <c r="E37">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A37)</f>
         <v>1</v>
       </c>
     </row>
@@ -1799,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A38)</f>
         <v>1</v>
       </c>
     </row>
@@ -1814,7 +1838,7 @@
         <v>60</v>
       </c>
       <c r="E39">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A39)</f>
         <v>1</v>
       </c>
     </row>
@@ -1829,7 +1853,7 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A40)</f>
         <v>1</v>
       </c>
     </row>
@@ -1841,7 +1865,7 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A41)</f>
         <v>1</v>
       </c>
     </row>
@@ -1859,7 +1883,7 @@
         <v>8</v>
       </c>
       <c r="E42">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A42)</f>
         <v>1</v>
       </c>
     </row>
@@ -1877,7 +1901,7 @@
         <v>24</v>
       </c>
       <c r="E43">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A43)</f>
         <v>1</v>
       </c>
     </row>
@@ -1892,7 +1916,7 @@
         <v>86400</v>
       </c>
       <c r="E44">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A44)</f>
         <v>1</v>
       </c>
     </row>
@@ -1907,7 +1931,7 @@
         <v>172800</v>
       </c>
       <c r="E45">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A45)</f>
         <v>1</v>
       </c>
     </row>
@@ -1922,7 +1946,7 @@
         <v>240</v>
       </c>
       <c r="E46">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A46)</f>
         <v>1</v>
       </c>
     </row>
@@ -1934,7 +1958,7 @@
         <v>210</v>
       </c>
       <c r="E47">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A47)</f>
         <v>1</v>
       </c>
     </row>
@@ -1946,7 +1970,7 @@
         <v>180</v>
       </c>
       <c r="E48">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A48)</f>
         <v>1</v>
       </c>
     </row>
@@ -1958,7 +1982,7 @@
         <v>150</v>
       </c>
       <c r="E49">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A49)</f>
         <v>1</v>
       </c>
     </row>
@@ -1970,7 +1994,7 @@
         <v>120</v>
       </c>
       <c r="E50">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A50)</f>
         <v>1</v>
       </c>
     </row>
@@ -1985,7 +2009,7 @@
         <v>70</v>
       </c>
       <c r="E51">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A51)</f>
         <v>1</v>
       </c>
     </row>
@@ -1997,7 +2021,7 @@
         <v>130</v>
       </c>
       <c r="E52">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A52)</f>
         <v>1</v>
       </c>
     </row>
@@ -2012,7 +2036,7 @@
         <v>10</v>
       </c>
       <c r="E53">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A53)</f>
         <v>1</v>
       </c>
     </row>
@@ -2027,7 +2051,7 @@
         <v>200</v>
       </c>
       <c r="E54">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A54)</f>
         <v>1</v>
       </c>
     </row>
@@ -2042,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A55)</f>
         <v>1</v>
       </c>
     </row>
@@ -2057,7 +2081,7 @@
         <v>10</v>
       </c>
       <c r="E56">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A56)</f>
         <v>1</v>
       </c>
     </row>
@@ -2072,7 +2096,7 @@
         <v>8</v>
       </c>
       <c r="E57">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A57)</f>
         <v>1</v>
       </c>
     </row>
@@ -2087,7 +2111,7 @@
         <v>3</v>
       </c>
       <c r="E58">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A58)</f>
         <v>1</v>
       </c>
     </row>
@@ -2102,7 +2126,7 @@
         <v>4</v>
       </c>
       <c r="E59">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A59)</f>
         <v>1</v>
       </c>
     </row>
@@ -2117,7 +2141,7 @@
         <v>4</v>
       </c>
       <c r="E60">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A60)</f>
         <v>1</v>
       </c>
     </row>
@@ -2132,7 +2156,7 @@
         <v>4</v>
       </c>
       <c r="E61">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A61)</f>
         <v>1</v>
       </c>
     </row>
@@ -2147,7 +2171,7 @@
         <v>2</v>
       </c>
       <c r="E62">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A62)</f>
         <v>1</v>
       </c>
     </row>
@@ -2162,7 +2186,7 @@
         <v>2</v>
       </c>
       <c r="E63">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A63)</f>
         <v>1</v>
       </c>
     </row>
@@ -2177,7 +2201,7 @@
         <v>2</v>
       </c>
       <c r="E64">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A64)</f>
         <v>1</v>
       </c>
     </row>
@@ -2192,7 +2216,7 @@
         <v>2</v>
       </c>
       <c r="E65">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A65)</f>
         <v>1</v>
       </c>
     </row>
@@ -2207,7 +2231,7 @@
         <v>10</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E94" si="2">COUNTIF(A:A,A66)</f>
+        <f>COUNTIF(A:A,A66)</f>
         <v>1</v>
       </c>
     </row>
@@ -2222,7 +2246,7 @@
         <v>10</v>
       </c>
       <c r="E67">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A67)</f>
         <v>1</v>
       </c>
     </row>
@@ -2237,7 +2261,7 @@
         <v>10</v>
       </c>
       <c r="E68">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A68)</f>
         <v>1</v>
       </c>
     </row>
@@ -2252,7 +2276,7 @@
         <v>50</v>
       </c>
       <c r="E69">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A69)</f>
         <v>1</v>
       </c>
     </row>
@@ -2267,7 +2291,7 @@
         <v>15</v>
       </c>
       <c r="E70">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A70)</f>
         <v>1</v>
       </c>
     </row>
@@ -2282,7 +2306,7 @@
         <v>3</v>
       </c>
       <c r="E71">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A71)</f>
         <v>1</v>
       </c>
     </row>
@@ -2297,7 +2321,7 @@
         <v>5</v>
       </c>
       <c r="E72">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A72)</f>
         <v>1</v>
       </c>
     </row>
@@ -2312,7 +2336,7 @@
         <v>300</v>
       </c>
       <c r="E73">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A73)</f>
         <v>1</v>
       </c>
     </row>
@@ -2327,7 +2351,7 @@
         <v>90</v>
       </c>
       <c r="E74">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A74)</f>
         <v>1</v>
       </c>
     </row>
@@ -2342,7 +2366,7 @@
         <v>10</v>
       </c>
       <c r="E75">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A75)</f>
         <v>1</v>
       </c>
     </row>
@@ -2360,7 +2384,7 @@
         <v>7</v>
       </c>
       <c r="E76">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A76)</f>
         <v>1</v>
       </c>
     </row>
@@ -2375,7 +2399,7 @@
         <v>28</v>
       </c>
       <c r="E77">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A77)</f>
         <v>1</v>
       </c>
     </row>
@@ -2390,7 +2414,7 @@
         <v>30</v>
       </c>
       <c r="E78">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A78)</f>
         <v>1</v>
       </c>
     </row>
@@ -2405,7 +2429,7 @@
         <v>3</v>
       </c>
       <c r="E79">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A79)</f>
         <v>1</v>
       </c>
     </row>
@@ -2420,7 +2444,7 @@
         <v>8</v>
       </c>
       <c r="E80">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A80)</f>
         <v>1</v>
       </c>
     </row>
@@ -2435,7 +2459,7 @@
         <v>4</v>
       </c>
       <c r="E81">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A81)</f>
         <v>1</v>
       </c>
     </row>
@@ -2450,7 +2474,7 @@
         <v>17</v>
       </c>
       <c r="E82">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A82)</f>
         <v>1</v>
       </c>
     </row>
@@ -2465,7 +2489,7 @@
         <v>9</v>
       </c>
       <c r="E83">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A83)</f>
         <v>1</v>
       </c>
     </row>
@@ -2480,7 +2504,7 @@
         <v>12</v>
       </c>
       <c r="E84">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A84)</f>
         <v>1</v>
       </c>
     </row>
@@ -2492,7 +2516,7 @@
         <v>6</v>
       </c>
       <c r="E85">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A85)</f>
         <v>1</v>
       </c>
     </row>
@@ -2507,7 +2531,7 @@
         <v>30</v>
       </c>
       <c r="E86">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A86)</f>
         <v>1</v>
       </c>
     </row>
@@ -2522,7 +2546,7 @@
         <v>1200</v>
       </c>
       <c r="E87">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A87)</f>
         <v>1</v>
       </c>
     </row>
@@ -2537,7 +2561,7 @@
         <v>3330</v>
       </c>
       <c r="E88">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A88)</f>
         <v>1</v>
       </c>
     </row>
@@ -2552,7 +2576,7 @@
         <v>10000</v>
       </c>
       <c r="E89">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A89)</f>
         <v>1</v>
       </c>
     </row>
@@ -2567,7 +2591,7 @@
         <v>6</v>
       </c>
       <c r="E90">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A90)</f>
         <v>1</v>
       </c>
     </row>
@@ -2582,7 +2606,7 @@
         <v>10</v>
       </c>
       <c r="E91">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A91)</f>
         <v>1</v>
       </c>
     </row>
@@ -2594,7 +2618,7 @@
         <v>300</v>
       </c>
       <c r="E92">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A92)</f>
         <v>1</v>
       </c>
     </row>
@@ -2609,7 +2633,7 @@
         <v>5</v>
       </c>
       <c r="E93">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A93)</f>
         <v>1</v>
       </c>
     </row>
@@ -2624,7 +2648,79 @@
         <v>1750</v>
       </c>
       <c r="E94">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A94)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>145</v>
+      </c>
+      <c r="D95">
+        <v>2500000</v>
+      </c>
+      <c r="E95">
+        <f>COUNTIF(A:A,A95)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>146</v>
+      </c>
+      <c r="D96">
+        <v>1050000</v>
+      </c>
+      <c r="E96">
+        <f>COUNTIF(A:A,A96)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>147</v>
+      </c>
+      <c r="D97">
+        <v>160</v>
+      </c>
+      <c r="E97">
+        <f>COUNTIF(A:A,A97)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>148</v>
+      </c>
+      <c r="D98">
+        <v>55</v>
+      </c>
+      <c r="E98">
+        <f>COUNTIF(A:A,A98)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>149</v>
+      </c>
+      <c r="D99">
+        <v>520</v>
+      </c>
+      <c r="E99">
+        <f>COUNTIF(A:A,A99)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>150</v>
+      </c>
+      <c r="D100">
+        <v>180</v>
+      </c>
+      <c r="E100">
+        <f>COUNTIF(A:A,A100)</f>
         <v>1</v>
       </c>
     </row>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF6E867-7861-4CF3-A25D-81EDABD361DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F52157-99D2-481A-B2D8-444F50567A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -1221,8 +1221,8 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A96" sqref="A96"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1268,7 +1268,7 @@
         <v>600</v>
       </c>
       <c r="E2">
-        <f>COUNTIF(A:A,A2)</f>
+        <f t="shared" ref="E2:E33" si="0">COUNTIF(A:A,A2)</f>
         <v>1</v>
       </c>
       <c r="G2" t="str">
@@ -1303,7 +1303,7 @@
 A93&amp;""":"&amp;VLOOKUP(A93,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A94&amp;""":"&amp;VLOOKUP(A94,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
-        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":2400,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"MaxPetCountStep":9,"FortuneWheelGolden":10,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":300,"BossBattleRegenTickDelay100":90,"BossBattleRegenHpRatio100":10,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"AnalysisBoostRate":3,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"InvincibleTime10":6,"TrapDamage10":10,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750}</v>
+        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":240,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"MaxPetCountStep":9,"FortuneWheelGolden":10,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":300,"BossBattleRegenTickDelay100":90,"BossBattleRegenHpRatio100":10,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"AnalysisBoostRate":3,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"InvincibleTime10":6,"TrapDamage10":10,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750}</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1317,7 +1317,7 @@
         <v>400</v>
       </c>
       <c r="E3">
-        <f>COUNTIF(A:A,A3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <f>COUNTIF(A:A,A4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1342,7 +1342,7 @@
         <v>192</v>
       </c>
       <c r="E5">
-        <f>COUNTIF(A:A,A5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
         <v>960</v>
       </c>
       <c r="E6">
-        <f>COUNTIF(A:A,A6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1366,7 +1366,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <f>COUNTIF(A:A,A7)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1378,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <f>COUNTIF(A:A,A8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1390,7 +1390,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <f>COUNTIF(A:A,A9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1405,7 +1405,7 @@
         <v>10</v>
       </c>
       <c r="E10">
-        <f>COUNTIF(A:A,A10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1420,7 +1420,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <f>COUNTIF(A:A,A11)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
         <v>2</v>
       </c>
       <c r="E12">
-        <f>COUNTIF(A:A,A12)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1450,7 +1450,7 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <f>COUNTIF(A:A,A13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1465,7 +1465,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <f>COUNTIF(A:A,A14)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1480,7 +1480,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <f>COUNTIF(A:A,A15)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1495,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <f>COUNTIF(A:A,A16)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
         <v>90</v>
       </c>
       <c r="E17">
-        <f>COUNTIF(A:A,A17)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1519,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <f>COUNTIF(A:A,A18)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1531,7 +1531,7 @@
         <v>50</v>
       </c>
       <c r="E19">
-        <f>COUNTIF(A:A,A19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1543,10 +1543,10 @@
         <v>4</v>
       </c>
       <c r="D20">
-        <v>2400</v>
+        <v>240</v>
       </c>
       <c r="E20">
-        <f>COUNTIF(A:A,A20)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1561,7 +1561,7 @@
         <v>1500</v>
       </c>
       <c r="E21">
-        <f>COUNTIF(A:A,A21)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1573,7 +1573,7 @@
         <v>73</v>
       </c>
       <c r="E22">
-        <f>COUNTIF(A:A,A22)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1586,7 +1586,7 @@
         <v>259200</v>
       </c>
       <c r="E23">
-        <f>COUNTIF(A:A,A23)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1598,7 +1598,7 @@
         <v>5</v>
       </c>
       <c r="E24">
-        <f>COUNTIF(A:A,A24)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1610,7 +1610,7 @@
         <v>1000</v>
       </c>
       <c r="E25">
-        <f>COUNTIF(A:A,A25)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1622,7 +1622,7 @@
         <v>5</v>
       </c>
       <c r="E26">
-        <f>COUNTIF(A:A,A26)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
         <v>10</v>
       </c>
       <c r="E27">
-        <f>COUNTIF(A:A,A27)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
         <v>17</v>
       </c>
       <c r="E28">
-        <f>COUNTIF(A:A,A28)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1673,7 +1673,7 @@
         <v>30</v>
       </c>
       <c r="E29">
-        <f>COUNTIF(A:A,A29)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1691,7 +1691,7 @@
         <v>300</v>
       </c>
       <c r="E30">
-        <f>COUNTIF(A:A,A30)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1709,7 +1709,7 @@
         <v>50</v>
       </c>
       <c r="E31">
-        <f>COUNTIF(A:A,A31)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
         <v>9</v>
       </c>
       <c r="E32">
-        <f>COUNTIF(A:A,A32)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1744,7 +1744,7 @@
         <v>1209600</v>
       </c>
       <c r="E33">
-        <f>COUNTIF(A:A,A33)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1762,7 +1762,7 @@
         <v>3</v>
       </c>
       <c r="E34">
-        <f>COUNTIF(A:A,A34)</f>
+        <f t="shared" ref="E34:E65" si="1">COUNTIF(A:A,A34)</f>
         <v>1</v>
       </c>
     </row>
@@ -1778,7 +1778,7 @@
         <v>2419200</v>
       </c>
       <c r="E35">
-        <f>COUNTIF(A:A,A35)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
         <v>25</v>
       </c>
       <c r="E36">
-        <f>COUNTIF(A:A,A36)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1808,7 +1808,7 @@
         <v>95</v>
       </c>
       <c r="E37">
-        <f>COUNTIF(A:A,A37)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <f>COUNTIF(A:A,A38)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1838,7 +1838,7 @@
         <v>60</v>
       </c>
       <c r="E39">
-        <f>COUNTIF(A:A,A39)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1853,7 +1853,7 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <f>COUNTIF(A:A,A40)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <f>COUNTIF(A:A,A41)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1883,7 +1883,7 @@
         <v>8</v>
       </c>
       <c r="E42">
-        <f>COUNTIF(A:A,A42)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
         <v>24</v>
       </c>
       <c r="E43">
-        <f>COUNTIF(A:A,A43)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1916,7 +1916,7 @@
         <v>86400</v>
       </c>
       <c r="E44">
-        <f>COUNTIF(A:A,A44)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1931,7 +1931,7 @@
         <v>172800</v>
       </c>
       <c r="E45">
-        <f>COUNTIF(A:A,A45)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1946,7 +1946,7 @@
         <v>240</v>
       </c>
       <c r="E46">
-        <f>COUNTIF(A:A,A46)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1958,7 +1958,7 @@
         <v>210</v>
       </c>
       <c r="E47">
-        <f>COUNTIF(A:A,A47)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1970,7 +1970,7 @@
         <v>180</v>
       </c>
       <c r="E48">
-        <f>COUNTIF(A:A,A48)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1982,7 +1982,7 @@
         <v>150</v>
       </c>
       <c r="E49">
-        <f>COUNTIF(A:A,A49)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1994,7 +1994,7 @@
         <v>120</v>
       </c>
       <c r="E50">
-        <f>COUNTIF(A:A,A50)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2009,7 +2009,7 @@
         <v>70</v>
       </c>
       <c r="E51">
-        <f>COUNTIF(A:A,A51)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2021,7 +2021,7 @@
         <v>130</v>
       </c>
       <c r="E52">
-        <f>COUNTIF(A:A,A52)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2036,7 +2036,7 @@
         <v>10</v>
       </c>
       <c r="E53">
-        <f>COUNTIF(A:A,A53)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
         <v>200</v>
       </c>
       <c r="E54">
-        <f>COUNTIF(A:A,A54)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2066,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <f>COUNTIF(A:A,A55)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2081,7 +2081,7 @@
         <v>10</v>
       </c>
       <c r="E56">
-        <f>COUNTIF(A:A,A56)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2096,7 +2096,7 @@
         <v>8</v>
       </c>
       <c r="E57">
-        <f>COUNTIF(A:A,A57)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2111,7 +2111,7 @@
         <v>3</v>
       </c>
       <c r="E58">
-        <f>COUNTIF(A:A,A58)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2126,7 +2126,7 @@
         <v>4</v>
       </c>
       <c r="E59">
-        <f>COUNTIF(A:A,A59)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2141,7 +2141,7 @@
         <v>4</v>
       </c>
       <c r="E60">
-        <f>COUNTIF(A:A,A60)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2156,7 +2156,7 @@
         <v>4</v>
       </c>
       <c r="E61">
-        <f>COUNTIF(A:A,A61)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
         <v>2</v>
       </c>
       <c r="E62">
-        <f>COUNTIF(A:A,A62)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2186,7 +2186,7 @@
         <v>2</v>
       </c>
       <c r="E63">
-        <f>COUNTIF(A:A,A63)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2201,7 +2201,7 @@
         <v>2</v>
       </c>
       <c r="E64">
-        <f>COUNTIF(A:A,A64)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2216,7 +2216,7 @@
         <v>2</v>
       </c>
       <c r="E65">
-        <f>COUNTIF(A:A,A65)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
         <v>10</v>
       </c>
       <c r="E66">
-        <f>COUNTIF(A:A,A66)</f>
+        <f t="shared" ref="E66:E100" si="2">COUNTIF(A:A,A66)</f>
         <v>1</v>
       </c>
     </row>
@@ -2246,7 +2246,7 @@
         <v>10</v>
       </c>
       <c r="E67">
-        <f>COUNTIF(A:A,A67)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2261,7 +2261,7 @@
         <v>10</v>
       </c>
       <c r="E68">
-        <f>COUNTIF(A:A,A68)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2276,7 +2276,7 @@
         <v>50</v>
       </c>
       <c r="E69">
-        <f>COUNTIF(A:A,A69)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
         <v>15</v>
       </c>
       <c r="E70">
-        <f>COUNTIF(A:A,A70)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2306,7 +2306,7 @@
         <v>3</v>
       </c>
       <c r="E71">
-        <f>COUNTIF(A:A,A71)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
         <v>5</v>
       </c>
       <c r="E72">
-        <f>COUNTIF(A:A,A72)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2336,7 +2336,7 @@
         <v>300</v>
       </c>
       <c r="E73">
-        <f>COUNTIF(A:A,A73)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2351,7 +2351,7 @@
         <v>90</v>
       </c>
       <c r="E74">
-        <f>COUNTIF(A:A,A74)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2366,7 +2366,7 @@
         <v>10</v>
       </c>
       <c r="E75">
-        <f>COUNTIF(A:A,A75)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
         <v>7</v>
       </c>
       <c r="E76">
-        <f>COUNTIF(A:A,A76)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2399,7 +2399,7 @@
         <v>28</v>
       </c>
       <c r="E77">
-        <f>COUNTIF(A:A,A77)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2414,7 +2414,7 @@
         <v>30</v>
       </c>
       <c r="E78">
-        <f>COUNTIF(A:A,A78)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2429,7 +2429,7 @@
         <v>3</v>
       </c>
       <c r="E79">
-        <f>COUNTIF(A:A,A79)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2444,7 +2444,7 @@
         <v>8</v>
       </c>
       <c r="E80">
-        <f>COUNTIF(A:A,A80)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2459,7 +2459,7 @@
         <v>4</v>
       </c>
       <c r="E81">
-        <f>COUNTIF(A:A,A81)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2474,7 +2474,7 @@
         <v>17</v>
       </c>
       <c r="E82">
-        <f>COUNTIF(A:A,A82)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2489,7 +2489,7 @@
         <v>9</v>
       </c>
       <c r="E83">
-        <f>COUNTIF(A:A,A83)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2504,7 +2504,7 @@
         <v>12</v>
       </c>
       <c r="E84">
-        <f>COUNTIF(A:A,A84)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2516,7 +2516,7 @@
         <v>6</v>
       </c>
       <c r="E85">
-        <f>COUNTIF(A:A,A85)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2531,7 +2531,7 @@
         <v>30</v>
       </c>
       <c r="E86">
-        <f>COUNTIF(A:A,A86)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2546,7 +2546,7 @@
         <v>1200</v>
       </c>
       <c r="E87">
-        <f>COUNTIF(A:A,A87)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
         <v>3330</v>
       </c>
       <c r="E88">
-        <f>COUNTIF(A:A,A88)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2576,7 +2576,7 @@
         <v>10000</v>
       </c>
       <c r="E89">
-        <f>COUNTIF(A:A,A89)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2591,7 +2591,7 @@
         <v>6</v>
       </c>
       <c r="E90">
-        <f>COUNTIF(A:A,A90)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2606,7 +2606,7 @@
         <v>10</v>
       </c>
       <c r="E91">
-        <f>COUNTIF(A:A,A91)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2618,7 +2618,7 @@
         <v>300</v>
       </c>
       <c r="E92">
-        <f>COUNTIF(A:A,A92)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2633,7 +2633,7 @@
         <v>5</v>
       </c>
       <c r="E93">
-        <f>COUNTIF(A:A,A93)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2648,7 +2648,7 @@
         <v>1750</v>
       </c>
       <c r="E94">
-        <f>COUNTIF(A:A,A94)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2657,10 +2657,10 @@
         <v>145</v>
       </c>
       <c r="D95">
-        <v>2500000</v>
+        <v>250000</v>
       </c>
       <c r="E95">
-        <f>COUNTIF(A:A,A95)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2669,10 +2669,10 @@
         <v>146</v>
       </c>
       <c r="D96">
-        <v>1050000</v>
+        <v>105000</v>
       </c>
       <c r="E96">
-        <f>COUNTIF(A:A,A96)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2684,7 +2684,7 @@
         <v>160</v>
       </c>
       <c r="E97">
-        <f>COUNTIF(A:A,A97)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2696,7 +2696,7 @@
         <v>55</v>
       </c>
       <c r="E98">
-        <f>COUNTIF(A:A,A98)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2708,7 +2708,7 @@
         <v>520</v>
       </c>
       <c r="E99">
-        <f>COUNTIF(A:A,A99)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2720,7 +2720,7 @@
         <v>180</v>
       </c>
       <c r="E100">
-        <f>COUNTIF(A:A,A100)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F52157-99D2-481A-B2D8-444F50567A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07F4937-59E1-483B-A71E-96954662494D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -1221,7 +1221,7 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -1303,7 +1303,7 @@
 A93&amp;""":"&amp;VLOOKUP(A93,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A94&amp;""":"&amp;VLOOKUP(A94,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
-        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":240,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"MaxPetCountStep":9,"FortuneWheelGolden":10,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":300,"BossBattleRegenTickDelay100":90,"BossBattleRegenHpRatio100":10,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"AnalysisBoostRate":3,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"InvincibleTime10":6,"TrapDamage10":10,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750}</v>
+        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":240,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"MaxPetCountStep":9,"FortuneWheelGolden":10,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"AnalysisBoostRate":3,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"InvincibleTime10":6,"TrapDamage10":10,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750}</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2333,7 +2333,7 @@
         <v>4</v>
       </c>
       <c r="D73">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E73">
         <f t="shared" si="2"/>
@@ -2348,7 +2348,7 @@
         <v>4</v>
       </c>
       <c r="D74">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="E74">
         <f t="shared" si="2"/>
@@ -2363,7 +2363,7 @@
         <v>4</v>
       </c>
       <c r="D75">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E75">
         <f t="shared" si="2"/>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07F4937-59E1-483B-A71E-96954662494D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B0926E-DC82-46AD-9252-DECB3C39A5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -1221,8 +1221,8 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1943,7 +1943,7 @@
         <v>136</v>
       </c>
       <c r="D46">
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="E46">
         <f t="shared" si="1"/>
@@ -1955,7 +1955,7 @@
         <v>132</v>
       </c>
       <c r="D47">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="E47">
         <f t="shared" si="1"/>
@@ -1967,7 +1967,7 @@
         <v>133</v>
       </c>
       <c r="D48">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="E48">
         <f t="shared" si="1"/>
@@ -1979,7 +1979,7 @@
         <v>134</v>
       </c>
       <c r="D49">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="E49">
         <f t="shared" si="1"/>
@@ -1991,7 +1991,7 @@
         <v>135</v>
       </c>
       <c r="D50">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E50">
         <f t="shared" si="1"/>
@@ -2033,7 +2033,7 @@
         <v>140</v>
       </c>
       <c r="D53">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E53">
         <f t="shared" si="1"/>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B0926E-DC82-46AD-9252-DECB3C39A5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CEE4F5-5A79-4F24-8157-7AC0B5EE1D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -1222,7 +1222,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
+      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1880,7 +1880,7 @@
         <v>47</v>
       </c>
       <c r="D42">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E42">
         <f t="shared" si="1"/>
@@ -1898,7 +1898,7 @@
         <v>48</v>
       </c>
       <c r="D43">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E43">
         <f t="shared" si="1"/>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CEE4F5-5A79-4F24-8157-7AC0B5EE1D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5930D23-9195-4596-803F-DA380C130B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -1221,8 +1221,8 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -2441,7 +2441,7 @@
         <v>69</v>
       </c>
       <c r="D80">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E80">
         <f t="shared" si="2"/>
@@ -2456,7 +2456,7 @@
         <v>68</v>
       </c>
       <c r="D81">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E81">
         <f t="shared" si="2"/>
@@ -2471,7 +2471,7 @@
         <v>72</v>
       </c>
       <c r="D82">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E82">
         <f t="shared" si="2"/>
@@ -2486,7 +2486,7 @@
         <v>70</v>
       </c>
       <c r="D83">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E83">
         <f t="shared" si="2"/>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5930D23-9195-4596-803F-DA380C130B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14405345-E37F-47BA-B46B-6C31EDF354A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="152">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -674,9 +674,6 @@
     <t>OfficialTelegram</t>
   </si>
   <si>
-    <t>https://cafe.naver.com/powersourcestudio</t>
-  </si>
-  <si>
     <t>InvincibleTime10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -796,6 +793,14 @@
   </si>
   <si>
     <t>EnergyRewardIconMediumBase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://discord.gg/GJ6TvcFB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://https://cafe.naver.com/daughteridle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1220,7 +1225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A80" sqref="A80"/>
     </sheetView>
@@ -1501,7 +1506,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D17">
         <v>90</v>
@@ -1697,13 +1702,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
         <v>129</v>
-      </c>
-      <c r="B31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" t="s">
-        <v>130</v>
       </c>
       <c r="D31">
         <v>50</v>
@@ -1937,10 +1942,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D46">
         <v>140</v>
@@ -1952,7 +1957,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D47">
         <v>130</v>
@@ -1964,7 +1969,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D48">
         <v>120</v>
@@ -1976,7 +1981,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D49">
         <v>110</v>
@@ -1988,7 +1993,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D50">
         <v>100</v>
@@ -2000,10 +2005,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D51">
         <v>70</v>
@@ -2015,7 +2020,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D52">
         <v>130</v>
@@ -2027,10 +2032,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" t="s">
         <v>139</v>
-      </c>
-      <c r="C53" t="s">
-        <v>140</v>
       </c>
       <c r="D53">
         <v>3</v>
@@ -2147,7 +2152,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B61" t="s">
         <v>94</v>
@@ -2207,7 +2212,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B65" t="s">
         <v>94</v>
@@ -2252,10 +2257,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B68" t="s">
         <v>126</v>
-      </c>
-      <c r="B68" t="s">
-        <v>127</v>
       </c>
       <c r="D68">
         <v>10</v>
@@ -2582,7 +2587,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B90" t="s">
         <v>4</v>
@@ -2597,7 +2602,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B91" t="s">
         <v>4</v>
@@ -2612,7 +2617,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D92">
         <v>300</v>
@@ -2624,7 +2629,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B93" t="s">
         <v>4</v>
@@ -2639,7 +2644,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B94" t="s">
         <v>4</v>
@@ -2654,7 +2659,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D95">
         <v>250000</v>
@@ -2666,7 +2671,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D96">
         <v>105000</v>
@@ -2678,7 +2683,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D97">
         <v>160</v>
@@ -2690,7 +2695,7 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D98">
         <v>55</v>
@@ -2702,7 +2707,7 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D99">
         <v>520</v>
@@ -2714,7 +2719,7 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D100">
         <v>180</v>
@@ -2735,8 +2740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0BF13DF-524D-4963-BA4B-8BE518E5FDEB}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -2779,10 +2784,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" t="s">
         <v>142</v>
-      </c>
-      <c r="D4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2790,7 +2795,7 @@
         <v>117</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2798,7 +2803,7 @@
         <v>118</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14405345-E37F-47BA-B46B-6C31EDF354A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E9D0CE-06EE-43D3-9C35-9B37427E5E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -1225,7 +1225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A80" sqref="A80"/>
     </sheetView>
@@ -2446,7 +2446,7 @@
         <v>69</v>
       </c>
       <c r="D80">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E80">
         <f t="shared" si="2"/>
@@ -2461,7 +2461,7 @@
         <v>68</v>
       </c>
       <c r="D81">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E81">
         <f t="shared" si="2"/>
@@ -2740,7 +2740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0BF13DF-524D-4963-BA4B-8BE518E5FDEB}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E9D0CE-06EE-43D3-9C35-9B37427E5E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515371D2-1494-4AC4-9BDD-E0161E476CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -800,7 +800,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://https://cafe.naver.com/daughteridle</t>
+    <t>https://cafe.naver.com/daughteridle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1225,7 +1225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A80" sqref="A80"/>
     </sheetView>
@@ -2740,16 +2740,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0BF13DF-524D-4963-BA4B-8BE518E5FDEB}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="14.125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="24.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="13.375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="24.75" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1">

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515371D2-1494-4AC4-9BDD-E0161E476CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74623B11-FD12-4F0E-8F3E-4FE526A20A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="150">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -334,10 +334,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TotalSpellGachaStep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GachaActorMaxTrp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -346,9 +342,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1, 5, 10, 20, 40, 70, 110, 160, 210, 270, 340, 420, 510, 600</t>
-  </si>
-  <si>
     <t>FastClearJumpStep</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -765,9 +758,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0, 10, 45, 190, 780, 2415, 5950, 10950, 15950, 21950, 28950, 36950, 45950, 54950</t>
-  </si>
-  <si>
     <t>RepeatDamageMinValue10000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -801,6 +791,10 @@
   </si>
   <si>
     <t>https://cafe.naver.com/daughteridle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0, 25, 100, 400, 1600, 4200, 8500, 13500, 19000, 25500, 33000, 41500, 50500, 60000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1253,7 +1247,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1328,7 +1322,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>20</v>
@@ -1353,7 +1347,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D6">
         <v>960</v>
@@ -1506,7 +1500,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D17">
         <v>90</v>
@@ -1584,7 +1578,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D23">
         <f>3*24*60*60</f>
@@ -1597,7 +1591,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D24">
         <v>5</v>
@@ -1621,7 +1615,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26">
         <v>5</v>
@@ -1633,7 +1627,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
@@ -1648,13 +1642,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28">
         <v>17</v>
@@ -1666,13 +1660,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D29">
         <v>30</v>
@@ -1684,13 +1678,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
         <v>86</v>
-      </c>
-      <c r="B30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" t="s">
-        <v>88</v>
       </c>
       <c r="D30">
         <v>300</v>
@@ -1702,13 +1696,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D31">
         <v>50</v>
@@ -1720,13 +1714,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D32">
         <v>9</v>
@@ -1738,11 +1732,11 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D33" s="3">
         <f>14*24*60*60</f>
@@ -1755,13 +1749,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D34">
         <v>3</v>
@@ -1773,10 +1767,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D35">
         <f>28*24*60*60</f>
@@ -1789,10 +1783,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D36">
         <v>25</v>
@@ -1804,10 +1798,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D37">
         <v>95</v>
@@ -1819,10 +1813,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1834,10 +1828,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D39">
         <v>60</v>
@@ -1849,10 +1843,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -1864,7 +1858,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D41">
         <v>3</v>
@@ -1876,13 +1870,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D42">
         <v>3</v>
@@ -1894,13 +1888,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D43">
         <v>10</v>
@@ -1912,10 +1906,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D44">
         <v>86400</v>
@@ -1927,10 +1921,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D45">
         <v>172800</v>
@@ -1942,10 +1936,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C46" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D46">
         <v>140</v>
@@ -1957,7 +1951,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D47">
         <v>130</v>
@@ -1969,7 +1963,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D48">
         <v>120</v>
@@ -1981,7 +1975,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D49">
         <v>110</v>
@@ -1993,7 +1987,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D50">
         <v>100</v>
@@ -2005,10 +1999,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C51" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D51">
         <v>70</v>
@@ -2020,7 +2014,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D52">
         <v>130</v>
@@ -2032,10 +2026,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C53" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D53">
         <v>3</v>
@@ -2047,10 +2041,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D54">
         <v>200</v>
@@ -2062,10 +2056,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -2077,7 +2071,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
         <v>4</v>
@@ -2092,10 +2086,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D57">
         <v>8</v>
@@ -2107,10 +2101,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D58">
         <v>3</v>
@@ -2122,10 +2116,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B59" t="s">
         <v>92</v>
-      </c>
-      <c r="B59" t="s">
-        <v>94</v>
       </c>
       <c r="D59">
         <v>4</v>
@@ -2137,10 +2131,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B60" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D60">
         <v>4</v>
@@ -2152,10 +2146,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B61" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D61">
         <v>4</v>
@@ -2167,10 +2161,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B62" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -2182,10 +2176,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B63" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -2197,10 +2191,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B64" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -2212,10 +2206,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B65" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -2227,10 +2221,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B66" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D66">
         <v>10</v>
@@ -2242,10 +2236,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B67" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D67">
         <v>10</v>
@@ -2257,10 +2251,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B68" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D68">
         <v>10</v>
@@ -2272,10 +2266,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B69" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D69">
         <v>50</v>
@@ -2287,10 +2281,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B70" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D70">
         <v>15</v>
@@ -2302,10 +2296,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B71" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D71">
         <v>3</v>
@@ -2317,7 +2311,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B72" t="s">
         <v>4</v>
@@ -2332,7 +2326,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B73" t="s">
         <v>4</v>
@@ -2347,7 +2341,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B74" t="s">
         <v>4</v>
@@ -2362,7 +2356,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B75" t="s">
         <v>4</v>
@@ -2377,13 +2371,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B76" t="s">
         <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D76">
         <v>7</v>
@@ -2395,7 +2389,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B77" t="s">
         <v>4</v>
@@ -2410,10 +2404,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B78" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D78">
         <v>30</v>
@@ -2425,7 +2419,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B79" t="s">
         <v>4</v>
@@ -2440,10 +2434,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C80" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D80">
         <v>15</v>
@@ -2455,10 +2449,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C81" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D81">
         <v>9</v>
@@ -2470,10 +2464,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C82" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D82">
         <v>19</v>
@@ -2485,10 +2479,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C83" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D83">
         <v>15</v>
@@ -2500,10 +2494,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C84" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D84">
         <v>12</v>
@@ -2515,7 +2509,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D85">
         <v>6</v>
@@ -2527,7 +2521,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B86" t="s">
         <v>4</v>
@@ -2542,7 +2536,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B87" t="s">
         <v>4</v>
@@ -2557,7 +2551,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B88" t="s">
         <v>4</v>
@@ -2572,10 +2566,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B89" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D89">
         <v>10000</v>
@@ -2587,7 +2581,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B90" t="s">
         <v>4</v>
@@ -2602,7 +2596,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B91" t="s">
         <v>4</v>
@@ -2617,7 +2611,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D92">
         <v>300</v>
@@ -2629,7 +2623,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B93" t="s">
         <v>4</v>
@@ -2644,7 +2638,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B94" t="s">
         <v>4</v>
@@ -2659,7 +2653,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D95">
         <v>250000</v>
@@ -2671,7 +2665,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D96">
         <v>105000</v>
@@ -2683,7 +2677,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D97">
         <v>160</v>
@@ -2695,7 +2689,7 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D98">
         <v>55</v>
@@ -2707,7 +2701,7 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D99">
         <v>520</v>
@@ -2719,7 +2713,7 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D100">
         <v>180</v>
@@ -2738,10 +2732,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0BF13DF-524D-4963-BA4B-8BE518E5FDEB}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -2776,34 +2770,26 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74623B11-FD12-4F0E-8F3E-4FE526A20A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0C5B37-33D5-4638-AFF5-12B4378838B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -1219,9 +1219,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A80" sqref="A80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -2227,7 +2227,7 @@
         <v>100</v>
       </c>
       <c r="D66">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E100" si="2">COUNTIF(A:A,A66)</f>
@@ -2242,7 +2242,7 @@
         <v>101</v>
       </c>
       <c r="D67">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E67">
         <f t="shared" si="2"/>
@@ -2257,7 +2257,7 @@
         <v>124</v>
       </c>
       <c r="D68">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E68">
         <f t="shared" si="2"/>
@@ -2734,7 +2734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0BF13DF-524D-4963-BA4B-8BE518E5FDEB}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0C5B37-33D5-4638-AFF5-12B4378838B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1187DE-78CA-4BE4-AB67-838671F4B718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -1221,7 +1221,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1569,7 +1569,7 @@
         <v>16</v>
       </c>
       <c r="D22">
-        <v>73</v>
+        <v>1750</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1187DE-78CA-4BE4-AB67-838671F4B718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4704DEC5-197F-4D57-BAAB-B22EAB8AC116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="153">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -796,6 +796,15 @@
   <si>
     <t>0, 25, 100, 400, 1600, 4200, 8500, 13500, 19000, 25500, 33000, 41500, 50500, 60000</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PetBattle01Time10</t>
+  </si>
+  <si>
+    <t>PetBattle02Time10</t>
+  </si>
+  <si>
+    <t>PetBattle03Time10</t>
   </si>
 </sst>
 </file>
@@ -1217,11 +1226,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1267,7 +1276,7 @@
         <v>600</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E33" si="0">COUNTIF(A:A,A2)</f>
+        <f>COUNTIF(A:A,A2)</f>
         <v>1</v>
       </c>
       <c r="G2" t="str">
@@ -1286,21 +1295,21 @@
 A29&amp;""":"&amp;VLOOKUP(A29,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A30&amp;""":"&amp;VLOOKUP(A30,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A32&amp;""":"&amp;VLOOKUP(A32,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A56&amp;""":"&amp;VLOOKUP(A56,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A72&amp;""":"&amp;VLOOKUP(A72,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A73&amp;""":"&amp;VLOOKUP(A73,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A74&amp;""":"&amp;VLOOKUP(A74,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A59&amp;""":"&amp;VLOOKUP(A59,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A75&amp;""":"&amp;VLOOKUP(A75,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A76&amp;""":"&amp;VLOOKUP(A76,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A77&amp;""":"&amp;VLOOKUP(A77,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A78&amp;""":"&amp;VLOOKUP(A78,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A79&amp;""":"&amp;VLOOKUP(A79,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A86&amp;""":"&amp;VLOOKUP(A86,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A87&amp;""":"&amp;VLOOKUP(A87,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A88&amp;""":"&amp;VLOOKUP(A88,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A80&amp;""":"&amp;VLOOKUP(A80,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A82&amp;""":"&amp;VLOOKUP(A82,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A89&amp;""":"&amp;VLOOKUP(A89,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A90&amp;""":"&amp;VLOOKUP(A90,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A91&amp;""":"&amp;VLOOKUP(A91,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A93&amp;""":"&amp;VLOOKUP(A93,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A94&amp;""":"&amp;VLOOKUP(A94,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
+A94&amp;""":"&amp;VLOOKUP(A94,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A96&amp;""":"&amp;VLOOKUP(A96,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A97&amp;""":"&amp;VLOOKUP(A97,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
         <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":240,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"MaxPetCountStep":9,"FortuneWheelGolden":10,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"AnalysisBoostRate":3,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"InvincibleTime10":6,"TrapDamage10":10,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750}</v>
       </c>
@@ -1316,7 +1325,7 @@
         <v>400</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A3)</f>
         <v>1</v>
       </c>
     </row>
@@ -1328,7 +1337,7 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A4)</f>
         <v>1</v>
       </c>
     </row>
@@ -1341,7 +1350,7 @@
         <v>192</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A5)</f>
         <v>1</v>
       </c>
     </row>
@@ -1353,7 +1362,7 @@
         <v>960</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A6)</f>
         <v>1</v>
       </c>
     </row>
@@ -1365,7 +1374,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A7)</f>
         <v>1</v>
       </c>
     </row>
@@ -1377,7 +1386,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A8)</f>
         <v>1</v>
       </c>
     </row>
@@ -1389,7 +1398,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A9)</f>
         <v>1</v>
       </c>
     </row>
@@ -1404,7 +1413,7 @@
         <v>10</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A10)</f>
         <v>1</v>
       </c>
     </row>
@@ -1419,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A11)</f>
         <v>1</v>
       </c>
     </row>
@@ -1434,7 +1443,7 @@
         <v>2</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A12)</f>
         <v>1</v>
       </c>
     </row>
@@ -1449,7 +1458,7 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A13)</f>
         <v>1</v>
       </c>
     </row>
@@ -1464,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A14)</f>
         <v>1</v>
       </c>
     </row>
@@ -1479,7 +1488,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A15)</f>
         <v>1</v>
       </c>
     </row>
@@ -1494,7 +1503,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A16)</f>
         <v>1</v>
       </c>
     </row>
@@ -1506,7 +1515,7 @@
         <v>90</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A17)</f>
         <v>1</v>
       </c>
     </row>
@@ -1518,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A18)</f>
         <v>1</v>
       </c>
     </row>
@@ -1530,7 +1539,7 @@
         <v>50</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A19)</f>
         <v>1</v>
       </c>
     </row>
@@ -1545,7 +1554,7 @@
         <v>240</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A20)</f>
         <v>1</v>
       </c>
     </row>
@@ -1560,7 +1569,7 @@
         <v>1500</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A21)</f>
         <v>1</v>
       </c>
     </row>
@@ -1572,7 +1581,7 @@
         <v>1750</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A22)</f>
         <v>1</v>
       </c>
     </row>
@@ -1585,7 +1594,7 @@
         <v>259200</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A23)</f>
         <v>1</v>
       </c>
     </row>
@@ -1597,7 +1606,7 @@
         <v>5</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A24)</f>
         <v>1</v>
       </c>
     </row>
@@ -1609,7 +1618,7 @@
         <v>1000</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A25)</f>
         <v>1</v>
       </c>
     </row>
@@ -1621,7 +1630,7 @@
         <v>5</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A26)</f>
         <v>1</v>
       </c>
     </row>
@@ -1636,7 +1645,7 @@
         <v>10</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A27)</f>
         <v>1</v>
       </c>
     </row>
@@ -1654,7 +1663,7 @@
         <v>17</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A28)</f>
         <v>1</v>
       </c>
     </row>
@@ -1672,7 +1681,7 @@
         <v>30</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A29)</f>
         <v>1</v>
       </c>
     </row>
@@ -1690,7 +1699,7 @@
         <v>300</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A30)</f>
         <v>1</v>
       </c>
     </row>
@@ -1708,7 +1717,7 @@
         <v>50</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A31)</f>
         <v>1</v>
       </c>
     </row>
@@ -1726,7 +1735,7 @@
         <v>9</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A32)</f>
         <v>1</v>
       </c>
     </row>
@@ -1743,7 +1752,7 @@
         <v>1209600</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A33)</f>
         <v>1</v>
       </c>
     </row>
@@ -1761,7 +1770,7 @@
         <v>3</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34:E65" si="1">COUNTIF(A:A,A34)</f>
+        <f>COUNTIF(A:A,A34)</f>
         <v>1</v>
       </c>
     </row>
@@ -1777,7 +1786,7 @@
         <v>2419200</v>
       </c>
       <c r="E35">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A35)</f>
         <v>1</v>
       </c>
     </row>
@@ -1792,7 +1801,7 @@
         <v>25</v>
       </c>
       <c r="E36">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A36)</f>
         <v>1</v>
       </c>
     </row>
@@ -1807,7 +1816,7 @@
         <v>95</v>
       </c>
       <c r="E37">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A37)</f>
         <v>1</v>
       </c>
     </row>
@@ -1822,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A38)</f>
         <v>1</v>
       </c>
     </row>
@@ -1837,7 +1846,7 @@
         <v>60</v>
       </c>
       <c r="E39">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A39)</f>
         <v>1</v>
       </c>
     </row>
@@ -1852,7 +1861,7 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A40)</f>
         <v>1</v>
       </c>
     </row>
@@ -1864,7 +1873,7 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A41)</f>
         <v>1</v>
       </c>
     </row>
@@ -1882,7 +1891,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A42)</f>
         <v>1</v>
       </c>
     </row>
@@ -1900,7 +1909,7 @@
         <v>10</v>
       </c>
       <c r="E43">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A43)</f>
         <v>1</v>
       </c>
     </row>
@@ -1915,7 +1924,7 @@
         <v>86400</v>
       </c>
       <c r="E44">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A44)</f>
         <v>1</v>
       </c>
     </row>
@@ -1930,7 +1939,7 @@
         <v>172800</v>
       </c>
       <c r="E45">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A45)</f>
         <v>1</v>
       </c>
     </row>
@@ -1945,7 +1954,7 @@
         <v>140</v>
       </c>
       <c r="E46">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A46)</f>
         <v>1</v>
       </c>
     </row>
@@ -1957,7 +1966,7 @@
         <v>130</v>
       </c>
       <c r="E47">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A47)</f>
         <v>1</v>
       </c>
     </row>
@@ -1969,7 +1978,7 @@
         <v>120</v>
       </c>
       <c r="E48">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A48)</f>
         <v>1</v>
       </c>
     </row>
@@ -1981,7 +1990,7 @@
         <v>110</v>
       </c>
       <c r="E49">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A49)</f>
         <v>1</v>
       </c>
     </row>
@@ -1993,7 +2002,7 @@
         <v>100</v>
       </c>
       <c r="E50">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A50)</f>
         <v>1</v>
       </c>
     </row>
@@ -2008,7 +2017,7 @@
         <v>70</v>
       </c>
       <c r="E51">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A51)</f>
         <v>1</v>
       </c>
     </row>
@@ -2020,7 +2029,7 @@
         <v>130</v>
       </c>
       <c r="E52">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A52)</f>
         <v>1</v>
       </c>
     </row>
@@ -2035,178 +2044,169 @@
         <v>3</v>
       </c>
       <c r="E53">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A53)</f>
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" t="s">
-        <v>49</v>
+      <c r="A54" t="s">
+        <v>150</v>
       </c>
       <c r="D54">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="E54">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E54:E56" si="0">COUNTIF(A:A,A54)</f>
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" t="s">
-        <v>49</v>
+      <c r="A55" t="s">
+        <v>151</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" t="s">
-        <v>4</v>
+      <c r="A56" t="s">
+        <v>152</v>
       </c>
       <c r="D56">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B57" t="s">
         <v>49</v>
       </c>
       <c r="D57">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="E57">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A57)</f>
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B58" t="s">
         <v>49</v>
       </c>
       <c r="D58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E58">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A58)</f>
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="D59">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E59">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A59)</f>
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="D60">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E60">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A60)</f>
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="D61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E61">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A61)</f>
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B62" t="s">
         <v>92</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E62">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A62)</f>
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B63" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E63">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A63)</f>
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="B64" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E64">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A64)</f>
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="B65" t="s">
         <v>92</v>
@@ -2215,511 +2215,556 @@
         <v>2</v>
       </c>
       <c r="E65">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A65)</f>
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="2" t="s">
-        <v>97</v>
+      <c r="A66" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="B66" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="D66">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E100" si="2">COUNTIF(A:A,A66)</f>
+        <f>COUNTIF(A:A,A66)</f>
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="2" t="s">
-        <v>98</v>
+      <c r="A67" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="B67" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="D67">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E67">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A67)</f>
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="2" t="s">
-        <v>123</v>
+      <c r="A68" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="B68" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="D68">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E68">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A68)</f>
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B69" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="D69">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E69">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A69)</f>
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B70" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D70">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E70">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A70)</f>
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="B71" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="D71">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E71">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A71)</f>
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B72" t="s">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="D72">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E72">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A72)</f>
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B73" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="D73">
-        <v>500</v>
+        <v>15</v>
       </c>
       <c r="E73">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A73)</f>
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B74" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="D74">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="E74">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A74)</f>
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B75" t="s">
         <v>4</v>
       </c>
       <c r="D75">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E75">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A75)</f>
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B76" t="s">
         <v>4</v>
       </c>
-      <c r="C76" t="s">
-        <v>112</v>
-      </c>
       <c r="D76">
-        <v>7</v>
+        <v>500</v>
       </c>
       <c r="E76">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A76)</f>
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B77" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77">
+        <v>120</v>
+      </c>
+      <c r="E77">
+        <f>COUNTIF(A:A,A77)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78">
+        <v>8</v>
+      </c>
+      <c r="E78">
+        <f>COUNTIF(A:A,A78)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" t="s">
+        <v>112</v>
+      </c>
+      <c r="D79">
+        <v>7</v>
+      </c>
+      <c r="E79">
+        <f>COUNTIF(A:A,A79)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B77" t="s">
-        <v>4</v>
-      </c>
-      <c r="D77">
+      <c r="B80" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80">
         <v>28</v>
       </c>
-      <c r="E77">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="1" t="s">
+      <c r="E80">
+        <f>COUNTIF(A:A,A80)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B81" t="s">
         <v>49</v>
       </c>
-      <c r="D78">
+      <c r="D81">
         <v>30</v>
       </c>
-      <c r="E78">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="1" t="s">
+      <c r="E81">
+        <f>COUNTIF(A:A,A81)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D79">
+      <c r="B82" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82">
         <v>3</v>
       </c>
-      <c r="E79">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="4" t="s">
+      <c r="E82">
+        <f>COUNTIF(A:A,A82)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C83" t="s">
         <v>67</v>
-      </c>
-      <c r="D80">
-        <v>15</v>
-      </c>
-      <c r="E80">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C81" t="s">
-        <v>66</v>
-      </c>
-      <c r="D81">
-        <v>9</v>
-      </c>
-      <c r="E81">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C82" t="s">
-        <v>70</v>
-      </c>
-      <c r="D82">
-        <v>19</v>
-      </c>
-      <c r="E82">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C83" t="s">
-        <v>68</v>
       </c>
       <c r="D83">
         <v>15</v>
       </c>
       <c r="E83">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A83)</f>
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C84" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D84">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E84">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A84)</f>
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C85" t="s">
+        <v>70</v>
+      </c>
+      <c r="D85">
+        <v>19</v>
+      </c>
+      <c r="E85">
+        <f>COUNTIF(A:A,A85)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86">
+        <v>15</v>
+      </c>
+      <c r="E86">
+        <f>COUNTIF(A:A,A86)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C87" t="s">
+        <v>69</v>
+      </c>
+      <c r="D87">
+        <v>12</v>
+      </c>
+      <c r="E87">
+        <f>COUNTIF(A:A,A87)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D85">
+      <c r="D88">
         <v>6</v>
       </c>
-      <c r="E85">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B86" t="s">
-        <v>4</v>
-      </c>
-      <c r="D86">
-        <v>30</v>
-      </c>
-      <c r="E86">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B87" t="s">
-        <v>4</v>
-      </c>
-      <c r="D87">
-        <v>1200</v>
-      </c>
-      <c r="E87">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B88" t="s">
-        <v>4</v>
-      </c>
-      <c r="D88">
-        <v>3330</v>
-      </c>
       <c r="E88">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A88)</f>
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="1" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="B89" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="D89">
-        <v>10000</v>
+        <v>30</v>
       </c>
       <c r="E89">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A89)</f>
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="1" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="B90" t="s">
         <v>4</v>
       </c>
       <c r="D90">
-        <v>6</v>
+        <v>1200</v>
       </c>
       <c r="E90">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A90)</f>
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="1" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="B91" t="s">
         <v>4</v>
       </c>
       <c r="D91">
-        <v>10</v>
+        <v>3330</v>
       </c>
       <c r="E91">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A91)</f>
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="4" t="s">
-        <v>119</v>
+      <c r="A92" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B92" t="s">
+        <v>49</v>
       </c>
       <c r="D92">
-        <v>300</v>
+        <v>10000</v>
       </c>
       <c r="E92">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A92)</f>
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B93" t="s">
         <v>4</v>
       </c>
       <c r="D93">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E93">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A93)</f>
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B94" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94">
+        <v>10</v>
+      </c>
+      <c r="E94">
+        <f>COUNTIF(A:A,A94)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D95">
+        <v>300</v>
+      </c>
+      <c r="E95">
+        <f>COUNTIF(A:A,A95)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B96" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96">
+        <v>5</v>
+      </c>
+      <c r="E96">
+        <f>COUNTIF(A:A,A96)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B94" t="s">
-        <v>4</v>
-      </c>
-      <c r="D94">
+      <c r="B97" t="s">
+        <v>4</v>
+      </c>
+      <c r="D97">
         <v>1750</v>
       </c>
-      <c r="E94">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" t="s">
-        <v>141</v>
-      </c>
-      <c r="D95">
-        <v>250000</v>
-      </c>
-      <c r="E95">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" t="s">
-        <v>142</v>
-      </c>
-      <c r="D96">
-        <v>105000</v>
-      </c>
-      <c r="E96">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" t="s">
-        <v>143</v>
-      </c>
-      <c r="D97">
-        <v>160</v>
-      </c>
       <c r="E97">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A97)</f>
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D98">
-        <v>55</v>
+        <v>250000</v>
       </c>
       <c r="E98">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A98)</f>
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D99">
-        <v>520</v>
+        <v>105000</v>
       </c>
       <c r="E99">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A99)</f>
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
+        <v>143</v>
+      </c>
+      <c r="D100">
+        <v>160</v>
+      </c>
+      <c r="E100">
+        <f>COUNTIF(A:A,A100)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>144</v>
+      </c>
+      <c r="D101">
+        <v>55</v>
+      </c>
+      <c r="E101">
+        <f>COUNTIF(A:A,A101)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>145</v>
+      </c>
+      <c r="D102">
+        <v>520</v>
+      </c>
+      <c r="E102">
+        <f>COUNTIF(A:A,A102)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
         <v>146</v>
       </c>
-      <c r="D100">
+      <c r="D103">
         <v>180</v>
       </c>
-      <c r="E100">
-        <f t="shared" si="2"/>
+      <c r="E103">
+        <f>COUNTIF(A:A,A103)</f>
         <v>1</v>
       </c>
     </row>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4704DEC5-197F-4D57-BAAB-B22EAB8AC116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2336CD-18F2-496E-B9FA-A02C8942C4F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="154">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -805,6 +805,10 @@
   </si>
   <si>
     <t>PetBattle03Time10</t>
+  </si>
+  <si>
+    <t>RobotDefenseOn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1226,11 +1230,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1276,7 +1280,7 @@
         <v>600</v>
       </c>
       <c r="E2">
-        <f>COUNTIF(A:A,A2)</f>
+        <f t="shared" ref="E2:E33" si="0">COUNTIF(A:A,A2)</f>
         <v>1</v>
       </c>
       <c r="G2" t="str">
@@ -1325,7 +1329,7 @@
         <v>400</v>
       </c>
       <c r="E3">
-        <f>COUNTIF(A:A,A3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1337,7 +1341,7 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <f>COUNTIF(A:A,A4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1350,7 +1354,7 @@
         <v>192</v>
       </c>
       <c r="E5">
-        <f>COUNTIF(A:A,A5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1362,7 +1366,7 @@
         <v>960</v>
       </c>
       <c r="E6">
-        <f>COUNTIF(A:A,A6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1374,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <f>COUNTIF(A:A,A7)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1386,7 +1390,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <f>COUNTIF(A:A,A8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1398,7 +1402,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <f>COUNTIF(A:A,A9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1413,7 +1417,7 @@
         <v>10</v>
       </c>
       <c r="E10">
-        <f>COUNTIF(A:A,A10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1428,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <f>COUNTIF(A:A,A11)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1443,7 +1447,7 @@
         <v>2</v>
       </c>
       <c r="E12">
-        <f>COUNTIF(A:A,A12)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1458,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <f>COUNTIF(A:A,A13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1473,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <f>COUNTIF(A:A,A14)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1488,7 +1492,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <f>COUNTIF(A:A,A15)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1503,7 +1507,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <f>COUNTIF(A:A,A16)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1515,7 +1519,7 @@
         <v>90</v>
       </c>
       <c r="E17">
-        <f>COUNTIF(A:A,A17)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1527,7 +1531,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <f>COUNTIF(A:A,A18)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1539,7 +1543,7 @@
         <v>50</v>
       </c>
       <c r="E19">
-        <f>COUNTIF(A:A,A19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1554,7 +1558,7 @@
         <v>240</v>
       </c>
       <c r="E20">
-        <f>COUNTIF(A:A,A20)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1569,7 +1573,7 @@
         <v>1500</v>
       </c>
       <c r="E21">
-        <f>COUNTIF(A:A,A21)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1581,7 +1585,7 @@
         <v>1750</v>
       </c>
       <c r="E22">
-        <f>COUNTIF(A:A,A22)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1594,7 +1598,7 @@
         <v>259200</v>
       </c>
       <c r="E23">
-        <f>COUNTIF(A:A,A23)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1606,7 +1610,7 @@
         <v>5</v>
       </c>
       <c r="E24">
-        <f>COUNTIF(A:A,A24)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1618,7 +1622,7 @@
         <v>1000</v>
       </c>
       <c r="E25">
-        <f>COUNTIF(A:A,A25)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1630,7 +1634,7 @@
         <v>5</v>
       </c>
       <c r="E26">
-        <f>COUNTIF(A:A,A26)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1645,7 +1649,7 @@
         <v>10</v>
       </c>
       <c r="E27">
-        <f>COUNTIF(A:A,A27)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1663,7 +1667,7 @@
         <v>17</v>
       </c>
       <c r="E28">
-        <f>COUNTIF(A:A,A28)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1681,7 +1685,7 @@
         <v>30</v>
       </c>
       <c r="E29">
-        <f>COUNTIF(A:A,A29)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1699,7 +1703,7 @@
         <v>300</v>
       </c>
       <c r="E30">
-        <f>COUNTIF(A:A,A30)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1717,7 +1721,7 @@
         <v>50</v>
       </c>
       <c r="E31">
-        <f>COUNTIF(A:A,A31)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1735,7 +1739,7 @@
         <v>9</v>
       </c>
       <c r="E32">
-        <f>COUNTIF(A:A,A32)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1752,7 +1756,7 @@
         <v>1209600</v>
       </c>
       <c r="E33">
-        <f>COUNTIF(A:A,A33)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1770,7 +1774,7 @@
         <v>3</v>
       </c>
       <c r="E34">
-        <f>COUNTIF(A:A,A34)</f>
+        <f t="shared" ref="E34:E53" si="1">COUNTIF(A:A,A34)</f>
         <v>1</v>
       </c>
     </row>
@@ -1786,7 +1790,7 @@
         <v>2419200</v>
       </c>
       <c r="E35">
-        <f>COUNTIF(A:A,A35)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1801,7 +1805,7 @@
         <v>25</v>
       </c>
       <c r="E36">
-        <f>COUNTIF(A:A,A36)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1816,7 +1820,7 @@
         <v>95</v>
       </c>
       <c r="E37">
-        <f>COUNTIF(A:A,A37)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1831,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <f>COUNTIF(A:A,A38)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1846,7 +1850,7 @@
         <v>60</v>
       </c>
       <c r="E39">
-        <f>COUNTIF(A:A,A39)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1861,7 +1865,7 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <f>COUNTIF(A:A,A40)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1873,7 +1877,7 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <f>COUNTIF(A:A,A41)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1891,7 +1895,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <f>COUNTIF(A:A,A42)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1909,7 +1913,7 @@
         <v>10</v>
       </c>
       <c r="E43">
-        <f>COUNTIF(A:A,A43)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1924,7 +1928,7 @@
         <v>86400</v>
       </c>
       <c r="E44">
-        <f>COUNTIF(A:A,A44)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1939,7 +1943,7 @@
         <v>172800</v>
       </c>
       <c r="E45">
-        <f>COUNTIF(A:A,A45)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1954,7 +1958,7 @@
         <v>140</v>
       </c>
       <c r="E46">
-        <f>COUNTIF(A:A,A46)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1966,7 +1970,7 @@
         <v>130</v>
       </c>
       <c r="E47">
-        <f>COUNTIF(A:A,A47)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1978,7 +1982,7 @@
         <v>120</v>
       </c>
       <c r="E48">
-        <f>COUNTIF(A:A,A48)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1990,7 +1994,7 @@
         <v>110</v>
       </c>
       <c r="E49">
-        <f>COUNTIF(A:A,A49)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2002,7 +2006,7 @@
         <v>100</v>
       </c>
       <c r="E50">
-        <f>COUNTIF(A:A,A50)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2017,7 +2021,7 @@
         <v>70</v>
       </c>
       <c r="E51">
-        <f>COUNTIF(A:A,A51)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2029,7 +2033,7 @@
         <v>130</v>
       </c>
       <c r="E52">
-        <f>COUNTIF(A:A,A52)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2044,7 +2048,7 @@
         <v>3</v>
       </c>
       <c r="E53">
-        <f>COUNTIF(A:A,A53)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2056,7 +2060,7 @@
         <v>50</v>
       </c>
       <c r="E54">
-        <f t="shared" ref="E54:E56" si="0">COUNTIF(A:A,A54)</f>
+        <f t="shared" ref="E54:E56" si="2">COUNTIF(A:A,A54)</f>
         <v>1</v>
       </c>
     </row>
@@ -2068,7 +2072,7 @@
         <v>40</v>
       </c>
       <c r="E55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2080,7 +2084,7 @@
         <v>30</v>
       </c>
       <c r="E56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2095,7 +2099,7 @@
         <v>200</v>
       </c>
       <c r="E57">
-        <f>COUNTIF(A:A,A57)</f>
+        <f t="shared" ref="E57:E104" si="3">COUNTIF(A:A,A57)</f>
         <v>1</v>
       </c>
     </row>
@@ -2110,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="E58">
-        <f>COUNTIF(A:A,A58)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2125,7 +2129,7 @@
         <v>10</v>
       </c>
       <c r="E59">
-        <f>COUNTIF(A:A,A59)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2140,7 +2144,7 @@
         <v>8</v>
       </c>
       <c r="E60">
-        <f>COUNTIF(A:A,A60)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2155,7 +2159,7 @@
         <v>3</v>
       </c>
       <c r="E61">
-        <f>COUNTIF(A:A,A61)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2170,7 +2174,7 @@
         <v>4</v>
       </c>
       <c r="E62">
-        <f>COUNTIF(A:A,A62)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2185,7 +2189,7 @@
         <v>4</v>
       </c>
       <c r="E63">
-        <f>COUNTIF(A:A,A63)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2200,7 +2204,7 @@
         <v>4</v>
       </c>
       <c r="E64">
-        <f>COUNTIF(A:A,A64)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2215,7 +2219,7 @@
         <v>2</v>
       </c>
       <c r="E65">
-        <f>COUNTIF(A:A,A65)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2230,7 +2234,7 @@
         <v>2</v>
       </c>
       <c r="E66">
-        <f>COUNTIF(A:A,A66)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2245,7 +2249,7 @@
         <v>2</v>
       </c>
       <c r="E67">
-        <f>COUNTIF(A:A,A67)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2260,7 +2264,7 @@
         <v>2</v>
       </c>
       <c r="E68">
-        <f>COUNTIF(A:A,A68)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2275,7 +2279,7 @@
         <v>16</v>
       </c>
       <c r="E69">
-        <f>COUNTIF(A:A,A69)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2290,7 +2294,7 @@
         <v>16</v>
       </c>
       <c r="E70">
-        <f>COUNTIF(A:A,A70)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2305,7 +2309,7 @@
         <v>16</v>
       </c>
       <c r="E71">
-        <f>COUNTIF(A:A,A71)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2320,7 +2324,7 @@
         <v>50</v>
       </c>
       <c r="E72">
-        <f>COUNTIF(A:A,A72)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2335,7 +2339,7 @@
         <v>15</v>
       </c>
       <c r="E73">
-        <f>COUNTIF(A:A,A73)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2350,7 +2354,7 @@
         <v>3</v>
       </c>
       <c r="E74">
-        <f>COUNTIF(A:A,A74)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2365,7 +2369,7 @@
         <v>5</v>
       </c>
       <c r="E75">
-        <f>COUNTIF(A:A,A75)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2380,7 +2384,7 @@
         <v>500</v>
       </c>
       <c r="E76">
-        <f>COUNTIF(A:A,A76)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2395,7 +2399,7 @@
         <v>120</v>
       </c>
       <c r="E77">
-        <f>COUNTIF(A:A,A77)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2410,7 +2414,7 @@
         <v>8</v>
       </c>
       <c r="E78">
-        <f>COUNTIF(A:A,A78)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2428,7 +2432,7 @@
         <v>7</v>
       </c>
       <c r="E79">
-        <f>COUNTIF(A:A,A79)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2443,7 +2447,7 @@
         <v>28</v>
       </c>
       <c r="E80">
-        <f>COUNTIF(A:A,A80)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2458,7 +2462,7 @@
         <v>30</v>
       </c>
       <c r="E81">
-        <f>COUNTIF(A:A,A81)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2473,7 +2477,7 @@
         <v>3</v>
       </c>
       <c r="E82">
-        <f>COUNTIF(A:A,A82)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2488,7 +2492,7 @@
         <v>15</v>
       </c>
       <c r="E83">
-        <f>COUNTIF(A:A,A83)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2503,7 +2507,7 @@
         <v>9</v>
       </c>
       <c r="E84">
-        <f>COUNTIF(A:A,A84)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2518,7 +2522,7 @@
         <v>19</v>
       </c>
       <c r="E85">
-        <f>COUNTIF(A:A,A85)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2533,7 +2537,7 @@
         <v>15</v>
       </c>
       <c r="E86">
-        <f>COUNTIF(A:A,A86)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2548,7 +2552,7 @@
         <v>12</v>
       </c>
       <c r="E87">
-        <f>COUNTIF(A:A,A87)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2560,7 +2564,7 @@
         <v>6</v>
       </c>
       <c r="E88">
-        <f>COUNTIF(A:A,A88)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2575,7 +2579,7 @@
         <v>30</v>
       </c>
       <c r="E89">
-        <f>COUNTIF(A:A,A89)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2590,7 +2594,7 @@
         <v>1200</v>
       </c>
       <c r="E90">
-        <f>COUNTIF(A:A,A90)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2605,7 +2609,7 @@
         <v>3330</v>
       </c>
       <c r="E91">
-        <f>COUNTIF(A:A,A91)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2620,7 +2624,7 @@
         <v>10000</v>
       </c>
       <c r="E92">
-        <f>COUNTIF(A:A,A92)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2635,7 +2639,7 @@
         <v>6</v>
       </c>
       <c r="E93">
-        <f>COUNTIF(A:A,A93)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2650,7 +2654,7 @@
         <v>10</v>
       </c>
       <c r="E94">
-        <f>COUNTIF(A:A,A94)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2662,7 +2666,7 @@
         <v>300</v>
       </c>
       <c r="E95">
-        <f>COUNTIF(A:A,A95)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2677,7 +2681,7 @@
         <v>5</v>
       </c>
       <c r="E96">
-        <f>COUNTIF(A:A,A96)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2692,7 +2696,7 @@
         <v>1750</v>
       </c>
       <c r="E97">
-        <f>COUNTIF(A:A,A97)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2704,7 +2708,7 @@
         <v>250000</v>
       </c>
       <c r="E98">
-        <f>COUNTIF(A:A,A98)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2716,7 +2720,7 @@
         <v>105000</v>
       </c>
       <c r="E99">
-        <f>COUNTIF(A:A,A99)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2728,7 +2732,7 @@
         <v>160</v>
       </c>
       <c r="E100">
-        <f>COUNTIF(A:A,A100)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2740,7 +2744,7 @@
         <v>55</v>
       </c>
       <c r="E101">
-        <f>COUNTIF(A:A,A101)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2752,7 +2756,7 @@
         <v>520</v>
       </c>
       <c r="E102">
-        <f>COUNTIF(A:A,A102)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2764,7 +2768,19 @@
         <v>180</v>
       </c>
       <c r="E103">
-        <f>COUNTIF(A:A,A103)</f>
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>153</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2336CD-18F2-496E-B9FA-A02C8942C4F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9726BA-5698-4EC1-A940-F749C0195EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="155">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -808,6 +808,10 @@
   </si>
   <si>
     <t>RobotDefenseOn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RobotDefenseDailyCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1230,11 +1234,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A104" sqref="A104"/>
+      <selection pane="bottomLeft" activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -2099,7 +2103,7 @@
         <v>200</v>
       </c>
       <c r="E57">
-        <f t="shared" ref="E57:E104" si="3">COUNTIF(A:A,A57)</f>
+        <f t="shared" ref="E57:E105" si="3">COUNTIF(A:A,A57)</f>
         <v>1</v>
       </c>
     </row>
@@ -2780,6 +2784,18 @@
         <v>1</v>
       </c>
       <c r="E104">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>154</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9726BA-5698-4EC1-A940-F749C0195EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB74A12-AA0C-46B9-93F2-51588019C59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="156">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -812,6 +812,10 @@
   </si>
   <si>
     <t>RobotDefenseDailyCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventpointEnergy10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1234,11 +1238,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A93" sqref="A93"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1317,9 +1321,10 @@
 A93&amp;""":"&amp;VLOOKUP(A93,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A94&amp;""":"&amp;VLOOKUP(A94,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A96&amp;""":"&amp;VLOOKUP(A96,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
-A97&amp;""":"&amp;VLOOKUP(A97,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
+A97&amp;""":"&amp;VLOOKUP(A97,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
+A106&amp;""":"&amp;VLOOKUP(A106,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
-        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":240,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"MaxPetCountStep":9,"FortuneWheelGolden":10,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"AnalysisBoostRate":3,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"InvincibleTime10":6,"TrapDamage10":10,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750}</v>
+        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":240,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"MaxPetCountStep":9,"FortuneWheelGolden":10,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"AnalysisBoostRate":3,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"InvincibleTime10":6,"TrapDamage10":10,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750,"EventpointEnergy10":15}</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2103,7 +2108,7 @@
         <v>200</v>
       </c>
       <c r="E57">
-        <f t="shared" ref="E57:E105" si="3">COUNTIF(A:A,A57)</f>
+        <f t="shared" ref="E57:E106" si="3">COUNTIF(A:A,A57)</f>
         <v>1</v>
       </c>
     </row>
@@ -2796,6 +2801,21 @@
         <v>1</v>
       </c>
       <c r="E105">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B106" t="s">
+        <v>4</v>
+      </c>
+      <c r="D106">
+        <v>15</v>
+      </c>
+      <c r="E106">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB74A12-AA0C-46B9-93F2-51588019C59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C6E3ED-E6BF-4FB8-96EE-8B3F93B5C781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -1241,8 +1241,8 @@
   <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -2672,7 +2672,7 @@
         <v>119</v>
       </c>
       <c r="D95">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E95">
         <f t="shared" si="3"/>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C6E3ED-E6BF-4FB8-96EE-8B3F93B5C781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECEB7E3-5535-446F-A3AC-20078F0DB802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -1241,8 +1241,8 @@
   <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A95" sqref="A95"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1324,7 +1324,7 @@
 A97&amp;""":"&amp;VLOOKUP(A97,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A106&amp;""":"&amp;VLOOKUP(A106,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
-        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":240,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"MaxPetCountStep":9,"FortuneWheelGolden":10,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"AnalysisBoostRate":3,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"InvincibleTime10":6,"TrapDamage10":10,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750,"EventpointEnergy10":15}</v>
+        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":240,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"MaxPetCountStep":9,"FortuneWheelGolden":10,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"AnalysisBoostRate":3,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"InvincibleTime10":6,"TrapDamage10":10,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"EventpointEnergy10":15}</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2687,7 +2687,7 @@
         <v>4</v>
       </c>
       <c r="D96">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E96">
         <f t="shared" si="3"/>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECEB7E3-5535-446F-A3AC-20078F0DB802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017B622E-D5A6-443A-B623-7254E4BCD7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="158">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -816,6 +816,14 @@
   </si>
   <si>
     <t>EventpointEnergy10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jason화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1238,11 +1246,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:G106"/>
+  <dimension ref="A1:I106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1250,11 +1258,11 @@
     <col min="1" max="1" width="32.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.125" customWidth="1" outlineLevel="1"/>
     <col min="3" max="3" width="29.75" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="7" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" customHeight="1">
+    <row r="1" spans="1:9" ht="27" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1270,11 +1278,17 @@
       <c r="E1" t="s">
         <v>93</v>
       </c>
+      <c r="F1" t="s">
+        <v>156</v>
+      </c>
       <c r="G1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1291,7 +1305,15 @@
         <f t="shared" ref="E2:E33" si="0">COUNTIF(A:A,A2)</f>
         <v>1</v>
       </c>
+      <c r="F2" t="str">
+        <f ca="1">IF(ROW()=2,G2,OFFSET(F2,-1,0)&amp;IF(LEN(G2)=0,"",","&amp;G2))</f>
+        <v>"MaxPlayerLevel":600</v>
+      </c>
       <c r="G2" t="str">
+        <f>""""&amp;A2&amp;""":"&amp;D2</f>
+        <v>"MaxPlayerLevel":600</v>
+      </c>
+      <c r="I2" t="str">
         <f>"{"""&amp;
 A2&amp;""":"&amp;VLOOKUP(A2,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A10&amp;""":"&amp;VLOOKUP(A10,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
@@ -1327,7 +1349,7 @@
         <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":240,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"MaxPetCountStep":9,"FortuneWheelGolden":10,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"AnalysisBoostRate":3,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"InvincibleTime10":6,"TrapDamage10":10,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"EventpointEnergy10":15}</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1341,8 +1363,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F66" ca="1" si="1">IF(ROW()=2,G3,OFFSET(F3,-1,0)&amp;IF(LEN(G3)=0,"",","&amp;G3))</f>
+        <v>"MaxPlayerLevel":600,"MaxStage":400</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G11" si="2">""""&amp;A3&amp;""":"&amp;D3</f>
+        <v>"MaxStage":400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
         <v>32</v>
       </c>
@@ -1353,8 +1383,22 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="F4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="2"/>
+        <v>"MaxActorLevel":20</v>
+      </c>
+      <c r="I4" t="str">
+        <f ca="1">"{"&amp;
+IF(LEFT(OFFSET(F1,COUNTA(F:F)-1,0),1)=",",SUBSTITUTE(OFFSET(F1,COUNTA(F:F)-1,0),",","",1),OFFSET(F1,COUNTA(F:F)-1,0))
+&amp;"}"</f>
+        <v>{"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15}</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1366,8 +1410,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="F5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="2"/>
+        <v>"TimeSecToGetOneEnergy":192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>99</v>
       </c>
@@ -1378,8 +1430,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="F6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="2"/>
+        <v>"TimeSecToGetOneTicket":960</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1390,8 +1450,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="F7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="2"/>
+        <v>"SubLevelFightValueLine1":1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1402,8 +1470,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="F8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="2"/>
+        <v>"SubLevelFightValueLine2":2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1414,8 +1490,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="F9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="2"/>
+        <v>"SubLevelFightValueLine3":3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1429,8 +1513,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="F10" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="2"/>
+        <v>"GachaEnergy":10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1444,8 +1536,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="F11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="2"/>
+        <v>"Gacha1Event":1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1459,8 +1559,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="F12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" ref="G12:G75" si="3">""""&amp;A12&amp;""":"&amp;D12</f>
+        <v>"Gacha2Events":2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1474,8 +1582,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="F13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="3"/>
+        <v>"Gacha3Events":5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1489,8 +1605,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="F14" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="3"/>
+        <v>"Gacha1BrokenEnergy":1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1504,8 +1628,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="F15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="3"/>
+        <v>"Gacha2BrokenEnergys":2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1519,8 +1651,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="3"/>
+        <v>"Gacha3BrokenEnergys":3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="4" t="s">
         <v>120</v>
       </c>
@@ -1531,8 +1671,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="3"/>
+        <v>"SummonWeightThreshold100":90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1543,8 +1691,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="3"/>
+        <v>"GoldBoxTurnMin":1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -1555,8 +1711,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="3"/>
+        <v>"GoldBoxTurnMax":50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -1570,8 +1734,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="3"/>
+        <v>"FirstGoldBox":240</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
@@ -1585,8 +1757,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="3"/>
+        <v>"MaxAnalysisLevel":1500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1597,8 +1777,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="3"/>
+        <v>"MaxGuideQuestId":1750</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="5" t="s">
         <v>72</v>
       </c>
@@ -1610,8 +1798,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="3"/>
+        <v>"MaxBrokenGivenTime":259200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="5" t="s">
         <v>73</v>
       </c>
@@ -1622,8 +1818,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="3"/>
+        <v>"MaxBrokenStep":5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
@@ -1634,8 +1838,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="3"/>
+        <v>"MaxTotalSpellLevel":1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1646,8 +1858,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="3"/>
+        <v>"GachaActorMaxTrp":5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -1661,8 +1881,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="3"/>
+        <v>"FastClearJumpStep":10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
@@ -1679,8 +1907,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="3"/>
+        <v>"FastBossClearStartBase":17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
@@ -1697,8 +1933,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="3"/>
+        <v>"FastBossClearEndBase":30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>84</v>
       </c>
@@ -1715,8 +1959,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="3"/>
+        <v>"FastBossClearRateLimit10000":300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="4" t="s">
         <v>126</v>
       </c>
@@ -1733,8 +1985,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="3"/>
+        <v>"FastBossClearLowBase":50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
         <v>53</v>
       </c>
@@ -1751,8 +2011,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="3"/>
+        <v>"MaxPetCountStep":9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="4" t="s">
         <v>87</v>
       </c>
@@ -1768,8 +2036,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="3"/>
+        <v>"TeamPassGivenTime":1209600</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
@@ -1783,11 +2059,19 @@
         <v>3</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34:E53" si="1">COUNTIF(A:A,A34)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <f t="shared" ref="E34:E53" si="4">COUNTIF(A:A,A34)</f>
+        <v>1</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="3"/>
+        <v>"PetDailySearchCount":3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="4" t="s">
         <v>83</v>
       </c>
@@ -1799,11 +2083,19 @@
         <v>2419200</v>
       </c>
       <c r="E35">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="3"/>
+        <v>"PetPassGivenTime":2419200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="4" t="s">
         <v>37</v>
       </c>
@@ -1814,11 +2106,19 @@
         <v>25</v>
       </c>
       <c r="E36">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="3"/>
+        <v>"PetExtraChance":25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="4" t="s">
         <v>38</v>
       </c>
@@ -1829,11 +2129,19 @@
         <v>95</v>
       </c>
       <c r="E37">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="3"/>
+        <v>"PetPassExtraChance":95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="4" t="s">
         <v>80</v>
       </c>
@@ -1844,11 +2152,19 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="3"/>
+        <v>"PetExtraGain":0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="4" t="s">
         <v>78</v>
       </c>
@@ -1859,11 +2175,19 @@
         <v>60</v>
       </c>
       <c r="E39">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="3"/>
+        <v>"PetPassExtraGain":60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1874,11 +2198,19 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="3"/>
+        <v>"PetExtraGainMin":1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -1886,11 +2218,19 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="3"/>
+        <v>"PetExtraGainMax":3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -1904,11 +2244,19 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="3"/>
+        <v>"PetHeartCount":3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -1922,11 +2270,19 @@
         <v>10</v>
       </c>
       <c r="E43">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="3"/>
+        <v>"PetPassHeartCount":10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -1937,11 +2293,19 @@
         <v>86400</v>
       </c>
       <c r="E44">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="3"/>
+        <v>"PetSaleGivenTime":86400</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -1952,11 +2316,19 @@
         <v>172800</v>
       </c>
       <c r="E45">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="3"/>
+        <v>"PetSaleCoolTime":172800</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>128</v>
       </c>
@@ -1967,11 +2339,19 @@
         <v>140</v>
       </c>
       <c r="E46">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="3"/>
+        <v>"Pet1StarAttackRate100":140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>129</v>
       </c>
@@ -1979,11 +2359,19 @@
         <v>130</v>
       </c>
       <c r="E47">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="3"/>
+        <v>"Pet2StarAttackRate100":130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>130</v>
       </c>
@@ -1991,11 +2379,19 @@
         <v>120</v>
       </c>
       <c r="E48">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="3"/>
+        <v>"Pet3StarAttackRate100":120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>131</v>
       </c>
@@ -2003,11 +2399,19 @@
         <v>110</v>
       </c>
       <c r="E49">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="3"/>
+        <v>"Pet4StarAttackRate100":110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>132</v>
       </c>
@@ -2015,11 +2419,19 @@
         <v>100</v>
       </c>
       <c r="E50">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="3"/>
+        <v>"Pet5StarAttackRate100":100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>134</v>
       </c>
@@ -2030,11 +2442,19 @@
         <v>70</v>
       </c>
       <c r="E51">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="3"/>
+        <v>"PetDamageRandomMin100":70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>135</v>
       </c>
@@ -2042,11 +2462,19 @@
         <v>130</v>
       </c>
       <c r="E52">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="3"/>
+        <v>"PetDamageRandomMax100":130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>136</v>
       </c>
@@ -2057,11 +2485,19 @@
         <v>3</v>
       </c>
       <c r="E53">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="3"/>
+        <v>"PetStarDiff100":3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>150</v>
       </c>
@@ -2069,11 +2505,19 @@
         <v>50</v>
       </c>
       <c r="E54">
-        <f t="shared" ref="E54:E56" si="2">COUNTIF(A:A,A54)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <f t="shared" ref="E54:E56" si="5">COUNTIF(A:A,A54)</f>
+        <v>1</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="3"/>
+        <v>"PetBattle01Time10":50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>151</v>
       </c>
@@ -2081,11 +2525,19 @@
         <v>40</v>
       </c>
       <c r="E55">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="3"/>
+        <v>"PetBattle02Time10":40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>152</v>
       </c>
@@ -2093,11 +2545,19 @@
         <v>30</v>
       </c>
       <c r="E56">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="3"/>
+        <v>"PetBattle03Time10":30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
         <v>54</v>
       </c>
@@ -2108,11 +2568,19 @@
         <v>200</v>
       </c>
       <c r="E57">
-        <f t="shared" ref="E57:E106" si="3">COUNTIF(A:A,A57)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <f t="shared" ref="E57:E106" si="6">COUNTIF(A:A,A57)</f>
+        <v>1</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="3"/>
+        <v>"DownloadEnergyReward":200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
         <v>55</v>
       </c>
@@ -2123,11 +2591,19 @@
         <v>1</v>
       </c>
       <c r="E58">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="3"/>
+        <v>"FortuneWheelDailyCount":1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
@@ -2138,11 +2614,19 @@
         <v>10</v>
       </c>
       <c r="E59">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="3"/>
+        <v>"FortuneWheelGolden":10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
         <v>57</v>
       </c>
@@ -2153,11 +2637,19 @@
         <v>8</v>
       </c>
       <c r="E60">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="3"/>
+        <v>"MissionEnergyPet":8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
         <v>58</v>
       </c>
@@ -2168,11 +2660,19 @@
         <v>3</v>
       </c>
       <c r="E61">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="3"/>
+        <v>"MissionEnergyRoulette":3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
         <v>90</v>
       </c>
@@ -2183,11 +2683,19 @@
         <v>4</v>
       </c>
       <c r="E62">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="3"/>
+        <v>"MissionEnergyRushDefense":4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
         <v>91</v>
       </c>
@@ -2198,11 +2706,19 @@
         <v>4</v>
       </c>
       <c r="E63">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="3"/>
+        <v>"MissionEnergyBossDefense":4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
         <v>121</v>
       </c>
@@ -2213,11 +2729,19 @@
         <v>4</v>
       </c>
       <c r="E64">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="3"/>
+        <v>"MissionEnergyGoldDefense":4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
         <v>96</v>
       </c>
@@ -2228,11 +2752,19 @@
         <v>2</v>
       </c>
       <c r="E65">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F65" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="3"/>
+        <v>"MissionEnergyBossBattle":2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
         <v>94</v>
       </c>
@@ -2243,11 +2775,19 @@
         <v>2</v>
       </c>
       <c r="E66">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="3"/>
+        <v>"RushDefenseDailyCount":2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
         <v>95</v>
       </c>
@@ -2258,11 +2798,19 @@
         <v>2</v>
       </c>
       <c r="E67">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F67" t="str">
+        <f t="shared" ref="F67:F106" ca="1" si="7">IF(ROW()=2,G67,OFFSET(F67,-1,0)&amp;IF(LEN(G67)=0,"",","&amp;G67))</f>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="3"/>
+        <v>"BossDefenseDailyCount":2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
         <v>122</v>
       </c>
@@ -2273,11 +2821,19 @@
         <v>2</v>
       </c>
       <c r="E68">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F68" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="3"/>
+        <v>"GoldDefenseDailyCount":2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="2" t="s">
         <v>97</v>
       </c>
@@ -2288,11 +2844,19 @@
         <v>16</v>
       </c>
       <c r="E69">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F69" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="3"/>
+        <v>"MaxRushDefense":16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="2" t="s">
         <v>98</v>
       </c>
@@ -2303,11 +2867,19 @@
         <v>16</v>
       </c>
       <c r="E70">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F70" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="3"/>
+        <v>"MaxBossDefense":16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="2" t="s">
         <v>123</v>
       </c>
@@ -2318,11 +2890,19 @@
         <v>16</v>
       </c>
       <c r="E71">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F71" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="3"/>
+        <v>"MaxGoldDefense":16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="2" t="s">
         <v>104</v>
       </c>
@@ -2333,11 +2913,19 @@
         <v>50</v>
       </c>
       <c r="E72">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F72" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="3"/>
+        <v>"MaxBossBattleXpLevel":50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="2" t="s">
         <v>102</v>
       </c>
@@ -2348,11 +2936,19 @@
         <v>15</v>
       </c>
       <c r="E73">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F73" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="3"/>
+        <v>"MaxBossBattle":15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="2" t="s">
         <v>105</v>
       </c>
@@ -2363,11 +2959,19 @@
         <v>3</v>
       </c>
       <c r="E74">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F74" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="3"/>
+        <v>"BossBattleDailyCount":3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="2" t="s">
         <v>106</v>
       </c>
@@ -2378,11 +2982,19 @@
         <v>5</v>
       </c>
       <c r="E75">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F75" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="3"/>
+        <v>"BossBattleDailyBonusTimes":5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="2" t="s">
         <v>107</v>
       </c>
@@ -2393,11 +3005,19 @@
         <v>500</v>
       </c>
       <c r="E76">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F76" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" ref="G76:G106" si="8">""""&amp;A76&amp;""":"&amp;D76</f>
+        <v>"BossBattleRegenDelay100":500</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="2" t="s">
         <v>108</v>
       </c>
@@ -2408,11 +3028,19 @@
         <v>120</v>
       </c>
       <c r="E77">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F77" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="8"/>
+        <v>"BossBattleRegenTickDelay100":120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="2" t="s">
         <v>109</v>
       </c>
@@ -2423,11 +3051,19 @@
         <v>8</v>
       </c>
       <c r="E78">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F78" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="8"/>
+        <v>"BossBattleRegenHpRatio100":8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="2" t="s">
         <v>111</v>
       </c>
@@ -2441,11 +3077,19 @@
         <v>7</v>
       </c>
       <c r="E79">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F79" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="8"/>
+        <v>"BossBattleXpLevelBonus100":7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="2" t="s">
         <v>110</v>
       </c>
@@ -2456,11 +3100,19 @@
         <v>28</v>
       </c>
       <c r="E80">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F80" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="8"/>
+        <v>"MaxBossBattleDifficulty":28</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
         <v>59</v>
       </c>
@@ -2471,11 +3123,19 @@
         <v>30</v>
       </c>
       <c r="E81">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F81" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="8"/>
+        <v>"DailyGemAmount":30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
         <v>60</v>
       </c>
@@ -2486,11 +3146,19 @@
         <v>3</v>
       </c>
       <c r="E82">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F82" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="8"/>
+        <v>"AnalysisBoostRate":3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="4" t="s">
         <v>61</v>
       </c>
@@ -2501,11 +3169,19 @@
         <v>15</v>
       </c>
       <c r="E83">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F83" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="8"/>
+        <v>"Ev13CountLimit":15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="3" t="s">
         <v>62</v>
       </c>
@@ -2516,11 +3192,19 @@
         <v>9</v>
       </c>
       <c r="E84">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F84" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="8"/>
+        <v>"Ev14CountLimit":9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="3" t="s">
         <v>63</v>
       </c>
@@ -2531,11 +3215,19 @@
         <v>19</v>
       </c>
       <c r="E85">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F85" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="8"/>
+        <v>"Ev15CountLimit":19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="3" t="s">
         <v>64</v>
       </c>
@@ -2546,11 +3238,19 @@
         <v>15</v>
       </c>
       <c r="E86">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F86" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="8"/>
+        <v>"Ev16CountLimit":15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="3" t="s">
         <v>65</v>
       </c>
@@ -2561,11 +3261,19 @@
         <v>12</v>
       </c>
       <c r="E87">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F87" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="8"/>
+        <v>"Ev17CountLimit":12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="3" t="s">
         <v>71</v>
       </c>
@@ -2573,11 +3281,19 @@
         <v>6</v>
       </c>
       <c r="E88">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F88" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6</v>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" si="8"/>
+        <v>"BoostEnergyDivide":6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
         <v>74</v>
       </c>
@@ -2588,11 +3304,19 @@
         <v>30</v>
       </c>
       <c r="E89">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F89" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30</v>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" si="8"/>
+        <v>"AttendanceEarlyEnergy":30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
         <v>75</v>
       </c>
@@ -2603,11 +3327,19 @@
         <v>1200</v>
       </c>
       <c r="E90">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F90" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200</v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" si="8"/>
+        <v>"MinimumStrikeDamageRate10000":1200</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
         <v>76</v>
       </c>
@@ -2618,11 +3350,19 @@
         <v>3330</v>
       </c>
       <c r="E91">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F91" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330</v>
+      </c>
+      <c r="G91" t="str">
+        <f t="shared" si="8"/>
+        <v>"MaximumStrikeDamageRate10000":3330</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
         <v>113</v>
       </c>
@@ -2633,11 +3373,19 @@
         <v>10000</v>
       </c>
       <c r="E92">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F92" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000</v>
+      </c>
+      <c r="G92" t="str">
+        <f t="shared" si="8"/>
+        <v>"BossBattleRefreshPrice":10000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
         <v>117</v>
       </c>
@@ -2648,11 +3396,19 @@
         <v>6</v>
       </c>
       <c r="E93">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F93" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6</v>
+      </c>
+      <c r="G93" t="str">
+        <f t="shared" si="8"/>
+        <v>"InvincibleTime10":6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
         <v>118</v>
       </c>
@@ -2663,11 +3419,19 @@
         <v>10</v>
       </c>
       <c r="E94">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F94" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10</v>
+      </c>
+      <c r="G94" t="str">
+        <f t="shared" si="8"/>
+        <v>"TrapDamage10":10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="4" t="s">
         <v>119</v>
       </c>
@@ -2675,11 +3439,19 @@
         <v>500</v>
       </c>
       <c r="E95">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F95" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500</v>
+      </c>
+      <c r="G95" t="str">
+        <f t="shared" si="8"/>
+        <v>"MaxPointShopAttackLevel":500</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
         <v>125</v>
       </c>
@@ -2690,11 +3462,19 @@
         <v>7</v>
       </c>
       <c r="E96">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F96" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7</v>
+      </c>
+      <c r="G96" t="str">
+        <f t="shared" si="8"/>
+        <v>"SubQuestGoldDoubleDiamond":7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
         <v>140</v>
       </c>
@@ -2705,11 +3485,19 @@
         <v>1750</v>
       </c>
       <c r="E97">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F97" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750</v>
+      </c>
+      <c r="G97" t="str">
+        <f t="shared" si="8"/>
+        <v>"RepeatDamageMinValue10000":1750</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
         <v>141</v>
       </c>
@@ -2717,11 +3505,19 @@
         <v>250000</v>
       </c>
       <c r="E98">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F98" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000</v>
+      </c>
+      <c r="G98" t="str">
+        <f t="shared" si="8"/>
+        <v>"GoldRewardIconLargeBase":250000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
         <v>142</v>
       </c>
@@ -2729,11 +3525,19 @@
         <v>105000</v>
       </c>
       <c r="E99">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F99" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000</v>
+      </c>
+      <c r="G99" t="str">
+        <f t="shared" si="8"/>
+        <v>"GoldRewardIconMediumBase":105000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
         <v>143</v>
       </c>
@@ -2741,11 +3545,19 @@
         <v>160</v>
       </c>
       <c r="E100">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F100" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160</v>
+      </c>
+      <c r="G100" t="str">
+        <f t="shared" si="8"/>
+        <v>"DiaRewardIconLargeBase":160</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
         <v>144</v>
       </c>
@@ -2753,11 +3565,19 @@
         <v>55</v>
       </c>
       <c r="E101">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F101" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55</v>
+      </c>
+      <c r="G101" t="str">
+        <f t="shared" si="8"/>
+        <v>"DiaRewardIconMediumBase":55</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
         <v>145</v>
       </c>
@@ -2765,11 +3585,19 @@
         <v>520</v>
       </c>
       <c r="E102">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F102" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520</v>
+      </c>
+      <c r="G102" t="str">
+        <f t="shared" si="8"/>
+        <v>"EnergyRewardIconLargeBase":520</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
         <v>146</v>
       </c>
@@ -2777,11 +3605,19 @@
         <v>180</v>
       </c>
       <c r="E103">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F103" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180</v>
+      </c>
+      <c r="G103" t="str">
+        <f t="shared" si="8"/>
+        <v>"EnergyRewardIconMediumBase":180</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
         <v>153</v>
       </c>
@@ -2789,11 +3625,19 @@
         <v>1</v>
       </c>
       <c r="E104">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F104" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1</v>
+      </c>
+      <c r="G104" t="str">
+        <f t="shared" si="8"/>
+        <v>"RobotDefenseOn":1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" t="s">
         <v>154</v>
       </c>
@@ -2801,11 +3645,19 @@
         <v>1</v>
       </c>
       <c r="E105">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F105" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1</v>
+      </c>
+      <c r="G105" t="str">
+        <f t="shared" si="8"/>
+        <v>"RobotDefenseDailyCount":1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" s="1" t="s">
         <v>155</v>
       </c>
@@ -2816,8 +3668,16 @@
         <v>15</v>
       </c>
       <c r="E106">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F106" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15</v>
+      </c>
+      <c r="G106" t="str">
+        <f t="shared" si="8"/>
+        <v>"EventpointEnergy10":15</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017B622E-D5A6-443A-B623-7254E4BCD7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFFBC9F-A115-41A2-91F5-7FAC0307188D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="159">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -824,6 +824,10 @@
   </si>
   <si>
     <t>Jason화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RobotDefenseStageId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1246,11 +1250,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:I106"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1395,7 +1399,7 @@
         <f ca="1">"{"&amp;
 IF(LEFT(OFFSET(F1,COUNTA(F:F)-1,0),1)=",",SUBSTITUTE(OFFSET(F1,COUNTA(F:F)-1,0),",","",1),OFFSET(F1,COUNTA(F:F)-1,0))
 &amp;"}"</f>
-        <v>{"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15}</v>
+        <v>{"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100}</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3013,7 +3017,7 @@
         <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500</v>
       </c>
       <c r="G76" t="str">
-        <f t="shared" ref="G76:G106" si="8">""""&amp;A76&amp;""":"&amp;D76</f>
+        <f t="shared" ref="G76:G107" si="8">""""&amp;A76&amp;""":"&amp;D76</f>
         <v>"BossBattleRegenDelay100":500</v>
       </c>
     </row>
@@ -3678,6 +3682,26 @@
       <c r="G106" t="str">
         <f t="shared" si="8"/>
         <v>"EventpointEnergy10":15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" t="s">
+        <v>158</v>
+      </c>
+      <c r="D107">
+        <v>90100</v>
+      </c>
+      <c r="E107">
+        <f t="shared" ref="E107" si="9">COUNTIF(A:A,A107)</f>
+        <v>1</v>
+      </c>
+      <c r="F107" t="str">
+        <f t="shared" ref="F107" ca="1" si="10">IF(ROW()=2,G107,OFFSET(F107,-1,0)&amp;IF(LEN(G107)=0,"",","&amp;G107))</f>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100</v>
+      </c>
+      <c r="G107" t="str">
+        <f t="shared" si="8"/>
+        <v>"RobotDefenseStageId":90100</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFFBC9F-A115-41A2-91F5-7FAC0307188D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8293B28C-5F02-43FF-B154-AE9AF18BF7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="166">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -828,6 +828,32 @@
   </si>
   <si>
     <t>RobotDefenseStageId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxRobotDefense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>robotDefMx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RobotDefenseTimeSec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RobotDefenseStandardHpMin</t>
+  </si>
+  <si>
+    <t>RobotDefenseStandardHpMax</t>
+  </si>
+  <si>
+    <t>RobotDefenseCountUpRequired</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxDroneAtkLevel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1250,11 +1276,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:I107"/>
+  <dimension ref="A1:I113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1399,7 +1425,7 @@
         <f ca="1">"{"&amp;
 IF(LEFT(OFFSET(F1,COUNTA(F:F)-1,0),1)=",",SUBSTITUTE(OFFSET(F1,COUNTA(F:F)-1,0),",","",1),OFFSET(F1,COUNTA(F:F)-1,0))
 &amp;"}"</f>
-        <v>{"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100}</v>
+        <v>{"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100,"RobotDefenseStandardHpMax":5000000,"RobotDefenseCountUpRequired":10,"MaxDroneAtkLevel":200}</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3017,7 +3043,7 @@
         <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500</v>
       </c>
       <c r="G76" t="str">
-        <f t="shared" ref="G76:G107" si="8">""""&amp;A76&amp;""":"&amp;D76</f>
+        <f t="shared" ref="G76:G113" si="8">""""&amp;A76&amp;""":"&amp;D76</f>
         <v>"BossBattleRegenDelay100":500</v>
       </c>
     </row>
@@ -3692,16 +3718,142 @@
         <v>90100</v>
       </c>
       <c r="E107">
-        <f t="shared" ref="E107" si="9">COUNTIF(A:A,A107)</f>
+        <f t="shared" ref="E107:E109" si="9">COUNTIF(A:A,A107)</f>
         <v>1</v>
       </c>
       <c r="F107" t="str">
-        <f t="shared" ref="F107" ca="1" si="10">IF(ROW()=2,G107,OFFSET(F107,-1,0)&amp;IF(LEN(G107)=0,"",","&amp;G107))</f>
+        <f t="shared" ref="F107:F109" ca="1" si="10">IF(ROW()=2,G107,OFFSET(F107,-1,0)&amp;IF(LEN(G107)=0,"",","&amp;G107))</f>
         <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100</v>
       </c>
       <c r="G107" t="str">
         <f t="shared" si="8"/>
         <v>"RobotDefenseStageId":90100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" t="s">
+        <v>159</v>
+      </c>
+      <c r="B108" t="s">
+        <v>160</v>
+      </c>
+      <c r="D108">
+        <v>6</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="F108" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6</v>
+      </c>
+      <c r="G108" t="str">
+        <f t="shared" si="8"/>
+        <v>"MaxRobotDefense":6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" t="s">
+        <v>161</v>
+      </c>
+      <c r="D109">
+        <v>300</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="F109" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300</v>
+      </c>
+      <c r="G109" t="str">
+        <f t="shared" si="8"/>
+        <v>"RobotDefenseTimeSec":300</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" t="s">
+        <v>162</v>
+      </c>
+      <c r="D110">
+        <v>100</v>
+      </c>
+      <c r="E110">
+        <f t="shared" ref="E110:E113" si="11">COUNTIF(A:A,A110)</f>
+        <v>1</v>
+      </c>
+      <c r="F110" t="str">
+        <f t="shared" ref="F110:F113" ca="1" si="12">IF(ROW()=2,G110,OFFSET(F110,-1,0)&amp;IF(LEN(G110)=0,"",","&amp;G110))</f>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100</v>
+      </c>
+      <c r="G110" t="str">
+        <f t="shared" si="8"/>
+        <v>"RobotDefenseStandardHpMin":100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" t="s">
+        <v>163</v>
+      </c>
+      <c r="D111">
+        <v>5000000</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F111" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100,"RobotDefenseStandardHpMax":5000000</v>
+      </c>
+      <c r="G111" t="str">
+        <f t="shared" si="8"/>
+        <v>"RobotDefenseStandardHpMax":5000000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" t="s">
+        <v>164</v>
+      </c>
+      <c r="B112" t="s">
+        <v>49</v>
+      </c>
+      <c r="D112">
+        <v>10</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F112" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100,"RobotDefenseStandardHpMax":5000000,"RobotDefenseCountUpRequired":10</v>
+      </c>
+      <c r="G112" t="str">
+        <f t="shared" si="8"/>
+        <v>"RobotDefenseCountUpRequired":10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" t="s">
+        <v>165</v>
+      </c>
+      <c r="D113">
+        <v>200</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F113" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100,"RobotDefenseStandardHpMax":5000000,"RobotDefenseCountUpRequired":10,"MaxDroneAtkLevel":200</v>
+      </c>
+      <c r="G113" t="str">
+        <f t="shared" si="8"/>
+        <v>"MaxDroneAtkLevel":200</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8293B28C-5F02-43FF-B154-AE9AF18BF7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4A98EB-9731-491C-8CDA-DC131EA0EFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="167">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -854,6 +854,10 @@
   </si>
   <si>
     <t>MaxDroneAtkLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RobotDefenseMoveSpeedRate100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1276,11 +1280,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:I113"/>
+  <dimension ref="A1:I114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A113" sqref="A113"/>
+      <selection pane="bottomLeft" activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1425,7 +1429,7 @@
         <f ca="1">"{"&amp;
 IF(LEFT(OFFSET(F1,COUNTA(F:F)-1,0),1)=",",SUBSTITUTE(OFFSET(F1,COUNTA(F:F)-1,0),",","",1),OFFSET(F1,COUNTA(F:F)-1,0))
 &amp;"}"</f>
-        <v>{"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100,"RobotDefenseStandardHpMax":5000000,"RobotDefenseCountUpRequired":10,"MaxDroneAtkLevel":200}</v>
+        <v>{"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100,"RobotDefenseStandardHpMax":5000000,"RobotDefenseCountUpRequired":10,"MaxDroneAtkLevel":200,"RobotDefenseMoveSpeedRate100":66}</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3043,7 +3047,7 @@
         <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500</v>
       </c>
       <c r="G76" t="str">
-        <f t="shared" ref="G76:G113" si="8">""""&amp;A76&amp;""":"&amp;D76</f>
+        <f t="shared" ref="G76:G114" si="8">""""&amp;A76&amp;""":"&amp;D76</f>
         <v>"BossBattleRegenDelay100":500</v>
       </c>
     </row>
@@ -3781,11 +3785,11 @@
         <v>100</v>
       </c>
       <c r="E110">
-        <f t="shared" ref="E110:E113" si="11">COUNTIF(A:A,A110)</f>
+        <f t="shared" ref="E110:E114" si="11">COUNTIF(A:A,A110)</f>
         <v>1</v>
       </c>
       <c r="F110" t="str">
-        <f t="shared" ref="F110:F113" ca="1" si="12">IF(ROW()=2,G110,OFFSET(F110,-1,0)&amp;IF(LEN(G110)=0,"",","&amp;G110))</f>
+        <f t="shared" ref="F110:F114" ca="1" si="12">IF(ROW()=2,G110,OFFSET(F110,-1,0)&amp;IF(LEN(G110)=0,"",","&amp;G110))</f>
         <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100</v>
       </c>
       <c r="G110" t="str">
@@ -3854,6 +3858,26 @@
       <c r="G113" t="str">
         <f t="shared" si="8"/>
         <v>"MaxDroneAtkLevel":200</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" t="s">
+        <v>166</v>
+      </c>
+      <c r="D114">
+        <v>66</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F114" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100,"RobotDefenseStandardHpMax":5000000,"RobotDefenseCountUpRequired":10,"MaxDroneAtkLevel":200,"RobotDefenseMoveSpeedRate100":66</v>
+      </c>
+      <c r="G114" t="str">
+        <f t="shared" si="8"/>
+        <v>"RobotDefenseMoveSpeedRate100":66</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4A98EB-9731-491C-8CDA-DC131EA0EFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1338047-0715-418F-8C20-A71F119AA581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -1283,7 +1283,7 @@
   <dimension ref="A1:I114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
@@ -1429,7 +1429,7 @@
         <f ca="1">"{"&amp;
 IF(LEFT(OFFSET(F1,COUNTA(F:F)-1,0),1)=",",SUBSTITUTE(OFFSET(F1,COUNTA(F:F)-1,0),",","",1),OFFSET(F1,COUNTA(F:F)-1,0))
 &amp;"}"</f>
-        <v>{"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100,"RobotDefenseStandardHpMax":5000000,"RobotDefenseCountUpRequired":10,"MaxDroneAtkLevel":200,"RobotDefenseMoveSpeedRate100":66}</v>
+        <v>{"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100,"RobotDefenseStandardHpMax":5000000,"RobotDefenseCountUpRequired":10,"MaxDroneAtkLevel":200,"RobotDefenseMoveSpeedRate100":80}</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3865,7 +3865,7 @@
         <v>166</v>
       </c>
       <c r="D114">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E114">
         <f t="shared" si="11"/>
@@ -3873,11 +3873,11 @@
       </c>
       <c r="F114" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100,"RobotDefenseStandardHpMax":5000000,"RobotDefenseCountUpRequired":10,"MaxDroneAtkLevel":200,"RobotDefenseMoveSpeedRate100":66</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100,"RobotDefenseStandardHpMax":5000000,"RobotDefenseCountUpRequired":10,"MaxDroneAtkLevel":200,"RobotDefenseMoveSpeedRate100":80</v>
       </c>
       <c r="G114" t="str">
         <f t="shared" si="8"/>
-        <v>"RobotDefenseMoveSpeedRate100":66</v>
+        <v>"RobotDefenseMoveSpeedRate100":80</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1338047-0715-418F-8C20-A71F119AA581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A8D2D7-CE21-4A1D-A083-B59DA47BA822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -1283,8 +1283,8 @@
   <dimension ref="A1:I114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A114" sqref="A114"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1429,7 +1429,7 @@
         <f ca="1">"{"&amp;
 IF(LEFT(OFFSET(F1,COUNTA(F:F)-1,0),1)=",",SUBSTITUTE(OFFSET(F1,COUNTA(F:F)-1,0),",","",1),OFFSET(F1,COUNTA(F:F)-1,0))
 &amp;"}"</f>
-        <v>{"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100,"RobotDefenseStandardHpMax":5000000,"RobotDefenseCountUpRequired":10,"MaxDroneAtkLevel":200,"RobotDefenseMoveSpeedRate100":80}</v>
+        <v>{"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100,"RobotDefenseStandardHpMax":100000,"RobotDefenseCountUpRequired":10,"MaxDroneAtkLevel":200,"RobotDefenseMoveSpeedRate100":80}</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3802,7 +3802,7 @@
         <v>163</v>
       </c>
       <c r="D111">
-        <v>5000000</v>
+        <v>100000</v>
       </c>
       <c r="E111">
         <f t="shared" si="11"/>
@@ -3810,11 +3810,11 @@
       </c>
       <c r="F111" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100,"RobotDefenseStandardHpMax":5000000</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100,"RobotDefenseStandardHpMax":100000</v>
       </c>
       <c r="G111" t="str">
         <f t="shared" si="8"/>
-        <v>"RobotDefenseStandardHpMax":5000000</v>
+        <v>"RobotDefenseStandardHpMax":100000</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3833,7 +3833,7 @@
       </c>
       <c r="F112" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100,"RobotDefenseStandardHpMax":5000000,"RobotDefenseCountUpRequired":10</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100,"RobotDefenseStandardHpMax":100000,"RobotDefenseCountUpRequired":10</v>
       </c>
       <c r="G112" t="str">
         <f t="shared" si="8"/>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="F113" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100,"RobotDefenseStandardHpMax":5000000,"RobotDefenseCountUpRequired":10,"MaxDroneAtkLevel":200</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100,"RobotDefenseStandardHpMax":100000,"RobotDefenseCountUpRequired":10,"MaxDroneAtkLevel":200</v>
       </c>
       <c r="G113" t="str">
         <f t="shared" si="8"/>
@@ -3873,7 +3873,7 @@
       </c>
       <c r="F114" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100,"RobotDefenseStandardHpMax":5000000,"RobotDefenseCountUpRequired":10,"MaxDroneAtkLevel":200,"RobotDefenseMoveSpeedRate100":80</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100,"RobotDefenseStandardHpMax":100000,"RobotDefenseCountUpRequired":10,"MaxDroneAtkLevel":200,"RobotDefenseMoveSpeedRate100":80</v>
       </c>
       <c r="G114" t="str">
         <f t="shared" si="8"/>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A8D2D7-CE21-4A1D-A083-B59DA47BA822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB8AFA8-0CEB-405E-BCE0-CBD5C67B6484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -1283,8 +1283,8 @@
   <dimension ref="A1:I114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A111" sqref="A111"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1391,7 +1391,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
@@ -1399,11 +1399,11 @@
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F66" ca="1" si="1">IF(ROW()=2,G3,OFFSET(F3,-1,0)&amp;IF(LEN(G3)=0,"",","&amp;G3))</f>
-        <v>"MaxPlayerLevel":600,"MaxStage":400</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G11" si="2">""""&amp;A3&amp;""":"&amp;D3</f>
-        <v>"MaxStage":400</v>
+        <v>"MaxStage":700</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="F4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="2"/>
@@ -1429,7 +1429,7 @@
         <f ca="1">"{"&amp;
 IF(LEFT(OFFSET(F1,COUNTA(F:F)-1,0),1)=",",SUBSTITUTE(OFFSET(F1,COUNTA(F:F)-1,0),",","",1),OFFSET(F1,COUNTA(F:F)-1,0))
 &amp;"}"</f>
-        <v>{"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100,"RobotDefenseStandardHpMax":100000,"RobotDefenseCountUpRequired":10,"MaxDroneAtkLevel":200,"RobotDefenseMoveSpeedRate100":80}</v>
+        <v>{"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100,"RobotDefenseStandardHpMax":100000,"RobotDefenseCountUpRequired":10,"MaxDroneAtkLevel":200,"RobotDefenseMoveSpeedRate100":80}</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="F5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="2"/>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="F6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="2"/>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="F7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="2"/>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="F8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="2"/>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="F9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="2"/>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="F10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="2"/>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="F11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="2"/>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="F12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" ref="G12:G75" si="3">""""&amp;A12&amp;""":"&amp;D12</f>
@@ -1618,7 +1618,7 @@
       </c>
       <c r="F13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="3"/>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="F14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="3"/>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="F15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="3"/>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="F16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="3"/>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="F17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="3"/>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="F18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="3"/>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="F19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="3"/>
@@ -1770,7 +1770,7 @@
       </c>
       <c r="F20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="3"/>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="F21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="3"/>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="F22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="3"/>
@@ -1834,7 +1834,7 @@
       </c>
       <c r="F23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="3"/>
@@ -1854,7 +1854,7 @@
       </c>
       <c r="F24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="3"/>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="F25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="3"/>
@@ -1894,7 +1894,7 @@
       </c>
       <c r="F26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="3"/>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="F27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="3"/>
@@ -1943,7 +1943,7 @@
       </c>
       <c r="F28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="3"/>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="F29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="3"/>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="F30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="3"/>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="F31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="3"/>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="F32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="3"/>
@@ -2072,7 +2072,7 @@
       </c>
       <c r="F33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="3"/>
@@ -2098,7 +2098,7 @@
       </c>
       <c r="F34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="3"/>
@@ -2122,7 +2122,7 @@
       </c>
       <c r="F35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="3"/>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="F36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" si="3"/>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="F37" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" si="3"/>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="F38" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0</v>
       </c>
       <c r="G38" t="str">
         <f t="shared" si="3"/>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="F39" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="3"/>
@@ -2237,7 +2237,7 @@
       </c>
       <c r="F40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1</v>
       </c>
       <c r="G40" t="str">
         <f t="shared" si="3"/>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="F41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" si="3"/>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="F42" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" si="3"/>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="F43" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" si="3"/>
@@ -2332,7 +2332,7 @@
       </c>
       <c r="F44" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400</v>
       </c>
       <c r="G44" t="str">
         <f t="shared" si="3"/>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="F45" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="3"/>
@@ -2378,7 +2378,7 @@
       </c>
       <c r="F46" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" si="3"/>
@@ -2398,7 +2398,7 @@
       </c>
       <c r="F47" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" si="3"/>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="F48" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120</v>
       </c>
       <c r="G48" t="str">
         <f t="shared" si="3"/>
@@ -2438,7 +2438,7 @@
       </c>
       <c r="F49" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" si="3"/>
@@ -2458,7 +2458,7 @@
       </c>
       <c r="F50" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100</v>
       </c>
       <c r="G50" t="str">
         <f t="shared" si="3"/>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="F51" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" si="3"/>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="F52" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130</v>
       </c>
       <c r="G52" t="str">
         <f t="shared" si="3"/>
@@ -2524,7 +2524,7 @@
       </c>
       <c r="F53" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3</v>
       </c>
       <c r="G53" t="str">
         <f t="shared" si="3"/>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="F54" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50</v>
       </c>
       <c r="G54" t="str">
         <f t="shared" si="3"/>
@@ -2564,7 +2564,7 @@
       </c>
       <c r="F55" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40</v>
       </c>
       <c r="G55" t="str">
         <f t="shared" si="3"/>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="F56" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30</v>
       </c>
       <c r="G56" t="str">
         <f t="shared" si="3"/>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="F57" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200</v>
       </c>
       <c r="G57" t="str">
         <f t="shared" si="3"/>
@@ -2630,7 +2630,7 @@
       </c>
       <c r="F58" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1</v>
       </c>
       <c r="G58" t="str">
         <f t="shared" si="3"/>
@@ -2653,7 +2653,7 @@
       </c>
       <c r="F59" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10</v>
       </c>
       <c r="G59" t="str">
         <f t="shared" si="3"/>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="F60" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8</v>
       </c>
       <c r="G60" t="str">
         <f t="shared" si="3"/>
@@ -2699,7 +2699,7 @@
       </c>
       <c r="F61" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3</v>
       </c>
       <c r="G61" t="str">
         <f t="shared" si="3"/>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="F62" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4</v>
       </c>
       <c r="G62" t="str">
         <f t="shared" si="3"/>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="F63" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4</v>
       </c>
       <c r="G63" t="str">
         <f t="shared" si="3"/>
@@ -2768,7 +2768,7 @@
       </c>
       <c r="F64" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4</v>
       </c>
       <c r="G64" t="str">
         <f t="shared" si="3"/>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="F65" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2</v>
       </c>
       <c r="G65" t="str">
         <f t="shared" si="3"/>
@@ -2814,7 +2814,7 @@
       </c>
       <c r="F66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2</v>
       </c>
       <c r="G66" t="str">
         <f t="shared" si="3"/>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="F67" t="str">
         <f t="shared" ref="F67:F106" ca="1" si="7">IF(ROW()=2,G67,OFFSET(F67,-1,0)&amp;IF(LEN(G67)=0,"",","&amp;G67))</f>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2</v>
       </c>
       <c r="G67" t="str">
         <f t="shared" si="3"/>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="F68" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2</v>
       </c>
       <c r="G68" t="str">
         <f t="shared" si="3"/>
@@ -2883,7 +2883,7 @@
       </c>
       <c r="F69" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16</v>
       </c>
       <c r="G69" t="str">
         <f t="shared" si="3"/>
@@ -2906,7 +2906,7 @@
       </c>
       <c r="F70" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16</v>
       </c>
       <c r="G70" t="str">
         <f t="shared" si="3"/>
@@ -2929,7 +2929,7 @@
       </c>
       <c r="F71" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16</v>
       </c>
       <c r="G71" t="str">
         <f t="shared" si="3"/>
@@ -2952,7 +2952,7 @@
       </c>
       <c r="F72" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50</v>
       </c>
       <c r="G72" t="str">
         <f t="shared" si="3"/>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="F73" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15</v>
       </c>
       <c r="G73" t="str">
         <f t="shared" si="3"/>
@@ -2998,7 +2998,7 @@
       </c>
       <c r="F74" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3</v>
       </c>
       <c r="G74" t="str">
         <f t="shared" si="3"/>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="F75" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5</v>
       </c>
       <c r="G75" t="str">
         <f t="shared" si="3"/>
@@ -3044,7 +3044,7 @@
       </c>
       <c r="F76" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500</v>
       </c>
       <c r="G76" t="str">
         <f t="shared" ref="G76:G114" si="8">""""&amp;A76&amp;""":"&amp;D76</f>
@@ -3067,7 +3067,7 @@
       </c>
       <c r="F77" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120</v>
       </c>
       <c r="G77" t="str">
         <f t="shared" si="8"/>
@@ -3090,7 +3090,7 @@
       </c>
       <c r="F78" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8</v>
       </c>
       <c r="G78" t="str">
         <f t="shared" si="8"/>
@@ -3116,7 +3116,7 @@
       </c>
       <c r="F79" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7</v>
       </c>
       <c r="G79" t="str">
         <f t="shared" si="8"/>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="F80" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28</v>
       </c>
       <c r="G80" t="str">
         <f t="shared" si="8"/>
@@ -3162,7 +3162,7 @@
       </c>
       <c r="F81" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30</v>
       </c>
       <c r="G81" t="str">
         <f t="shared" si="8"/>
@@ -3185,7 +3185,7 @@
       </c>
       <c r="F82" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3</v>
       </c>
       <c r="G82" t="str">
         <f t="shared" si="8"/>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="F83" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15</v>
       </c>
       <c r="G83" t="str">
         <f t="shared" si="8"/>
@@ -3231,7 +3231,7 @@
       </c>
       <c r="F84" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9</v>
       </c>
       <c r="G84" t="str">
         <f t="shared" si="8"/>
@@ -3254,7 +3254,7 @@
       </c>
       <c r="F85" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19</v>
       </c>
       <c r="G85" t="str">
         <f t="shared" si="8"/>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="F86" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15</v>
       </c>
       <c r="G86" t="str">
         <f t="shared" si="8"/>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="F87" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12</v>
       </c>
       <c r="G87" t="str">
         <f t="shared" si="8"/>
@@ -3320,7 +3320,7 @@
       </c>
       <c r="F88" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6</v>
       </c>
       <c r="G88" t="str">
         <f t="shared" si="8"/>
@@ -3343,7 +3343,7 @@
       </c>
       <c r="F89" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30</v>
       </c>
       <c r="G89" t="str">
         <f t="shared" si="8"/>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="F90" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200</v>
       </c>
       <c r="G90" t="str">
         <f t="shared" si="8"/>
@@ -3389,7 +3389,7 @@
       </c>
       <c r="F91" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330</v>
       </c>
       <c r="G91" t="str">
         <f t="shared" si="8"/>
@@ -3412,7 +3412,7 @@
       </c>
       <c r="F92" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000</v>
       </c>
       <c r="G92" t="str">
         <f t="shared" si="8"/>
@@ -3435,7 +3435,7 @@
       </c>
       <c r="F93" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6</v>
       </c>
       <c r="G93" t="str">
         <f t="shared" si="8"/>
@@ -3458,7 +3458,7 @@
       </c>
       <c r="F94" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10</v>
       </c>
       <c r="G94" t="str">
         <f t="shared" si="8"/>
@@ -3478,7 +3478,7 @@
       </c>
       <c r="F95" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500</v>
       </c>
       <c r="G95" t="str">
         <f t="shared" si="8"/>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="F96" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7</v>
       </c>
       <c r="G96" t="str">
         <f t="shared" si="8"/>
@@ -3524,7 +3524,7 @@
       </c>
       <c r="F97" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750</v>
       </c>
       <c r="G97" t="str">
         <f t="shared" si="8"/>
@@ -3544,7 +3544,7 @@
       </c>
       <c r="F98" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000</v>
       </c>
       <c r="G98" t="str">
         <f t="shared" si="8"/>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="F99" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000</v>
       </c>
       <c r="G99" t="str">
         <f t="shared" si="8"/>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="F100" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160</v>
       </c>
       <c r="G100" t="str">
         <f t="shared" si="8"/>
@@ -3604,7 +3604,7 @@
       </c>
       <c r="F101" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55</v>
       </c>
       <c r="G101" t="str">
         <f t="shared" si="8"/>
@@ -3624,7 +3624,7 @@
       </c>
       <c r="F102" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520</v>
       </c>
       <c r="G102" t="str">
         <f t="shared" si="8"/>
@@ -3644,7 +3644,7 @@
       </c>
       <c r="F103" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180</v>
       </c>
       <c r="G103" t="str">
         <f t="shared" si="8"/>
@@ -3664,7 +3664,7 @@
       </c>
       <c r="F104" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1</v>
       </c>
       <c r="G104" t="str">
         <f t="shared" si="8"/>
@@ -3684,7 +3684,7 @@
       </c>
       <c r="F105" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1</v>
       </c>
       <c r="G105" t="str">
         <f t="shared" si="8"/>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="F106" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15</v>
       </c>
       <c r="G106" t="str">
         <f t="shared" si="8"/>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="F107" t="str">
         <f t="shared" ref="F107:F109" ca="1" si="10">IF(ROW()=2,G107,OFFSET(F107,-1,0)&amp;IF(LEN(G107)=0,"",","&amp;G107))</f>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100</v>
       </c>
       <c r="G107" t="str">
         <f t="shared" si="8"/>
@@ -3750,7 +3750,7 @@
       </c>
       <c r="F108" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6</v>
       </c>
       <c r="G108" t="str">
         <f t="shared" si="8"/>
@@ -3770,7 +3770,7 @@
       </c>
       <c r="F109" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300</v>
       </c>
       <c r="G109" t="str">
         <f t="shared" si="8"/>
@@ -3790,7 +3790,7 @@
       </c>
       <c r="F110" t="str">
         <f t="shared" ref="F110:F114" ca="1" si="12">IF(ROW()=2,G110,OFFSET(F110,-1,0)&amp;IF(LEN(G110)=0,"",","&amp;G110))</f>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100</v>
       </c>
       <c r="G110" t="str">
         <f t="shared" si="8"/>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="F111" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100,"RobotDefenseStandardHpMax":100000</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100,"RobotDefenseStandardHpMax":100000</v>
       </c>
       <c r="G111" t="str">
         <f t="shared" si="8"/>
@@ -3833,7 +3833,7 @@
       </c>
       <c r="F112" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100,"RobotDefenseStandardHpMax":100000,"RobotDefenseCountUpRequired":10</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100,"RobotDefenseStandardHpMax":100000,"RobotDefenseCountUpRequired":10</v>
       </c>
       <c r="G112" t="str">
         <f t="shared" si="8"/>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="F113" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100,"RobotDefenseStandardHpMax":100000,"RobotDefenseCountUpRequired":10,"MaxDroneAtkLevel":200</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100,"RobotDefenseStandardHpMax":100000,"RobotDefenseCountUpRequired":10,"MaxDroneAtkLevel":200</v>
       </c>
       <c r="G113" t="str">
         <f t="shared" si="8"/>
@@ -3873,7 +3873,7 @@
       </c>
       <c r="F114" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":400,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100,"RobotDefenseStandardHpMax":100000,"RobotDefenseCountUpRequired":10,"MaxDroneAtkLevel":200,"RobotDefenseMoveSpeedRate100":80</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100,"RobotDefenseStandardHpMax":100000,"RobotDefenseCountUpRequired":10,"MaxDroneAtkLevel":200,"RobotDefenseMoveSpeedRate100":80</v>
       </c>
       <c r="G114" t="str">
         <f t="shared" si="8"/>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB8AFA8-0CEB-405E-BCE0-CBD5C67B6484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3982F1C-1D23-4966-ADF1-CC99AAC91996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -1284,7 +1284,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1380,7 +1380,7 @@
 A97&amp;""":"&amp;VLOOKUP(A97,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)&amp;","""&amp;
 A106&amp;""":"&amp;VLOOKUP(A106,$A:$D,MATCH($D$1,$A$1:$D$1,0),0)
 &amp;"}"</f>
-        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":240,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"MaxPetCountStep":9,"FortuneWheelGolden":10,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"AnalysisBoostRate":3,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"InvincibleTime10":6,"TrapDamage10":10,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"EventpointEnergy10":15}</v>
+        <v>{"MaxPlayerLevel":600,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"FirstGoldBox":240,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"MaxPetCountStep":9,"FortuneWheelGolden":10,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"AnalysisBoostRate":3,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"InvincibleTime10":6,"TrapDamage10":10,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750,"EventpointEnergy10":15}</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1429,7 +1429,7 @@
         <f ca="1">"{"&amp;
 IF(LEFT(OFFSET(F1,COUNTA(F:F)-1,0),1)=",",SUBSTITUTE(OFFSET(F1,COUNTA(F:F)-1,0),",","",1),OFFSET(F1,COUNTA(F:F)-1,0))
 &amp;"}"</f>
-        <v>{"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100,"RobotDefenseStandardHpMax":100000,"RobotDefenseCountUpRequired":10,"MaxDroneAtkLevel":200,"RobotDefenseMoveSpeedRate100":80}</v>
+        <v>{"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100,"RobotDefenseStandardHpMax":100000,"RobotDefenseCountUpRequired":10,"MaxDroneAtkLevel":200,"RobotDefenseMoveSpeedRate100":80}</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3493,7 +3493,7 @@
         <v>4</v>
       </c>
       <c r="D96">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E96">
         <f t="shared" si="6"/>
@@ -3501,11 +3501,11 @@
       </c>
       <c r="F96" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":5</v>
       </c>
       <c r="G96" t="str">
         <f t="shared" si="8"/>
-        <v>"SubQuestGoldDoubleDiamond":7</v>
+        <v>"SubQuestGoldDoubleDiamond":5</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3524,7 +3524,7 @@
       </c>
       <c r="F97" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750</v>
       </c>
       <c r="G97" t="str">
         <f t="shared" si="8"/>
@@ -3544,7 +3544,7 @@
       </c>
       <c r="F98" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000</v>
       </c>
       <c r="G98" t="str">
         <f t="shared" si="8"/>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="F99" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000</v>
       </c>
       <c r="G99" t="str">
         <f t="shared" si="8"/>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="F100" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160</v>
       </c>
       <c r="G100" t="str">
         <f t="shared" si="8"/>
@@ -3604,7 +3604,7 @@
       </c>
       <c r="F101" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55</v>
       </c>
       <c r="G101" t="str">
         <f t="shared" si="8"/>
@@ -3624,7 +3624,7 @@
       </c>
       <c r="F102" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520</v>
       </c>
       <c r="G102" t="str">
         <f t="shared" si="8"/>
@@ -3644,7 +3644,7 @@
       </c>
       <c r="F103" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180</v>
       </c>
       <c r="G103" t="str">
         <f t="shared" si="8"/>
@@ -3664,7 +3664,7 @@
       </c>
       <c r="F104" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1</v>
       </c>
       <c r="G104" t="str">
         <f t="shared" si="8"/>
@@ -3684,7 +3684,7 @@
       </c>
       <c r="F105" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1</v>
       </c>
       <c r="G105" t="str">
         <f t="shared" si="8"/>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="F106" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15</v>
       </c>
       <c r="G106" t="str">
         <f t="shared" si="8"/>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="F107" t="str">
         <f t="shared" ref="F107:F109" ca="1" si="10">IF(ROW()=2,G107,OFFSET(F107,-1,0)&amp;IF(LEN(G107)=0,"",","&amp;G107))</f>
-        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100</v>
       </c>
       <c r="G107" t="str">
         <f t="shared" si="8"/>
@@ -3750,7 +3750,7 @@
       </c>
       <c r="F108" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6</v>
       </c>
       <c r="G108" t="str">
         <f t="shared" si="8"/>
@@ -3770,7 +3770,7 @@
       </c>
       <c r="F109" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300</v>
       </c>
       <c r="G109" t="str">
         <f t="shared" si="8"/>
@@ -3790,7 +3790,7 @@
       </c>
       <c r="F110" t="str">
         <f t="shared" ref="F110:F114" ca="1" si="12">IF(ROW()=2,G110,OFFSET(F110,-1,0)&amp;IF(LEN(G110)=0,"",","&amp;G110))</f>
-        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100</v>
       </c>
       <c r="G110" t="str">
         <f t="shared" si="8"/>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="F111" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100,"RobotDefenseStandardHpMax":100000</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100,"RobotDefenseStandardHpMax":100000</v>
       </c>
       <c r="G111" t="str">
         <f t="shared" si="8"/>
@@ -3833,7 +3833,7 @@
       </c>
       <c r="F112" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100,"RobotDefenseStandardHpMax":100000,"RobotDefenseCountUpRequired":10</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100,"RobotDefenseStandardHpMax":100000,"RobotDefenseCountUpRequired":10</v>
       </c>
       <c r="G112" t="str">
         <f t="shared" si="8"/>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="F113" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100,"RobotDefenseStandardHpMax":100000,"RobotDefenseCountUpRequired":10,"MaxDroneAtkLevel":200</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100,"RobotDefenseStandardHpMax":100000,"RobotDefenseCountUpRequired":10,"MaxDroneAtkLevel":200</v>
       </c>
       <c r="G113" t="str">
         <f t="shared" si="8"/>
@@ -3873,7 +3873,7 @@
       </c>
       <c r="F114" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":7,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100,"RobotDefenseStandardHpMax":100000,"RobotDefenseCountUpRequired":10,"MaxDroneAtkLevel":200,"RobotDefenseMoveSpeedRate100":80</v>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100,"RobotDefenseStandardHpMax":100000,"RobotDefenseCountUpRequired":10,"MaxDroneAtkLevel":200,"RobotDefenseMoveSpeedRate100":80</v>
       </c>
       <c r="G114" t="str">
         <f t="shared" si="8"/>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3982F1C-1D23-4966-ADF1-CC99AAC91996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA284BAA-05D6-4B1E-9CC7-4A595657A5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstantIntTable" sheetId="1" r:id="rId1"/>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="168">
   <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -858,6 +858,10 @@
   </si>
   <si>
     <t>RobotDefenseMoveSpeedRate100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RobotDefenseCoolSec</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1280,11 +1284,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C72B16-CF81-4C26-8BA7-B1D9340B4242}">
-  <dimension ref="A1:I114"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1336,7 +1340,7 @@
         <v>600</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E33" si="0">COUNTIF(A:A,A2)</f>
+        <f>COUNTIF(A:A,A2)</f>
         <v>1</v>
       </c>
       <c r="F2" t="str">
@@ -1394,15 +1398,15 @@
         <v>700</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A3)</f>
         <v>1</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F66" ca="1" si="1">IF(ROW()=2,G3,OFFSET(F3,-1,0)&amp;IF(LEN(G3)=0,"",","&amp;G3))</f>
+        <f t="shared" ref="F3:F66" ca="1" si="0">IF(ROW()=2,G3,OFFSET(F3,-1,0)&amp;IF(LEN(G3)=0,"",","&amp;G3))</f>
         <v>"MaxPlayerLevel":600,"MaxStage":700</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G11" si="2">""""&amp;A3&amp;""":"&amp;D3</f>
+        <f t="shared" ref="G3:G11" si="1">""""&amp;A3&amp;""":"&amp;D3</f>
         <v>"MaxStage":700</v>
       </c>
     </row>
@@ -1414,22 +1418,22 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A4)</f>
         <v>1</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>"MaxActorLevel":20</v>
       </c>
       <c r="I4" t="str">
         <f ca="1">"{"&amp;
 IF(LEFT(OFFSET(F1,COUNTA(F:F)-1,0),1)=",",SUBSTITUTE(OFFSET(F1,COUNTA(F:F)-1,0),",","",1),OFFSET(F1,COUNTA(F:F)-1,0))
 &amp;"}"</f>
-        <v>{"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100,"RobotDefenseStandardHpMax":100000,"RobotDefenseCountUpRequired":10,"MaxDroneAtkLevel":200,"RobotDefenseMoveSpeedRate100":80}</v>
+        <v>{"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":3,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100,"RobotDefenseStandardHpMax":100000,"RobotDefenseCountUpRequired":10,"MaxDroneAtkLevel":200,"RobotDefenseMoveSpeedRate100":80,"RobotDefenseCoolSec":3600}</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1441,15 +1445,15 @@
         <v>192</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A5)</f>
         <v>1</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>"TimeSecToGetOneEnergy":192</v>
       </c>
     </row>
@@ -1461,15 +1465,15 @@
         <v>960</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A6)</f>
         <v>1</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>"TimeSecToGetOneTicket":960</v>
       </c>
     </row>
@@ -1481,15 +1485,15 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A7)</f>
         <v>1</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>"SubLevelFightValueLine1":1</v>
       </c>
     </row>
@@ -1501,15 +1505,15 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A8)</f>
         <v>1</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>"SubLevelFightValueLine2":2</v>
       </c>
     </row>
@@ -1521,15 +1525,15 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A9)</f>
         <v>1</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>"SubLevelFightValueLine3":3</v>
       </c>
     </row>
@@ -1544,15 +1548,15 @@
         <v>10</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A10)</f>
         <v>1</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>"GachaEnergy":10</v>
       </c>
     </row>
@@ -1567,15 +1571,15 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A11)</f>
         <v>1</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>"Gacha1Event":1</v>
       </c>
     </row>
@@ -1590,15 +1594,15 @@
         <v>2</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A12)</f>
         <v>1</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" ref="G12:G75" si="3">""""&amp;A12&amp;""":"&amp;D12</f>
+        <f t="shared" ref="G12:G75" si="2">""""&amp;A12&amp;""":"&amp;D12</f>
         <v>"Gacha2Events":2</v>
       </c>
     </row>
@@ -1613,15 +1617,15 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A13)</f>
         <v>1</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"Gacha3Events":5</v>
       </c>
     </row>
@@ -1636,15 +1640,15 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A14)</f>
         <v>1</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"Gacha1BrokenEnergy":1</v>
       </c>
     </row>
@@ -1659,15 +1663,15 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A15)</f>
         <v>1</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"Gacha2BrokenEnergys":2</v>
       </c>
     </row>
@@ -1682,15 +1686,15 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A16)</f>
         <v>1</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"Gacha3BrokenEnergys":3</v>
       </c>
     </row>
@@ -1702,15 +1706,15 @@
         <v>90</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A17)</f>
         <v>1</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"SummonWeightThreshold100":90</v>
       </c>
     </row>
@@ -1722,15 +1726,15 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A18)</f>
         <v>1</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"GoldBoxTurnMin":1</v>
       </c>
     </row>
@@ -1742,15 +1746,15 @@
         <v>50</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A19)</f>
         <v>1</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"GoldBoxTurnMax":50</v>
       </c>
     </row>
@@ -1765,15 +1769,15 @@
         <v>240</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A20)</f>
         <v>1</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"FirstGoldBox":240</v>
       </c>
     </row>
@@ -1788,15 +1792,15 @@
         <v>1500</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A21)</f>
         <v>1</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"MaxAnalysisLevel":1500</v>
       </c>
     </row>
@@ -1808,15 +1812,15 @@
         <v>1750</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A22)</f>
         <v>1</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"MaxGuideQuestId":1750</v>
       </c>
     </row>
@@ -1829,15 +1833,15 @@
         <v>259200</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A23)</f>
         <v>1</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"MaxBrokenGivenTime":259200</v>
       </c>
     </row>
@@ -1849,15 +1853,15 @@
         <v>5</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A24)</f>
         <v>1</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"MaxBrokenStep":5</v>
       </c>
     </row>
@@ -1869,15 +1873,15 @@
         <v>1000</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A25)</f>
         <v>1</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"MaxTotalSpellLevel":1000</v>
       </c>
     </row>
@@ -1889,15 +1893,15 @@
         <v>5</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A26)</f>
         <v>1</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"GachaActorMaxTrp":5</v>
       </c>
     </row>
@@ -1912,15 +1916,15 @@
         <v>10</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A27)</f>
         <v>1</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"FastClearJumpStep":10</v>
       </c>
     </row>
@@ -1938,15 +1942,15 @@
         <v>17</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A28)</f>
         <v>1</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"FastBossClearStartBase":17</v>
       </c>
     </row>
@@ -1964,15 +1968,15 @@
         <v>30</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A29)</f>
         <v>1</v>
       </c>
       <c r="F29" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"FastBossClearEndBase":30</v>
       </c>
     </row>
@@ -1990,15 +1994,15 @@
         <v>300</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A30)</f>
         <v>1</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"FastBossClearRateLimit10000":300</v>
       </c>
     </row>
@@ -2016,15 +2020,15 @@
         <v>50</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A31)</f>
         <v>1</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"FastBossClearLowBase":50</v>
       </c>
     </row>
@@ -2042,15 +2046,15 @@
         <v>9</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A32)</f>
         <v>1</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"MaxPetCountStep":9</v>
       </c>
     </row>
@@ -2067,15 +2071,15 @@
         <v>1209600</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A33)</f>
         <v>1</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"TeamPassGivenTime":1209600</v>
       </c>
     </row>
@@ -2093,15 +2097,15 @@
         <v>3</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34:E53" si="4">COUNTIF(A:A,A34)</f>
+        <f>COUNTIF(A:A,A34)</f>
         <v>1</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"PetDailySearchCount":3</v>
       </c>
     </row>
@@ -2117,15 +2121,15 @@
         <v>2419200</v>
       </c>
       <c r="E35">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(A:A,A35)</f>
         <v>1</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"PetPassGivenTime":2419200</v>
       </c>
     </row>
@@ -2140,15 +2144,15 @@
         <v>25</v>
       </c>
       <c r="E36">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(A:A,A36)</f>
         <v>1</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"PetExtraChance":25</v>
       </c>
     </row>
@@ -2163,15 +2167,15 @@
         <v>95</v>
       </c>
       <c r="E37">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(A:A,A37)</f>
         <v>1</v>
       </c>
       <c r="F37" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95</v>
       </c>
       <c r="G37" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"PetPassExtraChance":95</v>
       </c>
     </row>
@@ -2186,15 +2190,15 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(A:A,A38)</f>
         <v>1</v>
       </c>
       <c r="F38" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0</v>
       </c>
       <c r="G38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"PetExtraGain":0</v>
       </c>
     </row>
@@ -2209,15 +2213,15 @@
         <v>60</v>
       </c>
       <c r="E39">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(A:A,A39)</f>
         <v>1</v>
       </c>
       <c r="F39" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"PetPassExtraGain":60</v>
       </c>
     </row>
@@ -2232,15 +2236,15 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(A:A,A40)</f>
         <v>1</v>
       </c>
       <c r="F40" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1</v>
       </c>
       <c r="G40" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"PetExtraGainMin":1</v>
       </c>
     </row>
@@ -2252,15 +2256,15 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(A:A,A41)</f>
         <v>1</v>
       </c>
       <c r="F41" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3</v>
       </c>
       <c r="G41" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"PetExtraGainMax":3</v>
       </c>
     </row>
@@ -2278,15 +2282,15 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(A:A,A42)</f>
         <v>1</v>
       </c>
       <c r="F42" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3</v>
       </c>
       <c r="G42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"PetHeartCount":3</v>
       </c>
     </row>
@@ -2304,15 +2308,15 @@
         <v>10</v>
       </c>
       <c r="E43">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(A:A,A43)</f>
         <v>1</v>
       </c>
       <c r="F43" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10</v>
       </c>
       <c r="G43" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"PetPassHeartCount":10</v>
       </c>
     </row>
@@ -2327,15 +2331,15 @@
         <v>86400</v>
       </c>
       <c r="E44">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(A:A,A44)</f>
         <v>1</v>
       </c>
       <c r="F44" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400</v>
       </c>
       <c r="G44" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"PetSaleGivenTime":86400</v>
       </c>
     </row>
@@ -2350,15 +2354,15 @@
         <v>172800</v>
       </c>
       <c r="E45">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(A:A,A45)</f>
         <v>1</v>
       </c>
       <c r="F45" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800</v>
       </c>
       <c r="G45" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"PetSaleCoolTime":172800</v>
       </c>
     </row>
@@ -2373,15 +2377,15 @@
         <v>140</v>
       </c>
       <c r="E46">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(A:A,A46)</f>
         <v>1</v>
       </c>
       <c r="F46" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140</v>
       </c>
       <c r="G46" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"Pet1StarAttackRate100":140</v>
       </c>
     </row>
@@ -2393,15 +2397,15 @@
         <v>130</v>
       </c>
       <c r="E47">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(A:A,A47)</f>
         <v>1</v>
       </c>
       <c r="F47" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130</v>
       </c>
       <c r="G47" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"Pet2StarAttackRate100":130</v>
       </c>
     </row>
@@ -2413,15 +2417,15 @@
         <v>120</v>
       </c>
       <c r="E48">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(A:A,A48)</f>
         <v>1</v>
       </c>
       <c r="F48" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120</v>
       </c>
       <c r="G48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"Pet3StarAttackRate100":120</v>
       </c>
     </row>
@@ -2433,15 +2437,15 @@
         <v>110</v>
       </c>
       <c r="E49">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(A:A,A49)</f>
         <v>1</v>
       </c>
       <c r="F49" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110</v>
       </c>
       <c r="G49" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"Pet4StarAttackRate100":110</v>
       </c>
     </row>
@@ -2453,15 +2457,15 @@
         <v>100</v>
       </c>
       <c r="E50">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(A:A,A50)</f>
         <v>1</v>
       </c>
       <c r="F50" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100</v>
       </c>
       <c r="G50" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"Pet5StarAttackRate100":100</v>
       </c>
     </row>
@@ -2476,15 +2480,15 @@
         <v>70</v>
       </c>
       <c r="E51">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(A:A,A51)</f>
         <v>1</v>
       </c>
       <c r="F51" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70</v>
       </c>
       <c r="G51" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"PetDamageRandomMin100":70</v>
       </c>
     </row>
@@ -2496,15 +2500,15 @@
         <v>130</v>
       </c>
       <c r="E52">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(A:A,A52)</f>
         <v>1</v>
       </c>
       <c r="F52" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130</v>
       </c>
       <c r="G52" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"PetDamageRandomMax100":130</v>
       </c>
     </row>
@@ -2519,15 +2523,15 @@
         <v>3</v>
       </c>
       <c r="E53">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(A:A,A53)</f>
         <v>1</v>
       </c>
       <c r="F53" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3</v>
       </c>
       <c r="G53" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"PetStarDiff100":3</v>
       </c>
     </row>
@@ -2539,15 +2543,15 @@
         <v>50</v>
       </c>
       <c r="E54">
-        <f t="shared" ref="E54:E56" si="5">COUNTIF(A:A,A54)</f>
+        <f>COUNTIF(A:A,A54)</f>
         <v>1</v>
       </c>
       <c r="F54" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50</v>
       </c>
       <c r="G54" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"PetBattle01Time10":50</v>
       </c>
     </row>
@@ -2559,15 +2563,15 @@
         <v>40</v>
       </c>
       <c r="E55">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A55)</f>
         <v>1</v>
       </c>
       <c r="F55" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40</v>
       </c>
       <c r="G55" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"PetBattle02Time10":40</v>
       </c>
     </row>
@@ -2579,15 +2583,15 @@
         <v>30</v>
       </c>
       <c r="E56">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A56)</f>
         <v>1</v>
       </c>
       <c r="F56" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30</v>
       </c>
       <c r="G56" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"PetBattle03Time10":30</v>
       </c>
     </row>
@@ -2602,15 +2606,15 @@
         <v>200</v>
       </c>
       <c r="E57">
-        <f t="shared" ref="E57:E106" si="6">COUNTIF(A:A,A57)</f>
+        <f>COUNTIF(A:A,A57)</f>
         <v>1</v>
       </c>
       <c r="F57" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200</v>
       </c>
       <c r="G57" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"DownloadEnergyReward":200</v>
       </c>
     </row>
@@ -2625,15 +2629,15 @@
         <v>1</v>
       </c>
       <c r="E58">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A58)</f>
         <v>1</v>
       </c>
       <c r="F58" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1</v>
       </c>
       <c r="G58" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"FortuneWheelDailyCount":1</v>
       </c>
     </row>
@@ -2648,15 +2652,15 @@
         <v>10</v>
       </c>
       <c r="E59">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A59)</f>
         <v>1</v>
       </c>
       <c r="F59" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10</v>
       </c>
       <c r="G59" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"FortuneWheelGolden":10</v>
       </c>
     </row>
@@ -2671,15 +2675,15 @@
         <v>8</v>
       </c>
       <c r="E60">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A60)</f>
         <v>1</v>
       </c>
       <c r="F60" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8</v>
       </c>
       <c r="G60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"MissionEnergyPet":8</v>
       </c>
     </row>
@@ -2694,15 +2698,15 @@
         <v>3</v>
       </c>
       <c r="E61">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A61)</f>
         <v>1</v>
       </c>
       <c r="F61" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3</v>
       </c>
       <c r="G61" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"MissionEnergyRoulette":3</v>
       </c>
     </row>
@@ -2717,15 +2721,15 @@
         <v>4</v>
       </c>
       <c r="E62">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A62)</f>
         <v>1</v>
       </c>
       <c r="F62" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4</v>
       </c>
       <c r="G62" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"MissionEnergyRushDefense":4</v>
       </c>
     </row>
@@ -2740,15 +2744,15 @@
         <v>4</v>
       </c>
       <c r="E63">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A63)</f>
         <v>1</v>
       </c>
       <c r="F63" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4</v>
       </c>
       <c r="G63" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"MissionEnergyBossDefense":4</v>
       </c>
     </row>
@@ -2763,15 +2767,15 @@
         <v>4</v>
       </c>
       <c r="E64">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A64)</f>
         <v>1</v>
       </c>
       <c r="F64" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4</v>
       </c>
       <c r="G64" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"MissionEnergyGoldDefense":4</v>
       </c>
     </row>
@@ -2786,15 +2790,15 @@
         <v>2</v>
       </c>
       <c r="E65">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A65)</f>
         <v>1</v>
       </c>
       <c r="F65" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2</v>
       </c>
       <c r="G65" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"MissionEnergyBossBattle":2</v>
       </c>
     </row>
@@ -2809,15 +2813,15 @@
         <v>2</v>
       </c>
       <c r="E66">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A66)</f>
         <v>1</v>
       </c>
       <c r="F66" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2</v>
       </c>
       <c r="G66" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"RushDefenseDailyCount":2</v>
       </c>
     </row>
@@ -2832,15 +2836,15 @@
         <v>2</v>
       </c>
       <c r="E67">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A67)</f>
         <v>1</v>
       </c>
       <c r="F67" t="str">
-        <f t="shared" ref="F67:F106" ca="1" si="7">IF(ROW()=2,G67,OFFSET(F67,-1,0)&amp;IF(LEN(G67)=0,"",","&amp;G67))</f>
+        <f t="shared" ref="F67:F106" ca="1" si="3">IF(ROW()=2,G67,OFFSET(F67,-1,0)&amp;IF(LEN(G67)=0,"",","&amp;G67))</f>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2</v>
       </c>
       <c r="G67" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"BossDefenseDailyCount":2</v>
       </c>
     </row>
@@ -2855,15 +2859,15 @@
         <v>2</v>
       </c>
       <c r="E68">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A68)</f>
         <v>1</v>
       </c>
       <c r="F68" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="3"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2</v>
       </c>
       <c r="G68" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"GoldDefenseDailyCount":2</v>
       </c>
     </row>
@@ -2878,15 +2882,15 @@
         <v>16</v>
       </c>
       <c r="E69">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A69)</f>
         <v>1</v>
       </c>
       <c r="F69" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="3"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16</v>
       </c>
       <c r="G69" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"MaxRushDefense":16</v>
       </c>
     </row>
@@ -2901,15 +2905,15 @@
         <v>16</v>
       </c>
       <c r="E70">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A70)</f>
         <v>1</v>
       </c>
       <c r="F70" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="3"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16</v>
       </c>
       <c r="G70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"MaxBossDefense":16</v>
       </c>
     </row>
@@ -2924,15 +2928,15 @@
         <v>16</v>
       </c>
       <c r="E71">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A71)</f>
         <v>1</v>
       </c>
       <c r="F71" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="3"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16</v>
       </c>
       <c r="G71" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"MaxGoldDefense":16</v>
       </c>
     </row>
@@ -2947,15 +2951,15 @@
         <v>50</v>
       </c>
       <c r="E72">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A72)</f>
         <v>1</v>
       </c>
       <c r="F72" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="3"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50</v>
       </c>
       <c r="G72" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"MaxBossBattleXpLevel":50</v>
       </c>
     </row>
@@ -2970,15 +2974,15 @@
         <v>15</v>
       </c>
       <c r="E73">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A73)</f>
         <v>1</v>
       </c>
       <c r="F73" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="3"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15</v>
       </c>
       <c r="G73" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"MaxBossBattle":15</v>
       </c>
     </row>
@@ -2993,15 +2997,15 @@
         <v>3</v>
       </c>
       <c r="E74">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A74)</f>
         <v>1</v>
       </c>
       <c r="F74" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="3"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3</v>
       </c>
       <c r="G74" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"BossBattleDailyCount":3</v>
       </c>
     </row>
@@ -3016,15 +3020,15 @@
         <v>5</v>
       </c>
       <c r="E75">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A75)</f>
         <v>1</v>
       </c>
       <c r="F75" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="3"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5</v>
       </c>
       <c r="G75" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>"BossBattleDailyBonusTimes":5</v>
       </c>
     </row>
@@ -3039,15 +3043,15 @@
         <v>500</v>
       </c>
       <c r="E76">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A76)</f>
         <v>1</v>
       </c>
       <c r="F76" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="3"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500</v>
       </c>
       <c r="G76" t="str">
-        <f t="shared" ref="G76:G114" si="8">""""&amp;A76&amp;""":"&amp;D76</f>
+        <f t="shared" ref="G76:G115" si="4">""""&amp;A76&amp;""":"&amp;D76</f>
         <v>"BossBattleRegenDelay100":500</v>
       </c>
     </row>
@@ -3062,15 +3066,15 @@
         <v>120</v>
       </c>
       <c r="E77">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A77)</f>
         <v>1</v>
       </c>
       <c r="F77" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="3"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120</v>
       </c>
       <c r="G77" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>"BossBattleRegenTickDelay100":120</v>
       </c>
     </row>
@@ -3085,15 +3089,15 @@
         <v>8</v>
       </c>
       <c r="E78">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A78)</f>
         <v>1</v>
       </c>
       <c r="F78" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="3"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8</v>
       </c>
       <c r="G78" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>"BossBattleRegenHpRatio100":8</v>
       </c>
     </row>
@@ -3111,15 +3115,15 @@
         <v>7</v>
       </c>
       <c r="E79">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A79)</f>
         <v>1</v>
       </c>
       <c r="F79" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="3"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7</v>
       </c>
       <c r="G79" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>"BossBattleXpLevelBonus100":7</v>
       </c>
     </row>
@@ -3134,15 +3138,15 @@
         <v>28</v>
       </c>
       <c r="E80">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A80)</f>
         <v>1</v>
       </c>
       <c r="F80" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="3"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28</v>
       </c>
       <c r="G80" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>"MaxBossBattleDifficulty":28</v>
       </c>
     </row>
@@ -3157,15 +3161,15 @@
         <v>30</v>
       </c>
       <c r="E81">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A81)</f>
         <v>1</v>
       </c>
       <c r="F81" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="3"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30</v>
       </c>
       <c r="G81" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>"DailyGemAmount":30</v>
       </c>
     </row>
@@ -3180,15 +3184,15 @@
         <v>3</v>
       </c>
       <c r="E82">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A82)</f>
         <v>1</v>
       </c>
       <c r="F82" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="3"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3</v>
       </c>
       <c r="G82" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>"AnalysisBoostRate":3</v>
       </c>
     </row>
@@ -3203,15 +3207,15 @@
         <v>15</v>
       </c>
       <c r="E83">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A83)</f>
         <v>1</v>
       </c>
       <c r="F83" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="3"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15</v>
       </c>
       <c r="G83" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>"Ev13CountLimit":15</v>
       </c>
     </row>
@@ -3226,15 +3230,15 @@
         <v>9</v>
       </c>
       <c r="E84">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A84)</f>
         <v>1</v>
       </c>
       <c r="F84" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="3"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9</v>
       </c>
       <c r="G84" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>"Ev14CountLimit":9</v>
       </c>
     </row>
@@ -3249,15 +3253,15 @@
         <v>19</v>
       </c>
       <c r="E85">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A85)</f>
         <v>1</v>
       </c>
       <c r="F85" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="3"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19</v>
       </c>
       <c r="G85" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>"Ev15CountLimit":19</v>
       </c>
     </row>
@@ -3272,15 +3276,15 @@
         <v>15</v>
       </c>
       <c r="E86">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A86)</f>
         <v>1</v>
       </c>
       <c r="F86" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="3"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15</v>
       </c>
       <c r="G86" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>"Ev16CountLimit":15</v>
       </c>
     </row>
@@ -3295,15 +3299,15 @@
         <v>12</v>
       </c>
       <c r="E87">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A87)</f>
         <v>1</v>
       </c>
       <c r="F87" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="3"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12</v>
       </c>
       <c r="G87" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>"Ev17CountLimit":12</v>
       </c>
     </row>
@@ -3315,15 +3319,15 @@
         <v>6</v>
       </c>
       <c r="E88">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A88)</f>
         <v>1</v>
       </c>
       <c r="F88" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="3"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6</v>
       </c>
       <c r="G88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>"BoostEnergyDivide":6</v>
       </c>
     </row>
@@ -3338,15 +3342,15 @@
         <v>30</v>
       </c>
       <c r="E89">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A89)</f>
         <v>1</v>
       </c>
       <c r="F89" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="3"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30</v>
       </c>
       <c r="G89" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>"AttendanceEarlyEnergy":30</v>
       </c>
     </row>
@@ -3361,15 +3365,15 @@
         <v>1200</v>
       </c>
       <c r="E90">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A90)</f>
         <v>1</v>
       </c>
       <c r="F90" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="3"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200</v>
       </c>
       <c r="G90" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>"MinimumStrikeDamageRate10000":1200</v>
       </c>
     </row>
@@ -3384,15 +3388,15 @@
         <v>3330</v>
       </c>
       <c r="E91">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A91)</f>
         <v>1</v>
       </c>
       <c r="F91" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="3"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330</v>
       </c>
       <c r="G91" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>"MaximumStrikeDamageRate10000":3330</v>
       </c>
     </row>
@@ -3407,15 +3411,15 @@
         <v>10000</v>
       </c>
       <c r="E92">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A92)</f>
         <v>1</v>
       </c>
       <c r="F92" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="3"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000</v>
       </c>
       <c r="G92" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>"BossBattleRefreshPrice":10000</v>
       </c>
     </row>
@@ -3430,15 +3434,15 @@
         <v>6</v>
       </c>
       <c r="E93">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A93)</f>
         <v>1</v>
       </c>
       <c r="F93" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="3"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6</v>
       </c>
       <c r="G93" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>"InvincibleTime10":6</v>
       </c>
     </row>
@@ -3453,15 +3457,15 @@
         <v>10</v>
       </c>
       <c r="E94">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A94)</f>
         <v>1</v>
       </c>
       <c r="F94" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="3"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10</v>
       </c>
       <c r="G94" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>"TrapDamage10":10</v>
       </c>
     </row>
@@ -3473,15 +3477,15 @@
         <v>500</v>
       </c>
       <c r="E95">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A95)</f>
         <v>1</v>
       </c>
       <c r="F95" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="3"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500</v>
       </c>
       <c r="G95" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>"MaxPointShopAttackLevel":500</v>
       </c>
     </row>
@@ -3496,15 +3500,15 @@
         <v>5</v>
       </c>
       <c r="E96">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A96)</f>
         <v>1</v>
       </c>
       <c r="F96" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="3"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":5</v>
       </c>
       <c r="G96" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>"SubQuestGoldDoubleDiamond":5</v>
       </c>
     </row>
@@ -3519,15 +3523,15 @@
         <v>1750</v>
       </c>
       <c r="E97">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A97)</f>
         <v>1</v>
       </c>
       <c r="F97" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="3"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750</v>
       </c>
       <c r="G97" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>"RepeatDamageMinValue10000":1750</v>
       </c>
     </row>
@@ -3539,15 +3543,15 @@
         <v>250000</v>
       </c>
       <c r="E98">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A98)</f>
         <v>1</v>
       </c>
       <c r="F98" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="3"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000</v>
       </c>
       <c r="G98" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>"GoldRewardIconLargeBase":250000</v>
       </c>
     </row>
@@ -3559,15 +3563,15 @@
         <v>105000</v>
       </c>
       <c r="E99">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A99)</f>
         <v>1</v>
       </c>
       <c r="F99" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="3"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000</v>
       </c>
       <c r="G99" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>"GoldRewardIconMediumBase":105000</v>
       </c>
     </row>
@@ -3579,15 +3583,15 @@
         <v>160</v>
       </c>
       <c r="E100">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A100)</f>
         <v>1</v>
       </c>
       <c r="F100" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="3"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160</v>
       </c>
       <c r="G100" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>"DiaRewardIconLargeBase":160</v>
       </c>
     </row>
@@ -3599,15 +3603,15 @@
         <v>55</v>
       </c>
       <c r="E101">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A101)</f>
         <v>1</v>
       </c>
       <c r="F101" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="3"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55</v>
       </c>
       <c r="G101" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>"DiaRewardIconMediumBase":55</v>
       </c>
     </row>
@@ -3619,15 +3623,15 @@
         <v>520</v>
       </c>
       <c r="E102">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A102)</f>
         <v>1</v>
       </c>
       <c r="F102" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="3"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520</v>
       </c>
       <c r="G102" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>"EnergyRewardIconLargeBase":520</v>
       </c>
     </row>
@@ -3639,15 +3643,15 @@
         <v>180</v>
       </c>
       <c r="E103">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A103)</f>
         <v>1</v>
       </c>
       <c r="F103" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="3"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180</v>
       </c>
       <c r="G103" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>"EnergyRewardIconMediumBase":180</v>
       </c>
     </row>
@@ -3659,15 +3663,15 @@
         <v>1</v>
       </c>
       <c r="E104">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A104)</f>
         <v>1</v>
       </c>
       <c r="F104" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="3"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1</v>
       </c>
       <c r="G104" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>"RobotDefenseOn":1</v>
       </c>
     </row>
@@ -3676,19 +3680,19 @@
         <v>154</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E105">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A105)</f>
         <v>1</v>
       </c>
       <c r="F105" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":3</v>
       </c>
       <c r="G105" t="str">
-        <f t="shared" si="8"/>
-        <v>"RobotDefenseDailyCount":1</v>
+        <f t="shared" si="4"/>
+        <v>"RobotDefenseDailyCount":3</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3702,15 +3706,15 @@
         <v>15</v>
       </c>
       <c r="E106">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A106)</f>
         <v>1</v>
       </c>
       <c r="F106" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":3,"EventpointEnergy10":15</v>
       </c>
       <c r="G106" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>"EventpointEnergy10":15</v>
       </c>
     </row>
@@ -3722,15 +3726,15 @@
         <v>90100</v>
       </c>
       <c r="E107">
-        <f t="shared" ref="E107:E109" si="9">COUNTIF(A:A,A107)</f>
+        <f>COUNTIF(A:A,A107)</f>
         <v>1</v>
       </c>
       <c r="F107" t="str">
-        <f t="shared" ref="F107:F109" ca="1" si="10">IF(ROW()=2,G107,OFFSET(F107,-1,0)&amp;IF(LEN(G107)=0,"",","&amp;G107))</f>
-        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100</v>
+        <f t="shared" ref="F107:F109" ca="1" si="5">IF(ROW()=2,G107,OFFSET(F107,-1,0)&amp;IF(LEN(G107)=0,"",","&amp;G107))</f>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":3,"EventpointEnergy10":15,"RobotDefenseStageId":90100</v>
       </c>
       <c r="G107" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>"RobotDefenseStageId":90100</v>
       </c>
     </row>
@@ -3745,15 +3749,15 @@
         <v>6</v>
       </c>
       <c r="E108">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A108)</f>
         <v>1</v>
       </c>
       <c r="F108" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":3,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6</v>
       </c>
       <c r="G108" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>"MaxRobotDefense":6</v>
       </c>
     </row>
@@ -3765,15 +3769,15 @@
         <v>300</v>
       </c>
       <c r="E109">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A109)</f>
         <v>1</v>
       </c>
       <c r="F109" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":3,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300</v>
       </c>
       <c r="G109" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>"RobotDefenseTimeSec":300</v>
       </c>
     </row>
@@ -3785,15 +3789,15 @@
         <v>100</v>
       </c>
       <c r="E110">
-        <f t="shared" ref="E110:E114" si="11">COUNTIF(A:A,A110)</f>
+        <f>COUNTIF(A:A,A110)</f>
         <v>1</v>
       </c>
       <c r="F110" t="str">
-        <f t="shared" ref="F110:F114" ca="1" si="12">IF(ROW()=2,G110,OFFSET(F110,-1,0)&amp;IF(LEN(G110)=0,"",","&amp;G110))</f>
-        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100</v>
+        <f t="shared" ref="F110:F115" ca="1" si="6">IF(ROW()=2,G110,OFFSET(F110,-1,0)&amp;IF(LEN(G110)=0,"",","&amp;G110))</f>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":3,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100</v>
       </c>
       <c r="G110" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>"RobotDefenseStandardHpMin":100</v>
       </c>
     </row>
@@ -3805,15 +3809,15 @@
         <v>100000</v>
       </c>
       <c r="E111">
-        <f t="shared" si="11"/>
+        <f>COUNTIF(A:A,A111)</f>
         <v>1</v>
       </c>
       <c r="F111" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100,"RobotDefenseStandardHpMax":100000</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":3,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100,"RobotDefenseStandardHpMax":100000</v>
       </c>
       <c r="G111" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>"RobotDefenseStandardHpMax":100000</v>
       </c>
     </row>
@@ -3828,15 +3832,15 @@
         <v>10</v>
       </c>
       <c r="E112">
-        <f t="shared" si="11"/>
+        <f>COUNTIF(A:A,A112)</f>
         <v>1</v>
       </c>
       <c r="F112" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100,"RobotDefenseStandardHpMax":100000,"RobotDefenseCountUpRequired":10</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":3,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100,"RobotDefenseStandardHpMax":100000,"RobotDefenseCountUpRequired":10</v>
       </c>
       <c r="G112" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>"RobotDefenseCountUpRequired":10</v>
       </c>
     </row>
@@ -3848,15 +3852,15 @@
         <v>200</v>
       </c>
       <c r="E113">
-        <f t="shared" si="11"/>
+        <f>COUNTIF(A:A,A113)</f>
         <v>1</v>
       </c>
       <c r="F113" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100,"RobotDefenseStandardHpMax":100000,"RobotDefenseCountUpRequired":10,"MaxDroneAtkLevel":200</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":3,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100,"RobotDefenseStandardHpMax":100000,"RobotDefenseCountUpRequired":10,"MaxDroneAtkLevel":200</v>
       </c>
       <c r="G113" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>"MaxDroneAtkLevel":200</v>
       </c>
     </row>
@@ -3868,16 +3872,36 @@
         <v>80</v>
       </c>
       <c r="E114">
-        <f t="shared" si="11"/>
+        <f>COUNTIF(A:A,A114)</f>
         <v>1</v>
       </c>
       <c r="F114" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":1,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100,"RobotDefenseStandardHpMax":100000,"RobotDefenseCountUpRequired":10,"MaxDroneAtkLevel":200,"RobotDefenseMoveSpeedRate100":80</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":3,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100,"RobotDefenseStandardHpMax":100000,"RobotDefenseCountUpRequired":10,"MaxDroneAtkLevel":200,"RobotDefenseMoveSpeedRate100":80</v>
       </c>
       <c r="G114" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>"RobotDefenseMoveSpeedRate100":80</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" t="s">
+        <v>167</v>
+      </c>
+      <c r="D115">
+        <v>3600</v>
+      </c>
+      <c r="E115">
+        <f>COUNTIF(A:A,A115)</f>
+        <v>1</v>
+      </c>
+      <c r="F115" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"PetExtraGain":0,"PetPassExtraGain":60,"PetExtraGainMin":1,"PetExtraGainMax":3,"PetHeartCount":3,"PetPassHeartCount":10,"PetSaleGivenTime":86400,"PetSaleCoolTime":172800,"Pet1StarAttackRate100":140,"Pet2StarAttackRate100":130,"Pet3StarAttackRate100":120,"Pet4StarAttackRate100":110,"Pet5StarAttackRate100":100,"PetDamageRandomMin100":70,"PetDamageRandomMax100":130,"PetStarDiff100":3,"PetBattle01Time10":50,"PetBattle02Time10":40,"PetBattle03Time10":30,"DownloadEnergyReward":200,"FortuneWheelDailyCount":1,"FortuneWheelGolden":10,"MissionEnergyPet":8,"MissionEnergyRoulette":3,"MissionEnergyRushDefense":4,"MissionEnergyBossDefense":4,"MissionEnergyGoldDefense":4,"MissionEnergyBossBattle":2,"RushDefenseDailyCount":2,"BossDefenseDailyCount":2,"GoldDefenseDailyCount":2,"MaxRushDefense":16,"MaxBossDefense":16,"MaxGoldDefense":16,"MaxBossBattleXpLevel":50,"MaxBossBattle":15,"BossBattleDailyCount":3,"BossBattleDailyBonusTimes":5,"BossBattleRegenDelay100":500,"BossBattleRegenTickDelay100":120,"BossBattleRegenHpRatio100":8,"BossBattleXpLevelBonus100":7,"MaxBossBattleDifficulty":28,"DailyGemAmount":30,"AnalysisBoostRate":3,"Ev13CountLimit":15,"Ev14CountLimit":9,"Ev15CountLimit":19,"Ev16CountLimit":15,"Ev17CountLimit":12,"BoostEnergyDivide":6,"AttendanceEarlyEnergy":30,"MinimumStrikeDamageRate10000":1200,"MaximumStrikeDamageRate10000":3330,"BossBattleRefreshPrice":10000,"InvincibleTime10":6,"TrapDamage10":10,"MaxPointShopAttackLevel":500,"SubQuestGoldDoubleDiamond":5,"RepeatDamageMinValue10000":1750,"GoldRewardIconLargeBase":250000,"GoldRewardIconMediumBase":105000,"DiaRewardIconLargeBase":160,"DiaRewardIconMediumBase":55,"EnergyRewardIconLargeBase":520,"EnergyRewardIconMediumBase":180,"RobotDefenseOn":1,"RobotDefenseDailyCount":3,"EventpointEnergy10":15,"RobotDefenseStageId":90100,"MaxRobotDefense":6,"RobotDefenseTimeSec":300,"RobotDefenseStandardHpMin":100,"RobotDefenseStandardHpMax":100000,"RobotDefenseCountUpRequired":10,"MaxDroneAtkLevel":200,"RobotDefenseMoveSpeedRate100":80,"RobotDefenseCoolSec":3600</v>
+      </c>
+      <c r="G115" t="str">
+        <f t="shared" si="4"/>
+        <v>"RobotDefenseCoolSec":3600</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업GlobalConstant.xlsx
+++ b/Excel/작업GlobalConstant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA284BAA-05D6-4B1E-9CC7-4A595657A5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7033DD5C-A685-4416-98B0-8D0FEFAA66A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F874783-01A2-4946-995B-F8FF59817AB6}"/>
   </bookViews>
@@ -1288,7 +1288,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1340,7 +1340,7 @@
         <v>600</v>
       </c>
       <c r="E2">
-        <f>COUNTIF(A:A,A2)</f>
+        <f t="shared" ref="E2:E33" si="0">COUNTIF(A:A,A2)</f>
         <v>1</v>
       </c>
       <c r="F2" t="str">
@@ -1398,15 +1398,15 @@
         <v>700</v>
       </c>
       <c r="E3">
-        <f>COUNTIF(A:A,A3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F66" ca="1" si="0">IF(ROW()=2,G3,OFFSET(F3,-1,0)&amp;IF(LEN(G3)=0,"",","&amp;G3))</f>
+        <f t="shared" ref="F3:F66" ca="1" si="1">IF(ROW()=2,G3,OFFSET(F3,-1,0)&amp;IF(LEN(G3)=0,"",","&amp;G3))</f>
         <v>"MaxPlayerLevel":600,"MaxStage":700</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G11" si="1">""""&amp;A3&amp;""":"&amp;D3</f>
+        <f t="shared" ref="G3:G11" si="2">""""&amp;A3&amp;""":"&amp;D3</f>
         <v>"MaxStage":700</v>
       </c>
     </row>
@@ -1418,22 +1418,22 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <f>COUNTIF(A:A,A4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>"MaxActorLevel":20</v>
       </c>
       <c r="I4" t="str">
         <f ca="1">"{"&amp;
 IF(LEFT(OFFSET(F1,COUNTA(F:F)-1,0),1)=",",SUBSTITUTE(OFFSET(F1,COUNTA(F:F)-1,0),",","",1),OFFSET(F1,COUNTA(F:F)-1,0))
 &amp;"}"</f>
-        <v>{"MaxPlayerLevel":600,"MaxStage":700,"MaxActorLevel":20,"TimeSecToGetOneEnergy":192,"TimeSecToGetOneTicket":960,"SubLevelFightValueLine1":1,"SubLevelFightValueLine2":2,"SubLevelFightValueLine3":3,"GachaEnergy":10,"Gacha1Event":1,"Gacha2Events":2,"Gacha3Events":5,"Gacha1BrokenEnergy":1,"Gacha2BrokenEnergys":2,"Gacha3BrokenEnergys":3,"SummonWeightThreshold100":90,"GoldBoxTurnMin":1,"GoldBoxTurnMax":50,"FirstGoldBox":240,"MaxAnalysisLevel":1500,"MaxGuideQuestId":1750,"MaxBrokenGivenTime":259200,"MaxBrokenStep":5,"MaxTotalSpellLevel":1000,"GachaActorMaxTrp":5,"FastClearJumpStep":10,"FastBossClearStartBase":17,"FastBossClearEndBase":30,"FastBossClearRateLimit10000":300,"FastBossClearLowBase":50,"MaxPetCountStep":9,"TeamPassGivenTime":1209600,"PetDailySearchCount":3,"PetPassGivenTime":2419200,"PetExtraChance":25,"PetPassExtraChance":95,"Pe